--- a/data/TR/results/All_Long_Solutions.xlsx
+++ b/data/TR/results/All_Long_Solutions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9470" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11137" uniqueCount="36">
   <si>
     <t>Filename</t>
   </si>
@@ -127,13 +127,208 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="220">
+  <fonts count="259">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1271,7 +1466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="439">
+  <cellXfs count="517">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -1998,6 +2193,136 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -2020,11 +2345,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2890625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="22.7734375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.35546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.36328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="435">
+      <c r="A1" t="s" s="513">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2032,7 +2357,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="435">
+      <c r="A2" t="s" s="513">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -2040,7 +2365,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="435">
+      <c r="A3" t="s" s="513">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2048,7 +2373,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="435">
+      <c r="A4" t="s" s="513">
         <v>6</v>
       </c>
       <c r="B4" t="n">
@@ -2056,22 +2381,22 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="435">
+      <c r="A5" t="s" s="513">
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="435">
+      <c r="A6" t="s" s="513">
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="7">
@@ -2090,17 +2415,17 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>2250.0</v>
+        <v>2057.0</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="433">
+      <c r="A9" t="s" s="511">
         <v>31</v>
       </c>
-      <c r="B9" t="s" s="433">
+      <c r="B9" t="s" s="511">
         <v>34</v>
       </c>
     </row>
@@ -2109,19 +2434,19 @@
     <row r="12"/>
     <row r="13"/>
     <row r="14">
-      <c r="A14" t="s" s="433">
+      <c r="A14" t="s" s="511">
         <v>10</v>
       </c>
       <c r="B14" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C14" t="s" s="433">
+      <c r="C14" t="s" s="511">
         <v>11</v>
       </c>
       <c r="D14" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E14" t="s" s="433">
+      <c r="E14" t="s" s="511">
         <v>12</v>
       </c>
       <c r="F14" t="n">
@@ -2129,37 +2454,37 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="433">
+      <c r="A15" t="s" s="511">
         <v>13</v>
       </c>
-      <c r="B15" t="n" s="433">
+      <c r="B15" t="n" s="511">
         <v>0.0</v>
       </c>
-      <c r="C15" t="s" s="433">
+      <c r="C15" t="s" s="511">
         <v>14</v>
       </c>
-      <c r="D15" t="n" s="434">
+      <c r="D15" t="n" s="512">
         <v>-1.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="433">
+      <c r="A16" t="s" s="511">
         <v>15</v>
       </c>
-      <c r="B16" t="n" s="434">
-        <v>6.831668376922607</v>
-      </c>
-      <c r="C16" t="s" s="433">
+      <c r="B16" t="n" s="512">
+        <v>4.609101295471191</v>
+      </c>
+      <c r="C16" t="s" s="511">
         <v>26</v>
       </c>
-      <c r="D16" t="n" s="434">
-        <v>443.0</v>
-      </c>
-      <c r="E16" t="s" s="433">
+      <c r="D16" t="n" s="512">
+        <v>350.0</v>
+      </c>
+      <c r="E16" t="s" s="511">
         <v>16</v>
       </c>
-      <c r="F16" t="n" s="434">
-        <v>6.831668376922607</v>
+      <c r="F16" t="n" s="512">
+        <v>4.609101295471191</v>
       </c>
     </row>
     <row r="17"/>
@@ -2205,199 +2530,199 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>32.0</v>
+        <v>44.0</v>
       </c>
       <c r="B20" t="n">
         <v>2.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04200505092740059</v>
+        <v>0.2931596636772156</v>
       </c>
       <c r="D20" t="n">
-        <v>327.95984276979493</v>
+        <v>40.41874969392586</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04200505092740059</v>
+        <v>0.2931596636772156</v>
       </c>
       <c r="F20" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>34.0</v>
+        <v>49.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4929746091365814</v>
+        <v>0.4147675037384033</v>
       </c>
       <c r="D21" t="n">
-        <v>305.6842274554833</v>
+        <v>47.84357597109522</v>
       </c>
       <c r="E21" t="n">
-        <v>0.45410019159317017</v>
+        <v>0.129132941365242</v>
       </c>
       <c r="F21" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>13.0</v>
+        <v>57.0</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.1177265644073486</v>
+        <v>0.559756338596344</v>
       </c>
       <c r="D22" t="n">
-        <v>288.53035885041345</v>
+        <v>51.36500124043221</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6735409498214722</v>
+        <v>0.14805088937282562</v>
       </c>
       <c r="F22" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11.0</v>
+        <v>50.0</v>
       </c>
       <c r="B23" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.279657006263733</v>
+        <v>0.4411461353302002</v>
       </c>
       <c r="D23" t="n">
-        <v>291.648841688336</v>
+        <v>36.77637793627173</v>
       </c>
       <c r="E23" t="n">
-        <v>0.17964953184127808</v>
+        <v>0.1697424352169037</v>
       </c>
       <c r="F23" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="B24" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.2688837051391602</v>
+        <v>0.40551504492759705</v>
       </c>
       <c r="D24" t="n">
-        <v>292.8547267040778</v>
+        <v>320.96758832786674</v>
       </c>
       <c r="E24" t="n">
-        <v>0.033480454236269</v>
+        <v>0.43766212463378906</v>
       </c>
       <c r="F24" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>16.0</v>
+        <v>31.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.5365809202194214</v>
+        <v>0.5690993070602417</v>
       </c>
       <c r="D25" t="n">
-        <v>320.1694379625253</v>
+        <v>315.04250239551095</v>
       </c>
       <c r="E25" t="n">
-        <v>0.740107536315918</v>
+        <v>0.17018213868141174</v>
       </c>
       <c r="F25" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>19.0</v>
+        <v>30.0</v>
       </c>
       <c r="B26" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.244834303855896</v>
+        <v>0.6677214503288269</v>
       </c>
       <c r="D26" t="n">
-        <v>322.9730002146623</v>
+        <v>328.7038915916088</v>
       </c>
       <c r="E26" t="n">
-        <v>0.29834985733032227</v>
+        <v>0.16649450361728668</v>
       </c>
       <c r="F26" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="B27" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.2301167249679565</v>
+        <v>0.833429753780365</v>
       </c>
       <c r="D27" t="n">
-        <v>327.85829678790816</v>
+        <v>337.24168578127444</v>
       </c>
       <c r="E27" t="n">
-        <v>0.09499038755893707</v>
+        <v>0.19035542011260986</v>
       </c>
       <c r="F27" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.1731542348861694</v>
+        <v>0.8602044582366943</v>
       </c>
       <c r="D28" t="n">
-        <v>325.8879278727204</v>
+        <v>336.4481551373825</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06753670424222946</v>
+        <v>0.028472568839788437</v>
       </c>
       <c r="F28" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="B29" t="n">
         <v>10.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9511350989341736</v>
+        <v>0.9158056378364563</v>
       </c>
       <c r="D29" t="n">
-        <v>327.87094689466335</v>
+        <v>328.5091022172008</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2243632674217224</v>
+        <v>0.11803000420331955</v>
       </c>
       <c r="F29" t="n">
         <v>6.0</v>
@@ -2405,19 +2730,19 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="B30" t="n">
         <v>10.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8602044582366943</v>
+        <v>0.9511350989341736</v>
       </c>
       <c r="D30" t="n">
-        <v>336.4481551373825</v>
+        <v>327.87094689466335</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1465173065662384</v>
+        <v>0.03647772595286369</v>
       </c>
       <c r="F30" t="n">
         <v>6.0</v>
@@ -2425,39 +2750,39 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="B31" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.833429753780365</v>
+        <v>1.244834303855896</v>
       </c>
       <c r="D31" t="n">
-        <v>337.24168578127444</v>
+        <v>322.9730002146623</v>
       </c>
       <c r="E31" t="n">
-        <v>0.028472568839788437</v>
+        <v>0.3051948845386505</v>
       </c>
       <c r="F31" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>27.0</v>
+        <v>18.0</v>
       </c>
       <c r="B32" t="n">
         <v>10.0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9158056378364563</v>
+        <v>1.073432445526123</v>
       </c>
       <c r="D32" t="n">
-        <v>328.5091022172008</v>
+        <v>313.35364528534683</v>
       </c>
       <c r="E32" t="n">
-        <v>0.13939817249774933</v>
+        <v>0.25050246715545654</v>
       </c>
       <c r="F32" t="n">
         <v>6.0</v>
@@ -2465,79 +2790,79 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="B33" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="C33" t="n">
-        <v>1.073432445526123</v>
+        <v>1.279657006263733</v>
       </c>
       <c r="D33" t="n">
-        <v>313.35364528534683</v>
+        <v>291.648841688336</v>
       </c>
       <c r="E33" t="n">
-        <v>0.288409024477005</v>
+        <v>0.5210234522819519</v>
       </c>
       <c r="F33" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>15.0</v>
+        <v>33.0</v>
       </c>
       <c r="B34" t="n">
         <v>1.0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.1081416606903076</v>
+        <v>0.6471188068389893</v>
       </c>
       <c r="D34" t="n">
-        <v>301.3570619092555</v>
+        <v>297.3318744417029</v>
       </c>
       <c r="E34" t="n">
-        <v>0.23920954763889313</v>
+        <v>0.6412807703018188</v>
       </c>
       <c r="F34" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>14.0</v>
+        <v>34.0</v>
       </c>
       <c r="B35" t="n">
         <v>1.0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.0533623695373535</v>
+        <v>0.4929746091365814</v>
       </c>
       <c r="D35" t="n">
-        <v>297.211169284176</v>
+        <v>305.6842274554833</v>
       </c>
       <c r="E35" t="n">
-        <v>0.10288845747709274</v>
+        <v>0.1785203516483307</v>
       </c>
       <c r="F35" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17.0</v>
+        <v>4.0</v>
       </c>
       <c r="B36" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9183313250541687</v>
+        <v>0.02793951891362667</v>
       </c>
       <c r="D36" t="n">
-        <v>302.11561784507325</v>
+        <v>152.9990086308677</v>
       </c>
       <c r="E36" t="n">
-        <v>0.16437725722789764</v>
+        <v>0.5183050036430359</v>
       </c>
       <c r="F36" t="n">
         <v>1.0</v>
@@ -2545,39 +2870,39 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>33.0</v>
+        <v>5.0</v>
       </c>
       <c r="B37" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.059766702353954315</v>
+      </c>
+      <c r="D37" t="n">
+        <v>92.1100154203873</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.05461610108613968</v>
+      </c>
+      <c r="F37" t="n">
         <v>1.0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.6471188068389893</v>
-      </c>
-      <c r="D37" t="n">
-        <v>297.3318744417029</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.28039973974227905</v>
-      </c>
-      <c r="F37" t="n">
-        <v>3.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>31.0</v>
+        <v>40.0</v>
       </c>
       <c r="B38" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5690993070602417</v>
+        <v>0.10356690734624863</v>
       </c>
       <c r="D38" t="n">
-        <v>315.04250239551095</v>
+        <v>100.34802838226881</v>
       </c>
       <c r="E38" t="n">
-        <v>0.21096783876419067</v>
+        <v>0.04613868519663811</v>
       </c>
       <c r="F38" t="n">
         <v>4.0</v>
@@ -2585,590 +2910,590 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>30.0</v>
+        <v>39.0</v>
       </c>
       <c r="B39" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6677214503288269</v>
+        <v>0.12855416536331177</v>
       </c>
       <c r="D39" t="n">
-        <v>328.7038915916088</v>
+        <v>91.75133489587824</v>
       </c>
       <c r="E39" t="n">
-        <v>0.16649450361728668</v>
+        <v>0.03341617435216904</v>
       </c>
       <c r="F39" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>36.0</v>
+        <v>6.0</v>
       </c>
       <c r="B40" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.07377470284700394</v>
+      </c>
+      <c r="D40" t="n">
+        <v>78.73089693631852</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0616832971572876</v>
+      </c>
+      <c r="F40" t="n">
         <v>1.0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.40551504492759705</v>
-      </c>
-      <c r="D40" t="n">
-        <v>320.96758832786674</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.26956841349601746</v>
-      </c>
-      <c r="F40" t="n">
-        <v>6.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>42.0</v>
+        <v>7.0</v>
       </c>
       <c r="B41" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.26619550585746765</v>
+        <v>0.07495752722024918</v>
       </c>
       <c r="D41" t="n">
-        <v>337.26154080185074</v>
+        <v>54.97157757066253</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1610601395368576</v>
+        <v>0.035702068358659744</v>
       </c>
       <c r="F41" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="B42" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
       </c>
       <c r="C42" t="n">
-        <v>0.24060335755348206</v>
+        <v>0.0</v>
       </c>
       <c r="D42" t="n">
-        <v>336.1369889883139</v>
+        <v>360.0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.025917239487171173</v>
+        <v>0.07495752722024918</v>
       </c>
       <c r="F42" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="B43" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.3815269470214844</v>
-      </c>
-      <c r="D43" t="n">
-        <v>24.346632753068207</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.2430168092250824</v>
-      </c>
-      <c r="F43" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="B44" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.4411461353302002</v>
-      </c>
-      <c r="D44" t="n">
-        <v>36.77637793627173</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.09722606837749481</v>
-      </c>
-      <c r="F44" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="B45" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.4147675037384033</v>
-      </c>
-      <c r="D45" t="n">
-        <v>47.84357597109522</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.0824146419763565</v>
-      </c>
-      <c r="F45" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="B46" t="n">
+      <c r="A43" t="s" s="511">
+        <v>23</v>
+      </c>
+      <c r="B43" s="511" t="n">
+        <f>SUM(B19:B42)</f>
+        <v>108.0</v>
+      </c>
+      <c r="E43" s="511" t="n">
+        <f>SUM(E19:E42)</f>
+        <v>4.609101198613644</v>
+      </c>
+    </row>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47">
+      <c r="A47" t="s" s="511">
+        <v>10</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C47" t="s" s="511">
+        <v>11</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-80.046878</v>
+      </c>
+      <c r="E47" t="s" s="511">
+        <v>12</v>
+      </c>
+      <c r="F47" t="n">
+        <v>41.057835</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="511">
+        <v>13</v>
+      </c>
+      <c r="B48" t="n" s="511">
         <v>1.0</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.559756338596344</v>
-      </c>
-      <c r="D46" t="n">
-        <v>51.36500124043221</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.14805088937282562</v>
-      </c>
-      <c r="F46" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="B47" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.6999629139900208</v>
-      </c>
-      <c r="D47" t="n">
-        <v>55.216312802429</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.1469498574733734</v>
-      </c>
-      <c r="F47" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.3985292911529541</v>
-      </c>
-      <c r="D48" t="n">
-        <v>60.799177430562395</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.30655360221862793</v>
-      </c>
-      <c r="F48" t="n">
-        <v>3.0</v>
+      <c r="C48" t="s" s="511">
+        <v>14</v>
+      </c>
+      <c r="D48" t="n" s="512">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="B49" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.3747617304325104</v>
-      </c>
-      <c r="D49" t="n">
-        <v>68.96238883075148</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.0677696168422699</v>
-      </c>
-      <c r="F49" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="B50" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.2931596636772156</v>
-      </c>
-      <c r="D50" t="n">
-        <v>40.41874969392586</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.19104407727718353</v>
-      </c>
-      <c r="F50" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
+      <c r="A49" t="s" s="511">
+        <v>15</v>
+      </c>
+      <c r="B49" t="n" s="512">
+        <v>3.637298822402954</v>
+      </c>
+      <c r="C49" t="s" s="511">
+        <v>26</v>
+      </c>
+      <c r="D49" t="n" s="512">
+        <v>370.0</v>
+      </c>
+      <c r="E49" t="s" s="511">
+        <v>16</v>
+      </c>
+      <c r="F49" t="n" s="512">
+        <v>3.637298822402954</v>
+      </c>
+    </row>
+    <row r="50"/>
     <row r="51">
-      <c r="A51" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B51" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.08953952044248581</v>
-      </c>
-      <c r="D51" t="n">
-        <v>38.01899287739951</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.20371700823307037</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1.0</v>
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B52" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07692065089941025</v>
+        <v>0.0</v>
       </c>
       <c r="D52" t="n">
-        <v>40.247670235836324</v>
+        <v>360.0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.012963603250682354</v>
+        <v>0.0</v>
       </c>
       <c r="F52" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>42.0</v>
+        <v>46.0</v>
       </c>
       <c r="B53" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.30144205689430237</v>
+      </c>
+      <c r="D53" t="n">
+        <v>57.91367687024234</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.30144205689430237</v>
+      </c>
+      <c r="F53" t="n">
         <v>2.0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.07495752722024918</v>
-      </c>
-      <c r="D53" t="n">
-        <v>54.97157757066253</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.019395161420106888</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>40.0</v>
+        <v>49.0</v>
       </c>
       <c r="B54" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07377470284700394</v>
+        <v>0.4147675037384033</v>
       </c>
       <c r="D54" t="n">
-        <v>78.73089693631852</v>
+        <v>47.84357597109522</v>
       </c>
       <c r="E54" t="n">
-        <v>0.035702068358659744</v>
+        <v>0.13037799298763275</v>
       </c>
       <c r="F54" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>38.0</v>
+        <v>51.0</v>
       </c>
       <c r="B55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.41277188062667847</v>
+      </c>
+      <c r="D55" t="n">
+        <v>34.38996689991217</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.09090527147054672</v>
+      </c>
+      <c r="F55" t="n">
         <v>2.0</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.059766702353954315</v>
-      </c>
-      <c r="D55" t="n">
-        <v>92.1100154203873</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.024302326142787933</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>39.0</v>
+        <v>50.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.12855416536331177</v>
+        <v>0.4411461353302002</v>
       </c>
       <c r="D56" t="n">
-        <v>91.75133489587824</v>
+        <v>36.77637793627173</v>
       </c>
       <c r="E56" t="n">
-        <v>0.06879103928804398</v>
+        <v>0.03253420442342758</v>
       </c>
       <c r="F56" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>40.0</v>
+        <v>58.0</v>
       </c>
       <c r="B57" t="n">
         <v>3.0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.10356690734624863</v>
+        <v>0.5833421349525452</v>
       </c>
       <c r="D57" t="n">
-        <v>100.34802838226881</v>
+        <v>57.04422138060244</v>
       </c>
       <c r="E57" t="n">
-        <v>0.03341617435216904</v>
+        <v>0.22648894786834717</v>
       </c>
       <c r="F57" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>28.0</v>
+        <v>57.0</v>
       </c>
       <c r="B58" t="n">
         <v>1.0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0815577432513237</v>
+        <v>0.559756338596344</v>
       </c>
       <c r="D58" t="n">
-        <v>102.98458097602321</v>
+        <v>51.36500124043221</v>
       </c>
       <c r="E58" t="n">
-        <v>0.022644149139523506</v>
+        <v>0.06408242136240005</v>
       </c>
       <c r="F58" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>36.0</v>
+        <v>56.0</v>
       </c>
       <c r="B59" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.02793951891362667</v>
+        <v>0.5436442494392395</v>
       </c>
       <c r="D59" t="n">
-        <v>152.9990086308677</v>
+        <v>38.675402912069785</v>
       </c>
       <c r="E59" t="n">
-        <v>0.06796745210886002</v>
+        <v>0.11930186301469803</v>
       </c>
       <c r="F59" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B60" t="s">
-        <v>35</v>
+        <v>52.0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1.0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0</v>
+        <v>0.49632975459098816</v>
       </c>
       <c r="D60" t="n">
-        <v>360.0</v>
+        <v>26.910453096074548</v>
       </c>
       <c r="E60" t="n">
-        <v>0.02793951891362667</v>
+        <v>0.10480140894651413</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="433">
-        <v>23</v>
-      </c>
-      <c r="B61" s="433" t="n">
-        <f>SUM(B19:B60)</f>
-        <v>150.0</v>
-      </c>
-      <c r="E61" s="433" t="n">
-        <f>SUM(E19:E60)</f>
-        <v>6.831668204627931</v>
-      </c>
-    </row>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
+      <c r="A61" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.5023859739303589</v>
+      </c>
+      <c r="D61" t="n">
+        <v>19.133669139893698</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.05615795776247978</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.39102786779403687</v>
+      </c>
+      <c r="D62" t="n">
+        <v>348.9171901495747</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.21286500990390778</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.48756301403045654</v>
+      </c>
+      <c r="D63" t="n">
+        <v>345.01655380240527</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.09934674948453903</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.6677214503288269</v>
+      </c>
+      <c r="D64" t="n">
+        <v>328.7038915916088</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.22453835606575012</v>
+      </c>
+      <c r="F64" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
     <row r="65">
-      <c r="A65" t="s" s="433">
-        <v>10</v>
+      <c r="A65" t="n">
+        <v>18.0</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C65" t="s" s="433">
-        <v>11</v>
+        <v>10.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.073432445526123</v>
       </c>
       <c r="D65" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="E65" t="s" s="433">
-        <v>12</v>
+        <v>313.35364528534683</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.4563227593898773</v>
       </c>
       <c r="F65" t="n">
-        <v>41.057835</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="433">
-        <v>13</v>
-      </c>
-      <c r="B66" t="n" s="433">
-        <v>1.0</v>
-      </c>
-      <c r="C66" t="s" s="433">
-        <v>14</v>
-      </c>
-      <c r="D66" t="n" s="434">
-        <v>-1.0</v>
+      <c r="A66" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.1121973991394043</v>
+      </c>
+      <c r="D66" t="n">
+        <v>325.67713344108375</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.22226640582084656</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="433">
-        <v>15</v>
-      </c>
-      <c r="B67" t="n" s="434">
-        <v>3.637298822402954</v>
-      </c>
-      <c r="C67" t="s" s="433">
-        <v>26</v>
-      </c>
-      <c r="D67" t="n" s="434">
-        <v>370.0</v>
-      </c>
-      <c r="E67" t="s" s="433">
-        <v>16</v>
-      </c>
-      <c r="F67" t="n" s="434">
-        <v>3.637298822402954</v>
-      </c>
-    </row>
-    <row r="68"/>
+      <c r="A67" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.9836602210998535</v>
+      </c>
+      <c r="D67" t="n">
+        <v>321.8257118678917</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.1432289034128189</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.9511350989341736</v>
+      </c>
+      <c r="D68" t="n">
+        <v>327.87094689466335</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.09676468372344971</v>
+      </c>
+      <c r="F68" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
     <row r="69">
-      <c r="A69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" t="s">
-        <v>20</v>
-      </c>
-      <c r="E69" t="s">
-        <v>21</v>
-      </c>
-      <c r="F69" t="s">
-        <v>22</v>
+      <c r="A69" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.9158056378364563</v>
+      </c>
+      <c r="D69" t="n">
+        <v>328.5091022172008</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.03647772595286369</v>
+      </c>
+      <c r="F69" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B70" t="s">
-        <v>35</v>
+        <v>29.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>10.0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0</v>
+        <v>0.8602044582366943</v>
       </c>
       <c r="D70" t="n">
-        <v>360.0</v>
+        <v>336.4481551373825</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0</v>
+        <v>0.11803000420331955</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>46.0</v>
+        <v>28.0</v>
       </c>
       <c r="B71" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="C71" t="n">
-        <v>0.30144205689430237</v>
+        <v>0.833429753780365</v>
       </c>
       <c r="D71" t="n">
-        <v>57.91367687024234</v>
+        <v>337.24168578127444</v>
       </c>
       <c r="E71" t="n">
-        <v>0.30144205689430237</v>
+        <v>0.028472568839788437</v>
       </c>
       <c r="F71" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>49.0</v>
+        <v>36.0</v>
       </c>
       <c r="B72" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4147675037384033</v>
+        <v>0.40551504492759705</v>
       </c>
       <c r="D72" t="n">
-        <v>47.84357597109522</v>
+        <v>320.96758832786674</v>
       </c>
       <c r="E72" t="n">
-        <v>0.13037799298763275</v>
+        <v>0.45106178522109985</v>
       </c>
       <c r="F72" t="n">
         <v>6.0</v>
@@ -3176,19 +3501,19 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>51.0</v>
+        <v>35.0</v>
       </c>
       <c r="B73" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.41277188062667847</v>
+        <v>0.340213805437088</v>
       </c>
       <c r="D73" t="n">
-        <v>34.38996689991217</v>
+        <v>313.0213892295789</v>
       </c>
       <c r="E73" t="n">
-        <v>0.09090527147054672</v>
+        <v>0.08161762356758118</v>
       </c>
       <c r="F73" t="n">
         <v>2.0</v>
@@ -3196,279 +3521,190 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="B74" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>35</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4411461353302002</v>
+        <v>0.0</v>
       </c>
       <c r="D74" t="n">
-        <v>36.77637793627173</v>
+        <v>360.0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.03253420442342758</v>
+        <v>0.340213805437088</v>
       </c>
       <c r="F74" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="B75" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.5833421349525452</v>
-      </c>
-      <c r="D75" t="n">
-        <v>57.04422138060244</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.22648894786834717</v>
-      </c>
-      <c r="F75" t="n">
+      <c r="A75" t="s" s="511">
+        <v>23</v>
+      </c>
+      <c r="B75" s="511" t="n">
+        <f>SUM(B52:B74)</f>
+        <v>124.0</v>
+      </c>
+      <c r="E75" s="511" t="n">
+        <f>SUM(E52:E74)</f>
+        <v>3.6372985057532787</v>
+      </c>
+    </row>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79">
+      <c r="A79" t="s" s="511">
+        <v>10</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C79" t="s" s="511">
+        <v>11</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-80.046878</v>
+      </c>
+      <c r="E79" t="s" s="511">
+        <v>12</v>
+      </c>
+      <c r="F79" t="n">
+        <v>41.057835</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="511">
+        <v>13</v>
+      </c>
+      <c r="B80" t="n" s="511">
         <v>2.0</v>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="B76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.559756338596344</v>
-      </c>
-      <c r="D76" t="n">
-        <v>51.36500124043221</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.06408242136240005</v>
-      </c>
-      <c r="F76" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="B77" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.5436442494392395</v>
-      </c>
-      <c r="D77" t="n">
-        <v>38.675402912069785</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.11930186301469803</v>
-      </c>
-      <c r="F77" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.49632975459098816</v>
-      </c>
-      <c r="D78" t="n">
-        <v>26.910453096074548</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.10480140894651413</v>
-      </c>
-      <c r="F78" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="B79" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.5023859739303589</v>
-      </c>
-      <c r="D79" t="n">
-        <v>19.133669139893698</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.05615795776247978</v>
-      </c>
-      <c r="F79" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="B80" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.39102786779403687</v>
-      </c>
-      <c r="D80" t="n">
-        <v>348.9171901495747</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.21286500990390778</v>
-      </c>
-      <c r="F80" t="n">
-        <v>2.0</v>
+      <c r="C80" t="s" s="511">
+        <v>14</v>
+      </c>
+      <c r="D80" t="n" s="512">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.48756301403045654</v>
-      </c>
-      <c r="D81" t="n">
-        <v>345.01655380240527</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.09934674948453903</v>
-      </c>
-      <c r="F81" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B82" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.6677214503288269</v>
-      </c>
-      <c r="D82" t="n">
-        <v>328.7038915916088</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.22453835606575012</v>
-      </c>
-      <c r="F82" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
+      <c r="A81" t="s" s="511">
+        <v>15</v>
+      </c>
+      <c r="B81" t="n" s="512">
+        <v>3.413088321685791</v>
+      </c>
+      <c r="C81" t="s" s="511">
+        <v>26</v>
+      </c>
+      <c r="D81" t="n" s="512">
+        <v>323.0</v>
+      </c>
+      <c r="E81" t="s" s="511">
+        <v>16</v>
+      </c>
+      <c r="F81" t="n" s="512">
+        <v>3.413088321685791</v>
+      </c>
+    </row>
+    <row r="82"/>
     <row r="83">
-      <c r="A83" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="B83" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1.073432445526123</v>
-      </c>
-      <c r="D83" t="n">
-        <v>313.35364528534683</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.4563227593898773</v>
-      </c>
-      <c r="F83" t="n">
-        <v>6.0</v>
+      <c r="A83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="B84" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>35</v>
       </c>
       <c r="C84" t="n">
-        <v>1.1121973991394043</v>
+        <v>0.0</v>
       </c>
       <c r="D84" t="n">
-        <v>325.67713344108375</v>
+        <v>360.0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.22226640582084656</v>
+        <v>0.0</v>
       </c>
       <c r="F84" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
       <c r="B85" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9836602210998535</v>
+        <v>0.4929746091365814</v>
       </c>
       <c r="D85" t="n">
-        <v>321.8257118678917</v>
+        <v>305.6842274554833</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1432289034128189</v>
+        <v>0.4929746091365814</v>
       </c>
       <c r="F85" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>26.0</v>
+        <v>33.0</v>
       </c>
       <c r="B86" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9511350989341736</v>
+        <v>0.6471188068389893</v>
       </c>
       <c r="D86" t="n">
-        <v>327.87094689466335</v>
+        <v>297.3318744417029</v>
       </c>
       <c r="E86" t="n">
-        <v>0.09676468372344971</v>
+        <v>0.1785203516483307</v>
       </c>
       <c r="F86" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>27.0</v>
+        <v>18.0</v>
       </c>
       <c r="B87" t="n">
         <v>10.0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9158056378364563</v>
+        <v>1.073432445526123</v>
       </c>
       <c r="D87" t="n">
-        <v>328.5091022172008</v>
+        <v>313.35364528534683</v>
       </c>
       <c r="E87" t="n">
-        <v>0.03647772595286369</v>
+        <v>0.49173110723495483</v>
       </c>
       <c r="F87" t="n">
         <v>6.0</v>
@@ -3476,19 +3712,19 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
       <c r="B88" t="n">
         <v>10.0</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8602044582366943</v>
+        <v>0.9511350989341736</v>
       </c>
       <c r="D88" t="n">
-        <v>336.4481551373825</v>
+        <v>327.87094689466335</v>
       </c>
       <c r="E88" t="n">
-        <v>0.11803000420331955</v>
+        <v>0.26614075899124146</v>
       </c>
       <c r="F88" t="n">
         <v>6.0</v>
@@ -3496,19 +3732,19 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="B89" t="n">
         <v>10.0</v>
       </c>
       <c r="C89" t="n">
-        <v>0.833429753780365</v>
+        <v>0.9158056378364563</v>
       </c>
       <c r="D89" t="n">
-        <v>337.24168578127444</v>
+        <v>328.5091022172008</v>
       </c>
       <c r="E89" t="n">
-        <v>0.028472568839788437</v>
+        <v>0.03647772595286369</v>
       </c>
       <c r="F89" t="n">
         <v>6.0</v>
@@ -3516,19 +3752,19 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>36.0</v>
+        <v>29.0</v>
       </c>
       <c r="B90" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C90" t="n">
-        <v>0.40551504492759705</v>
+        <v>0.8602044582366943</v>
       </c>
       <c r="D90" t="n">
-        <v>320.96758832786674</v>
+        <v>336.4481551373825</v>
       </c>
       <c r="E90" t="n">
-        <v>0.45106178522109985</v>
+        <v>0.11803000420331955</v>
       </c>
       <c r="F90" t="n">
         <v>6.0</v>
@@ -3536,550 +3772,550 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>35.0</v>
+        <v>28.0</v>
       </c>
       <c r="B91" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="C91" t="n">
-        <v>0.340213805437088</v>
+        <v>0.833429753780365</v>
       </c>
       <c r="D91" t="n">
-        <v>313.0213892295789</v>
+        <v>337.24168578127444</v>
       </c>
       <c r="E91" t="n">
-        <v>0.08161762356758118</v>
+        <v>0.028472568839788437</v>
       </c>
       <c r="F91" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.6677214503288269</v>
+      </c>
+      <c r="D92" t="n">
+        <v>328.7038915916088</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.19035542011260986</v>
+      </c>
+      <c r="F92" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.5690993070602417</v>
+      </c>
+      <c r="D93" t="n">
+        <v>315.04250239551095</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.16649450361728668</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.40551504492759705</v>
+      </c>
+      <c r="D94" t="n">
+        <v>320.96758832786674</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.17018213868141174</v>
+      </c>
+      <c r="F94" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.4411461353302002</v>
+      </c>
+      <c r="D95" t="n">
+        <v>36.77637793627173</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.43766212463378906</v>
+      </c>
+      <c r="F95" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.559756338596344</v>
+      </c>
+      <c r="D96" t="n">
+        <v>51.36500124043221</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.1697424352169037</v>
+      </c>
+      <c r="F96" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.4147675037384033</v>
+      </c>
+      <c r="D97" t="n">
+        <v>47.84357597109522</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.14805088937282562</v>
+      </c>
+      <c r="F97" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.2931596636772156</v>
+      </c>
+      <c r="D98" t="n">
+        <v>40.41874969392586</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.129132941365242</v>
+      </c>
+      <c r="F98" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.12855416536331177</v>
+      </c>
+      <c r="D99" t="n">
+        <v>91.75133489587824</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.25213780999183655</v>
+      </c>
+      <c r="F99" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.10356690734624863</v>
+      </c>
+      <c r="D100" t="n">
+        <v>100.34802838226881</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.03341617435216904</v>
+      </c>
+      <c r="F100" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
         <v>0.0</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B101" t="s">
         <v>35</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C101" t="n">
         <v>0.0</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D101" t="n">
         <v>360.0</v>
       </c>
-      <c r="E92" t="n">
-        <v>0.340213805437088</v>
-      </c>
-      <c r="F92" t="n">
+      <c r="E101" t="n">
+        <v>0.10356690734624863</v>
+      </c>
+      <c r="F101" t="n">
         <v>0.0</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="s" s="433">
+    <row r="102">
+      <c r="A102" t="s" s="511">
         <v>23</v>
       </c>
-      <c r="B93" s="433" t="n">
-        <f>SUM(B70:B92)</f>
-        <v>124.0</v>
-      </c>
-      <c r="E93" s="433" t="n">
-        <f>SUM(E70:E92)</f>
-        <v>3.6372985057532787</v>
-      </c>
-    </row>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97">
-      <c r="A97" t="s" s="433">
+      <c r="B102" s="511" t="n">
+        <f>SUM(B84:B101)</f>
+        <v>97.0</v>
+      </c>
+      <c r="E102" s="511" t="n">
+        <f>SUM(E84:E101)</f>
+        <v>3.413088470697403</v>
+      </c>
+    </row>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106">
+      <c r="A106" t="s" s="511">
         <v>10</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B106" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C97" t="s" s="433">
+      <c r="C106" t="s" s="511">
         <v>11</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D106" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E97" t="s" s="433">
+      <c r="E106" t="s" s="511">
         <v>12</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F106" t="n">
         <v>41.057835</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="s" s="433">
+    <row r="107">
+      <c r="A107" t="s" s="511">
         <v>13</v>
       </c>
-      <c r="B98" t="n" s="433">
-        <v>2.0</v>
-      </c>
-      <c r="C98" t="s" s="433">
+      <c r="B107" t="n" s="511">
+        <v>3.0</v>
+      </c>
+      <c r="C107" t="s" s="511">
         <v>14</v>
       </c>
-      <c r="D98" t="n" s="434">
+      <c r="D107" t="n" s="512">
         <v>-1.0</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="s" s="433">
+    <row r="108">
+      <c r="A108" t="s" s="511">
         <v>15</v>
       </c>
-      <c r="B99" t="n" s="434">
-        <v>3.9416000843048096</v>
-      </c>
-      <c r="C99" t="s" s="433">
+      <c r="B108" t="n" s="512">
+        <v>3.637298822402954</v>
+      </c>
+      <c r="C108" t="s" s="511">
         <v>26</v>
       </c>
-      <c r="D99" t="n" s="434">
-        <v>373.0</v>
-      </c>
-      <c r="E99" t="s" s="433">
+      <c r="D108" t="n" s="512">
+        <v>370.0</v>
+      </c>
+      <c r="E108" t="s" s="511">
         <v>16</v>
       </c>
-      <c r="F99" t="n" s="434">
-        <v>3.9416000843048096</v>
-      </c>
-    </row>
-    <row r="100"/>
-    <row r="101">
-      <c r="A101" t="s">
+      <c r="F108" t="n" s="512">
+        <v>3.637298822402954</v>
+      </c>
+    </row>
+    <row r="109"/>
+    <row r="110">
+      <c r="A110" t="s">
         <v>17</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B110" t="s">
         <v>25</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C110" t="s">
         <v>19</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D110" t="s">
         <v>20</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E110" t="s">
         <v>21</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F110" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B102" t="s">
-        <v>35</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D102" t="n">
-        <v>360.0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.4929746091365814</v>
-      </c>
-      <c r="D103" t="n">
-        <v>305.6842274554833</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.4929746091365814</v>
-      </c>
-      <c r="F103" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="B104" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.6471188068389893</v>
-      </c>
-      <c r="D104" t="n">
-        <v>297.3318744417029</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.1785203516483307</v>
-      </c>
-      <c r="F104" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="B105" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1.073432445526123</v>
-      </c>
-      <c r="D105" t="n">
-        <v>313.35364528534683</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.49173110723495483</v>
-      </c>
-      <c r="F105" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="B106" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.9511350989341736</v>
-      </c>
-      <c r="D106" t="n">
-        <v>327.87094689466335</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.26614075899124146</v>
-      </c>
-      <c r="F106" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="B107" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.9158056378364563</v>
-      </c>
-      <c r="D107" t="n">
-        <v>328.5091022172008</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.03647772595286369</v>
-      </c>
-      <c r="F107" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="B108" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.8602044582366943</v>
-      </c>
-      <c r="D108" t="n">
-        <v>336.4481551373825</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.11803000420331955</v>
-      </c>
-      <c r="F108" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="B109" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.833429753780365</v>
-      </c>
-      <c r="D109" t="n">
-        <v>337.24168578127444</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.028472568839788437</v>
-      </c>
-      <c r="F109" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B110" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.6677214503288269</v>
-      </c>
-      <c r="D110" t="n">
-        <v>328.7038915916088</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.19035542011260986</v>
-      </c>
-      <c r="F110" t="n">
-        <v>6.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="B111" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>35</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5690993070602417</v>
+        <v>0.0</v>
       </c>
       <c r="D111" t="n">
-        <v>315.04250239551095</v>
+        <v>360.0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.16649450361728668</v>
+        <v>0.0</v>
       </c>
       <c r="F111" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>36.0</v>
+        <v>46.0</v>
       </c>
       <c r="B112" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C112" t="n">
-        <v>0.40551504492759705</v>
+        <v>0.30144205689430237</v>
       </c>
       <c r="D112" t="n">
-        <v>320.96758832786674</v>
+        <v>57.91367687024234</v>
       </c>
       <c r="E112" t="n">
-        <v>0.17018213868141174</v>
+        <v>0.30144205689430237</v>
       </c>
       <c r="F112" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>42.0</v>
+        <v>49.0</v>
       </c>
       <c r="B113" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="C113" t="n">
-        <v>0.26619550585746765</v>
+        <v>0.4147675037384033</v>
       </c>
       <c r="D113" t="n">
-        <v>337.26154080185074</v>
+        <v>47.84357597109522</v>
       </c>
       <c r="E113" t="n">
-        <v>0.1610601395368576</v>
+        <v>0.13037799298763275</v>
       </c>
       <c r="F113" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>41.0</v>
+        <v>51.0</v>
       </c>
       <c r="B114" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C114" t="n">
-        <v>0.24060335755348206</v>
+        <v>0.41277188062667847</v>
       </c>
       <c r="D114" t="n">
-        <v>336.1369889883139</v>
+        <v>34.38996689991217</v>
       </c>
       <c r="E114" t="n">
-        <v>0.025917239487171173</v>
+        <v>0.09090527147054672</v>
       </c>
       <c r="F114" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>44.0</v>
+        <v>50.0</v>
       </c>
       <c r="B115" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2931596636772156</v>
+        <v>0.4411461353302002</v>
       </c>
       <c r="D115" t="n">
-        <v>40.41874969392586</v>
+        <v>36.77637793627173</v>
       </c>
       <c r="E115" t="n">
-        <v>0.23957358300685883</v>
+        <v>0.03253420442342758</v>
       </c>
       <c r="F115" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>45.0</v>
+        <v>58.0</v>
       </c>
       <c r="B116" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3815269470214844</v>
+        <v>0.5833421349525452</v>
       </c>
       <c r="D116" t="n">
-        <v>24.346632753068207</v>
+        <v>57.04422138060244</v>
       </c>
       <c r="E116" t="n">
-        <v>0.1205088198184967</v>
+        <v>0.22648894786834717</v>
       </c>
       <c r="F116" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>50.0</v>
+        <v>57.0</v>
       </c>
       <c r="B117" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4411461353302002</v>
+        <v>0.559756338596344</v>
       </c>
       <c r="D117" t="n">
-        <v>36.77637793627173</v>
+        <v>51.36500124043221</v>
       </c>
       <c r="E117" t="n">
-        <v>0.09722606837749481</v>
+        <v>0.06408242136240005</v>
       </c>
       <c r="F117" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>49.0</v>
+        <v>56.0</v>
       </c>
       <c r="B118" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4147675037384033</v>
+        <v>0.5436442494392395</v>
       </c>
       <c r="D118" t="n">
-        <v>47.84357597109522</v>
+        <v>38.675402912069785</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0824146419763565</v>
+        <v>0.11930186301469803</v>
       </c>
       <c r="F118" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>57.0</v>
+        <v>52.0</v>
       </c>
       <c r="B119" t="n">
         <v>1.0</v>
       </c>
       <c r="C119" t="n">
-        <v>0.559756338596344</v>
+        <v>0.49632975459098816</v>
       </c>
       <c r="D119" t="n">
-        <v>51.36500124043221</v>
+        <v>26.910453096074548</v>
       </c>
       <c r="E119" t="n">
-        <v>0.14805088937282562</v>
+        <v>0.10480140894651413</v>
       </c>
       <c r="F119" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>59.0</v>
+        <v>53.0</v>
       </c>
       <c r="B120" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6999629139900208</v>
+        <v>0.5023859739303589</v>
       </c>
       <c r="D120" t="n">
-        <v>55.216312802429</v>
+        <v>19.133669139893698</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1469498574733734</v>
+        <v>0.05615795776247978</v>
       </c>
       <c r="F120" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>48.0</v>
+        <v>37.0</v>
       </c>
       <c r="B121" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3985292911529541</v>
+        <v>0.39102786779403687</v>
       </c>
       <c r="D121" t="n">
-        <v>60.799177430562395</v>
+        <v>348.9171901495747</v>
       </c>
       <c r="E121" t="n">
-        <v>0.30655360221862793</v>
+        <v>0.21286500990390778</v>
       </c>
       <c r="F121" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>47.0</v>
+        <v>38.0</v>
       </c>
       <c r="B122" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3747617304325104</v>
+        <v>0.48756301403045654</v>
       </c>
       <c r="D122" t="n">
-        <v>68.96238883075148</v>
+        <v>345.01655380240527</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0677696168422699</v>
+        <v>0.09934674948453903</v>
       </c>
       <c r="F122" t="n">
         <v>3.0</v>
@@ -4087,410 +4323,410 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>39.0</v>
+        <v>30.0</v>
       </c>
       <c r="B123" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.12855416536331177</v>
+        <v>0.6677214503288269</v>
       </c>
       <c r="D123" t="n">
-        <v>91.75133489587824</v>
+        <v>328.7038915916088</v>
       </c>
       <c r="E123" t="n">
-        <v>0.26921379566192627</v>
+        <v>0.22453835606575012</v>
       </c>
       <c r="F123" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>40.0</v>
+        <v>18.0</v>
       </c>
       <c r="B124" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="C124" t="n">
-        <v>0.10356690734624863</v>
+        <v>1.073432445526123</v>
       </c>
       <c r="D124" t="n">
-        <v>100.34802838226881</v>
+        <v>313.35364528534683</v>
       </c>
       <c r="E124" t="n">
-        <v>0.03341617435216904</v>
+        <v>0.4563227593898773</v>
       </c>
       <c r="F124" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.1121973991394043</v>
+      </c>
+      <c r="D125" t="n">
+        <v>325.67713344108375</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.22226640582084656</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.9836602210998535</v>
+      </c>
+      <c r="D126" t="n">
+        <v>321.8257118678917</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.1432289034128189</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.9511350989341736</v>
+      </c>
+      <c r="D127" t="n">
+        <v>327.87094689466335</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.09676468372344971</v>
+      </c>
+      <c r="F127" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.9158056378364563</v>
+      </c>
+      <c r="D128" t="n">
+        <v>328.5091022172008</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.03647772595286369</v>
+      </c>
+      <c r="F128" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.8602044582366943</v>
+      </c>
+      <c r="D129" t="n">
+        <v>336.4481551373825</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.11803000420331955</v>
+      </c>
+      <c r="F129" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.833429753780365</v>
+      </c>
+      <c r="D130" t="n">
+        <v>337.24168578127444</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.028472568839788437</v>
+      </c>
+      <c r="F130" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.40551504492759705</v>
+      </c>
+      <c r="D131" t="n">
+        <v>320.96758832786674</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.45106178522109985</v>
+      </c>
+      <c r="F131" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.340213805437088</v>
+      </c>
+      <c r="D132" t="n">
+        <v>313.0213892295789</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.08161762356758118</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
         <v>0.0</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B133" t="s">
         <v>35</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C133" t="n">
         <v>0.0</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D133" t="n">
         <v>360.0</v>
       </c>
-      <c r="E125" t="n">
-        <v>0.10356690734624863</v>
-      </c>
-      <c r="F125" t="n">
+      <c r="E133" t="n">
+        <v>0.340213805437088</v>
+      </c>
+      <c r="F133" t="n">
         <v>0.0</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="s" s="433">
+    <row r="134">
+      <c r="A134" t="s" s="511">
         <v>23</v>
       </c>
-      <c r="B126" s="433" t="n">
-        <f>SUM(B102:B125)</f>
-        <v>121.0</v>
-      </c>
-      <c r="E126" s="433" t="n">
-        <f>SUM(E102:E125)</f>
-        <v>3.941600523889065</v>
-      </c>
-    </row>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130">
-      <c r="A130" t="s" s="433">
+      <c r="B134" s="511" t="n">
+        <f>SUM(B111:B133)</f>
+        <v>124.0</v>
+      </c>
+      <c r="E134" s="511" t="n">
+        <f>SUM(E111:E133)</f>
+        <v>3.6372985057532787</v>
+      </c>
+    </row>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138">
+      <c r="A138" t="s" s="511">
         <v>10</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B138" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C130" t="s" s="433">
+      <c r="C138" t="s" s="511">
         <v>11</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D138" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E130" t="s" s="433">
+      <c r="E138" t="s" s="511">
         <v>12</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F138" t="n">
         <v>41.057835</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="s" s="433">
+    <row r="139">
+      <c r="A139" t="s" s="511">
         <v>13</v>
       </c>
-      <c r="B131" t="n" s="433">
-        <v>3.0</v>
-      </c>
-      <c r="C131" t="s" s="433">
+      <c r="B139" t="n" s="511">
+        <v>4.0</v>
+      </c>
+      <c r="C139" t="s" s="511">
         <v>14</v>
       </c>
-      <c r="D131" t="n" s="434">
+      <c r="D139" t="n" s="512">
         <v>-1.0</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="s" s="433">
+    <row r="140">
+      <c r="A140" t="s" s="511">
         <v>15</v>
       </c>
-      <c r="B132" t="n" s="434">
-        <v>3.637298822402954</v>
-      </c>
-      <c r="C132" t="s" s="433">
+      <c r="B140" t="n" s="512">
+        <v>3.18915057182312</v>
+      </c>
+      <c r="C140" t="s" s="511">
         <v>26</v>
       </c>
-      <c r="D132" t="n" s="434">
-        <v>370.0</v>
-      </c>
-      <c r="E132" t="s" s="433">
+      <c r="D140" t="n" s="512">
+        <v>308.0</v>
+      </c>
+      <c r="E140" t="s" s="511">
         <v>16</v>
       </c>
-      <c r="F132" t="n" s="434">
-        <v>3.637298822402954</v>
-      </c>
-    </row>
-    <row r="133"/>
-    <row r="134">
-      <c r="A134" t="s">
+      <c r="F140" t="n" s="512">
+        <v>3.18915057182312</v>
+      </c>
+    </row>
+    <row r="141"/>
+    <row r="142">
+      <c r="A142" t="s">
         <v>17</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B142" t="s">
         <v>25</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C142" t="s">
         <v>19</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D142" t="s">
         <v>20</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E142" t="s">
         <v>21</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F142" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B135" t="s">
-        <v>35</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D135" t="n">
-        <v>360.0</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="B136" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.30144205689430237</v>
-      </c>
-      <c r="D136" t="n">
-        <v>57.91367687024234</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.30144205689430237</v>
-      </c>
-      <c r="F136" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="B137" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.4147675037384033</v>
-      </c>
-      <c r="D137" t="n">
-        <v>47.84357597109522</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.13037799298763275</v>
-      </c>
-      <c r="F137" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="B138" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.41277188062667847</v>
-      </c>
-      <c r="D138" t="n">
-        <v>34.38996689991217</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.09090527147054672</v>
-      </c>
-      <c r="F138" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="B139" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.4411461353302002</v>
-      </c>
-      <c r="D139" t="n">
-        <v>36.77637793627173</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.03253420442342758</v>
-      </c>
-      <c r="F139" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="B140" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.5833421349525452</v>
-      </c>
-      <c r="D140" t="n">
-        <v>57.04422138060244</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.22648894786834717</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="B141" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.559756338596344</v>
-      </c>
-      <c r="D141" t="n">
-        <v>51.36500124043221</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.06408242136240005</v>
-      </c>
-      <c r="F141" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="B142" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.5436442494392395</v>
-      </c>
-      <c r="D142" t="n">
-        <v>38.675402912069785</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.11930186301469803</v>
-      </c>
-      <c r="F142" t="n">
-        <v>2.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="B143" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>35</v>
       </c>
       <c r="C143" t="n">
-        <v>0.49632975459098816</v>
+        <v>0.0</v>
       </c>
       <c r="D143" t="n">
-        <v>26.910453096074548</v>
+        <v>360.0</v>
       </c>
       <c r="E143" t="n">
-        <v>0.10480140894651413</v>
+        <v>0.0</v>
       </c>
       <c r="F143" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>53.0</v>
+        <v>36.0</v>
       </c>
       <c r="B144" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C144" t="n">
-        <v>0.5023859739303589</v>
+        <v>0.40551504492759705</v>
       </c>
       <c r="D144" t="n">
-        <v>19.133669139893698</v>
+        <v>320.96758832786674</v>
       </c>
       <c r="E144" t="n">
-        <v>0.05615795776247978</v>
+        <v>0.40551504492759705</v>
       </c>
       <c r="F144" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>37.0</v>
+        <v>34.0</v>
       </c>
       <c r="B145" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.4929746091365814</v>
+      </c>
+      <c r="D145" t="n">
+        <v>305.6842274554833</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.14611230790615082</v>
+      </c>
+      <c r="F145" t="n">
         <v>4.0</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.39102786779403687</v>
-      </c>
-      <c r="D145" t="n">
-        <v>348.9171901495747</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.21286500990390778</v>
-      </c>
-      <c r="F145" t="n">
-        <v>2.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>38.0</v>
+        <v>31.0</v>
       </c>
       <c r="B146" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C146" t="n">
-        <v>0.48756301403045654</v>
+        <v>0.5690993070602417</v>
       </c>
       <c r="D146" t="n">
-        <v>345.01655380240527</v>
+        <v>315.04250239551095</v>
       </c>
       <c r="E146" t="n">
-        <v>0.09934674948453903</v>
+        <v>0.11575106531381607</v>
       </c>
       <c r="F146" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>30.0</v>
+        <v>18.0</v>
       </c>
       <c r="B147" t="n">
         <v>10.0</v>
       </c>
       <c r="C147" t="n">
-        <v>0.6677214503288269</v>
+        <v>1.073432445526123</v>
       </c>
       <c r="D147" t="n">
-        <v>328.7038915916088</v>
+        <v>313.35364528534683</v>
       </c>
       <c r="E147" t="n">
-        <v>0.22453835606575012</v>
+        <v>0.5048531293869019</v>
       </c>
       <c r="F147" t="n">
         <v>6.0</v>
@@ -4498,19 +4734,19 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
       <c r="B148" t="n">
         <v>10.0</v>
       </c>
       <c r="C148" t="n">
-        <v>1.073432445526123</v>
+        <v>0.9511350989341736</v>
       </c>
       <c r="D148" t="n">
-        <v>313.35364528534683</v>
+        <v>327.87094689466335</v>
       </c>
       <c r="E148" t="n">
-        <v>0.4563227593898773</v>
+        <v>0.26614075899124146</v>
       </c>
       <c r="F148" t="n">
         <v>6.0</v>
@@ -4518,59 +4754,59 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="B149" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="C149" t="n">
-        <v>1.1121973991394043</v>
+        <v>0.9158056378364563</v>
       </c>
       <c r="D149" t="n">
-        <v>325.67713344108375</v>
+        <v>328.5091022172008</v>
       </c>
       <c r="E149" t="n">
-        <v>0.22226640582084656</v>
+        <v>0.03647772595286369</v>
       </c>
       <c r="F149" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="B150" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9836602210998535</v>
+        <v>0.8602044582366943</v>
       </c>
       <c r="D150" t="n">
-        <v>321.8257118678917</v>
+        <v>336.4481551373825</v>
       </c>
       <c r="E150" t="n">
-        <v>0.1432289034128189</v>
+        <v>0.11803000420331955</v>
       </c>
       <c r="F150" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="B151" t="n">
         <v>10.0</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9511350989341736</v>
+        <v>0.833429753780365</v>
       </c>
       <c r="D151" t="n">
-        <v>327.87094689466335</v>
+        <v>337.24168578127444</v>
       </c>
       <c r="E151" t="n">
-        <v>0.09676468372344971</v>
+        <v>0.028472568839788437</v>
       </c>
       <c r="F151" t="n">
         <v>6.0</v>
@@ -4578,19 +4814,19 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="B152" t="n">
         <v>10.0</v>
       </c>
       <c r="C152" t="n">
-        <v>0.9158056378364563</v>
+        <v>0.6677214503288269</v>
       </c>
       <c r="D152" t="n">
-        <v>328.5091022172008</v>
+        <v>328.7038915916088</v>
       </c>
       <c r="E152" t="n">
-        <v>0.03647772595286369</v>
+        <v>0.19035542011260986</v>
       </c>
       <c r="F152" t="n">
         <v>6.0</v>
@@ -4598,39 +4834,39 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>29.0</v>
+        <v>50.0</v>
       </c>
       <c r="B153" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="C153" t="n">
-        <v>0.8602044582366943</v>
+        <v>0.4411461353302002</v>
       </c>
       <c r="D153" t="n">
-        <v>336.4481551373825</v>
+        <v>36.77637793627173</v>
       </c>
       <c r="E153" t="n">
-        <v>0.11803000420331955</v>
+        <v>0.5515079498291016</v>
       </c>
       <c r="F153" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>28.0</v>
+        <v>57.0</v>
       </c>
       <c r="B154" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C154" t="n">
-        <v>0.833429753780365</v>
+        <v>0.559756338596344</v>
       </c>
       <c r="D154" t="n">
-        <v>337.24168578127444</v>
+        <v>51.36500124043221</v>
       </c>
       <c r="E154" t="n">
-        <v>0.028472568839788437</v>
+        <v>0.1697424352169037</v>
       </c>
       <c r="F154" t="n">
         <v>6.0</v>
@@ -4638,19 +4874,19 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>36.0</v>
+        <v>49.0</v>
       </c>
       <c r="B155" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="C155" t="n">
-        <v>0.40551504492759705</v>
+        <v>0.4147675037384033</v>
       </c>
       <c r="D155" t="n">
-        <v>320.96758832786674</v>
+        <v>47.84357597109522</v>
       </c>
       <c r="E155" t="n">
-        <v>0.45106178522109985</v>
+        <v>0.14805088937282562</v>
       </c>
       <c r="F155" t="n">
         <v>6.0</v>
@@ -4658,350 +4894,350 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>35.0</v>
+        <v>44.0</v>
       </c>
       <c r="B156" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="C156" t="n">
-        <v>0.340213805437088</v>
+        <v>0.2931596636772156</v>
       </c>
       <c r="D156" t="n">
-        <v>313.0213892295789</v>
+        <v>40.41874969392586</v>
       </c>
       <c r="E156" t="n">
-        <v>0.08161762356758118</v>
+        <v>0.129132941365242</v>
       </c>
       <c r="F156" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B157" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.10356690734624863</v>
+      </c>
+      <c r="D157" t="n">
+        <v>100.34802838226881</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.27544164657592773</v>
+      </c>
+      <c r="F157" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
         <v>0.0</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B158" t="s">
         <v>35</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C158" t="n">
         <v>0.0</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D158" t="n">
         <v>360.0</v>
       </c>
-      <c r="E157" t="n">
-        <v>0.340213805437088</v>
-      </c>
-      <c r="F157" t="n">
+      <c r="E158" t="n">
+        <v>0.10356690734624863</v>
+      </c>
+      <c r="F158" t="n">
         <v>0.0</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="s" s="433">
+    <row r="159">
+      <c r="A159" t="s" s="511">
         <v>23</v>
       </c>
-      <c r="B158" s="433" t="n">
-        <f>SUM(B135:B157)</f>
-        <v>124.0</v>
-      </c>
-      <c r="E158" s="433" t="n">
-        <f>SUM(E135:E157)</f>
-        <v>3.6372985057532787</v>
-      </c>
-    </row>
-    <row r="159"/>
+      <c r="B159" s="511" t="n">
+        <f>SUM(B143:B158)</f>
+        <v>92.0</v>
+      </c>
+      <c r="E159" s="511" t="n">
+        <f>SUM(E143:E158)</f>
+        <v>3.189150795340538</v>
+      </c>
+    </row>
     <row r="160"/>
     <row r="161"/>
-    <row r="162">
-      <c r="A162" t="s" s="433">
+    <row r="162"/>
+    <row r="163">
+      <c r="A163" t="s" s="511">
         <v>10</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B163" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C162" t="s" s="433">
+      <c r="C163" t="s" s="511">
         <v>11</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D163" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E162" t="s" s="433">
+      <c r="E163" t="s" s="511">
         <v>12</v>
       </c>
-      <c r="F162" t="n">
+      <c r="F163" t="n">
         <v>41.057835</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="s" s="433">
+    <row r="164">
+      <c r="A164" t="s" s="511">
         <v>13</v>
       </c>
-      <c r="B163" t="n" s="433">
-        <v>4.0</v>
-      </c>
-      <c r="C163" t="s" s="433">
+      <c r="B164" t="n" s="511">
+        <v>5.0</v>
+      </c>
+      <c r="C164" t="s" s="511">
         <v>14</v>
       </c>
-      <c r="D163" t="n" s="434">
+      <c r="D164" t="n" s="512">
         <v>-1.0</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="s" s="433">
+    <row r="165">
+      <c r="A165" t="s" s="511">
         <v>15</v>
       </c>
-      <c r="B164" t="n" s="434">
-        <v>3.7400689125061035</v>
-      </c>
-      <c r="C164" t="s" s="433">
+      <c r="B165" t="n" s="512">
+        <v>3.6056344509124756</v>
+      </c>
+      <c r="C165" t="s" s="511">
         <v>26</v>
       </c>
-      <c r="D164" t="n" s="434">
-        <v>358.0</v>
-      </c>
-      <c r="E164" t="s" s="433">
+      <c r="D165" t="n" s="512">
+        <v>336.0</v>
+      </c>
+      <c r="E165" t="s" s="511">
         <v>16</v>
       </c>
-      <c r="F164" t="n" s="434">
-        <v>3.7400689125061035</v>
-      </c>
-    </row>
-    <row r="165"/>
-    <row r="166">
-      <c r="A166" t="s">
+      <c r="F165" t="n" s="512">
+        <v>3.6056344509124756</v>
+      </c>
+    </row>
+    <row r="166"/>
+    <row r="167">
+      <c r="A167" t="s">
         <v>17</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B167" t="s">
         <v>25</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C167" t="s">
         <v>19</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D167" t="s">
         <v>20</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E167" t="s">
         <v>21</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F167" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B167" t="s">
-        <v>35</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D167" t="n">
-        <v>360.0</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="B168" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>35</v>
       </c>
       <c r="C168" t="n">
-        <v>0.10356690734624863</v>
+        <v>0.0</v>
       </c>
       <c r="D168" t="n">
-        <v>100.34802838226881</v>
+        <v>360.0</v>
       </c>
       <c r="E168" t="n">
-        <v>0.10356690734624863</v>
+        <v>0.0</v>
       </c>
       <c r="F168" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>47.0</v>
+        <v>36.0</v>
       </c>
       <c r="B169" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C169" t="n">
-        <v>0.3747617304325104</v>
+        <v>0.40551504492759705</v>
       </c>
       <c r="D169" t="n">
-        <v>68.96238883075148</v>
+        <v>320.96758832786674</v>
       </c>
       <c r="E169" t="n">
-        <v>0.3024876117706299</v>
+        <v>0.40551504492759705</v>
       </c>
       <c r="F169" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>48.0</v>
+        <v>34.0</v>
       </c>
       <c r="B170" t="n">
         <v>1.0</v>
       </c>
       <c r="C170" t="n">
-        <v>0.3985292911529541</v>
+        <v>0.4929746091365814</v>
       </c>
       <c r="D170" t="n">
-        <v>60.799177430562395</v>
+        <v>305.6842274554833</v>
       </c>
       <c r="E170" t="n">
-        <v>0.0677696168422699</v>
+        <v>0.14611230790615082</v>
       </c>
       <c r="F170" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>59.0</v>
+        <v>31.0</v>
       </c>
       <c r="B171" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="C171" t="n">
-        <v>0.6999629139900208</v>
+        <v>0.5690993070602417</v>
       </c>
       <c r="D171" t="n">
-        <v>55.216312802429</v>
+        <v>315.04250239551095</v>
       </c>
       <c r="E171" t="n">
-        <v>0.30655360221862793</v>
+        <v>0.11575106531381607</v>
       </c>
       <c r="F171" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>57.0</v>
+        <v>33.0</v>
       </c>
       <c r="B172" t="n">
         <v>1.0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.559756338596344</v>
+        <v>0.6471188068389893</v>
       </c>
       <c r="D172" t="n">
-        <v>51.36500124043221</v>
+        <v>297.3318744417029</v>
       </c>
       <c r="E172" t="n">
-        <v>0.1469498574733734</v>
+        <v>0.21096783876419067</v>
       </c>
       <c r="F172" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>50.0</v>
+        <v>18.0</v>
       </c>
       <c r="B173" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="C173" t="n">
-        <v>0.4411461353302002</v>
+        <v>1.073432445526123</v>
       </c>
       <c r="D173" t="n">
-        <v>36.77637793627173</v>
+        <v>313.35364528534683</v>
       </c>
       <c r="E173" t="n">
-        <v>0.1697424352169037</v>
+        <v>0.49173110723495483</v>
       </c>
       <c r="F173" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>49.0</v>
+        <v>25.0</v>
       </c>
       <c r="B174" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="C174" t="n">
-        <v>0.4147675037384033</v>
+        <v>0.9836602210998535</v>
       </c>
       <c r="D174" t="n">
-        <v>47.84357597109522</v>
+        <v>321.8257118678917</v>
       </c>
       <c r="E174" t="n">
-        <v>0.0824146419763565</v>
+        <v>0.16966231167316437</v>
       </c>
       <c r="F174" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>44.0</v>
+        <v>22.0</v>
       </c>
       <c r="B175" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C175" t="n">
-        <v>0.2931596636772156</v>
+        <v>1.1121973991394043</v>
       </c>
       <c r="D175" t="n">
-        <v>40.41874969392586</v>
+        <v>325.67713344108375</v>
       </c>
       <c r="E175" t="n">
-        <v>0.129132941365242</v>
+        <v>0.1432289034128189</v>
       </c>
       <c r="F175" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>45.0</v>
+        <v>26.0</v>
       </c>
       <c r="B176" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="C176" t="n">
-        <v>0.3815269470214844</v>
+        <v>0.9511350989341736</v>
       </c>
       <c r="D176" t="n">
-        <v>24.346632753068207</v>
+        <v>327.87094689466335</v>
       </c>
       <c r="E176" t="n">
-        <v>0.1205088198184967</v>
+        <v>0.16477824747562408</v>
       </c>
       <c r="F176" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
       <c r="B177" t="n">
         <v>10.0</v>
       </c>
       <c r="C177" t="n">
-        <v>0.6677214503288269</v>
+        <v>0.9158056378364563</v>
       </c>
       <c r="D177" t="n">
-        <v>328.7038915916088</v>
+        <v>328.5091022172008</v>
       </c>
       <c r="E177" t="n">
-        <v>0.47716882824897766</v>
+        <v>0.03647772595286369</v>
       </c>
       <c r="F177" t="n">
         <v>6.0</v>
@@ -5009,19 +5245,19 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="B178" t="n">
         <v>10.0</v>
       </c>
       <c r="C178" t="n">
-        <v>0.833429753780365</v>
+        <v>0.8602044582366943</v>
       </c>
       <c r="D178" t="n">
-        <v>337.24168578127444</v>
+        <v>336.4481551373825</v>
       </c>
       <c r="E178" t="n">
-        <v>0.19035542011260986</v>
+        <v>0.11803000420331955</v>
       </c>
       <c r="F178" t="n">
         <v>6.0</v>
@@ -5029,16 +5265,16 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="B179" t="n">
         <v>10.0</v>
       </c>
       <c r="C179" t="n">
-        <v>0.8602044582366943</v>
+        <v>0.833429753780365</v>
       </c>
       <c r="D179" t="n">
-        <v>336.4481551373825</v>
+        <v>337.24168578127444</v>
       </c>
       <c r="E179" t="n">
         <v>0.028472568839788437</v>
@@ -5049,19 +5285,19 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="B180" t="n">
         <v>10.0</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9158056378364563</v>
+        <v>0.6677214503288269</v>
       </c>
       <c r="D180" t="n">
-        <v>328.5091022172008</v>
+        <v>328.7038915916088</v>
       </c>
       <c r="E180" t="n">
-        <v>0.11803000420331955</v>
+        <v>0.19035542011260986</v>
       </c>
       <c r="F180" t="n">
         <v>6.0</v>
@@ -5069,39 +5305,39 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
       <c r="B181" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C181" t="n">
-        <v>0.9511350989341736</v>
+        <v>0.48756301403045654</v>
       </c>
       <c r="D181" t="n">
-        <v>327.87094689466335</v>
+        <v>345.01655380240527</v>
       </c>
       <c r="E181" t="n">
-        <v>0.03647772595286369</v>
+        <v>0.22453835606575012</v>
       </c>
       <c r="F181" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>18.0</v>
+        <v>57.0</v>
       </c>
       <c r="B182" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C182" t="n">
-        <v>1.073432445526123</v>
+        <v>0.559756338596344</v>
       </c>
       <c r="D182" t="n">
-        <v>313.35364528534683</v>
+        <v>51.36500124043221</v>
       </c>
       <c r="E182" t="n">
-        <v>0.26614075899124146</v>
+        <v>0.49370869994163513</v>
       </c>
       <c r="F182" t="n">
         <v>6.0</v>
@@ -5109,39 +5345,39 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>31.0</v>
+        <v>49.0</v>
       </c>
       <c r="B183" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="C183" t="n">
-        <v>0.5690993070602417</v>
+        <v>0.4147675037384033</v>
       </c>
       <c r="D183" t="n">
-        <v>315.04250239551095</v>
+        <v>47.84357597109522</v>
       </c>
       <c r="E183" t="n">
-        <v>0.5048531293869019</v>
+        <v>0.14805088937282562</v>
       </c>
       <c r="F183" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>34.0</v>
+        <v>44.0</v>
       </c>
       <c r="B184" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C184" t="n">
-        <v>0.4929746091365814</v>
+        <v>0.2931596636772156</v>
       </c>
       <c r="D184" t="n">
-        <v>305.6842274554833</v>
+        <v>40.41874969392586</v>
       </c>
       <c r="E184" t="n">
-        <v>0.11575106531381607</v>
+        <v>0.129132941365242</v>
       </c>
       <c r="F184" t="n">
         <v>4.0</v>
@@ -5149,114 +5385,107 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
       <c r="B185" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C185" t="n">
-        <v>0.40551504492759705</v>
+        <v>0.12855416536331177</v>
       </c>
       <c r="D185" t="n">
-        <v>320.96758832786674</v>
+        <v>91.75133489587824</v>
       </c>
       <c r="E185" t="n">
-        <v>0.14611230790615082</v>
+        <v>0.25213780999183655</v>
       </c>
       <c r="F185" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
       <c r="B186" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C186" t="n">
-        <v>0.26619550585746765</v>
+        <v>0.10356690734624863</v>
       </c>
       <c r="D186" t="n">
-        <v>337.26154080185074</v>
+        <v>100.34802838226881</v>
       </c>
       <c r="E186" t="n">
-        <v>0.1610601395368576</v>
+        <v>0.03341617435216904</v>
       </c>
       <c r="F186" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="B187" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="B187" t="s">
+        <v>35</v>
       </c>
       <c r="C187" t="n">
-        <v>0.24060335755348206</v>
+        <v>0.0</v>
       </c>
       <c r="D187" t="n">
-        <v>336.1369889883139</v>
+        <v>360.0</v>
       </c>
       <c r="E187" t="n">
-        <v>0.025917239487171173</v>
+        <v>0.10356690734624863</v>
       </c>
       <c r="F187" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B188" t="s">
-        <v>35</v>
-      </c>
-      <c r="C188" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D188" t="n">
-        <v>360.0</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0.24060335755348206</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0.0</v>
+      <c r="A188" t="s" s="511">
+        <v>23</v>
+      </c>
+      <c r="B188" s="511" t="n">
+        <f>SUM(B168:B187)</f>
+        <v>103.0</v>
+      </c>
+      <c r="E188" s="511" t="n">
+        <f>SUM(E168:E187)</f>
+        <v>3.6056343242526054</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="433">
+      <c r="A189" t="s" s="481">
         <v>23</v>
       </c>
-      <c r="B189" s="433" t="n">
+      <c r="B189" s="481" t="n">
         <f>SUM(B167:B188)</f>
-        <v>116.0</v>
-      </c>
-      <c r="E189" s="433" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="E189" s="481" t="n">
         <f>SUM(E167:E188)</f>
-        <v>3.740068979561329</v>
+        <v>7.211268648505211</v>
       </c>
     </row>
     <row r="190"/>
     <row r="191"/>
     <row r="192"/>
     <row r="193">
-      <c r="A193" t="s" s="433">
+      <c r="A193" t="s" s="481">
         <v>10</v>
       </c>
       <c r="B193" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C193" t="s" s="433">
+      <c r="C193" t="s" s="481">
         <v>11</v>
       </c>
       <c r="D193" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E193" t="s" s="433">
+      <c r="E193" t="s" s="481">
         <v>12</v>
       </c>
       <c r="F193" t="n">
@@ -5264,36 +5493,36 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="433">
+      <c r="A194" t="s" s="481">
         <v>13</v>
       </c>
-      <c r="B194" t="n" s="433">
+      <c r="B194" t="n" s="481">
         <v>5.0</v>
       </c>
-      <c r="C194" t="s" s="433">
+      <c r="C194" t="s" s="481">
         <v>14</v>
       </c>
-      <c r="D194" t="n" s="434">
+      <c r="D194" t="n" s="482">
         <v>-1.0</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="433">
+      <c r="A195" t="s" s="481">
         <v>15</v>
       </c>
-      <c r="B195" t="n" s="434">
+      <c r="B195" t="n" s="482">
         <v>3.6056344509124756</v>
       </c>
-      <c r="C195" t="s" s="433">
+      <c r="C195" t="s" s="481">
         <v>26</v>
       </c>
-      <c r="D195" t="n" s="434">
+      <c r="D195" t="n" s="482">
         <v>336.0</v>
       </c>
-      <c r="E195" t="s" s="433">
+      <c r="E195" t="s" s="481">
         <v>16</v>
       </c>
-      <c r="F195" t="n" s="434">
+      <c r="F195" t="n" s="482">
         <v>3.6056344509124756</v>
       </c>
     </row>
@@ -5719,14 +5948,14 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="433">
+      <c r="A218" t="s" s="481">
         <v>23</v>
       </c>
-      <c r="B218" s="433" t="n">
+      <c r="B218" s="481" t="n">
         <f>SUM(B198:B217)</f>
         <v>103.0</v>
       </c>
-      <c r="E218" s="433" t="n">
+      <c r="E218" s="481" t="n">
         <f>SUM(E198:E217)</f>
         <v>3.6056343242526054</v>
       </c>

--- a/data/TR/results/All_Long_Solutions.xlsx
+++ b/data/TR/results/All_Long_Solutions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11137" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21907" uniqueCount="37">
   <si>
     <t>Filename</t>
   </si>
@@ -121,19 +121,1417 @@
   <si>
     <t>tip-cart</t>
   </si>
+  <si>
+    <t>08:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="259">
+  <fonts count="538">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1466,7 +2864,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="517">
+  <cellXfs count="1075">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -2323,6 +3721,936 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="346" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="352" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="385" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="430" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="439" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="454" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="487" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="487" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="496" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="502" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="502" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="505" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="505" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="520" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="520" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="523" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="523" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="526" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="526" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="529" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="529" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="535" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="535" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -2340,16 +4668,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.54296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.2890625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.7734375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.36328125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.9921875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.39453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.9140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.87109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="513">
+      <c r="A1" t="s" s="1071">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2357,7 +4685,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="513">
+      <c r="A2" t="s" s="1071">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -2365,7 +4693,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="513">
+      <c r="A3" t="s" s="1071">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -2373,7 +4701,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="513">
+      <c r="A4" t="s" s="1071">
         <v>6</v>
       </c>
       <c r="B4" t="n">
@@ -2381,7 +4709,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="513">
+      <c r="A5" t="s" s="1071">
         <v>7</v>
       </c>
       <c r="B5" t="n">
@@ -2392,7 +4720,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="513">
+      <c r="A6" t="s" s="1071">
         <v>8</v>
       </c>
       <c r="B6" t="n">
@@ -2404,7 +4732,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -2415,18 +4743,18 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>2057.0</v>
+        <v>2081.0</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="511">
+      <c r="A9" t="s" s="1069">
         <v>31</v>
       </c>
-      <c r="B9" t="s" s="511">
-        <v>34</v>
+      <c r="B9" t="s" s="1069">
+        <v>36</v>
       </c>
     </row>
     <row r="10"/>
@@ -2434,19 +4762,19 @@
     <row r="12"/>
     <row r="13"/>
     <row r="14">
-      <c r="A14" t="s" s="511">
+      <c r="A14" t="s" s="1069">
         <v>10</v>
       </c>
       <c r="B14" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C14" t="s" s="511">
+      <c r="C14" t="s" s="1069">
         <v>11</v>
       </c>
       <c r="D14" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E14" t="s" s="511">
+      <c r="E14" t="s" s="1069">
         <v>12</v>
       </c>
       <c r="F14" t="n">
@@ -2454,36 +4782,36 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="511">
+      <c r="A15" t="s" s="1069">
         <v>13</v>
       </c>
-      <c r="B15" t="n" s="511">
+      <c r="B15" t="n" s="1069">
         <v>0.0</v>
       </c>
-      <c r="C15" t="s" s="511">
+      <c r="C15" t="s" s="1069">
         <v>14</v>
       </c>
-      <c r="D15" t="n" s="512">
+      <c r="D15" t="n" s="1070">
         <v>-1.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="511">
+      <c r="A16" t="s" s="1069">
         <v>15</v>
       </c>
-      <c r="B16" t="n" s="512">
+      <c r="B16" t="n" s="1070">
         <v>4.609101295471191</v>
       </c>
-      <c r="C16" t="s" s="511">
+      <c r="C16" t="s" s="1069">
         <v>26</v>
       </c>
-      <c r="D16" t="n" s="512">
-        <v>350.0</v>
-      </c>
-      <c r="E16" t="s" s="511">
+      <c r="D16" t="n" s="1070">
+        <v>355.0</v>
+      </c>
+      <c r="E16" t="s" s="1069">
         <v>16</v>
       </c>
-      <c r="F16" t="n" s="512">
+      <c r="F16" t="n" s="1070">
         <v>4.609101295471191</v>
       </c>
     </row>
@@ -2989,14 +5317,14 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="511">
+      <c r="A43" t="s" s="1069">
         <v>23</v>
       </c>
-      <c r="B43" s="511" t="n">
+      <c r="B43" s="1069" t="n">
         <f>SUM(B19:B42)</f>
         <v>108.0</v>
       </c>
-      <c r="E43" s="511" t="n">
+      <c r="E43" s="1069" t="n">
         <f>SUM(E19:E42)</f>
         <v>4.609101198613644</v>
       </c>
@@ -3005,19 +5333,19 @@
     <row r="45"/>
     <row r="46"/>
     <row r="47">
-      <c r="A47" t="s" s="511">
+      <c r="A47" t="s" s="1069">
         <v>10</v>
       </c>
       <c r="B47" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C47" t="s" s="511">
+      <c r="C47" t="s" s="1069">
         <v>11</v>
       </c>
       <c r="D47" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E47" t="s" s="511">
+      <c r="E47" t="s" s="1069">
         <v>12</v>
       </c>
       <c r="F47" t="n">
@@ -3025,36 +5353,36 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="511">
+      <c r="A48" t="s" s="1069">
         <v>13</v>
       </c>
-      <c r="B48" t="n" s="511">
+      <c r="B48" t="n" s="1069">
         <v>1.0</v>
       </c>
-      <c r="C48" t="s" s="511">
+      <c r="C48" t="s" s="1069">
         <v>14</v>
       </c>
-      <c r="D48" t="n" s="512">
+      <c r="D48" t="n" s="1070">
         <v>-1.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="511">
+      <c r="A49" t="s" s="1069">
         <v>15</v>
       </c>
-      <c r="B49" t="n" s="512">
+      <c r="B49" t="n" s="1070">
         <v>3.637298822402954</v>
       </c>
-      <c r="C49" t="s" s="511">
+      <c r="C49" t="s" s="1069">
         <v>26</v>
       </c>
-      <c r="D49" t="n" s="512">
-        <v>370.0</v>
-      </c>
-      <c r="E49" t="s" s="511">
+      <c r="D49" t="n" s="1070">
+        <v>374.0</v>
+      </c>
+      <c r="E49" t="s" s="1069">
         <v>16</v>
       </c>
-      <c r="F49" t="n" s="512">
+      <c r="F49" t="n" s="1070">
         <v>3.637298822402954</v>
       </c>
     </row>
@@ -3540,14 +5868,14 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="511">
+      <c r="A75" t="s" s="1069">
         <v>23</v>
       </c>
-      <c r="B75" s="511" t="n">
+      <c r="B75" s="1069" t="n">
         <f>SUM(B52:B74)</f>
         <v>124.0</v>
       </c>
-      <c r="E75" s="511" t="n">
+      <c r="E75" s="1069" t="n">
         <f>SUM(E52:E74)</f>
         <v>3.6372985057532787</v>
       </c>
@@ -3556,19 +5884,19 @@
     <row r="77"/>
     <row r="78"/>
     <row r="79">
-      <c r="A79" t="s" s="511">
+      <c r="A79" t="s" s="1069">
         <v>10</v>
       </c>
       <c r="B79" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C79" t="s" s="511">
+      <c r="C79" t="s" s="1069">
         <v>11</v>
       </c>
       <c r="D79" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E79" t="s" s="511">
+      <c r="E79" t="s" s="1069">
         <v>12</v>
       </c>
       <c r="F79" t="n">
@@ -3576,36 +5904,36 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="511">
+      <c r="A80" t="s" s="1069">
         <v>13</v>
       </c>
-      <c r="B80" t="n" s="511">
+      <c r="B80" t="n" s="1069">
         <v>2.0</v>
       </c>
-      <c r="C80" t="s" s="511">
+      <c r="C80" t="s" s="1069">
         <v>14</v>
       </c>
-      <c r="D80" t="n" s="512">
+      <c r="D80" t="n" s="1070">
         <v>-1.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="511">
+      <c r="A81" t="s" s="1069">
         <v>15</v>
       </c>
-      <c r="B81" t="n" s="512">
+      <c r="B81" t="n" s="1070">
         <v>3.413088321685791</v>
       </c>
-      <c r="C81" t="s" s="511">
+      <c r="C81" t="s" s="1069">
         <v>26</v>
       </c>
-      <c r="D81" t="n" s="512">
-        <v>323.0</v>
-      </c>
-      <c r="E81" t="s" s="511">
+      <c r="D81" t="n" s="1070">
+        <v>327.0</v>
+      </c>
+      <c r="E81" t="s" s="1069">
         <v>16</v>
       </c>
-      <c r="F81" t="n" s="512">
+      <c r="F81" t="n" s="1070">
         <v>3.413088321685791</v>
       </c>
     </row>
@@ -3991,14 +6319,14 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="511">
+      <c r="A102" t="s" s="1069">
         <v>23</v>
       </c>
-      <c r="B102" s="511" t="n">
+      <c r="B102" s="1069" t="n">
         <f>SUM(B84:B101)</f>
         <v>97.0</v>
       </c>
-      <c r="E102" s="511" t="n">
+      <c r="E102" s="1069" t="n">
         <f>SUM(E84:E101)</f>
         <v>3.413088470697403</v>
       </c>
@@ -4007,19 +6335,19 @@
     <row r="104"/>
     <row r="105"/>
     <row r="106">
-      <c r="A106" t="s" s="511">
+      <c r="A106" t="s" s="1069">
         <v>10</v>
       </c>
       <c r="B106" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C106" t="s" s="511">
+      <c r="C106" t="s" s="1069">
         <v>11</v>
       </c>
       <c r="D106" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E106" t="s" s="511">
+      <c r="E106" t="s" s="1069">
         <v>12</v>
       </c>
       <c r="F106" t="n">
@@ -4027,36 +6355,36 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="511">
+      <c r="A107" t="s" s="1069">
         <v>13</v>
       </c>
-      <c r="B107" t="n" s="511">
+      <c r="B107" t="n" s="1069">
         <v>3.0</v>
       </c>
-      <c r="C107" t="s" s="511">
+      <c r="C107" t="s" s="1069">
         <v>14</v>
       </c>
-      <c r="D107" t="n" s="512">
+      <c r="D107" t="n" s="1070">
         <v>-1.0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="511">
+      <c r="A108" t="s" s="1069">
         <v>15</v>
       </c>
-      <c r="B108" t="n" s="512">
+      <c r="B108" t="n" s="1070">
         <v>3.637298822402954</v>
       </c>
-      <c r="C108" t="s" s="511">
+      <c r="C108" t="s" s="1069">
         <v>26</v>
       </c>
-      <c r="D108" t="n" s="512">
-        <v>370.0</v>
-      </c>
-      <c r="E108" t="s" s="511">
+      <c r="D108" t="n" s="1070">
+        <v>374.0</v>
+      </c>
+      <c r="E108" t="s" s="1069">
         <v>16</v>
       </c>
-      <c r="F108" t="n" s="512">
+      <c r="F108" t="n" s="1070">
         <v>3.637298822402954</v>
       </c>
     </row>
@@ -4542,14 +6870,14 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="511">
+      <c r="A134" t="s" s="1069">
         <v>23</v>
       </c>
-      <c r="B134" s="511" t="n">
+      <c r="B134" s="1069" t="n">
         <f>SUM(B111:B133)</f>
         <v>124.0</v>
       </c>
-      <c r="E134" s="511" t="n">
+      <c r="E134" s="1069" t="n">
         <f>SUM(E111:E133)</f>
         <v>3.6372985057532787</v>
       </c>
@@ -4558,19 +6886,19 @@
     <row r="136"/>
     <row r="137"/>
     <row r="138">
-      <c r="A138" t="s" s="511">
+      <c r="A138" t="s" s="1069">
         <v>10</v>
       </c>
       <c r="B138" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C138" t="s" s="511">
+      <c r="C138" t="s" s="1069">
         <v>11</v>
       </c>
       <c r="D138" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E138" t="s" s="511">
+      <c r="E138" t="s" s="1069">
         <v>12</v>
       </c>
       <c r="F138" t="n">
@@ -4578,36 +6906,36 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="511">
+      <c r="A139" t="s" s="1069">
         <v>13</v>
       </c>
-      <c r="B139" t="n" s="511">
+      <c r="B139" t="n" s="1069">
         <v>4.0</v>
       </c>
-      <c r="C139" t="s" s="511">
+      <c r="C139" t="s" s="1069">
         <v>14</v>
       </c>
-      <c r="D139" t="n" s="512">
+      <c r="D139" t="n" s="1070">
         <v>-1.0</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="511">
+      <c r="A140" t="s" s="1069">
         <v>15</v>
       </c>
-      <c r="B140" t="n" s="512">
+      <c r="B140" t="n" s="1070">
         <v>3.18915057182312</v>
       </c>
-      <c r="C140" t="s" s="511">
+      <c r="C140" t="s" s="1069">
         <v>26</v>
       </c>
-      <c r="D140" t="n" s="512">
-        <v>308.0</v>
-      </c>
-      <c r="E140" t="s" s="511">
+      <c r="D140" t="n" s="1070">
+        <v>311.0</v>
+      </c>
+      <c r="E140" t="s" s="1069">
         <v>16</v>
       </c>
-      <c r="F140" t="n" s="512">
+      <c r="F140" t="n" s="1070">
         <v>3.18915057182312</v>
       </c>
     </row>
@@ -4953,14 +7281,14 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="511">
+      <c r="A159" t="s" s="1069">
         <v>23</v>
       </c>
-      <c r="B159" s="511" t="n">
+      <c r="B159" s="1069" t="n">
         <f>SUM(B143:B158)</f>
         <v>92.0</v>
       </c>
-      <c r="E159" s="511" t="n">
+      <c r="E159" s="1069" t="n">
         <f>SUM(E143:E158)</f>
         <v>3.189150795340538</v>
       </c>
@@ -4969,19 +7297,19 @@
     <row r="161"/>
     <row r="162"/>
     <row r="163">
-      <c r="A163" t="s" s="511">
+      <c r="A163" t="s" s="1069">
         <v>10</v>
       </c>
       <c r="B163" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C163" t="s" s="511">
+      <c r="C163" t="s" s="1069">
         <v>11</v>
       </c>
       <c r="D163" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E163" t="s" s="511">
+      <c r="E163" t="s" s="1069">
         <v>12</v>
       </c>
       <c r="F163" t="n">
@@ -4989,36 +7317,36 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="511">
+      <c r="A164" t="s" s="1069">
         <v>13</v>
       </c>
-      <c r="B164" t="n" s="511">
+      <c r="B164" t="n" s="1069">
         <v>5.0</v>
       </c>
-      <c r="C164" t="s" s="511">
+      <c r="C164" t="s" s="1069">
         <v>14</v>
       </c>
-      <c r="D164" t="n" s="512">
+      <c r="D164" t="n" s="1070">
         <v>-1.0</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="511">
+      <c r="A165" t="s" s="1069">
         <v>15</v>
       </c>
-      <c r="B165" t="n" s="512">
+      <c r="B165" t="n" s="1070">
         <v>3.6056344509124756</v>
       </c>
-      <c r="C165" t="s" s="511">
+      <c r="C165" t="s" s="1069">
         <v>26</v>
       </c>
-      <c r="D165" t="n" s="512">
-        <v>336.0</v>
-      </c>
-      <c r="E165" t="s" s="511">
+      <c r="D165" t="n" s="1070">
+        <v>340.0</v>
+      </c>
+      <c r="E165" t="s" s="1069">
         <v>16</v>
       </c>
-      <c r="F165" t="n" s="512">
+      <c r="F165" t="n" s="1070">
         <v>3.6056344509124756</v>
       </c>
     </row>
@@ -5444,304 +7772,304 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="511">
+      <c r="A188" t="s" s="1069">
         <v>23</v>
       </c>
-      <c r="B188" s="511" t="n">
+      <c r="B188" s="1069" t="n">
         <f>SUM(B168:B187)</f>
         <v>103.0</v>
       </c>
-      <c r="E188" s="511" t="n">
+      <c r="E188" s="1069" t="n">
         <f>SUM(E168:E187)</f>
         <v>3.6056343242526054</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="481">
+      <c r="A189" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.2931596636772156</v>
+      </c>
+      <c r="D189" t="n">
+        <v>40.41874969392586</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.12413102388381958</v>
+      </c>
+      <c r="F189" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B190" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.30144205689430237</v>
+      </c>
+      <c r="D190" t="n">
+        <v>57.91367687024234</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.09134501218795776</v>
+      </c>
+      <c r="F190" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.07495752722024918</v>
+      </c>
+      <c r="D191" t="n">
+        <v>54.97157757066253</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.22663754224777222</v>
+      </c>
+      <c r="F191" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B192" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.10356690734624863</v>
+      </c>
+      <c r="D192" t="n">
+        <v>100.34802838226881</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.0869453027844429</v>
+      </c>
+      <c r="F192" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.02793951891362667</v>
+      </c>
+      <c r="D193" t="n">
+        <v>152.9990086308677</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.09057970345020294</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>35</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.02793951891362667</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="1039">
         <v>23</v>
       </c>
-      <c r="B189" s="481" t="n">
-        <f>SUM(B167:B188)</f>
-        <v>206.0</v>
-      </c>
-      <c r="E189" s="481" t="n">
-        <f>SUM(E167:E188)</f>
-        <v>7.211268648505211</v>
-      </c>
-    </row>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193">
-      <c r="A193" t="s" s="481">
+      <c r="B195" s="1039" t="n">
+        <f>SUM(B168:B194)</f>
+        <v>218.0</v>
+      </c>
+      <c r="E195" s="1039" t="n">
+        <f>SUM(E168:E194)</f>
+        <v>7.858846751973033</v>
+      </c>
+    </row>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199">
+      <c r="A199" t="s" s="1039">
         <v>10</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B199" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C193" t="s" s="481">
+      <c r="C199" t="s" s="1039">
         <v>11</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D199" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E193" t="s" s="481">
+      <c r="E199" t="s" s="1039">
         <v>12</v>
       </c>
-      <c r="F193" t="n">
+      <c r="F199" t="n">
         <v>41.057835</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="s" s="481">
+    <row r="200">
+      <c r="A200" t="s" s="1039">
         <v>13</v>
       </c>
-      <c r="B194" t="n" s="481">
+      <c r="B200" t="n" s="1039">
         <v>5.0</v>
       </c>
-      <c r="C194" t="s" s="481">
+      <c r="C200" t="s" s="1039">
         <v>14</v>
       </c>
-      <c r="D194" t="n" s="482">
+      <c r="D200" t="n" s="1040">
         <v>-1.0</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="s" s="481">
+    <row r="201">
+      <c r="A201" t="s" s="1039">
         <v>15</v>
       </c>
-      <c r="B195" t="n" s="482">
-        <v>3.6056344509124756</v>
-      </c>
-      <c r="C195" t="s" s="481">
+      <c r="B201" t="n" s="1040">
+        <v>4.327208042144775</v>
+      </c>
+      <c r="C201" t="s" s="1039">
         <v>26</v>
       </c>
-      <c r="D195" t="n" s="482">
-        <v>336.0</v>
-      </c>
-      <c r="E195" t="s" s="481">
+      <c r="D201" t="n" s="1040">
+        <v>425.0</v>
+      </c>
+      <c r="E201" t="s" s="1039">
         <v>16</v>
       </c>
-      <c r="F195" t="n" s="482">
-        <v>3.6056344509124756</v>
-      </c>
-    </row>
-    <row r="196"/>
-    <row r="197">
-      <c r="A197" t="s">
+      <c r="F201" t="n" s="1040">
+        <v>4.327208042144775</v>
+      </c>
+    </row>
+    <row r="202"/>
+    <row r="203">
+      <c r="A203" t="s">
         <v>17</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B203" t="s">
         <v>25</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C203" t="s">
         <v>19</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D203" t="s">
         <v>20</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E203" t="s">
         <v>21</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F203" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B198" t="s">
-        <v>35</v>
-      </c>
-      <c r="C198" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D198" t="n">
-        <v>360.0</v>
-      </c>
-      <c r="E198" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F198" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="B199" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C199" t="n">
-        <v>0.40551504492759705</v>
-      </c>
-      <c r="D199" t="n">
-        <v>320.96758832786674</v>
-      </c>
-      <c r="E199" t="n">
-        <v>0.40551504492759705</v>
-      </c>
-      <c r="F199" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="B200" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C200" t="n">
-        <v>0.4929746091365814</v>
-      </c>
-      <c r="D200" t="n">
-        <v>305.6842274554833</v>
-      </c>
-      <c r="E200" t="n">
-        <v>0.14611230790615082</v>
-      </c>
-      <c r="F200" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="B201" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C201" t="n">
-        <v>0.5690993070602417</v>
-      </c>
-      <c r="D201" t="n">
-        <v>315.04250239551095</v>
-      </c>
-      <c r="E201" t="n">
-        <v>0.11575106531381607</v>
-      </c>
-      <c r="F201" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="B202" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C202" t="n">
-        <v>0.6471188068389893</v>
-      </c>
-      <c r="D202" t="n">
-        <v>297.3318744417029</v>
-      </c>
-      <c r="E202" t="n">
-        <v>0.21096783876419067</v>
-      </c>
-      <c r="F202" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="B203" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C203" t="n">
-        <v>1.073432445526123</v>
-      </c>
-      <c r="D203" t="n">
-        <v>313.35364528534683</v>
-      </c>
-      <c r="E203" t="n">
-        <v>0.49173110723495483</v>
-      </c>
-      <c r="F203" t="n">
-        <v>6.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="B204" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="B204" t="s">
+        <v>35</v>
       </c>
       <c r="C204" t="n">
-        <v>0.9836602210998535</v>
+        <v>0.0</v>
       </c>
       <c r="D204" t="n">
-        <v>321.8257118678917</v>
+        <v>360.0</v>
       </c>
       <c r="E204" t="n">
-        <v>0.16966231167316437</v>
+        <v>0.0</v>
       </c>
       <c r="F204" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>22.0</v>
+        <v>5.0</v>
       </c>
       <c r="B205" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="C205" t="n">
-        <v>1.1121973991394043</v>
+        <v>0.059766702353954315</v>
       </c>
       <c r="D205" t="n">
-        <v>325.67713344108375</v>
+        <v>92.1100154203873</v>
       </c>
       <c r="E205" t="n">
-        <v>0.1432289034128189</v>
+        <v>0.059766702353954315</v>
       </c>
       <c r="F205" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>26.0</v>
+        <v>7.0</v>
       </c>
       <c r="B206" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="C206" t="n">
-        <v>0.9511350989341736</v>
+        <v>0.07495752722024918</v>
       </c>
       <c r="D206" t="n">
-        <v>327.87094689466335</v>
+        <v>54.97157757066253</v>
       </c>
       <c r="E206" t="n">
-        <v>0.16477824747562408</v>
+        <v>0.05339495465159416</v>
       </c>
       <c r="F206" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>27.0</v>
+        <v>40.0</v>
       </c>
       <c r="B207" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9158056378364563</v>
+        <v>0.10356690734624863</v>
       </c>
       <c r="D207" t="n">
-        <v>328.5091022172008</v>
+        <v>100.34802838226881</v>
       </c>
       <c r="E207" t="n">
-        <v>0.03647772595286369</v>
+        <v>0.0869453027844429</v>
       </c>
       <c r="F207" t="n">
         <v>6.0</v>
@@ -5749,59 +8077,59 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>29.0</v>
+        <v>39.0</v>
       </c>
       <c r="B208" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="C208" t="n">
-        <v>0.8602044582366943</v>
+        <v>0.12855416536331177</v>
       </c>
       <c r="D208" t="n">
-        <v>336.4481551373825</v>
+        <v>91.75133489587824</v>
       </c>
       <c r="E208" t="n">
-        <v>0.11803000420331955</v>
+        <v>0.03341617435216904</v>
       </c>
       <c r="F208" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>28.0</v>
+        <v>46.0</v>
       </c>
       <c r="B209" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="C209" t="n">
-        <v>0.833429753780365</v>
+        <v>0.30144205689430237</v>
       </c>
       <c r="D209" t="n">
-        <v>337.24168578127444</v>
+        <v>57.91367687024234</v>
       </c>
       <c r="E209" t="n">
-        <v>0.028472568839788437</v>
+        <v>0.22180157899856567</v>
       </c>
       <c r="F209" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>30.0</v>
+        <v>44.0</v>
       </c>
       <c r="B210" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6677214503288269</v>
+        <v>0.2931596636772156</v>
       </c>
       <c r="D210" t="n">
-        <v>328.7038915916088</v>
+        <v>40.41874969392586</v>
       </c>
       <c r="E210" t="n">
-        <v>0.19035542011260986</v>
+        <v>0.09134501218795776</v>
       </c>
       <c r="F210" t="n">
         <v>6.0</v>
@@ -5809,39 +8137,39 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>38.0</v>
+        <v>51.0</v>
       </c>
       <c r="B211" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C211" t="n">
-        <v>0.48756301403045654</v>
+        <v>0.41277188062667847</v>
       </c>
       <c r="D211" t="n">
-        <v>345.01655380240527</v>
+        <v>34.38996689991217</v>
       </c>
       <c r="E211" t="n">
-        <v>0.22453835606575012</v>
+        <v>0.12413102388381958</v>
       </c>
       <c r="F211" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
       <c r="B212" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="C212" t="n">
-        <v>0.559756338596344</v>
+        <v>0.4411461353302002</v>
       </c>
       <c r="D212" t="n">
-        <v>51.36500124043221</v>
+        <v>36.77637793627173</v>
       </c>
       <c r="E212" t="n">
-        <v>0.49370869994163513</v>
+        <v>0.03253420442342758</v>
       </c>
       <c r="F212" t="n">
         <v>6.0</v>
@@ -5861,7 +8189,7 @@
         <v>47.84357597109522</v>
       </c>
       <c r="E213" t="n">
-        <v>0.14805088937282562</v>
+        <v>0.0824146419763565</v>
       </c>
       <c r="F213" t="n">
         <v>6.0</v>
@@ -5869,95 +8197,801 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>44.0</v>
+        <v>58.0</v>
       </c>
       <c r="B214" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C214" t="n">
-        <v>0.2931596636772156</v>
+        <v>0.5833421349525452</v>
       </c>
       <c r="D214" t="n">
-        <v>40.41874969392586</v>
+        <v>57.04422138060244</v>
       </c>
       <c r="E214" t="n">
-        <v>0.129132941365242</v>
+        <v>0.1873745173215866</v>
       </c>
       <c r="F214" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>39.0</v>
+        <v>57.0</v>
       </c>
       <c r="B215" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C215" t="n">
-        <v>0.12855416536331177</v>
+        <v>0.559756338596344</v>
       </c>
       <c r="D215" t="n">
-        <v>91.75133489587824</v>
+        <v>51.36500124043221</v>
       </c>
       <c r="E215" t="n">
-        <v>0.25213780999183655</v>
+        <v>0.06408242136240005</v>
       </c>
       <c r="F215" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>40.0</v>
+        <v>56.0</v>
       </c>
       <c r="B216" t="n">
         <v>3.0</v>
       </c>
       <c r="C216" t="n">
-        <v>0.10356690734624863</v>
+        <v>0.5436442494392395</v>
       </c>
       <c r="D216" t="n">
-        <v>100.34802838226881</v>
+        <v>38.675402912069785</v>
       </c>
       <c r="E216" t="n">
-        <v>0.03341617435216904</v>
+        <v>0.11930186301469803</v>
       </c>
       <c r="F216" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B217" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.5023859739303589</v>
+      </c>
+      <c r="D217" t="n">
+        <v>19.133669139893698</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.15762394666671753</v>
+      </c>
+      <c r="F217" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B218" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.39102786779403687</v>
+      </c>
+      <c r="D218" t="n">
+        <v>348.9171901495747</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.21286500990390778</v>
+      </c>
+      <c r="F218" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.48756301403045654</v>
+      </c>
+      <c r="D219" t="n">
+        <v>345.01655380240527</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.09934674948453903</v>
+      </c>
+      <c r="F219" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B220" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.6677214503288269</v>
+      </c>
+      <c r="D220" t="n">
+        <v>328.7038915916088</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.22453835606575012</v>
+      </c>
+      <c r="F220" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B221" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.833429753780365</v>
+      </c>
+      <c r="D221" t="n">
+        <v>337.24168578127444</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.19035542011260986</v>
+      </c>
+      <c r="F221" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B222" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.8602044582366943</v>
+      </c>
+      <c r="D222" t="n">
+        <v>336.4481551373825</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.028472568839788437</v>
+      </c>
+      <c r="F222" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B223" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.9158056378364563</v>
+      </c>
+      <c r="D223" t="n">
+        <v>328.5091022172008</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.11803000420331955</v>
+      </c>
+      <c r="F223" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B224" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.9511350989341736</v>
+      </c>
+      <c r="D224" t="n">
+        <v>327.87094689466335</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.03647772595286369</v>
+      </c>
+      <c r="F224" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B225" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1.1121973991394043</v>
+      </c>
+      <c r="D225" t="n">
+        <v>325.67713344108375</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.16477824747562408</v>
+      </c>
+      <c r="F225" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B226" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1.244834303855896</v>
+      </c>
+      <c r="D226" t="n">
+        <v>322.9730002146623</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.14172445237636566</v>
+      </c>
+      <c r="F226" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B227" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1.073432445526123</v>
+      </c>
+      <c r="D227" t="n">
+        <v>313.35364528534683</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.25050246715545654</v>
+      </c>
+      <c r="F227" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B228" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.9836602210998535</v>
+      </c>
+      <c r="D228" t="n">
+        <v>321.8257118678917</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.16966231167316437</v>
+      </c>
+      <c r="F228" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.6471188068389893</v>
+      </c>
+      <c r="D229" t="n">
+        <v>297.3318744417029</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.48166024684906006</v>
+      </c>
+      <c r="F229" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B230" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.5690993070602417</v>
+      </c>
+      <c r="D230" t="n">
+        <v>315.04250239551095</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.21096783876419067</v>
+      </c>
+      <c r="F230" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.4929746091365814</v>
+      </c>
+      <c r="D231" t="n">
+        <v>305.6842274554833</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.11575106531381607</v>
+      </c>
+      <c r="F231" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.40551504492759705</v>
+      </c>
+      <c r="D232" t="n">
+        <v>320.96758832786674</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.14611230790615082</v>
+      </c>
+      <c r="F232" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B233" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.340213805437088</v>
+      </c>
+      <c r="D233" t="n">
+        <v>313.0213892295789</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.08161762356758118</v>
+      </c>
+      <c r="F233" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
         <v>0.0</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B234" t="s">
         <v>35</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C234" t="n">
         <v>0.0</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D234" t="n">
         <v>360.0</v>
       </c>
-      <c r="E217" t="n">
+      <c r="E234" t="n">
+        <v>0.340213805437088</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="1039">
+        <v>23</v>
+      </c>
+      <c r="B235" s="1039" t="n">
+        <f>SUM(B204:B234)</f>
+        <v>144.0</v>
+      </c>
+      <c r="E235" s="1039" t="n">
+        <f>SUM(E204:E234)</f>
+        <v>4.327208545058966</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B236" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.4147675037384033</v>
+      </c>
+      <c r="D236" t="n">
+        <v>47.84357597109522</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.1873745173215866</v>
+      </c>
+      <c r="F236" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B237" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.30144205689430237</v>
+      </c>
+      <c r="D237" t="n">
+        <v>57.91367687024234</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.13037799298763275</v>
+      </c>
+      <c r="F237" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.2931596636772156</v>
+      </c>
+      <c r="D238" t="n">
+        <v>40.41874969392586</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.09134501218795776</v>
+      </c>
+      <c r="F238" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B239" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.12855416536331177</v>
+      </c>
+      <c r="D239" t="n">
+        <v>91.75133489587824</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.25213780999183655</v>
+      </c>
+      <c r="F239" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B240" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C240" t="n">
         <v>0.10356690734624863</v>
       </c>
-      <c r="F217" t="n">
+      <c r="D240" t="n">
+        <v>100.34802838226881</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.03341617435216904</v>
+      </c>
+      <c r="F240" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.07377470284700394</v>
+      </c>
+      <c r="D241" t="n">
+        <v>78.73089693631852</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.05146251618862152</v>
+      </c>
+      <c r="F241" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s" s="481">
+      <c r="B242" t="s">
+        <v>35</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D242" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.07377470284700394</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="997">
         <v>23</v>
       </c>
-      <c r="B218" s="481" t="n">
-        <f>SUM(B198:B217)</f>
-        <v>103.0</v>
-      </c>
-      <c r="E218" s="481" t="n">
-        <f>SUM(E198:E217)</f>
-        <v>3.6056343242526054</v>
+      <c r="B243" s="997" t="n">
+        <f>SUM(B215:B242)</f>
+        <v>272.0</v>
+      </c>
+      <c r="E243" s="997" t="n">
+        <f>SUM(E215:E242)</f>
+        <v>8.501181703060865</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B244" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.4411461353302002</v>
+      </c>
+      <c r="D244" t="n">
+        <v>36.77637793627173</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.08923254907131195</v>
+      </c>
+      <c r="F244" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B245" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.5436442494392395</v>
+      </c>
+      <c r="D245" t="n">
+        <v>38.675402912069785</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.10356427729129791</v>
+      </c>
+      <c r="F245" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.559756338596344</v>
+      </c>
+      <c r="D246" t="n">
+        <v>51.36500124043221</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.11930186301469803</v>
+      </c>
+      <c r="F246" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B247" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.5833421349525452</v>
+      </c>
+      <c r="D247" t="n">
+        <v>57.04422138060244</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.06408242136240005</v>
+      </c>
+      <c r="F247" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B248" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.4147675037384033</v>
+      </c>
+      <c r="D248" t="n">
+        <v>47.84357597109522</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.1873745173215866</v>
+      </c>
+      <c r="F248" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B249" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.30144205689430237</v>
+      </c>
+      <c r="D249" t="n">
+        <v>57.91367687024234</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.13037799298763275</v>
+      </c>
+      <c r="F249" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.2931596636772156</v>
+      </c>
+      <c r="D250" t="n">
+        <v>40.41874969392586</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.09134501218795776</v>
+      </c>
+      <c r="F250" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B251" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.12855416536331177</v>
+      </c>
+      <c r="D251" t="n">
+        <v>91.75133489587824</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.25213780999183655</v>
+      </c>
+      <c r="F251" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B252" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.10356690734624863</v>
+      </c>
+      <c r="D252" t="n">
+        <v>100.34802838226881</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.03341617435216904</v>
+      </c>
+      <c r="F252" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B253" t="s">
+        <v>35</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D253" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.10356690734624863</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="961">
+        <v>23</v>
+      </c>
+      <c r="B254" s="961" t="n">
+        <f>SUM(B223:B253)</f>
+        <v>541.0</v>
+      </c>
+      <c r="E254" s="961" t="n">
+        <f>SUM(E223:E253)</f>
+        <v>17.08017659559846</v>
       </c>
     </row>
   </sheetData>

--- a/data/TR/results/All_Long_Solutions.xlsx
+++ b/data/TR/results/All_Long_Solutions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="33">
   <si>
     <t>Filename</t>
   </si>
@@ -109,19 +109,97 @@
   <si>
     <t>Summation</t>
   </si>
+  <si>
+    <t>edu.sru.thangiah.zeus.QAHeuristics.Selection.ClosestDistanceToDepot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="19">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -179,13 +257,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -203,16 +331,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.54296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.2890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.90625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.7734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.36328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="63.8359375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.39453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.9140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.87109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="3">
+      <c r="A1" t="s" s="33">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -220,15 +348,15 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="33">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="33">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -236,7 +364,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="3">
+      <c r="A4" t="s" s="33">
         <v>6</v>
       </c>
       <c r="B4" t="n">
@@ -244,7 +372,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="3">
+      <c r="A5" t="s" s="33">
         <v>7</v>
       </c>
       <c r="B5" t="n">
@@ -255,7 +383,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="3">
+      <c r="A6" t="s" s="33">
         <v>9</v>
       </c>
       <c r="B6" t="n">
@@ -285,10 +413,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="1">
+      <c r="A9" t="s" s="31">
         <v>14</v>
       </c>
-      <c r="B9" t="s" s="1">
+      <c r="B9" t="s" s="31">
         <v>15</v>
       </c>
     </row>
@@ -297,19 +425,19 @@
     <row r="12"/>
     <row r="13"/>
     <row r="14">
-      <c r="A14" t="s" s="1">
+      <c r="A14" t="s" s="31">
         <v>16</v>
       </c>
       <c r="B14" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C14" t="s" s="1">
+      <c r="C14" t="s" s="31">
         <v>17</v>
       </c>
       <c r="D14" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E14" t="s" s="1">
+      <c r="E14" t="s" s="31">
         <v>18</v>
       </c>
       <c r="F14" t="n">
@@ -317,36 +445,36 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="1">
+      <c r="A15" t="s" s="31">
         <v>19</v>
       </c>
-      <c r="B15" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C15" t="s" s="1">
+      <c r="B15" t="n" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="s" s="31">
         <v>20</v>
       </c>
-      <c r="D15" t="n" s="2">
+      <c r="D15" t="n" s="32">
         <v>-1.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="1">
+      <c r="A16" t="s" s="31">
         <v>21</v>
       </c>
-      <c r="B16" t="n" s="2">
+      <c r="B16" t="n" s="32">
         <v>4.609101295471191</v>
       </c>
-      <c r="C16" t="s" s="1">
+      <c r="C16" t="s" s="31">
         <v>22</v>
       </c>
-      <c r="D16" t="n" s="2">
+      <c r="D16" t="n" s="32">
         <v>355.0</v>
       </c>
-      <c r="E16" t="s" s="1">
+      <c r="E16" t="s" s="31">
         <v>23</v>
       </c>
-      <c r="F16" t="n" s="2">
+      <c r="F16" t="n" s="32">
         <v>4.609101295471191</v>
       </c>
     </row>
@@ -852,14 +980,14 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="1">
+      <c r="A43" t="s" s="31">
         <v>31</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="31" t="n">
         <f>SUM(B19:B42)</f>
         <v>108.0</v>
       </c>
-      <c r="E43" s="1" t="n">
+      <c r="E43" s="31" t="n">
         <f>SUM(E19:E42)</f>
         <v>4.609101198613644</v>
       </c>
@@ -868,19 +996,19 @@
     <row r="45"/>
     <row r="46"/>
     <row r="47">
-      <c r="A47" t="s" s="1">
+      <c r="A47" t="s" s="31">
         <v>16</v>
       </c>
       <c r="B47" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C47" t="s" s="1">
+      <c r="C47" t="s" s="31">
         <v>17</v>
       </c>
       <c r="D47" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E47" t="s" s="1">
+      <c r="E47" t="s" s="31">
         <v>18</v>
       </c>
       <c r="F47" t="n">
@@ -888,36 +1016,36 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="1">
+      <c r="A48" t="s" s="31">
         <v>19</v>
       </c>
-      <c r="B48" t="n" s="1">
+      <c r="B48" t="n" s="31">
         <v>1.0</v>
       </c>
-      <c r="C48" t="s" s="1">
+      <c r="C48" t="s" s="31">
         <v>20</v>
       </c>
-      <c r="D48" t="n" s="2">
+      <c r="D48" t="n" s="32">
         <v>-1.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="1">
+      <c r="A49" t="s" s="31">
         <v>21</v>
       </c>
-      <c r="B49" t="n" s="2">
+      <c r="B49" t="n" s="32">
         <v>3.637298822402954</v>
       </c>
-      <c r="C49" t="s" s="1">
+      <c r="C49" t="s" s="31">
         <v>22</v>
       </c>
-      <c r="D49" t="n" s="2">
+      <c r="D49" t="n" s="32">
         <v>374.0</v>
       </c>
-      <c r="E49" t="s" s="1">
+      <c r="E49" t="s" s="31">
         <v>23</v>
       </c>
-      <c r="F49" t="n" s="2">
+      <c r="F49" t="n" s="32">
         <v>3.637298822402954</v>
       </c>
     </row>
@@ -1403,14 +1531,14 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="1">
+      <c r="A75" t="s" s="31">
         <v>31</v>
       </c>
-      <c r="B75" s="1" t="n">
+      <c r="B75" s="31" t="n">
         <f>SUM(B52:B74)</f>
         <v>124.0</v>
       </c>
-      <c r="E75" s="1" t="n">
+      <c r="E75" s="31" t="n">
         <f>SUM(E52:E74)</f>
         <v>3.6372985057532787</v>
       </c>
@@ -1419,19 +1547,19 @@
     <row r="77"/>
     <row r="78"/>
     <row r="79">
-      <c r="A79" t="s" s="1">
+      <c r="A79" t="s" s="31">
         <v>16</v>
       </c>
       <c r="B79" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C79" t="s" s="1">
+      <c r="C79" t="s" s="31">
         <v>17</v>
       </c>
       <c r="D79" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E79" t="s" s="1">
+      <c r="E79" t="s" s="31">
         <v>18</v>
       </c>
       <c r="F79" t="n">
@@ -1439,36 +1567,36 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="1">
+      <c r="A80" t="s" s="31">
         <v>19</v>
       </c>
-      <c r="B80" t="n" s="1">
+      <c r="B80" t="n" s="31">
         <v>2.0</v>
       </c>
-      <c r="C80" t="s" s="1">
+      <c r="C80" t="s" s="31">
         <v>20</v>
       </c>
-      <c r="D80" t="n" s="2">
+      <c r="D80" t="n" s="32">
         <v>-1.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="1">
+      <c r="A81" t="s" s="31">
         <v>21</v>
       </c>
-      <c r="B81" t="n" s="2">
+      <c r="B81" t="n" s="32">
         <v>3.413088321685791</v>
       </c>
-      <c r="C81" t="s" s="1">
+      <c r="C81" t="s" s="31">
         <v>22</v>
       </c>
-      <c r="D81" t="n" s="2">
+      <c r="D81" t="n" s="32">
         <v>327.0</v>
       </c>
-      <c r="E81" t="s" s="1">
+      <c r="E81" t="s" s="31">
         <v>23</v>
       </c>
-      <c r="F81" t="n" s="2">
+      <c r="F81" t="n" s="32">
         <v>3.413088321685791</v>
       </c>
     </row>
@@ -1854,14 +1982,14 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="1">
+      <c r="A102" t="s" s="31">
         <v>31</v>
       </c>
-      <c r="B102" s="1" t="n">
+      <c r="B102" s="31" t="n">
         <f>SUM(B84:B101)</f>
         <v>97.0</v>
       </c>
-      <c r="E102" s="1" t="n">
+      <c r="E102" s="31" t="n">
         <f>SUM(E84:E101)</f>
         <v>3.413088470697403</v>
       </c>
@@ -1870,19 +1998,19 @@
     <row r="104"/>
     <row r="105"/>
     <row r="106">
-      <c r="A106" t="s" s="1">
+      <c r="A106" t="s" s="31">
         <v>16</v>
       </c>
       <c r="B106" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C106" t="s" s="1">
+      <c r="C106" t="s" s="31">
         <v>17</v>
       </c>
       <c r="D106" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E106" t="s" s="1">
+      <c r="E106" t="s" s="31">
         <v>18</v>
       </c>
       <c r="F106" t="n">
@@ -1890,36 +2018,36 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="1">
+      <c r="A107" t="s" s="31">
         <v>19</v>
       </c>
-      <c r="B107" t="n" s="1">
+      <c r="B107" t="n" s="31">
         <v>3.0</v>
       </c>
-      <c r="C107" t="s" s="1">
+      <c r="C107" t="s" s="31">
         <v>20</v>
       </c>
-      <c r="D107" t="n" s="2">
+      <c r="D107" t="n" s="32">
         <v>-1.0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="1">
+      <c r="A108" t="s" s="31">
         <v>21</v>
       </c>
-      <c r="B108" t="n" s="2">
+      <c r="B108" t="n" s="32">
         <v>3.637298822402954</v>
       </c>
-      <c r="C108" t="s" s="1">
+      <c r="C108" t="s" s="31">
         <v>22</v>
       </c>
-      <c r="D108" t="n" s="2">
+      <c r="D108" t="n" s="32">
         <v>374.0</v>
       </c>
-      <c r="E108" t="s" s="1">
+      <c r="E108" t="s" s="31">
         <v>23</v>
       </c>
-      <c r="F108" t="n" s="2">
+      <c r="F108" t="n" s="32">
         <v>3.637298822402954</v>
       </c>
     </row>
@@ -2405,14 +2533,14 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="1">
+      <c r="A134" t="s" s="31">
         <v>31</v>
       </c>
-      <c r="B134" s="1" t="n">
+      <c r="B134" s="31" t="n">
         <f>SUM(B111:B133)</f>
         <v>124.0</v>
       </c>
-      <c r="E134" s="1" t="n">
+      <c r="E134" s="31" t="n">
         <f>SUM(E111:E133)</f>
         <v>3.6372985057532787</v>
       </c>
@@ -2421,19 +2549,19 @@
     <row r="136"/>
     <row r="137"/>
     <row r="138">
-      <c r="A138" t="s" s="1">
+      <c r="A138" t="s" s="31">
         <v>16</v>
       </c>
       <c r="B138" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C138" t="s" s="1">
+      <c r="C138" t="s" s="31">
         <v>17</v>
       </c>
       <c r="D138" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E138" t="s" s="1">
+      <c r="E138" t="s" s="31">
         <v>18</v>
       </c>
       <c r="F138" t="n">
@@ -2441,36 +2569,36 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="1">
+      <c r="A139" t="s" s="31">
         <v>19</v>
       </c>
-      <c r="B139" t="n" s="1">
+      <c r="B139" t="n" s="31">
         <v>4.0</v>
       </c>
-      <c r="C139" t="s" s="1">
+      <c r="C139" t="s" s="31">
         <v>20</v>
       </c>
-      <c r="D139" t="n" s="2">
+      <c r="D139" t="n" s="32">
         <v>-1.0</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="1">
+      <c r="A140" t="s" s="31">
         <v>21</v>
       </c>
-      <c r="B140" t="n" s="2">
+      <c r="B140" t="n" s="32">
         <v>3.18915057182312</v>
       </c>
-      <c r="C140" t="s" s="1">
+      <c r="C140" t="s" s="31">
         <v>22</v>
       </c>
-      <c r="D140" t="n" s="2">
+      <c r="D140" t="n" s="32">
         <v>311.0</v>
       </c>
-      <c r="E140" t="s" s="1">
+      <c r="E140" t="s" s="31">
         <v>23</v>
       </c>
-      <c r="F140" t="n" s="2">
+      <c r="F140" t="n" s="32">
         <v>3.18915057182312</v>
       </c>
     </row>
@@ -2816,14 +2944,14 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="1">
+      <c r="A159" t="s" s="31">
         <v>31</v>
       </c>
-      <c r="B159" s="1" t="n">
+      <c r="B159" s="31" t="n">
         <f>SUM(B143:B158)</f>
         <v>92.0</v>
       </c>
-      <c r="E159" s="1" t="n">
+      <c r="E159" s="31" t="n">
         <f>SUM(E143:E158)</f>
         <v>3.189150795340538</v>
       </c>
@@ -2832,19 +2960,19 @@
     <row r="161"/>
     <row r="162"/>
     <row r="163">
-      <c r="A163" t="s" s="1">
+      <c r="A163" t="s" s="31">
         <v>16</v>
       </c>
       <c r="B163" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C163" t="s" s="1">
+      <c r="C163" t="s" s="31">
         <v>17</v>
       </c>
       <c r="D163" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E163" t="s" s="1">
+      <c r="E163" t="s" s="31">
         <v>18</v>
       </c>
       <c r="F163" t="n">
@@ -2852,36 +2980,36 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="1">
+      <c r="A164" t="s" s="31">
         <v>19</v>
       </c>
-      <c r="B164" t="n" s="1">
+      <c r="B164" t="n" s="31">
         <v>5.0</v>
       </c>
-      <c r="C164" t="s" s="1">
+      <c r="C164" t="s" s="31">
         <v>20</v>
       </c>
-      <c r="D164" t="n" s="2">
+      <c r="D164" t="n" s="32">
         <v>-1.0</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="1">
+      <c r="A165" t="s" s="31">
         <v>21</v>
       </c>
-      <c r="B165" t="n" s="2">
+      <c r="B165" t="n" s="32">
         <v>3.6056344509124756</v>
       </c>
-      <c r="C165" t="s" s="1">
+      <c r="C165" t="s" s="31">
         <v>22</v>
       </c>
-      <c r="D165" t="n" s="2">
+      <c r="D165" t="n" s="32">
         <v>340.0</v>
       </c>
-      <c r="E165" t="s" s="1">
+      <c r="E165" t="s" s="31">
         <v>23</v>
       </c>
-      <c r="F165" t="n" s="2">
+      <c r="F165" t="n" s="32">
         <v>3.6056344509124756</v>
       </c>
     </row>
@@ -3307,14 +3435,14 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="1">
+      <c r="A188" t="s" s="31">
         <v>31</v>
       </c>
-      <c r="B188" s="1" t="n">
+      <c r="B188" s="31" t="n">
         <f>SUM(B168:B187)</f>
         <v>103.0</v>
       </c>
-      <c r="E188" s="1" t="n">
+      <c r="E188" s="31" t="n">
         <f>SUM(E168:E187)</f>
         <v>3.6056343242526054</v>
       </c>

--- a/data/TR/results/All_Long_Solutions.xlsx
+++ b/data/TR/results/All_Long_Solutions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="33">
   <si>
     <t>Filename</t>
   </si>
@@ -118,13 +118,43 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="19">
+  <fonts count="25">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -257,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -319,6 +349,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -332,7 +382,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="63.8359375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.9921875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.39453125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="16.9140625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="22.796875" collapsed="true"/>
@@ -340,7 +390,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="33">
+      <c r="A1" t="s" s="45">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -348,15 +398,15 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="33">
+      <c r="A2" t="s" s="45">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="33">
+      <c r="A3" t="s" s="45">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -364,7 +414,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="33">
+      <c r="A4" t="s" s="45">
         <v>6</v>
       </c>
       <c r="B4" t="n">
@@ -372,7 +422,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="33">
+      <c r="A5" t="s" s="45">
         <v>7</v>
       </c>
       <c r="B5" t="n">
@@ -383,7 +433,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="33">
+      <c r="A6" t="s" s="45">
         <v>9</v>
       </c>
       <c r="B6" t="n">
@@ -413,10 +463,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="31">
+      <c r="A9" t="s" s="43">
         <v>14</v>
       </c>
-      <c r="B9" t="s" s="31">
+      <c r="B9" t="s" s="43">
         <v>15</v>
       </c>
     </row>
@@ -425,19 +475,19 @@
     <row r="12"/>
     <row r="13"/>
     <row r="14">
-      <c r="A14" t="s" s="31">
+      <c r="A14" t="s" s="43">
         <v>16</v>
       </c>
       <c r="B14" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C14" t="s" s="31">
+      <c r="C14" t="s" s="43">
         <v>17</v>
       </c>
       <c r="D14" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E14" t="s" s="31">
+      <c r="E14" t="s" s="43">
         <v>18</v>
       </c>
       <c r="F14" t="n">
@@ -445,36 +495,36 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="31">
+      <c r="A15" t="s" s="43">
         <v>19</v>
       </c>
-      <c r="B15" t="n" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="C15" t="s" s="31">
+      <c r="B15" t="n" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="s" s="43">
         <v>20</v>
       </c>
-      <c r="D15" t="n" s="32">
+      <c r="D15" t="n" s="44">
         <v>-1.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="31">
+      <c r="A16" t="s" s="43">
         <v>21</v>
       </c>
-      <c r="B16" t="n" s="32">
+      <c r="B16" t="n" s="44">
         <v>4.609101295471191</v>
       </c>
-      <c r="C16" t="s" s="31">
+      <c r="C16" t="s" s="43">
         <v>22</v>
       </c>
-      <c r="D16" t="n" s="32">
+      <c r="D16" t="n" s="44">
         <v>355.0</v>
       </c>
-      <c r="E16" t="s" s="31">
+      <c r="E16" t="s" s="43">
         <v>23</v>
       </c>
-      <c r="F16" t="n" s="32">
+      <c r="F16" t="n" s="44">
         <v>4.609101295471191</v>
       </c>
     </row>
@@ -980,14 +1030,14 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="31">
+      <c r="A43" t="s" s="43">
         <v>31</v>
       </c>
-      <c r="B43" s="31" t="n">
+      <c r="B43" s="43" t="n">
         <f>SUM(B19:B42)</f>
         <v>108.0</v>
       </c>
-      <c r="E43" s="31" t="n">
+      <c r="E43" s="43" t="n">
         <f>SUM(E19:E42)</f>
         <v>4.609101198613644</v>
       </c>
@@ -996,19 +1046,19 @@
     <row r="45"/>
     <row r="46"/>
     <row r="47">
-      <c r="A47" t="s" s="31">
+      <c r="A47" t="s" s="43">
         <v>16</v>
       </c>
       <c r="B47" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C47" t="s" s="31">
+      <c r="C47" t="s" s="43">
         <v>17</v>
       </c>
       <c r="D47" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E47" t="s" s="31">
+      <c r="E47" t="s" s="43">
         <v>18</v>
       </c>
       <c r="F47" t="n">
@@ -1016,36 +1066,36 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="31">
+      <c r="A48" t="s" s="43">
         <v>19</v>
       </c>
-      <c r="B48" t="n" s="31">
+      <c r="B48" t="n" s="43">
         <v>1.0</v>
       </c>
-      <c r="C48" t="s" s="31">
+      <c r="C48" t="s" s="43">
         <v>20</v>
       </c>
-      <c r="D48" t="n" s="32">
+      <c r="D48" t="n" s="44">
         <v>-1.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="31">
+      <c r="A49" t="s" s="43">
         <v>21</v>
       </c>
-      <c r="B49" t="n" s="32">
+      <c r="B49" t="n" s="44">
         <v>3.637298822402954</v>
       </c>
-      <c r="C49" t="s" s="31">
+      <c r="C49" t="s" s="43">
         <v>22</v>
       </c>
-      <c r="D49" t="n" s="32">
+      <c r="D49" t="n" s="44">
         <v>374.0</v>
       </c>
-      <c r="E49" t="s" s="31">
+      <c r="E49" t="s" s="43">
         <v>23</v>
       </c>
-      <c r="F49" t="n" s="32">
+      <c r="F49" t="n" s="44">
         <v>3.637298822402954</v>
       </c>
     </row>
@@ -1531,14 +1581,14 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="31">
+      <c r="A75" t="s" s="43">
         <v>31</v>
       </c>
-      <c r="B75" s="31" t="n">
+      <c r="B75" s="43" t="n">
         <f>SUM(B52:B74)</f>
         <v>124.0</v>
       </c>
-      <c r="E75" s="31" t="n">
+      <c r="E75" s="43" t="n">
         <f>SUM(E52:E74)</f>
         <v>3.6372985057532787</v>
       </c>
@@ -1547,19 +1597,19 @@
     <row r="77"/>
     <row r="78"/>
     <row r="79">
-      <c r="A79" t="s" s="31">
+      <c r="A79" t="s" s="43">
         <v>16</v>
       </c>
       <c r="B79" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C79" t="s" s="31">
+      <c r="C79" t="s" s="43">
         <v>17</v>
       </c>
       <c r="D79" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E79" t="s" s="31">
+      <c r="E79" t="s" s="43">
         <v>18</v>
       </c>
       <c r="F79" t="n">
@@ -1567,36 +1617,36 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="31">
+      <c r="A80" t="s" s="43">
         <v>19</v>
       </c>
-      <c r="B80" t="n" s="31">
+      <c r="B80" t="n" s="43">
         <v>2.0</v>
       </c>
-      <c r="C80" t="s" s="31">
+      <c r="C80" t="s" s="43">
         <v>20</v>
       </c>
-      <c r="D80" t="n" s="32">
+      <c r="D80" t="n" s="44">
         <v>-1.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="31">
+      <c r="A81" t="s" s="43">
         <v>21</v>
       </c>
-      <c r="B81" t="n" s="32">
+      <c r="B81" t="n" s="44">
         <v>3.413088321685791</v>
       </c>
-      <c r="C81" t="s" s="31">
+      <c r="C81" t="s" s="43">
         <v>22</v>
       </c>
-      <c r="D81" t="n" s="32">
+      <c r="D81" t="n" s="44">
         <v>327.0</v>
       </c>
-      <c r="E81" t="s" s="31">
+      <c r="E81" t="s" s="43">
         <v>23</v>
       </c>
-      <c r="F81" t="n" s="32">
+      <c r="F81" t="n" s="44">
         <v>3.413088321685791</v>
       </c>
     </row>
@@ -1982,14 +2032,14 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="31">
+      <c r="A102" t="s" s="43">
         <v>31</v>
       </c>
-      <c r="B102" s="31" t="n">
+      <c r="B102" s="43" t="n">
         <f>SUM(B84:B101)</f>
         <v>97.0</v>
       </c>
-      <c r="E102" s="31" t="n">
+      <c r="E102" s="43" t="n">
         <f>SUM(E84:E101)</f>
         <v>3.413088470697403</v>
       </c>
@@ -1998,19 +2048,19 @@
     <row r="104"/>
     <row r="105"/>
     <row r="106">
-      <c r="A106" t="s" s="31">
+      <c r="A106" t="s" s="43">
         <v>16</v>
       </c>
       <c r="B106" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C106" t="s" s="31">
+      <c r="C106" t="s" s="43">
         <v>17</v>
       </c>
       <c r="D106" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E106" t="s" s="31">
+      <c r="E106" t="s" s="43">
         <v>18</v>
       </c>
       <c r="F106" t="n">
@@ -2018,36 +2068,36 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="31">
+      <c r="A107" t="s" s="43">
         <v>19</v>
       </c>
-      <c r="B107" t="n" s="31">
+      <c r="B107" t="n" s="43">
         <v>3.0</v>
       </c>
-      <c r="C107" t="s" s="31">
+      <c r="C107" t="s" s="43">
         <v>20</v>
       </c>
-      <c r="D107" t="n" s="32">
+      <c r="D107" t="n" s="44">
         <v>-1.0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="31">
+      <c r="A108" t="s" s="43">
         <v>21</v>
       </c>
-      <c r="B108" t="n" s="32">
+      <c r="B108" t="n" s="44">
         <v>3.637298822402954</v>
       </c>
-      <c r="C108" t="s" s="31">
+      <c r="C108" t="s" s="43">
         <v>22</v>
       </c>
-      <c r="D108" t="n" s="32">
+      <c r="D108" t="n" s="44">
         <v>374.0</v>
       </c>
-      <c r="E108" t="s" s="31">
+      <c r="E108" t="s" s="43">
         <v>23</v>
       </c>
-      <c r="F108" t="n" s="32">
+      <c r="F108" t="n" s="44">
         <v>3.637298822402954</v>
       </c>
     </row>
@@ -2533,14 +2583,14 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="31">
+      <c r="A134" t="s" s="43">
         <v>31</v>
       </c>
-      <c r="B134" s="31" t="n">
+      <c r="B134" s="43" t="n">
         <f>SUM(B111:B133)</f>
         <v>124.0</v>
       </c>
-      <c r="E134" s="31" t="n">
+      <c r="E134" s="43" t="n">
         <f>SUM(E111:E133)</f>
         <v>3.6372985057532787</v>
       </c>
@@ -2549,19 +2599,19 @@
     <row r="136"/>
     <row r="137"/>
     <row r="138">
-      <c r="A138" t="s" s="31">
+      <c r="A138" t="s" s="43">
         <v>16</v>
       </c>
       <c r="B138" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C138" t="s" s="31">
+      <c r="C138" t="s" s="43">
         <v>17</v>
       </c>
       <c r="D138" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E138" t="s" s="31">
+      <c r="E138" t="s" s="43">
         <v>18</v>
       </c>
       <c r="F138" t="n">
@@ -2569,36 +2619,36 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="31">
+      <c r="A139" t="s" s="43">
         <v>19</v>
       </c>
-      <c r="B139" t="n" s="31">
+      <c r="B139" t="n" s="43">
         <v>4.0</v>
       </c>
-      <c r="C139" t="s" s="31">
+      <c r="C139" t="s" s="43">
         <v>20</v>
       </c>
-      <c r="D139" t="n" s="32">
+      <c r="D139" t="n" s="44">
         <v>-1.0</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="31">
+      <c r="A140" t="s" s="43">
         <v>21</v>
       </c>
-      <c r="B140" t="n" s="32">
+      <c r="B140" t="n" s="44">
         <v>3.18915057182312</v>
       </c>
-      <c r="C140" t="s" s="31">
+      <c r="C140" t="s" s="43">
         <v>22</v>
       </c>
-      <c r="D140" t="n" s="32">
+      <c r="D140" t="n" s="44">
         <v>311.0</v>
       </c>
-      <c r="E140" t="s" s="31">
+      <c r="E140" t="s" s="43">
         <v>23</v>
       </c>
-      <c r="F140" t="n" s="32">
+      <c r="F140" t="n" s="44">
         <v>3.18915057182312</v>
       </c>
     </row>
@@ -2944,14 +2994,14 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="31">
+      <c r="A159" t="s" s="43">
         <v>31</v>
       </c>
-      <c r="B159" s="31" t="n">
+      <c r="B159" s="43" t="n">
         <f>SUM(B143:B158)</f>
         <v>92.0</v>
       </c>
-      <c r="E159" s="31" t="n">
+      <c r="E159" s="43" t="n">
         <f>SUM(E143:E158)</f>
         <v>3.189150795340538</v>
       </c>
@@ -2960,19 +3010,19 @@
     <row r="161"/>
     <row r="162"/>
     <row r="163">
-      <c r="A163" t="s" s="31">
+      <c r="A163" t="s" s="43">
         <v>16</v>
       </c>
       <c r="B163" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C163" t="s" s="31">
+      <c r="C163" t="s" s="43">
         <v>17</v>
       </c>
       <c r="D163" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E163" t="s" s="31">
+      <c r="E163" t="s" s="43">
         <v>18</v>
       </c>
       <c r="F163" t="n">
@@ -2980,36 +3030,36 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="31">
+      <c r="A164" t="s" s="43">
         <v>19</v>
       </c>
-      <c r="B164" t="n" s="31">
+      <c r="B164" t="n" s="43">
         <v>5.0</v>
       </c>
-      <c r="C164" t="s" s="31">
+      <c r="C164" t="s" s="43">
         <v>20</v>
       </c>
-      <c r="D164" t="n" s="32">
+      <c r="D164" t="n" s="44">
         <v>-1.0</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="31">
+      <c r="A165" t="s" s="43">
         <v>21</v>
       </c>
-      <c r="B165" t="n" s="32">
+      <c r="B165" t="n" s="44">
         <v>3.6056344509124756</v>
       </c>
-      <c r="C165" t="s" s="31">
+      <c r="C165" t="s" s="43">
         <v>22</v>
       </c>
-      <c r="D165" t="n" s="32">
+      <c r="D165" t="n" s="44">
         <v>340.0</v>
       </c>
-      <c r="E165" t="s" s="31">
+      <c r="E165" t="s" s="43">
         <v>23</v>
       </c>
-      <c r="F165" t="n" s="32">
+      <c r="F165" t="n" s="44">
         <v>3.6056344509124756</v>
       </c>
     </row>
@@ -3435,14 +3485,14 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="31">
+      <c r="A188" t="s" s="43">
         <v>31</v>
       </c>
-      <c r="B188" s="31" t="n">
+      <c r="B188" s="43" t="n">
         <f>SUM(B168:B187)</f>
         <v>103.0</v>
       </c>
-      <c r="E188" s="31" t="n">
+      <c r="E188" s="43" t="n">
         <f>SUM(E168:E187)</f>
         <v>3.6056343242526054</v>
       </c>

--- a/data/TR/results/All_Long_Solutions.xlsx
+++ b/data/TR/results/All_Long_Solutions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="32">
   <si>
     <t>Filename</t>
   </si>
@@ -115,13 +115,58 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -179,13 +224,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -203,16 +278,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.54296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.2890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.90625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.7734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.36328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.54296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.2890625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.7734375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.35546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="3">
+      <c r="A1" t="s" s="21">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -220,7 +295,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="21">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -228,7 +303,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="21">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -236,7 +311,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="3">
+      <c r="A4" t="s" s="21">
         <v>6</v>
       </c>
       <c r="B4" t="n">
@@ -244,22 +319,22 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="3">
+      <c r="A5" t="s" s="21">
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="3">
+      <c r="A6" t="s" s="21">
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="7">
@@ -278,17 +353,17 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>2081.0</v>
+        <v>2277.0</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="1">
+      <c r="A9" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="B9" t="s" s="1">
+      <c r="B9" t="s" s="19">
         <v>15</v>
       </c>
     </row>
@@ -297,19 +372,19 @@
     <row r="12"/>
     <row r="13"/>
     <row r="14">
-      <c r="A14" t="s" s="1">
+      <c r="A14" t="s" s="19">
         <v>16</v>
       </c>
       <c r="B14" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C14" t="s" s="1">
+      <c r="C14" t="s" s="19">
         <v>17</v>
       </c>
       <c r="D14" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E14" t="s" s="1">
+      <c r="E14" t="s" s="19">
         <v>18</v>
       </c>
       <c r="F14" t="n">
@@ -317,37 +392,37 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="1">
+      <c r="A15" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="B15" t="n" s="1">
+      <c r="B15" t="n" s="19">
         <v>0.0</v>
       </c>
-      <c r="C15" t="s" s="1">
+      <c r="C15" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="D15" t="n" s="2">
+      <c r="D15" t="n" s="20">
         <v>-1.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="1">
+      <c r="A16" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="B16" t="n" s="2">
-        <v>4.609101295471191</v>
-      </c>
-      <c r="C16" t="s" s="1">
+      <c r="B16" t="n" s="20">
+        <v>6.831668376922607</v>
+      </c>
+      <c r="C16" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="D16" t="n" s="2">
-        <v>355.0</v>
-      </c>
-      <c r="E16" t="s" s="1">
+      <c r="D16" t="n" s="20">
+        <v>450.0</v>
+      </c>
+      <c r="E16" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="F16" t="n" s="2">
-        <v>4.609101295471191</v>
+      <c r="F16" t="n" s="20">
+        <v>6.831668376922607</v>
       </c>
     </row>
     <row r="17"/>
@@ -373,7 +448,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -393,199 +468,199 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>44.0</v>
+        <v>9.0</v>
       </c>
       <c r="B20" t="n">
         <v>2.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2931596636772156</v>
+        <v>0.04200505092740059</v>
       </c>
       <c r="D20" t="n">
-        <v>261.9081444294253</v>
+        <v>262.0077728246056</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2931596636772156</v>
+        <v>0.04200505092740059</v>
       </c>
       <c r="F20" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>49.0</v>
+        <v>34.0</v>
       </c>
       <c r="B21" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4147675037384033</v>
+        <v>0.4929746091365814</v>
       </c>
       <c r="D21" t="n">
-        <v>261.8742012620678</v>
+        <v>261.8645538790942</v>
       </c>
       <c r="E21" t="n">
-        <v>0.129132941365242</v>
+        <v>0.45410019159317017</v>
       </c>
       <c r="F21" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>57.0</v>
+        <v>13.0</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.559756338596344</v>
+        <v>1.1177265644073486</v>
       </c>
       <c r="D22" t="n">
-        <v>261.832411431518</v>
+        <v>261.8127084459809</v>
       </c>
       <c r="E22" t="n">
-        <v>0.14805088937282562</v>
+        <v>0.6735409498214722</v>
       </c>
       <c r="F22" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>50.0</v>
+        <v>11.0</v>
       </c>
       <c r="B23" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4411461353302002</v>
+        <v>1.279657006263733</v>
       </c>
       <c r="D23" t="n">
-        <v>261.84218775469515</v>
+        <v>261.74558639022837</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1697424352169037</v>
+        <v>0.17964953184127808</v>
       </c>
       <c r="F23" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>36.0</v>
+        <v>12.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.40551504492759705</v>
+        <v>1.2688837051391602</v>
       </c>
       <c r="D24" t="n">
-        <v>261.86063939372787</v>
+        <v>261.734512161128</v>
       </c>
       <c r="E24" t="n">
-        <v>0.43766212463378906</v>
+        <v>0.033480454236269</v>
       </c>
       <c r="F24" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>31.0</v>
+        <v>16.0</v>
       </c>
       <c r="B25" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5690993070602417</v>
+        <v>1.5365809202194214</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8092385280714</v>
+        <v>261.4050595755135</v>
       </c>
       <c r="E25" t="n">
-        <v>0.17018213868141174</v>
+        <v>0.740107536315918</v>
       </c>
       <c r="F25" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>30.0</v>
+        <v>19.0</v>
       </c>
       <c r="B26" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6677214503288269</v>
+        <v>1.244834303855896</v>
       </c>
       <c r="D26" t="n">
-        <v>261.73523225362436</v>
+        <v>261.5087901924117</v>
       </c>
       <c r="E26" t="n">
-        <v>0.16649450361728668</v>
+        <v>0.29834985733032227</v>
       </c>
       <c r="F26" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>28.0</v>
+        <v>20.0</v>
       </c>
       <c r="B27" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.833429753780365</v>
+        <v>1.2301167249679565</v>
       </c>
       <c r="D27" t="n">
-        <v>261.64456146410316</v>
+        <v>261.4937537372069</v>
       </c>
       <c r="E27" t="n">
-        <v>0.19035542011260986</v>
+        <v>0.09499038755893707</v>
       </c>
       <c r="F27" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>29.0</v>
+        <v>21.0</v>
       </c>
       <c r="B28" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8602044582366943</v>
+        <v>1.1731542348861694</v>
       </c>
       <c r="D28" t="n">
-        <v>261.6337953543354</v>
+        <v>261.5260869750733</v>
       </c>
       <c r="E28" t="n">
-        <v>0.028472568839788437</v>
+        <v>0.06753670424222946</v>
       </c>
       <c r="F28" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="B29" t="n">
         <v>10.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9158056378364563</v>
+        <v>0.9511350989341736</v>
       </c>
       <c r="D29" t="n">
-        <v>261.62780508586667</v>
+        <v>261.6143715155233</v>
       </c>
       <c r="E29" t="n">
-        <v>0.11803000420331955</v>
+        <v>0.2243632674217224</v>
       </c>
       <c r="F29" t="n">
         <v>6.0</v>
@@ -593,19 +668,19 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="B30" t="n">
         <v>10.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9511350989341736</v>
+        <v>0.8602044582366943</v>
       </c>
       <c r="D30" t="n">
-        <v>261.6143715155233</v>
+        <v>261.6337953543354</v>
       </c>
       <c r="E30" t="n">
-        <v>0.03647772595286369</v>
+        <v>0.1465173065662384</v>
       </c>
       <c r="F30" t="n">
         <v>6.0</v>
@@ -613,39 +688,39 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="B31" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.244834303855896</v>
+        <v>0.833429753780365</v>
       </c>
       <c r="D31" t="n">
-        <v>261.5087901924117</v>
+        <v>261.64456146410316</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3051948845386505</v>
+        <v>0.028472568839788437</v>
       </c>
       <c r="F31" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>18.0</v>
+        <v>27.0</v>
       </c>
       <c r="B32" t="n">
         <v>10.0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.073432445526123</v>
+        <v>0.9158056378364563</v>
       </c>
       <c r="D32" t="n">
-        <v>261.6266045710891</v>
+        <v>261.62780508586667</v>
       </c>
       <c r="E32" t="n">
-        <v>0.25050246715545654</v>
+        <v>0.13939817249774933</v>
       </c>
       <c r="F32" t="n">
         <v>6.0</v>
@@ -653,79 +728,79 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="B33" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="C33" t="n">
-        <v>1.279657006263733</v>
+        <v>1.073432445526123</v>
       </c>
       <c r="D33" t="n">
-        <v>261.74558639022837</v>
+        <v>261.6266045710891</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5210234522819519</v>
+        <v>0.288409024477005</v>
       </c>
       <c r="F33" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>33.0</v>
+        <v>15.0</v>
       </c>
       <c r="B34" t="n">
         <v>1.0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6471188068389893</v>
+        <v>1.1081416606903076</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8530329755303</v>
+        <v>261.6963311869112</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6412807703018188</v>
+        <v>0.23920954763889313</v>
       </c>
       <c r="F34" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34.0</v>
+        <v>14.0</v>
       </c>
       <c r="B35" t="n">
         <v>1.0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4929746091365814</v>
+        <v>1.0533623695373535</v>
       </c>
       <c r="D35" t="n">
-        <v>261.8645538790942</v>
+        <v>261.7457281617366</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1785203516483307</v>
+        <v>0.10288845747709274</v>
       </c>
       <c r="F35" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.02793951891362667</v>
+        <v>0.9183313250541687</v>
       </c>
       <c r="D36" t="n">
-        <v>262.0384776220169</v>
+        <v>261.74771242780264</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5183050036430359</v>
+        <v>0.16437725722789764</v>
       </c>
       <c r="F36" t="n">
         <v>1.0</v>
@@ -733,39 +808,39 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.0</v>
+        <v>33.0</v>
       </c>
       <c r="B37" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.059766702353954315</v>
+        <v>0.6471188068389893</v>
       </c>
       <c r="D37" t="n">
-        <v>262.0273419598029</v>
+        <v>261.8530329755303</v>
       </c>
       <c r="E37" t="n">
-        <v>0.05461610108613968</v>
+        <v>0.28039973974227905</v>
       </c>
       <c r="F37" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>40.0</v>
+        <v>31.0</v>
       </c>
       <c r="B38" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.10356690734624863</v>
+        <v>0.5690993070602417</v>
       </c>
       <c r="D38" t="n">
-        <v>262.03744350084025</v>
+        <v>261.8092385280714</v>
       </c>
       <c r="E38" t="n">
-        <v>0.04613868519663811</v>
+        <v>0.21096783876419067</v>
       </c>
       <c r="F38" t="n">
         <v>4.0</v>
@@ -773,590 +848,590 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>39.0</v>
+        <v>30.0</v>
       </c>
       <c r="B39" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.12855416536331177</v>
+        <v>0.6677214503288269</v>
       </c>
       <c r="D39" t="n">
-        <v>262.02842904452655</v>
+        <v>261.73523225362436</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03341617435216904</v>
+        <v>0.16649450361728668</v>
       </c>
       <c r="F39" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6.0</v>
+        <v>36.0</v>
       </c>
       <c r="B40" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07377470284700394</v>
+        <v>0.40551504492759705</v>
       </c>
       <c r="D40" t="n">
-        <v>262.0171039955313</v>
+        <v>261.86063939372787</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0616832971572876</v>
+        <v>0.26956841349601746</v>
       </c>
       <c r="F40" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>7.0</v>
+        <v>42.0</v>
       </c>
       <c r="B41" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07495752722024918</v>
+        <v>0.26619550585746765</v>
       </c>
       <c r="D41" t="n">
-        <v>262.001731797022</v>
+        <v>261.9041240218826</v>
       </c>
       <c r="E41" t="n">
-        <v>0.035702068358659744</v>
+        <v>0.1610601395368576</v>
       </c>
       <c r="F41" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>30</v>
+        <v>41.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4.0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0</v>
+        <v>0.24060335755348206</v>
       </c>
       <c r="D42" t="n">
-        <v>262.025968659323</v>
+        <v>261.9164291959897</v>
       </c>
       <c r="E42" t="n">
-        <v>0.07495752722024918</v>
+        <v>0.025917239487171173</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="B43" s="1" t="n">
-        <f>SUM(B19:B42)</f>
-        <v>108.0</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <f>SUM(E19:E42)</f>
-        <v>4.609101198613644</v>
-      </c>
-    </row>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
+      <c r="A43" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.3815269470214844</v>
+      </c>
+      <c r="D43" t="n">
+        <v>261.85269539989224</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.2430168092250824</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.4411461353302002</v>
+      </c>
+      <c r="D44" t="n">
+        <v>261.84218775469515</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.09722606837749481</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.4147675037384033</v>
+      </c>
+      <c r="D45" t="n">
+        <v>261.8742012620678</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0824146419763565</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.559756338596344</v>
+      </c>
+      <c r="D46" t="n">
+        <v>261.832411431518</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.14805088937282562</v>
+      </c>
+      <c r="F46" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
     <row r="47">
-      <c r="A47" t="s" s="1">
-        <v>16</v>
+      <c r="A47" t="n">
+        <v>59.0</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C47" t="s" s="1">
-        <v>17</v>
+        <v>6.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.6999629139900208</v>
       </c>
       <c r="D47" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="E47" t="s" s="1">
-        <v>18</v>
+        <v>261.8009810208278</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.1469498574733734</v>
       </c>
       <c r="F47" t="n">
-        <v>41.057835</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="B48" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C48" t="s" s="1">
-        <v>20</v>
-      </c>
-      <c r="D48" t="n" s="2">
-        <v>-1.0</v>
+      <c r="A48" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.3985292911529541</v>
+      </c>
+      <c r="D48" t="n">
+        <v>261.9136333683507</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.30655360221862793</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="B49" t="n" s="2">
-        <v>3.637298822402954</v>
-      </c>
-      <c r="C49" t="s" s="1">
-        <v>22</v>
-      </c>
-      <c r="D49" t="n" s="2">
-        <v>374.0</v>
-      </c>
-      <c r="E49" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="F49" t="n" s="2">
-        <v>3.637298822402954</v>
-      </c>
-    </row>
-    <row r="50"/>
+      <c r="A49" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.3747617304325104</v>
+      </c>
+      <c r="D49" t="n">
+        <v>261.9456724917965</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0677696168422699</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.2931596636772156</v>
+      </c>
+      <c r="D50" t="n">
+        <v>261.9081444294253</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.19104407727718353</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
     <row r="51">
-      <c r="A51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" t="s">
-        <v>28</v>
-      </c>
-      <c r="F51" t="s">
-        <v>29</v>
+      <c r="A51" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.08953952044248581</v>
+      </c>
+      <c r="D51" t="n">
+        <v>261.9890906815781</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.20371700823307037</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>30</v>
+        <v>8.0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2.0</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0</v>
+        <v>0.07692065089941025</v>
       </c>
       <c r="D52" t="n">
-        <v>262.025968659323</v>
+        <v>261.99499261555235</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0</v>
+        <v>0.012963603250682354</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>46.0</v>
+        <v>7.0</v>
       </c>
       <c r="B53" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.30144205689430237</v>
+        <v>0.07495752722024918</v>
       </c>
       <c r="D53" t="n">
-        <v>261.9345977905843</v>
+        <v>262.001731797022</v>
       </c>
       <c r="E53" t="n">
-        <v>0.30144205689430237</v>
+        <v>0.019395161420106888</v>
       </c>
       <c r="F53" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>49.0</v>
+        <v>6.0</v>
       </c>
       <c r="B54" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4147675037384033</v>
+        <v>0.07377470284700394</v>
       </c>
       <c r="D54" t="n">
-        <v>261.8742012620678</v>
+        <v>262.0171039955313</v>
       </c>
       <c r="E54" t="n">
-        <v>0.13037799298763275</v>
+        <v>0.035702068358659744</v>
       </c>
       <c r="F54" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>51.0</v>
+        <v>5.0</v>
       </c>
       <c r="B55" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.41277188062667847</v>
+        <v>0.059766702353954315</v>
       </c>
       <c r="D55" t="n">
-        <v>261.8504227828364</v>
+        <v>262.0273419598029</v>
       </c>
       <c r="E55" t="n">
-        <v>0.09090527147054672</v>
+        <v>0.024302326142787933</v>
       </c>
       <c r="F55" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>50.0</v>
+        <v>39.0</v>
       </c>
       <c r="B56" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4411461353302002</v>
+        <v>0.12855416536331177</v>
       </c>
       <c r="D56" t="n">
-        <v>261.84218775469515</v>
+        <v>262.02842904452655</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03253420442342758</v>
+        <v>0.06879103928804398</v>
       </c>
       <c r="F56" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>58.0</v>
+        <v>40.0</v>
       </c>
       <c r="B57" t="n">
         <v>3.0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5833421349525452</v>
+        <v>0.10356690734624863</v>
       </c>
       <c r="D57" t="n">
-        <v>261.84567371889716</v>
+        <v>262.03744350084025</v>
       </c>
       <c r="E57" t="n">
-        <v>0.22648894786834717</v>
+        <v>0.03341617435216904</v>
       </c>
       <c r="F57" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>57.0</v>
+        <v>3.0</v>
       </c>
       <c r="B58" t="n">
         <v>1.0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.559756338596344</v>
+        <v>0.0815577432513237</v>
       </c>
       <c r="D58" t="n">
-        <v>261.832411431518</v>
+        <v>262.03720115376393</v>
       </c>
       <c r="E58" t="n">
-        <v>0.06408242136240005</v>
+        <v>0.022644149139523506</v>
       </c>
       <c r="F58" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>56.0</v>
+        <v>4.0</v>
       </c>
       <c r="B59" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5436442494392395</v>
+        <v>0.02793951891362667</v>
       </c>
       <c r="D59" t="n">
-        <v>261.80355109326473</v>
+        <v>262.0384776220169</v>
       </c>
       <c r="E59" t="n">
-        <v>0.11930186301469803</v>
+        <v>0.06796745210886002</v>
       </c>
       <c r="F59" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="B60" t="n">
-        <v>1.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
       </c>
       <c r="C60" t="n">
-        <v>0.49632975459098816</v>
+        <v>0.0</v>
       </c>
       <c r="D60" t="n">
-        <v>261.80366879016594</v>
+        <v>262.025968659323</v>
       </c>
       <c r="E60" t="n">
-        <v>0.10480140894651413</v>
+        <v>0.02793951891362667</v>
       </c>
       <c r="F60" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="B61" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.5023859739303589</v>
-      </c>
-      <c r="D61" t="n">
-        <v>261.7925079122199</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.05615795776247978</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="B62" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.39102786779403687</v>
-      </c>
-      <c r="D62" t="n">
-        <v>261.8399552608657</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.21286500990390778</v>
-      </c>
-      <c r="F62" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="B63" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.48756301403045654</v>
-      </c>
-      <c r="D63" t="n">
-        <v>261.79625441958456</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.09934674948453903</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B64" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.6677214503288269</v>
-      </c>
-      <c r="D64" t="n">
-        <v>261.73523225362436</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.22453835606575012</v>
-      </c>
-      <c r="F64" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
+      <c r="A61" t="s" s="19">
+        <v>31</v>
+      </c>
+      <c r="B61" s="19" t="n">
+        <f>SUM(B19:B60)</f>
+        <v>150.0</v>
+      </c>
+      <c r="E61" s="19" t="n">
+        <f>SUM(E19:E60)</f>
+        <v>6.831668204627931</v>
+      </c>
+    </row>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
     <row r="65">
-      <c r="A65" t="n">
-        <v>18.0</v>
+      <c r="A65" t="s" s="19">
+        <v>16</v>
       </c>
       <c r="B65" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1.073432445526123</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C65" t="s" s="19">
+        <v>17</v>
       </c>
       <c r="D65" t="n">
-        <v>261.6266045710891</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.4563227593898773</v>
+        <v>-80.046878</v>
+      </c>
+      <c r="E65" t="s" s="19">
+        <v>18</v>
       </c>
       <c r="F65" t="n">
-        <v>6.0</v>
+        <v>41.057835</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="B66" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1.1121973991394043</v>
-      </c>
-      <c r="D66" t="n">
-        <v>261.55286056275264</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.22226640582084656</v>
-      </c>
-      <c r="F66" t="n">
-        <v>3.0</v>
+      <c r="A66" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="B66" t="n" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="C66" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="D66" t="n" s="20">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="B67" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.9836602210998535</v>
-      </c>
-      <c r="D67" t="n">
-        <v>261.6216537846275</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.1432289034128189</v>
-      </c>
-      <c r="F67" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="B68" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.9511350989341736</v>
-      </c>
-      <c r="D68" t="n">
-        <v>261.6143715155233</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.09676468372344971</v>
-      </c>
-      <c r="F68" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
+      <c r="A67" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="B67" t="n" s="20">
+        <v>3.637298822402954</v>
+      </c>
+      <c r="C67" t="s" s="19">
+        <v>22</v>
+      </c>
+      <c r="D67" t="n" s="20">
+        <v>374.0</v>
+      </c>
+      <c r="E67" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="F67" t="n" s="20">
+        <v>3.637298822402954</v>
+      </c>
+    </row>
+    <row r="68"/>
     <row r="69">
-      <c r="A69" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="B69" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.9158056378364563</v>
-      </c>
-      <c r="D69" t="n">
-        <v>261.62780508586667</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.03647772595286369</v>
-      </c>
-      <c r="F69" t="n">
-        <v>6.0</v>
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="B70" t="n">
-        <v>10.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8602044582366943</v>
+        <v>0.0</v>
       </c>
       <c r="D70" t="n">
-        <v>261.6337953543354</v>
+        <v>262.025968659323</v>
       </c>
       <c r="E70" t="n">
-        <v>0.11803000420331955</v>
+        <v>0.0</v>
       </c>
       <c r="F70" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>28.0</v>
+        <v>46.0</v>
       </c>
       <c r="B71" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="C71" t="n">
-        <v>0.833429753780365</v>
+        <v>0.30144205689430237</v>
       </c>
       <c r="D71" t="n">
-        <v>261.64456146410316</v>
+        <v>261.9345977905843</v>
       </c>
       <c r="E71" t="n">
-        <v>0.028472568839788437</v>
+        <v>0.30144205689430237</v>
       </c>
       <c r="F71" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>36.0</v>
+        <v>49.0</v>
       </c>
       <c r="B72" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.40551504492759705</v>
+        <v>0.4147675037384033</v>
       </c>
       <c r="D72" t="n">
-        <v>261.86063939372787</v>
+        <v>261.8742012620678</v>
       </c>
       <c r="E72" t="n">
-        <v>0.45106178522109985</v>
+        <v>0.13037799298763275</v>
       </c>
       <c r="F72" t="n">
         <v>6.0</v>
@@ -1364,19 +1439,19 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>35.0</v>
+        <v>51.0</v>
       </c>
       <c r="B73" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.340213805437088</v>
+        <v>0.41277188062667847</v>
       </c>
       <c r="D73" t="n">
-        <v>261.89989924983104</v>
+        <v>261.8504227828364</v>
       </c>
       <c r="E73" t="n">
-        <v>0.08161762356758118</v>
+        <v>0.09090527147054672</v>
       </c>
       <c r="F73" t="n">
         <v>2.0</v>
@@ -1384,190 +1459,279 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B74" t="s">
-        <v>30</v>
+        <v>50.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>8.0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0</v>
+        <v>0.4411461353302002</v>
       </c>
       <c r="D74" t="n">
-        <v>262.025968659323</v>
+        <v>261.84218775469515</v>
       </c>
       <c r="E74" t="n">
-        <v>0.340213805437088</v>
+        <v>0.03253420442342758</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="B75" s="1" t="n">
-        <f>SUM(B52:B74)</f>
-        <v>124.0</v>
-      </c>
-      <c r="E75" s="1" t="n">
-        <f>SUM(E52:E74)</f>
-        <v>3.6372985057532787</v>
-      </c>
-    </row>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
+      <c r="A75" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.5833421349525452</v>
+      </c>
+      <c r="D75" t="n">
+        <v>261.84567371889716</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.22648894786834717</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.559756338596344</v>
+      </c>
+      <c r="D76" t="n">
+        <v>261.832411431518</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.06408242136240005</v>
+      </c>
+      <c r="F76" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.5436442494392395</v>
+      </c>
+      <c r="D77" t="n">
+        <v>261.80355109326473</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.11930186301469803</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.49632975459098816</v>
+      </c>
+      <c r="D78" t="n">
+        <v>261.80366879016594</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.10480140894651413</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
     <row r="79">
-      <c r="A79" t="s" s="1">
-        <v>16</v>
+      <c r="A79" t="n">
+        <v>53.0</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C79" t="s" s="1">
-        <v>17</v>
+        <v>4.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.5023859739303589</v>
       </c>
       <c r="D79" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="E79" t="s" s="1">
-        <v>18</v>
+        <v>261.7925079122199</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.05615795776247978</v>
       </c>
       <c r="F79" t="n">
-        <v>41.057835</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="B80" t="n" s="1">
+      <c r="A80" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.39102786779403687</v>
+      </c>
+      <c r="D80" t="n">
+        <v>261.8399552608657</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.21286500990390778</v>
+      </c>
+      <c r="F80" t="n">
         <v>2.0</v>
       </c>
-      <c r="C80" t="s" s="1">
-        <v>20</v>
-      </c>
-      <c r="D80" t="n" s="2">
-        <v>-1.0</v>
-      </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="B81" t="n" s="2">
-        <v>3.413088321685791</v>
-      </c>
-      <c r="C81" t="s" s="1">
-        <v>22</v>
-      </c>
-      <c r="D81" t="n" s="2">
-        <v>327.0</v>
-      </c>
-      <c r="E81" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="F81" t="n" s="2">
-        <v>3.413088321685791</v>
-      </c>
-    </row>
-    <row r="82"/>
+      <c r="A81" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.48756301403045654</v>
+      </c>
+      <c r="D81" t="n">
+        <v>261.79625441958456</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.09934674948453903</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.6677214503288269</v>
+      </c>
+      <c r="D82" t="n">
+        <v>261.73523225362436</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.22453835606575012</v>
+      </c>
+      <c r="F82" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
     <row r="83">
-      <c r="A83" t="s">
-        <v>24</v>
-      </c>
-      <c r="B83" t="s">
-        <v>25</v>
-      </c>
-      <c r="C83" t="s">
-        <v>26</v>
-      </c>
-      <c r="D83" t="s">
-        <v>27</v>
-      </c>
-      <c r="E83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F83" t="s">
-        <v>29</v>
+      <c r="A83" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.073432445526123</v>
+      </c>
+      <c r="D83" t="n">
+        <v>261.6266045710891</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.4563227593898773</v>
+      </c>
+      <c r="F83" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B84" t="s">
-        <v>30</v>
+        <v>22.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>5.0</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0</v>
+        <v>1.1121973991394043</v>
       </c>
       <c r="D84" t="n">
-        <v>262.025968659323</v>
+        <v>261.55286056275264</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0</v>
+        <v>0.22226640582084656</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>34.0</v>
+        <v>25.0</v>
       </c>
       <c r="B85" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4929746091365814</v>
+        <v>0.9836602210998535</v>
       </c>
       <c r="D85" t="n">
-        <v>261.8645538790942</v>
+        <v>261.6216537846275</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4929746091365814</v>
+        <v>0.1432289034128189</v>
       </c>
       <c r="F85" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>33.0</v>
+        <v>26.0</v>
       </c>
       <c r="B86" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6471188068389893</v>
+        <v>0.9511350989341736</v>
       </c>
       <c r="D86" t="n">
-        <v>261.8530329755303</v>
+        <v>261.6143715155233</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1785203516483307</v>
+        <v>0.09676468372344971</v>
       </c>
       <c r="F86" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>18.0</v>
+        <v>27.0</v>
       </c>
       <c r="B87" t="n">
         <v>10.0</v>
       </c>
       <c r="C87" t="n">
-        <v>1.073432445526123</v>
+        <v>0.9158056378364563</v>
       </c>
       <c r="D87" t="n">
-        <v>261.6266045710891</v>
+        <v>261.62780508586667</v>
       </c>
       <c r="E87" t="n">
-        <v>0.49173110723495483</v>
+        <v>0.03647772595286369</v>
       </c>
       <c r="F87" t="n">
         <v>6.0</v>
@@ -1575,19 +1739,19 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="B88" t="n">
         <v>10.0</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9511350989341736</v>
+        <v>0.8602044582366943</v>
       </c>
       <c r="D88" t="n">
-        <v>261.6143715155233</v>
+        <v>261.6337953543354</v>
       </c>
       <c r="E88" t="n">
-        <v>0.26614075899124146</v>
+        <v>0.11803000420331955</v>
       </c>
       <c r="F88" t="n">
         <v>6.0</v>
@@ -1595,19 +1759,19 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="B89" t="n">
         <v>10.0</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9158056378364563</v>
+        <v>0.833429753780365</v>
       </c>
       <c r="D89" t="n">
-        <v>261.62780508586667</v>
+        <v>261.64456146410316</v>
       </c>
       <c r="E89" t="n">
-        <v>0.03647772595286369</v>
+        <v>0.028472568839788437</v>
       </c>
       <c r="F89" t="n">
         <v>6.0</v>
@@ -1615,19 +1779,19 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
       <c r="B90" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8602044582366943</v>
+        <v>0.40551504492759705</v>
       </c>
       <c r="D90" t="n">
-        <v>261.6337953543354</v>
+        <v>261.86063939372787</v>
       </c>
       <c r="E90" t="n">
-        <v>0.11803000420331955</v>
+        <v>0.45106178522109985</v>
       </c>
       <c r="F90" t="n">
         <v>6.0</v>
@@ -1635,550 +1799,550 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>28.0</v>
+        <v>35.0</v>
       </c>
       <c r="B91" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="C91" t="n">
-        <v>0.833429753780365</v>
+        <v>0.340213805437088</v>
       </c>
       <c r="D91" t="n">
-        <v>261.64456146410316</v>
+        <v>261.89989924983104</v>
       </c>
       <c r="E91" t="n">
-        <v>0.028472568839788437</v>
+        <v>0.08161762356758118</v>
       </c>
       <c r="F91" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>30</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>262.025968659323</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.340213805437088</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="19">
+        <v>31</v>
+      </c>
+      <c r="B93" s="19" t="n">
+        <f>SUM(B70:B92)</f>
+        <v>124.0</v>
+      </c>
+      <c r="E93" s="19" t="n">
+        <f>SUM(E70:E92)</f>
+        <v>3.6372985057532787</v>
+      </c>
+    </row>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97">
+      <c r="A97" t="s" s="19">
+        <v>16</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C97" t="s" s="19">
+        <v>17</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-80.046878</v>
+      </c>
+      <c r="E97" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="F97" t="n">
+        <v>41.057835</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="B98" t="n" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="C98" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="D98" t="n" s="20">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="B99" t="n" s="20">
+        <v>3.9416000843048096</v>
+      </c>
+      <c r="C99" t="s" s="19">
+        <v>22</v>
+      </c>
+      <c r="D99" t="n" s="20">
+        <v>377.0</v>
+      </c>
+      <c r="E99" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="F99" t="n" s="20">
+        <v>3.9416000843048096</v>
+      </c>
+    </row>
+    <row r="100"/>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>262.025968659323</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.4929746091365814</v>
+      </c>
+      <c r="D103" t="n">
+        <v>261.8645538790942</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.4929746091365814</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.6471188068389893</v>
+      </c>
+      <c r="D104" t="n">
+        <v>261.8530329755303</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.1785203516483307</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.073432445526123</v>
+      </c>
+      <c r="D105" t="n">
+        <v>261.6266045710891</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.49173110723495483</v>
+      </c>
+      <c r="F105" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.9511350989341736</v>
+      </c>
+      <c r="D106" t="n">
+        <v>261.6143715155233</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.26614075899124146</v>
+      </c>
+      <c r="F106" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.9158056378364563</v>
+      </c>
+      <c r="D107" t="n">
+        <v>261.62780508586667</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.03647772595286369</v>
+      </c>
+      <c r="F107" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.8602044582366943</v>
+      </c>
+      <c r="D108" t="n">
+        <v>261.6337953543354</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.11803000420331955</v>
+      </c>
+      <c r="F108" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.833429753780365</v>
+      </c>
+      <c r="D109" t="n">
+        <v>261.64456146410316</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.028472568839788437</v>
+      </c>
+      <c r="F109" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
         <v>30.0</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B110" t="n">
         <v>10.0</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C110" t="n">
         <v>0.6677214503288269</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D110" t="n">
         <v>261.73523225362436</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E110" t="n">
         <v>0.19035542011260986</v>
       </c>
-      <c r="F92" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="B93" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.5690993070602417</v>
-      </c>
-      <c r="D93" t="n">
-        <v>261.8092385280714</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.16649450361728668</v>
-      </c>
-      <c r="F93" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.40551504492759705</v>
-      </c>
-      <c r="D94" t="n">
-        <v>261.86063939372787</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.17018213868141174</v>
-      </c>
-      <c r="F94" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="B95" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.4411461353302002</v>
-      </c>
-      <c r="D95" t="n">
-        <v>261.84218775469515</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.43766212463378906</v>
-      </c>
-      <c r="F95" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="B96" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.559756338596344</v>
-      </c>
-      <c r="D96" t="n">
-        <v>261.832411431518</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.1697424352169037</v>
-      </c>
-      <c r="F96" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="B97" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.4147675037384033</v>
-      </c>
-      <c r="D97" t="n">
-        <v>261.8742012620678</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.14805088937282562</v>
-      </c>
-      <c r="F97" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="B98" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.2931596636772156</v>
-      </c>
-      <c r="D98" t="n">
-        <v>261.9081444294253</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.129132941365242</v>
-      </c>
-      <c r="F98" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="B99" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.12855416536331177</v>
-      </c>
-      <c r="D99" t="n">
-        <v>262.02842904452655</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.25213780999183655</v>
-      </c>
-      <c r="F99" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="B100" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.10356690734624863</v>
-      </c>
-      <c r="D100" t="n">
-        <v>262.03744350084025</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.03341617435216904</v>
-      </c>
-      <c r="F100" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B101" t="s">
-        <v>30</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D101" t="n">
-        <v>262.025968659323</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.10356690734624863</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="B102" s="1" t="n">
-        <f>SUM(B84:B101)</f>
-        <v>97.0</v>
-      </c>
-      <c r="E102" s="1" t="n">
-        <f>SUM(E84:E101)</f>
-        <v>3.413088470697403</v>
-      </c>
-    </row>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106">
-      <c r="A106" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="B106" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C106" t="s" s="1">
-        <v>17</v>
-      </c>
-      <c r="D106" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="E106" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="F106" t="n">
-        <v>41.057835</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="B107" t="n" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C107" t="s" s="1">
-        <v>20</v>
-      </c>
-      <c r="D107" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="B108" t="n" s="2">
-        <v>3.637298822402954</v>
-      </c>
-      <c r="C108" t="s" s="1">
-        <v>22</v>
-      </c>
-      <c r="D108" t="n" s="2">
-        <v>374.0</v>
-      </c>
-      <c r="E108" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="F108" t="n" s="2">
-        <v>3.637298822402954</v>
-      </c>
-    </row>
-    <row r="109"/>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>24</v>
-      </c>
-      <c r="B110" t="s">
-        <v>25</v>
-      </c>
-      <c r="C110" t="s">
-        <v>26</v>
-      </c>
-      <c r="D110" t="s">
-        <v>27</v>
-      </c>
-      <c r="E110" t="s">
-        <v>28</v>
-      </c>
-      <c r="F110" t="s">
-        <v>29</v>
+      <c r="F110" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B111" t="s">
-        <v>30</v>
+        <v>31.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4.0</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0</v>
+        <v>0.5690993070602417</v>
       </c>
       <c r="D111" t="n">
-        <v>262.025968659323</v>
+        <v>261.8092385280714</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0</v>
+        <v>0.16649450361728668</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>46.0</v>
+        <v>36.0</v>
       </c>
       <c r="B112" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C112" t="n">
-        <v>0.30144205689430237</v>
+        <v>0.40551504492759705</v>
       </c>
       <c r="D112" t="n">
-        <v>261.9345977905843</v>
+        <v>261.86063939372787</v>
       </c>
       <c r="E112" t="n">
-        <v>0.30144205689430237</v>
+        <v>0.17018213868141174</v>
       </c>
       <c r="F112" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>49.0</v>
+        <v>42.0</v>
       </c>
       <c r="B113" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4147675037384033</v>
+        <v>0.26619550585746765</v>
       </c>
       <c r="D113" t="n">
-        <v>261.8742012620678</v>
+        <v>261.9041240218826</v>
       </c>
       <c r="E113" t="n">
-        <v>0.13037799298763275</v>
+        <v>0.1610601395368576</v>
       </c>
       <c r="F113" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>51.0</v>
+        <v>41.0</v>
       </c>
       <c r="B114" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C114" t="n">
-        <v>0.41277188062667847</v>
+        <v>0.24060335755348206</v>
       </c>
       <c r="D114" t="n">
-        <v>261.8504227828364</v>
+        <v>261.9164291959897</v>
       </c>
       <c r="E114" t="n">
-        <v>0.09090527147054672</v>
+        <v>0.025917239487171173</v>
       </c>
       <c r="F114" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>50.0</v>
+        <v>44.0</v>
       </c>
       <c r="B115" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4411461353302002</v>
+        <v>0.2931596636772156</v>
       </c>
       <c r="D115" t="n">
-        <v>261.84218775469515</v>
+        <v>261.9081444294253</v>
       </c>
       <c r="E115" t="n">
-        <v>0.03253420442342758</v>
+        <v>0.23957358300685883</v>
       </c>
       <c r="F115" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>58.0</v>
+        <v>45.0</v>
       </c>
       <c r="B116" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5833421349525452</v>
+        <v>0.3815269470214844</v>
       </c>
       <c r="D116" t="n">
-        <v>261.84567371889716</v>
+        <v>261.85269539989224</v>
       </c>
       <c r="E116" t="n">
-        <v>0.22648894786834717</v>
+        <v>0.1205088198184967</v>
       </c>
       <c r="F116" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
       <c r="B117" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="C117" t="n">
-        <v>0.559756338596344</v>
+        <v>0.4411461353302002</v>
       </c>
       <c r="D117" t="n">
-        <v>261.832411431518</v>
+        <v>261.84218775469515</v>
       </c>
       <c r="E117" t="n">
-        <v>0.06408242136240005</v>
+        <v>0.09722606837749481</v>
       </c>
       <c r="F117" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>56.0</v>
+        <v>49.0</v>
       </c>
       <c r="B118" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5436442494392395</v>
+        <v>0.4147675037384033</v>
       </c>
       <c r="D118" t="n">
-        <v>261.80355109326473</v>
+        <v>261.8742012620678</v>
       </c>
       <c r="E118" t="n">
-        <v>0.11930186301469803</v>
+        <v>0.0824146419763565</v>
       </c>
       <c r="F118" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>52.0</v>
+        <v>57.0</v>
       </c>
       <c r="B119" t="n">
         <v>1.0</v>
       </c>
       <c r="C119" t="n">
-        <v>0.49632975459098816</v>
+        <v>0.559756338596344</v>
       </c>
       <c r="D119" t="n">
-        <v>261.80366879016594</v>
+        <v>261.832411431518</v>
       </c>
       <c r="E119" t="n">
-        <v>0.10480140894651413</v>
+        <v>0.14805088937282562</v>
       </c>
       <c r="F119" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>53.0</v>
+        <v>59.0</v>
       </c>
       <c r="B120" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5023859739303589</v>
+        <v>0.6999629139900208</v>
       </c>
       <c r="D120" t="n">
-        <v>261.7925079122199</v>
+        <v>261.8009810208278</v>
       </c>
       <c r="E120" t="n">
-        <v>0.05615795776247978</v>
+        <v>0.1469498574733734</v>
       </c>
       <c r="F120" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>37.0</v>
+        <v>48.0</v>
       </c>
       <c r="B121" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.39102786779403687</v>
+        <v>0.3985292911529541</v>
       </c>
       <c r="D121" t="n">
-        <v>261.8399552608657</v>
+        <v>261.9136333683507</v>
       </c>
       <c r="E121" t="n">
-        <v>0.21286500990390778</v>
+        <v>0.30655360221862793</v>
       </c>
       <c r="F121" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>38.0</v>
+        <v>47.0</v>
       </c>
       <c r="B122" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.48756301403045654</v>
+        <v>0.3747617304325104</v>
       </c>
       <c r="D122" t="n">
-        <v>261.79625441958456</v>
+        <v>261.9456724917965</v>
       </c>
       <c r="E122" t="n">
-        <v>0.09934674948453903</v>
+        <v>0.0677696168422699</v>
       </c>
       <c r="F122" t="n">
         <v>3.0</v>
@@ -2186,410 +2350,410 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>30.0</v>
+        <v>39.0</v>
       </c>
       <c r="B123" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6677214503288269</v>
+        <v>0.12855416536331177</v>
       </c>
       <c r="D123" t="n">
-        <v>261.73523225362436</v>
+        <v>262.02842904452655</v>
       </c>
       <c r="E123" t="n">
-        <v>0.22453835606575012</v>
+        <v>0.26921379566192627</v>
       </c>
       <c r="F123" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>18.0</v>
+        <v>40.0</v>
       </c>
       <c r="B124" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="C124" t="n">
-        <v>1.073432445526123</v>
+        <v>0.10356690734624863</v>
       </c>
       <c r="D124" t="n">
-        <v>261.6266045710891</v>
+        <v>262.03744350084025</v>
       </c>
       <c r="E124" t="n">
-        <v>0.4563227593898773</v>
+        <v>0.03341617435216904</v>
       </c>
       <c r="F124" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="B125" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>262.025968659323</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.10356690734624863</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="19">
+        <v>31</v>
+      </c>
+      <c r="B126" s="19" t="n">
+        <f>SUM(B102:B125)</f>
+        <v>121.0</v>
+      </c>
+      <c r="E126" s="19" t="n">
+        <f>SUM(E102:E125)</f>
+        <v>3.941600523889065</v>
+      </c>
+    </row>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130">
+      <c r="A130" t="s" s="19">
+        <v>16</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C130" t="s" s="19">
+        <v>17</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-80.046878</v>
+      </c>
+      <c r="E130" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="F130" t="n">
+        <v>41.057835</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="B131" t="n" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="C131" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="D131" t="n" s="20">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="B132" t="n" s="20">
+        <v>3.637298822402954</v>
+      </c>
+      <c r="C132" t="s" s="19">
+        <v>22</v>
+      </c>
+      <c r="D132" t="n" s="20">
+        <v>374.0</v>
+      </c>
+      <c r="E132" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="F132" t="n" s="20">
+        <v>3.637298822402954</v>
+      </c>
+    </row>
+    <row r="133"/>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>24</v>
+      </c>
+      <c r="B134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134" t="s">
+        <v>27</v>
+      </c>
+      <c r="E134" t="s">
+        <v>28</v>
+      </c>
+      <c r="F134" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>30</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>262.025968659323</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.30144205689430237</v>
+      </c>
+      <c r="D136" t="n">
+        <v>261.9345977905843</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.30144205689430237</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.4147675037384033</v>
+      </c>
+      <c r="D137" t="n">
+        <v>261.8742012620678</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.13037799298763275</v>
+      </c>
+      <c r="F137" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.41277188062667847</v>
+      </c>
+      <c r="D138" t="n">
+        <v>261.8504227828364</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.09090527147054672</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.4411461353302002</v>
+      </c>
+      <c r="D139" t="n">
+        <v>261.84218775469515</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.03253420442342758</v>
+      </c>
+      <c r="F139" t="n">
         <v>5.0</v>
       </c>
-      <c r="C125" t="n">
-        <v>1.1121973991394043</v>
-      </c>
-      <c r="D125" t="n">
-        <v>261.55286056275264</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.22226640582084656</v>
-      </c>
-      <c r="F125" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="B126" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.9836602210998535</v>
-      </c>
-      <c r="D126" t="n">
-        <v>261.6216537846275</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.1432289034128189</v>
-      </c>
-      <c r="F126" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="B127" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.9511350989341736</v>
-      </c>
-      <c r="D127" t="n">
-        <v>261.6143715155233</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.09676468372344971</v>
-      </c>
-      <c r="F127" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="B128" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.9158056378364563</v>
-      </c>
-      <c r="D128" t="n">
-        <v>261.62780508586667</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.03647772595286369</v>
-      </c>
-      <c r="F128" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="B129" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.8602044582366943</v>
-      </c>
-      <c r="D129" t="n">
-        <v>261.6337953543354</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.11803000420331955</v>
-      </c>
-      <c r="F129" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="B130" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.833429753780365</v>
-      </c>
-      <c r="D130" t="n">
-        <v>261.64456146410316</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.028472568839788437</v>
-      </c>
-      <c r="F130" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="B131" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.40551504492759705</v>
-      </c>
-      <c r="D131" t="n">
-        <v>261.86063939372787</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.45106178522109985</v>
-      </c>
-      <c r="F131" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="B132" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.340213805437088</v>
-      </c>
-      <c r="D132" t="n">
-        <v>261.89989924983104</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.08161762356758118</v>
-      </c>
-      <c r="F132" t="n">
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.5833421349525452</v>
+      </c>
+      <c r="D140" t="n">
+        <v>261.84567371889716</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.22648894786834717</v>
+      </c>
+      <c r="F140" t="n">
         <v>2.0</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B133" t="s">
-        <v>30</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D133" t="n">
-        <v>262.025968659323</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.340213805437088</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="B134" s="1" t="n">
-        <f>SUM(B111:B133)</f>
-        <v>124.0</v>
-      </c>
-      <c r="E134" s="1" t="n">
-        <f>SUM(E111:E133)</f>
-        <v>3.6372985057532787</v>
-      </c>
-    </row>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138">
-      <c r="A138" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="B138" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C138" t="s" s="1">
-        <v>17</v>
-      </c>
-      <c r="D138" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="E138" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="F138" t="n">
-        <v>41.057835</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="B139" t="n" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C139" t="s" s="1">
-        <v>20</v>
-      </c>
-      <c r="D139" t="n" s="2">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="B140" t="n" s="2">
-        <v>3.18915057182312</v>
-      </c>
-      <c r="C140" t="s" s="1">
-        <v>22</v>
-      </c>
-      <c r="D140" t="n" s="2">
-        <v>311.0</v>
-      </c>
-      <c r="E140" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="F140" t="n" s="2">
-        <v>3.18915057182312</v>
-      </c>
-    </row>
-    <row r="141"/>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.559756338596344</v>
+      </c>
+      <c r="D141" t="n">
+        <v>261.832411431518</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.06408242136240005</v>
+      </c>
+      <c r="F141" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
     <row r="142">
-      <c r="A142" t="s">
-        <v>24</v>
-      </c>
-      <c r="B142" t="s">
-        <v>25</v>
-      </c>
-      <c r="C142" t="s">
-        <v>26</v>
-      </c>
-      <c r="D142" t="s">
-        <v>27</v>
-      </c>
-      <c r="E142" t="s">
-        <v>28</v>
-      </c>
-      <c r="F142" t="s">
-        <v>29</v>
+      <c r="A142" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B142" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.5436442494392395</v>
+      </c>
+      <c r="D142" t="n">
+        <v>261.80355109326473</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.11930186301469803</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B143" t="s">
-        <v>30</v>
+        <v>52.0</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.0</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0</v>
+        <v>0.49632975459098816</v>
       </c>
       <c r="D143" t="n">
-        <v>262.025968659323</v>
+        <v>261.80366879016594</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0</v>
+        <v>0.10480140894651413</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>36.0</v>
+        <v>53.0</v>
       </c>
       <c r="B144" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C144" t="n">
-        <v>0.40551504492759705</v>
+        <v>0.5023859739303589</v>
       </c>
       <c r="D144" t="n">
-        <v>261.86063939372787</v>
+        <v>261.7925079122199</v>
       </c>
       <c r="E144" t="n">
-        <v>0.40551504492759705</v>
+        <v>0.05615795776247978</v>
       </c>
       <c r="F144" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="B145" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C145" t="n">
-        <v>0.4929746091365814</v>
+        <v>0.39102786779403687</v>
       </c>
       <c r="D145" t="n">
-        <v>261.8645538790942</v>
+        <v>261.8399552608657</v>
       </c>
       <c r="E145" t="n">
-        <v>0.14611230790615082</v>
+        <v>0.21286500990390778</v>
       </c>
       <c r="F145" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>31.0</v>
+        <v>38.0</v>
       </c>
       <c r="B146" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C146" t="n">
-        <v>0.5690993070602417</v>
+        <v>0.48756301403045654</v>
       </c>
       <c r="D146" t="n">
-        <v>261.8092385280714</v>
+        <v>261.79625441958456</v>
       </c>
       <c r="E146" t="n">
-        <v>0.11575106531381607</v>
+        <v>0.09934674948453903</v>
       </c>
       <c r="F146" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>18.0</v>
+        <v>30.0</v>
       </c>
       <c r="B147" t="n">
         <v>10.0</v>
       </c>
       <c r="C147" t="n">
-        <v>1.073432445526123</v>
+        <v>0.6677214503288269</v>
       </c>
       <c r="D147" t="n">
-        <v>261.6266045710891</v>
+        <v>261.73523225362436</v>
       </c>
       <c r="E147" t="n">
-        <v>0.5048531293869019</v>
+        <v>0.22453835606575012</v>
       </c>
       <c r="F147" t="n">
         <v>6.0</v>
@@ -2597,19 +2761,19 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
       <c r="B148" t="n">
         <v>10.0</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9511350989341736</v>
+        <v>1.073432445526123</v>
       </c>
       <c r="D148" t="n">
-        <v>261.6143715155233</v>
+        <v>261.6266045710891</v>
       </c>
       <c r="E148" t="n">
-        <v>0.26614075899124146</v>
+        <v>0.4563227593898773</v>
       </c>
       <c r="F148" t="n">
         <v>6.0</v>
@@ -2617,59 +2781,59 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>27.0</v>
+        <v>22.0</v>
       </c>
       <c r="B149" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C149" t="n">
-        <v>0.9158056378364563</v>
+        <v>1.1121973991394043</v>
       </c>
       <c r="D149" t="n">
-        <v>261.62780508586667</v>
+        <v>261.55286056275264</v>
       </c>
       <c r="E149" t="n">
-        <v>0.03647772595286369</v>
+        <v>0.22226640582084656</v>
       </c>
       <c r="F149" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="B150" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="C150" t="n">
-        <v>0.8602044582366943</v>
+        <v>0.9836602210998535</v>
       </c>
       <c r="D150" t="n">
-        <v>261.6337953543354</v>
+        <v>261.6216537846275</v>
       </c>
       <c r="E150" t="n">
-        <v>0.11803000420331955</v>
+        <v>0.1432289034128189</v>
       </c>
       <c r="F150" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="B151" t="n">
         <v>10.0</v>
       </c>
       <c r="C151" t="n">
-        <v>0.833429753780365</v>
+        <v>0.9511350989341736</v>
       </c>
       <c r="D151" t="n">
-        <v>261.64456146410316</v>
+        <v>261.6143715155233</v>
       </c>
       <c r="E151" t="n">
-        <v>0.028472568839788437</v>
+        <v>0.09676468372344971</v>
       </c>
       <c r="F151" t="n">
         <v>6.0</v>
@@ -2677,19 +2841,19 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
       <c r="B152" t="n">
         <v>10.0</v>
       </c>
       <c r="C152" t="n">
-        <v>0.6677214503288269</v>
+        <v>0.9158056378364563</v>
       </c>
       <c r="D152" t="n">
-        <v>261.73523225362436</v>
+        <v>261.62780508586667</v>
       </c>
       <c r="E152" t="n">
-        <v>0.19035542011260986</v>
+        <v>0.03647772595286369</v>
       </c>
       <c r="F152" t="n">
         <v>6.0</v>
@@ -2697,39 +2861,39 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>50.0</v>
+        <v>29.0</v>
       </c>
       <c r="B153" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="C153" t="n">
-        <v>0.4411461353302002</v>
+        <v>0.8602044582366943</v>
       </c>
       <c r="D153" t="n">
-        <v>261.84218775469515</v>
+        <v>261.6337953543354</v>
       </c>
       <c r="E153" t="n">
-        <v>0.5515079498291016</v>
+        <v>0.11803000420331955</v>
       </c>
       <c r="F153" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>57.0</v>
+        <v>28.0</v>
       </c>
       <c r="B154" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C154" t="n">
-        <v>0.559756338596344</v>
+        <v>0.833429753780365</v>
       </c>
       <c r="D154" t="n">
-        <v>261.832411431518</v>
+        <v>261.64456146410316</v>
       </c>
       <c r="E154" t="n">
-        <v>0.1697424352169037</v>
+        <v>0.028472568839788437</v>
       </c>
       <c r="F154" t="n">
         <v>6.0</v>
@@ -2737,19 +2901,19 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>49.0</v>
+        <v>36.0</v>
       </c>
       <c r="B155" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C155" t="n">
-        <v>0.4147675037384033</v>
+        <v>0.40551504492759705</v>
       </c>
       <c r="D155" t="n">
-        <v>261.8742012620678</v>
+        <v>261.86063939372787</v>
       </c>
       <c r="E155" t="n">
-        <v>0.14805088937282562</v>
+        <v>0.45106178522109985</v>
       </c>
       <c r="F155" t="n">
         <v>6.0</v>
@@ -2757,350 +2921,350 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>44.0</v>
+        <v>35.0</v>
       </c>
       <c r="B156" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.340213805437088</v>
+      </c>
+      <c r="D156" t="n">
+        <v>261.89989924983104</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.08161762356758118</v>
+      </c>
+      <c r="F156" t="n">
         <v>2.0</v>
-      </c>
-      <c r="C156" t="n">
-        <v>0.2931596636772156</v>
-      </c>
-      <c r="D156" t="n">
-        <v>261.9081444294253</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0.129132941365242</v>
-      </c>
-      <c r="F156" t="n">
-        <v>4.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="B157" t="n">
-        <v>3.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>30</v>
       </c>
       <c r="C157" t="n">
-        <v>0.10356690734624863</v>
+        <v>0.0</v>
       </c>
       <c r="D157" t="n">
-        <v>262.03744350084025</v>
+        <v>262.025968659323</v>
       </c>
       <c r="E157" t="n">
-        <v>0.27544164657592773</v>
+        <v>0.340213805437088</v>
       </c>
       <c r="F157" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B158" t="s">
-        <v>30</v>
-      </c>
-      <c r="C158" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D158" t="n">
-        <v>262.025968659323</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0.10356690734624863</v>
-      </c>
-      <c r="F158" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s" s="1">
+      <c r="A158" t="s" s="19">
         <v>31</v>
       </c>
-      <c r="B159" s="1" t="n">
-        <f>SUM(B143:B158)</f>
-        <v>92.0</v>
-      </c>
-      <c r="E159" s="1" t="n">
-        <f>SUM(E143:E158)</f>
-        <v>3.189150795340538</v>
-      </c>
-    </row>
+      <c r="B158" s="19" t="n">
+        <f>SUM(B135:B157)</f>
+        <v>124.0</v>
+      </c>
+      <c r="E158" s="19" t="n">
+        <f>SUM(E135:E157)</f>
+        <v>3.6372985057532787</v>
+      </c>
+    </row>
+    <row r="159"/>
     <row r="160"/>
     <row r="161"/>
-    <row r="162"/>
+    <row r="162">
+      <c r="A162" t="s" s="19">
+        <v>16</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C162" t="s" s="19">
+        <v>17</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-80.046878</v>
+      </c>
+      <c r="E162" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="F162" t="n">
+        <v>41.057835</v>
+      </c>
+    </row>
     <row r="163">
-      <c r="A163" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="B163" t="n">
+      <c r="A163" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="B163" t="n" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="C163" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="D163" t="n" s="20">
         <v>-1.0</v>
       </c>
-      <c r="C163" t="s" s="1">
-        <v>17</v>
-      </c>
-      <c r="D163" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="E163" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="F163" t="n">
-        <v>41.057835</v>
-      </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="B164" t="n" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C164" t="s" s="1">
-        <v>20</v>
-      </c>
-      <c r="D164" t="n" s="2">
+      <c r="A164" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="B164" t="n" s="20">
+        <v>3.7400689125061035</v>
+      </c>
+      <c r="C164" t="s" s="19">
+        <v>22</v>
+      </c>
+      <c r="D164" t="n" s="20">
+        <v>362.0</v>
+      </c>
+      <c r="E164" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="F164" t="n" s="20">
+        <v>3.7400689125061035</v>
+      </c>
+    </row>
+    <row r="165"/>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>24</v>
+      </c>
+      <c r="B166" t="s">
+        <v>25</v>
+      </c>
+      <c r="C166" t="s">
+        <v>26</v>
+      </c>
+      <c r="D166" t="s">
+        <v>27</v>
+      </c>
+      <c r="E166" t="s">
+        <v>28</v>
+      </c>
+      <c r="F166" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
         <v>-1.0</v>
       </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s" s="1">
-        <v>21</v>
-      </c>
-      <c r="B165" t="n" s="2">
-        <v>3.6056344509124756</v>
-      </c>
-      <c r="C165" t="s" s="1">
-        <v>22</v>
-      </c>
-      <c r="D165" t="n" s="2">
-        <v>340.0</v>
-      </c>
-      <c r="E165" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="F165" t="n" s="2">
-        <v>3.6056344509124756</v>
-      </c>
-    </row>
-    <row r="166"/>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>24</v>
-      </c>
       <c r="B167" t="s">
-        <v>25</v>
-      </c>
-      <c r="C167" t="s">
-        <v>26</v>
-      </c>
-      <c r="D167" t="s">
-        <v>27</v>
-      </c>
-      <c r="E167" t="s">
-        <v>28</v>
-      </c>
-      <c r="F167" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>262.025968659323</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B168" t="s">
-        <v>30</v>
+        <v>40.0</v>
+      </c>
+      <c r="B168" t="n">
+        <v>3.0</v>
       </c>
       <c r="C168" t="n">
-        <v>0.0</v>
+        <v>0.10356690734624863</v>
       </c>
       <c r="D168" t="n">
-        <v>262.025968659323</v>
+        <v>262.03744350084025</v>
       </c>
       <c r="E168" t="n">
-        <v>0.0</v>
+        <v>0.10356690734624863</v>
       </c>
       <c r="F168" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>36.0</v>
+        <v>47.0</v>
       </c>
       <c r="B169" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C169" t="n">
-        <v>0.40551504492759705</v>
+        <v>0.3747617304325104</v>
       </c>
       <c r="D169" t="n">
-        <v>261.86063939372787</v>
+        <v>261.9456724917965</v>
       </c>
       <c r="E169" t="n">
-        <v>0.40551504492759705</v>
+        <v>0.3024876117706299</v>
       </c>
       <c r="F169" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>34.0</v>
+        <v>48.0</v>
       </c>
       <c r="B170" t="n">
         <v>1.0</v>
       </c>
       <c r="C170" t="n">
-        <v>0.4929746091365814</v>
+        <v>0.3985292911529541</v>
       </c>
       <c r="D170" t="n">
-        <v>261.8645538790942</v>
+        <v>261.9136333683507</v>
       </c>
       <c r="E170" t="n">
-        <v>0.14611230790615082</v>
+        <v>0.0677696168422699</v>
       </c>
       <c r="F170" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>31.0</v>
+        <v>59.0</v>
       </c>
       <c r="B171" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C171" t="n">
-        <v>0.5690993070602417</v>
+        <v>0.6999629139900208</v>
       </c>
       <c r="D171" t="n">
-        <v>261.8092385280714</v>
+        <v>261.8009810208278</v>
       </c>
       <c r="E171" t="n">
-        <v>0.11575106531381607</v>
+        <v>0.30655360221862793</v>
       </c>
       <c r="F171" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>33.0</v>
+        <v>57.0</v>
       </c>
       <c r="B172" t="n">
         <v>1.0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.6471188068389893</v>
+        <v>0.559756338596344</v>
       </c>
       <c r="D172" t="n">
-        <v>261.8530329755303</v>
+        <v>261.832411431518</v>
       </c>
       <c r="E172" t="n">
-        <v>0.21096783876419067</v>
+        <v>0.1469498574733734</v>
       </c>
       <c r="F172" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>18.0</v>
+        <v>50.0</v>
       </c>
       <c r="B173" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="C173" t="n">
-        <v>1.073432445526123</v>
+        <v>0.4411461353302002</v>
       </c>
       <c r="D173" t="n">
-        <v>261.6266045710891</v>
+        <v>261.84218775469515</v>
       </c>
       <c r="E173" t="n">
-        <v>0.49173110723495483</v>
+        <v>0.1697424352169037</v>
       </c>
       <c r="F173" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>25.0</v>
+        <v>49.0</v>
       </c>
       <c r="B174" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9836602210998535</v>
+        <v>0.4147675037384033</v>
       </c>
       <c r="D174" t="n">
-        <v>261.6216537846275</v>
+        <v>261.8742012620678</v>
       </c>
       <c r="E174" t="n">
-        <v>0.16966231167316437</v>
+        <v>0.0824146419763565</v>
       </c>
       <c r="F174" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>22.0</v>
+        <v>44.0</v>
       </c>
       <c r="B175" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="C175" t="n">
-        <v>1.1121973991394043</v>
+        <v>0.2931596636772156</v>
       </c>
       <c r="D175" t="n">
-        <v>261.55286056275264</v>
+        <v>261.9081444294253</v>
       </c>
       <c r="E175" t="n">
-        <v>0.1432289034128189</v>
+        <v>0.129132941365242</v>
       </c>
       <c r="F175" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>26.0</v>
+        <v>45.0</v>
       </c>
       <c r="B176" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9511350989341736</v>
+        <v>0.3815269470214844</v>
       </c>
       <c r="D176" t="n">
-        <v>261.6143715155233</v>
+        <v>261.85269539989224</v>
       </c>
       <c r="E176" t="n">
-        <v>0.16477824747562408</v>
+        <v>0.1205088198184967</v>
       </c>
       <c r="F176" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="B177" t="n">
         <v>10.0</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9158056378364563</v>
+        <v>0.6677214503288269</v>
       </c>
       <c r="D177" t="n">
-        <v>261.62780508586667</v>
+        <v>261.73523225362436</v>
       </c>
       <c r="E177" t="n">
-        <v>0.03647772595286369</v>
+        <v>0.47716882824897766</v>
       </c>
       <c r="F177" t="n">
         <v>6.0</v>
@@ -3108,19 +3272,19 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="B178" t="n">
         <v>10.0</v>
       </c>
       <c r="C178" t="n">
-        <v>0.8602044582366943</v>
+        <v>0.833429753780365</v>
       </c>
       <c r="D178" t="n">
-        <v>261.6337953543354</v>
+        <v>261.64456146410316</v>
       </c>
       <c r="E178" t="n">
-        <v>0.11803000420331955</v>
+        <v>0.19035542011260986</v>
       </c>
       <c r="F178" t="n">
         <v>6.0</v>
@@ -3128,16 +3292,16 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="B179" t="n">
         <v>10.0</v>
       </c>
       <c r="C179" t="n">
-        <v>0.833429753780365</v>
+        <v>0.8602044582366943</v>
       </c>
       <c r="D179" t="n">
-        <v>261.64456146410316</v>
+        <v>261.6337953543354</v>
       </c>
       <c r="E179" t="n">
         <v>0.028472568839788437</v>
@@ -3148,19 +3312,19 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
       <c r="B180" t="n">
         <v>10.0</v>
       </c>
       <c r="C180" t="n">
-        <v>0.6677214503288269</v>
+        <v>0.9158056378364563</v>
       </c>
       <c r="D180" t="n">
-        <v>261.73523225362436</v>
+        <v>261.62780508586667</v>
       </c>
       <c r="E180" t="n">
-        <v>0.19035542011260986</v>
+        <v>0.11803000420331955</v>
       </c>
       <c r="F180" t="n">
         <v>6.0</v>
@@ -3168,39 +3332,39 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>38.0</v>
+        <v>26.0</v>
       </c>
       <c r="B181" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C181" t="n">
-        <v>0.48756301403045654</v>
+        <v>0.9511350989341736</v>
       </c>
       <c r="D181" t="n">
-        <v>261.79625441958456</v>
+        <v>261.6143715155233</v>
       </c>
       <c r="E181" t="n">
-        <v>0.22453835606575012</v>
+        <v>0.03647772595286369</v>
       </c>
       <c r="F181" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>57.0</v>
+        <v>18.0</v>
       </c>
       <c r="B182" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C182" t="n">
-        <v>0.559756338596344</v>
+        <v>1.073432445526123</v>
       </c>
       <c r="D182" t="n">
-        <v>261.832411431518</v>
+        <v>261.6266045710891</v>
       </c>
       <c r="E182" t="n">
-        <v>0.49370869994163513</v>
+        <v>0.26614075899124146</v>
       </c>
       <c r="F182" t="n">
         <v>6.0</v>
@@ -3208,39 +3372,39 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>49.0</v>
+        <v>31.0</v>
       </c>
       <c r="B183" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="C183" t="n">
-        <v>0.4147675037384033</v>
+        <v>0.5690993070602417</v>
       </c>
       <c r="D183" t="n">
-        <v>261.8742012620678</v>
+        <v>261.8092385280714</v>
       </c>
       <c r="E183" t="n">
-        <v>0.14805088937282562</v>
+        <v>0.5048531293869019</v>
       </c>
       <c r="F183" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>44.0</v>
+        <v>34.0</v>
       </c>
       <c r="B184" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C184" t="n">
-        <v>0.2931596636772156</v>
+        <v>0.4929746091365814</v>
       </c>
       <c r="D184" t="n">
-        <v>261.9081444294253</v>
+        <v>261.8645538790942</v>
       </c>
       <c r="E184" t="n">
-        <v>0.129132941365242</v>
+        <v>0.11575106531381607</v>
       </c>
       <c r="F184" t="n">
         <v>4.0</v>
@@ -3248,74 +3412,585 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
       <c r="B185" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C185" t="n">
-        <v>0.12855416536331177</v>
+        <v>0.40551504492759705</v>
       </c>
       <c r="D185" t="n">
-        <v>262.02842904452655</v>
+        <v>261.86063939372787</v>
       </c>
       <c r="E185" t="n">
-        <v>0.25213780999183655</v>
+        <v>0.14611230790615082</v>
       </c>
       <c r="F185" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>40.0</v>
+        <v>42.0</v>
       </c>
       <c r="B186" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C186" t="n">
-        <v>0.10356690734624863</v>
+        <v>0.26619550585746765</v>
       </c>
       <c r="D186" t="n">
-        <v>262.03744350084025</v>
+        <v>261.9041240218826</v>
       </c>
       <c r="E186" t="n">
-        <v>0.03341617435216904</v>
+        <v>0.1610601395368576</v>
       </c>
       <c r="F186" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.24060335755348206</v>
+      </c>
+      <c r="D187" t="n">
+        <v>261.9164291959897</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.025917239487171173</v>
+      </c>
+      <c r="F187" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B188" t="s">
+        <v>30</v>
+      </c>
+      <c r="C188" t="n">
         <v>0.0</v>
       </c>
-      <c r="B187" t="s">
+      <c r="D188" t="n">
+        <v>262.025968659323</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.24060335755348206</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="19">
+        <v>31</v>
+      </c>
+      <c r="B189" s="19" t="n">
+        <f>SUM(B167:B188)</f>
+        <v>116.0</v>
+      </c>
+      <c r="E189" s="19" t="n">
+        <f>SUM(E167:E188)</f>
+        <v>3.740068979561329</v>
+      </c>
+    </row>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193">
+      <c r="A193" t="s" s="19">
+        <v>16</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C193" t="s" s="19">
+        <v>17</v>
+      </c>
+      <c r="D193" t="n">
+        <v>-80.046878</v>
+      </c>
+      <c r="E193" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="F193" t="n">
+        <v>41.057835</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="19">
+        <v>19</v>
+      </c>
+      <c r="B194" t="n" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="C194" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="D194" t="n" s="20">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="B195" t="n" s="20">
+        <v>3.6056344509124756</v>
+      </c>
+      <c r="C195" t="s" s="19">
+        <v>22</v>
+      </c>
+      <c r="D195" t="n" s="20">
+        <v>340.0</v>
+      </c>
+      <c r="E195" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="F195" t="n" s="20">
+        <v>3.6056344509124756</v>
+      </c>
+    </row>
+    <row r="196"/>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>24</v>
+      </c>
+      <c r="B197" t="s">
+        <v>25</v>
+      </c>
+      <c r="C197" t="s">
+        <v>26</v>
+      </c>
+      <c r="D197" t="s">
+        <v>27</v>
+      </c>
+      <c r="E197" t="s">
+        <v>28</v>
+      </c>
+      <c r="F197" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B198" t="s">
         <v>30</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C198" t="n">
         <v>0.0</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D198" t="n">
         <v>262.025968659323</v>
       </c>
-      <c r="E187" t="n">
+      <c r="E198" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.40551504492759705</v>
+      </c>
+      <c r="D199" t="n">
+        <v>261.86063939372787</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.40551504492759705</v>
+      </c>
+      <c r="F199" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.4929746091365814</v>
+      </c>
+      <c r="D200" t="n">
+        <v>261.8645538790942</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.14611230790615082</v>
+      </c>
+      <c r="F200" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B201" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.5690993070602417</v>
+      </c>
+      <c r="D201" t="n">
+        <v>261.8092385280714</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.11575106531381607</v>
+      </c>
+      <c r="F201" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.6471188068389893</v>
+      </c>
+      <c r="D202" t="n">
+        <v>261.8530329755303</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.21096783876419067</v>
+      </c>
+      <c r="F202" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B203" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1.073432445526123</v>
+      </c>
+      <c r="D203" t="n">
+        <v>261.6266045710891</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.49173110723495483</v>
+      </c>
+      <c r="F203" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B204" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.9836602210998535</v>
+      </c>
+      <c r="D204" t="n">
+        <v>261.6216537846275</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.16966231167316437</v>
+      </c>
+      <c r="F204" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.1121973991394043</v>
+      </c>
+      <c r="D205" t="n">
+        <v>261.55286056275264</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.1432289034128189</v>
+      </c>
+      <c r="F205" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B206" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.9511350989341736</v>
+      </c>
+      <c r="D206" t="n">
+        <v>261.6143715155233</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.16477824747562408</v>
+      </c>
+      <c r="F206" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B207" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.9158056378364563</v>
+      </c>
+      <c r="D207" t="n">
+        <v>261.62780508586667</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.03647772595286369</v>
+      </c>
+      <c r="F207" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B208" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.8602044582366943</v>
+      </c>
+      <c r="D208" t="n">
+        <v>261.6337953543354</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.11803000420331955</v>
+      </c>
+      <c r="F208" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B209" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.833429753780365</v>
+      </c>
+      <c r="D209" t="n">
+        <v>261.64456146410316</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.028472568839788437</v>
+      </c>
+      <c r="F209" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B210" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.6677214503288269</v>
+      </c>
+      <c r="D210" t="n">
+        <v>261.73523225362436</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.19035542011260986</v>
+      </c>
+      <c r="F210" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.48756301403045654</v>
+      </c>
+      <c r="D211" t="n">
+        <v>261.79625441958456</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.22453835606575012</v>
+      </c>
+      <c r="F211" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.559756338596344</v>
+      </c>
+      <c r="D212" t="n">
+        <v>261.832411431518</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.49370869994163513</v>
+      </c>
+      <c r="F212" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B213" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.4147675037384033</v>
+      </c>
+      <c r="D213" t="n">
+        <v>261.8742012620678</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.14805088937282562</v>
+      </c>
+      <c r="F213" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.2931596636772156</v>
+      </c>
+      <c r="D214" t="n">
+        <v>261.9081444294253</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.129132941365242</v>
+      </c>
+      <c r="F214" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.12855416536331177</v>
+      </c>
+      <c r="D215" t="n">
+        <v>262.02842904452655</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.25213780999183655</v>
+      </c>
+      <c r="F215" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B216" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C216" t="n">
         <v>0.10356690734624863</v>
       </c>
-      <c r="F187" t="n">
+      <c r="D216" t="n">
+        <v>262.03744350084025</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.03341617435216904</v>
+      </c>
+      <c r="F216" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>30</v>
+      </c>
+      <c r="C217" t="n">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s" s="1">
+      <c r="D217" t="n">
+        <v>262.025968659323</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.10356690734624863</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="19">
         <v>31</v>
       </c>
-      <c r="B188" s="1" t="n">
-        <f>SUM(B168:B187)</f>
+      <c r="B218" s="19" t="n">
+        <f>SUM(B198:B217)</f>
         <v>103.0</v>
       </c>
-      <c r="E188" s="1" t="n">
-        <f>SUM(E168:E187)</f>
+      <c r="E218" s="19" t="n">
+        <f>SUM(E198:E217)</f>
         <v>3.6056343242526054</v>
       </c>
     </row>

--- a/data/TR/results/All_Long_Solutions.xlsx
+++ b/data/TR/results/All_Long_Solutions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="32">
   <si>
     <t>Filename</t>
   </si>
@@ -115,43 +115,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -224,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -246,26 +216,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -278,16 +228,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.54296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.2890625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.7734375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.35546875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.9921875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.39453125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.9140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.796875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.87109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="21">
+      <c r="A1" t="s" s="9">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -295,7 +245,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="21">
+      <c r="A2" t="s" s="9">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -303,7 +253,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="21">
+      <c r="A3" t="s" s="9">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -311,7 +261,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="21">
+      <c r="A4" t="s" s="9">
         <v>6</v>
       </c>
       <c r="B4" t="n">
@@ -319,22 +269,22 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="21">
+      <c r="A5" t="s" s="9">
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="21">
+      <c r="A6" t="s" s="9">
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="7">
@@ -353,17 +303,17 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>2277.0</v>
+        <v>2229.0</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="19">
+      <c r="A9" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="B9" t="s" s="19">
+      <c r="B9" t="s" s="7">
         <v>15</v>
       </c>
     </row>
@@ -372,19 +322,19 @@
     <row r="12"/>
     <row r="13"/>
     <row r="14">
-      <c r="A14" t="s" s="19">
+      <c r="A14" t="s" s="7">
         <v>16</v>
       </c>
       <c r="B14" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C14" t="s" s="19">
+      <c r="C14" t="s" s="7">
         <v>17</v>
       </c>
       <c r="D14" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E14" t="s" s="19">
+      <c r="E14" t="s" s="7">
         <v>18</v>
       </c>
       <c r="F14" t="n">
@@ -392,37 +342,37 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="19">
+      <c r="A15" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="B15" t="n" s="19">
+      <c r="B15" t="n" s="7">
         <v>0.0</v>
       </c>
-      <c r="C15" t="s" s="19">
+      <c r="C15" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="D15" t="n" s="20">
+      <c r="D15" t="n" s="8">
         <v>-1.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="19">
+      <c r="A16" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="B16" t="n" s="20">
-        <v>6.831668376922607</v>
-      </c>
-      <c r="C16" t="s" s="19">
+      <c r="B16" t="n" s="8">
+        <v>4.249732494354248</v>
+      </c>
+      <c r="C16" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="D16" t="n" s="20">
-        <v>450.0</v>
-      </c>
-      <c r="E16" t="s" s="19">
+      <c r="D16" t="n" s="8">
+        <v>437.0</v>
+      </c>
+      <c r="E16" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="F16" t="n" s="20">
-        <v>6.831668376922607</v>
+      <c r="F16" t="n" s="8">
+        <v>4.249732494354248</v>
       </c>
     </row>
     <row r="17"/>
@@ -474,13 +424,13 @@
         <v>2.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04200505092740059</v>
+        <v>0.026129815727472305</v>
       </c>
       <c r="D20" t="n">
         <v>262.0077728246056</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04200505092740059</v>
+        <v>0.026129815727472305</v>
       </c>
       <c r="F20" t="n">
         <v>1.0</v>
@@ -494,13 +444,13 @@
         <v>1.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4929746091365814</v>
+        <v>0.30666160583496094</v>
       </c>
       <c r="D21" t="n">
         <v>261.8645538790942</v>
       </c>
       <c r="E21" t="n">
-        <v>0.45410019159317017</v>
+        <v>0.2824792265892029</v>
       </c>
       <c r="F21" t="n">
         <v>4.0</v>
@@ -514,13 +464,13 @@
         <v>1.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.1177265644073486</v>
+        <v>0.6952970623970032</v>
       </c>
       <c r="D22" t="n">
         <v>261.8127084459809</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6735409498214722</v>
+        <v>0.4189853370189667</v>
       </c>
       <c r="F22" t="n">
         <v>1.0</v>
@@ -534,13 +484,13 @@
         <v>2.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.279657006263733</v>
+        <v>0.7960281372070312</v>
       </c>
       <c r="D23" t="n">
         <v>261.74558639022837</v>
       </c>
       <c r="E23" t="n">
-        <v>0.17964953184127808</v>
+        <v>0.1117534413933754</v>
       </c>
       <c r="F23" t="n">
         <v>1.0</v>
@@ -554,13 +504,13 @@
         <v>2.0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.2688837051391602</v>
+        <v>0.7893264293670654</v>
       </c>
       <c r="D24" t="n">
         <v>261.734512161128</v>
       </c>
       <c r="E24" t="n">
-        <v>0.033480454236269</v>
+        <v>0.020826974883675575</v>
       </c>
       <c r="F24" t="n">
         <v>1.0</v>
@@ -574,13 +524,13 @@
         <v>1.0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.5365809202194214</v>
+        <v>0.9558511972427368</v>
       </c>
       <c r="D25" t="n">
         <v>261.4050595755135</v>
       </c>
       <c r="E25" t="n">
-        <v>0.740107536315918</v>
+        <v>0.4603939950466156</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -594,13 +544,13 @@
         <v>2.0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.244834303855896</v>
+        <v>0.7743661999702454</v>
       </c>
       <c r="D26" t="n">
         <v>261.5087901924117</v>
       </c>
       <c r="E26" t="n">
-        <v>0.29834985733032227</v>
+        <v>0.18559260666370392</v>
       </c>
       <c r="F26" t="n">
         <v>1.0</v>
@@ -614,13 +564,13 @@
         <v>2.0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.2301167249679565</v>
+        <v>0.7652108669281006</v>
       </c>
       <c r="D27" t="n">
         <v>261.4937537372069</v>
       </c>
       <c r="E27" t="n">
-        <v>0.09499038755893707</v>
+        <v>0.05909006670117378</v>
       </c>
       <c r="F27" t="n">
         <v>1.0</v>
@@ -634,13 +584,13 @@
         <v>1.0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.1731542348861694</v>
+        <v>0.7297766804695129</v>
       </c>
       <c r="D28" t="n">
         <v>261.5260869750733</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06753670424222946</v>
+        <v>0.042012132704257965</v>
       </c>
       <c r="F28" t="n">
         <v>1.0</v>
@@ -654,13 +604,13 @@
         <v>10.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9511350989341736</v>
+        <v>0.591666579246521</v>
       </c>
       <c r="D29" t="n">
         <v>261.6143715155233</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2243632674217224</v>
+        <v>0.1395682394504547</v>
       </c>
       <c r="F29" t="n">
         <v>6.0</v>
@@ -674,13 +624,13 @@
         <v>10.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8602044582366943</v>
+        <v>0.5351018905639648</v>
       </c>
       <c r="D30" t="n">
         <v>261.6337953543354</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1465173065662384</v>
+        <v>0.09114309400320053</v>
       </c>
       <c r="F30" t="n">
         <v>6.0</v>
@@ -694,13 +644,13 @@
         <v>10.0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.833429753780365</v>
+        <v>0.5184463858604431</v>
       </c>
       <c r="D31" t="n">
         <v>261.64456146410316</v>
       </c>
       <c r="E31" t="n">
-        <v>0.028472568839788437</v>
+        <v>0.01771175116300583</v>
       </c>
       <c r="F31" t="n">
         <v>6.0</v>
@@ -714,13 +664,13 @@
         <v>10.0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9158056378364563</v>
+        <v>0.5696893930435181</v>
       </c>
       <c r="D32" t="n">
         <v>261.62780508586667</v>
       </c>
       <c r="E32" t="n">
-        <v>0.13939817249774933</v>
+        <v>0.08671453595161438</v>
       </c>
       <c r="F32" t="n">
         <v>6.0</v>
@@ -734,13 +684,13 @@
         <v>10.0</v>
       </c>
       <c r="C33" t="n">
-        <v>1.073432445526123</v>
+        <v>0.6677433252334595</v>
       </c>
       <c r="D33" t="n">
         <v>261.6266045710891</v>
       </c>
       <c r="E33" t="n">
-        <v>0.288409024477005</v>
+        <v>0.17940877377986908</v>
       </c>
       <c r="F33" t="n">
         <v>6.0</v>
@@ -754,13 +704,13 @@
         <v>1.0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.1081416606903076</v>
+        <v>0.6893346905708313</v>
       </c>
       <c r="D34" t="n">
         <v>261.6963311869112</v>
       </c>
       <c r="E34" t="n">
-        <v>0.23920954763889313</v>
+        <v>0.14880356192588806</v>
       </c>
       <c r="F34" t="n">
         <v>1.0</v>
@@ -774,13 +724,13 @@
         <v>1.0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.0533623695373535</v>
+        <v>0.6552584171295166</v>
       </c>
       <c r="D35" t="n">
         <v>261.7457281617366</v>
       </c>
       <c r="E35" t="n">
-        <v>0.10288845747709274</v>
+        <v>0.06400316953659058</v>
       </c>
       <c r="F35" t="n">
         <v>1.0</v>
@@ -794,13 +744,13 @@
         <v>2.0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9183313250541687</v>
+        <v>0.5712605714797974</v>
       </c>
       <c r="D36" t="n">
         <v>261.74771242780264</v>
       </c>
       <c r="E36" t="n">
-        <v>0.16437725722789764</v>
+        <v>0.10225311666727066</v>
       </c>
       <c r="F36" t="n">
         <v>1.0</v>
@@ -814,13 +764,13 @@
         <v>1.0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6471188068389893</v>
+        <v>0.4025490880012512</v>
       </c>
       <c r="D37" t="n">
         <v>261.8530329755303</v>
       </c>
       <c r="E37" t="n">
-        <v>0.28039973974227905</v>
+        <v>0.17442648112773895</v>
       </c>
       <c r="F37" t="n">
         <v>3.0</v>
@@ -834,13 +784,13 @@
         <v>4.0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5690993070602417</v>
+        <v>0.3540160059928894</v>
       </c>
       <c r="D38" t="n">
         <v>261.8092385280714</v>
       </c>
       <c r="E38" t="n">
-        <v>0.21096783876419067</v>
+        <v>0.13123542070388794</v>
       </c>
       <c r="F38" t="n">
         <v>4.0</v>
@@ -854,13 +804,13 @@
         <v>10.0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6677214503288269</v>
+        <v>0.4153652489185333</v>
       </c>
       <c r="D39" t="n">
         <v>261.73523225362436</v>
       </c>
       <c r="E39" t="n">
-        <v>0.16649450361728668</v>
+        <v>0.10357017815113068</v>
       </c>
       <c r="F39" t="n">
         <v>6.0</v>
@@ -874,13 +824,13 @@
         <v>1.0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.40551504492759705</v>
+        <v>0.2522561550140381</v>
       </c>
       <c r="D40" t="n">
         <v>261.86063939372787</v>
       </c>
       <c r="E40" t="n">
-        <v>0.26956841349601746</v>
+        <v>0.16768871247768402</v>
       </c>
       <c r="F40" t="n">
         <v>6.0</v>
@@ -894,13 +844,13 @@
         <v>5.0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.26619550585746765</v>
+        <v>0.1655905395746231</v>
       </c>
       <c r="D41" t="n">
         <v>261.9041240218826</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1610601395368576</v>
+        <v>0.10018965601921082</v>
       </c>
       <c r="F41" t="n">
         <v>3.0</v>
@@ -914,13 +864,13 @@
         <v>4.0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.24060335755348206</v>
+        <v>0.14967060089111328</v>
       </c>
       <c r="D42" t="n">
         <v>261.9164291959897</v>
       </c>
       <c r="E42" t="n">
-        <v>0.025917239487171173</v>
+        <v>0.01612217165529728</v>
       </c>
       <c r="F42" t="n">
         <v>3.0</v>
@@ -934,13 +884,13 @@
         <v>4.0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3815269470214844</v>
+        <v>0.23733405768871307</v>
       </c>
       <c r="D43" t="n">
         <v>261.85269539989224</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2430168092250824</v>
+        <v>0.15117192268371582</v>
       </c>
       <c r="F43" t="n">
         <v>3.0</v>
@@ -954,13 +904,13 @@
         <v>8.0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4411461353302002</v>
+        <v>0.27442097663879395</v>
       </c>
       <c r="D44" t="n">
         <v>261.84218775469515</v>
       </c>
       <c r="E44" t="n">
-        <v>0.09722606837749481</v>
+        <v>0.06048080697655678</v>
       </c>
       <c r="F44" t="n">
         <v>5.0</v>
@@ -974,13 +924,13 @@
         <v>12.0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4147675037384033</v>
+        <v>0.2580117881298065</v>
       </c>
       <c r="D45" t="n">
         <v>261.8742012620678</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0824146419763565</v>
+        <v>0.05126715451478958</v>
       </c>
       <c r="F45" t="n">
         <v>6.0</v>
@@ -994,13 +944,13 @@
         <v>1.0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.559756338596344</v>
+        <v>0.3482040762901306</v>
       </c>
       <c r="D46" t="n">
         <v>261.832411431518</v>
       </c>
       <c r="E46" t="n">
-        <v>0.14805088937282562</v>
+        <v>0.09209708124399185</v>
       </c>
       <c r="F46" t="n">
         <v>6.0</v>
@@ -1014,13 +964,13 @@
         <v>6.0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6999629139900208</v>
+        <v>0.43542152643203735</v>
       </c>
       <c r="D47" t="n">
         <v>261.8009810208278</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1469498574733734</v>
+        <v>0.09141216427087784</v>
       </c>
       <c r="F47" t="n">
         <v>3.0</v>
@@ -1034,13 +984,13 @@
         <v>1.0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3985292911529541</v>
+        <v>0.24791058897972107</v>
       </c>
       <c r="D48" t="n">
         <v>261.9136333683507</v>
       </c>
       <c r="E48" t="n">
-        <v>0.30655360221862793</v>
+        <v>0.1906958520412445</v>
       </c>
       <c r="F48" t="n">
         <v>3.0</v>
@@ -1054,13 +1004,13 @@
         <v>4.0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3747617304325104</v>
+        <v>0.23312565684318542</v>
       </c>
       <c r="D49" t="n">
         <v>261.9456724917965</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0677696168422699</v>
+        <v>0.04215701296925545</v>
       </c>
       <c r="F49" t="n">
         <v>3.0</v>
@@ -1074,13 +1024,13 @@
         <v>2.0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2931596636772156</v>
+        <v>0.18236397206783295</v>
       </c>
       <c r="D50" t="n">
         <v>261.9081444294253</v>
       </c>
       <c r="E50" t="n">
-        <v>0.19104407727718353</v>
+        <v>0.11884157359600067</v>
       </c>
       <c r="F50" t="n">
         <v>4.0</v>
@@ -1094,13 +1044,13 @@
         <v>2.0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.08953952044248581</v>
+        <v>0.05569928139448166</v>
       </c>
       <c r="D51" t="n">
         <v>261.9890906815781</v>
       </c>
       <c r="E51" t="n">
-        <v>0.20371700823307037</v>
+        <v>0.1267249435186386</v>
       </c>
       <c r="F51" t="n">
         <v>1.0</v>
@@ -1114,13 +1064,13 @@
         <v>2.0</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07692065089941025</v>
+        <v>0.047849543392658234</v>
       </c>
       <c r="D52" t="n">
         <v>261.99499261555235</v>
       </c>
       <c r="E52" t="n">
-        <v>0.012963603250682354</v>
+        <v>0.008064186200499535</v>
       </c>
       <c r="F52" t="n">
         <v>1.0</v>
@@ -1134,13 +1084,13 @@
         <v>2.0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07495752722024918</v>
+        <v>0.046628355979919434</v>
       </c>
       <c r="D53" t="n">
         <v>262.001731797022</v>
       </c>
       <c r="E53" t="n">
-        <v>0.019395161420106888</v>
+        <v>0.012065025046467781</v>
       </c>
       <c r="F53" t="n">
         <v>1.0</v>
@@ -1154,13 +1104,13 @@
         <v>2.0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07377470284700394</v>
+        <v>0.045892562717199326</v>
       </c>
       <c r="D54" t="n">
         <v>262.0171039955313</v>
       </c>
       <c r="E54" t="n">
-        <v>0.035702068358659744</v>
+        <v>0.022208958864212036</v>
       </c>
       <c r="F54" t="n">
         <v>1.0</v>
@@ -1174,13 +1124,13 @@
         <v>2.0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.059766702353954315</v>
+        <v>0.03717869520187378</v>
       </c>
       <c r="D55" t="n">
         <v>262.0273419598029</v>
       </c>
       <c r="E55" t="n">
-        <v>0.024302326142787933</v>
+        <v>0.015117594040930271</v>
       </c>
       <c r="F55" t="n">
         <v>1.0</v>
@@ -1194,13 +1144,13 @@
         <v>4.0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.12855416536331177</v>
+        <v>0.0799688771367073</v>
       </c>
       <c r="D56" t="n">
         <v>262.02842904452655</v>
       </c>
       <c r="E56" t="n">
-        <v>0.06879103928804398</v>
+        <v>0.04279240220785141</v>
       </c>
       <c r="F56" t="n">
         <v>3.0</v>
@@ -1214,13 +1164,13 @@
         <v>3.0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.10356690734624863</v>
+        <v>0.06442520767450333</v>
       </c>
       <c r="D57" t="n">
         <v>262.03744350084025</v>
       </c>
       <c r="E57" t="n">
-        <v>0.03341617435216904</v>
+        <v>0.020786987617611885</v>
       </c>
       <c r="F57" t="n">
         <v>4.0</v>
@@ -1234,13 +1184,13 @@
         <v>1.0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0815577432513237</v>
+        <v>0.050734106451272964</v>
       </c>
       <c r="D58" t="n">
         <v>262.03720115376393</v>
       </c>
       <c r="E58" t="n">
-        <v>0.022644149139523506</v>
+        <v>0.01408610213547945</v>
       </c>
       <c r="F58" t="n">
         <v>1.0</v>
@@ -1254,13 +1204,13 @@
         <v>1.0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.02793951891362667</v>
+        <v>0.017380159348249435</v>
       </c>
       <c r="D59" t="n">
         <v>262.0384776220169</v>
       </c>
       <c r="E59" t="n">
-        <v>0.06796745210886002</v>
+        <v>0.042280081659555435</v>
       </c>
       <c r="F59" t="n">
         <v>1.0</v>
@@ -1280,42 +1230,42 @@
         <v>262.025968659323</v>
       </c>
       <c r="E60" t="n">
-        <v>0.02793951891362667</v>
+        <v>0.017380159348249435</v>
       </c>
       <c r="F60" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="19">
+      <c r="A61" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="B61" s="19" t="n">
+      <c r="B61" s="7" t="n">
         <f>SUM(B19:B60)</f>
         <v>150.0</v>
       </c>
-      <c r="E61" s="19" t="n">
+      <c r="E61" s="7" t="n">
         <f>SUM(E19:E60)</f>
-        <v>6.831668204627931</v>
+        <v>4.249732468277216</v>
       </c>
     </row>
     <row r="62"/>
     <row r="63"/>
     <row r="64"/>
     <row r="65">
-      <c r="A65" t="s" s="19">
+      <c r="A65" t="s" s="7">
         <v>16</v>
       </c>
       <c r="B65" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C65" t="s" s="19">
+      <c r="C65" t="s" s="7">
         <v>17</v>
       </c>
       <c r="D65" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E65" t="s" s="19">
+      <c r="E65" t="s" s="7">
         <v>18</v>
       </c>
       <c r="F65" t="n">
@@ -1323,37 +1273,37 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="19">
+      <c r="A66" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="B66" t="n" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="C66" t="s" s="19">
+      <c r="B66" t="n" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C66" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="D66" t="n" s="20">
+      <c r="D66" t="n" s="8">
         <v>-1.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="19">
+      <c r="A67" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="B67" t="n" s="20">
-        <v>3.637298822402954</v>
-      </c>
-      <c r="C67" t="s" s="19">
+      <c r="B67" t="n" s="8">
+        <v>2.2626311779022217</v>
+      </c>
+      <c r="C67" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="D67" t="n" s="20">
-        <v>374.0</v>
-      </c>
-      <c r="E67" t="s" s="19">
+      <c r="D67" t="n" s="8">
+        <v>367.0</v>
+      </c>
+      <c r="E67" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="F67" t="n" s="20">
-        <v>3.637298822402954</v>
+      <c r="F67" t="n" s="8">
+        <v>2.2626311779022217</v>
       </c>
     </row>
     <row r="68"/>
@@ -1405,13 +1355,13 @@
         <v>4.0</v>
       </c>
       <c r="C71" t="n">
-        <v>0.30144205689430237</v>
+        <v>0.18751613795757294</v>
       </c>
       <c r="D71" t="n">
         <v>261.9345977905843</v>
       </c>
       <c r="E71" t="n">
-        <v>0.30144205689430237</v>
+        <v>0.18751613795757294</v>
       </c>
       <c r="F71" t="n">
         <v>2.0</v>
@@ -1425,13 +1375,13 @@
         <v>12.0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4147675037384033</v>
+        <v>0.2580117881298065</v>
       </c>
       <c r="D72" t="n">
         <v>261.8742012620678</v>
       </c>
       <c r="E72" t="n">
-        <v>0.13037799298763275</v>
+        <v>0.08110341429710388</v>
       </c>
       <c r="F72" t="n">
         <v>6.0</v>
@@ -1445,13 +1395,13 @@
         <v>3.0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.41277188062667847</v>
+        <v>0.25677040219306946</v>
       </c>
       <c r="D73" t="n">
         <v>261.8504227828364</v>
       </c>
       <c r="E73" t="n">
-        <v>0.09090527147054672</v>
+        <v>0.056548867374658585</v>
       </c>
       <c r="F73" t="n">
         <v>2.0</v>
@@ -1465,13 +1415,13 @@
         <v>8.0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4411461353302002</v>
+        <v>0.27442097663879395</v>
       </c>
       <c r="D74" t="n">
         <v>261.84218775469515</v>
       </c>
       <c r="E74" t="n">
-        <v>0.03253420442342758</v>
+        <v>0.020238345488905907</v>
       </c>
       <c r="F74" t="n">
         <v>5.0</v>
@@ -1485,13 +1435,13 @@
         <v>3.0</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5833421349525452</v>
+        <v>0.36287596821784973</v>
       </c>
       <c r="D75" t="n">
         <v>261.84567371889716</v>
       </c>
       <c r="E75" t="n">
-        <v>0.22648894786834717</v>
+        <v>0.14089053869247437</v>
       </c>
       <c r="F75" t="n">
         <v>2.0</v>
@@ -1505,13 +1455,13 @@
         <v>1.0</v>
       </c>
       <c r="C76" t="n">
-        <v>0.559756338596344</v>
+        <v>0.3482040762901306</v>
       </c>
       <c r="D76" t="n">
         <v>261.832411431518</v>
       </c>
       <c r="E76" t="n">
-        <v>0.06408242136240005</v>
+        <v>0.03986334800720215</v>
       </c>
       <c r="F76" t="n">
         <v>6.0</v>
@@ -1525,13 +1475,13 @@
         <v>3.0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5436442494392395</v>
+        <v>0.3381813168525696</v>
       </c>
       <c r="D77" t="n">
         <v>261.80355109326473</v>
       </c>
       <c r="E77" t="n">
-        <v>0.11930186301469803</v>
+        <v>0.07421335577964783</v>
       </c>
       <c r="F77" t="n">
         <v>2.0</v>
@@ -1545,13 +1495,13 @@
         <v>1.0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.49632975459098816</v>
+        <v>0.30874869227409363</v>
       </c>
       <c r="D78" t="n">
         <v>261.80366879016594</v>
       </c>
       <c r="E78" t="n">
-        <v>0.10480140894651413</v>
+        <v>0.06519314646720886</v>
       </c>
       <c r="F78" t="n">
         <v>2.0</v>
@@ -1565,13 +1515,13 @@
         <v>4.0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5023859739303589</v>
+        <v>0.3125160336494446</v>
       </c>
       <c r="D79" t="n">
         <v>261.7925079122199</v>
       </c>
       <c r="E79" t="n">
-        <v>0.05615795776247978</v>
+        <v>0.034933824092149734</v>
       </c>
       <c r="F79" t="n">
         <v>2.0</v>
@@ -1585,13 +1535,13 @@
         <v>4.0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.39102786779403687</v>
+        <v>0.2432442307472229</v>
       </c>
       <c r="D80" t="n">
         <v>261.8399552608657</v>
       </c>
       <c r="E80" t="n">
-        <v>0.21286500990390778</v>
+        <v>0.13241559267044067</v>
       </c>
       <c r="F80" t="n">
         <v>2.0</v>
@@ -1605,13 +1555,13 @@
         <v>1.0</v>
       </c>
       <c r="C81" t="n">
-        <v>0.48756301403045654</v>
+        <v>0.30329522490501404</v>
       </c>
       <c r="D81" t="n">
         <v>261.79625441958456</v>
       </c>
       <c r="E81" t="n">
-        <v>0.09934674948453903</v>
+        <v>0.06180000305175781</v>
       </c>
       <c r="F81" t="n">
         <v>3.0</v>
@@ -1625,13 +1575,13 @@
         <v>10.0</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6677214503288269</v>
+        <v>0.4153652489185333</v>
       </c>
       <c r="D82" t="n">
         <v>261.73523225362436</v>
       </c>
       <c r="E82" t="n">
-        <v>0.22453835606575012</v>
+        <v>0.13967715203762054</v>
       </c>
       <c r="F82" t="n">
         <v>6.0</v>
@@ -1645,13 +1595,13 @@
         <v>10.0</v>
       </c>
       <c r="C83" t="n">
-        <v>1.073432445526123</v>
+        <v>0.6677433252334595</v>
       </c>
       <c r="D83" t="n">
         <v>261.6266045710891</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4563227593898773</v>
+        <v>0.28386181592941284</v>
       </c>
       <c r="F83" t="n">
         <v>6.0</v>
@@ -1665,13 +1615,13 @@
         <v>5.0</v>
       </c>
       <c r="C84" t="n">
-        <v>1.1121973991394043</v>
+        <v>0.6918575763702393</v>
       </c>
       <c r="D84" t="n">
         <v>261.55286056275264</v>
       </c>
       <c r="E84" t="n">
-        <v>0.22226640582084656</v>
+        <v>0.13826385140419006</v>
       </c>
       <c r="F84" t="n">
         <v>3.0</v>
@@ -1685,13 +1635,13 @@
         <v>8.0</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9836602210998535</v>
+        <v>0.6118992567062378</v>
       </c>
       <c r="D85" t="n">
         <v>261.6216537846275</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1432289034128189</v>
+        <v>0.08909749239683151</v>
       </c>
       <c r="F85" t="n">
         <v>3.0</v>
@@ -1705,13 +1655,13 @@
         <v>10.0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9511350989341736</v>
+        <v>0.591666579246521</v>
       </c>
       <c r="D86" t="n">
         <v>261.6143715155233</v>
       </c>
       <c r="E86" t="n">
-        <v>0.09676468372344971</v>
+        <v>0.06019379198551178</v>
       </c>
       <c r="F86" t="n">
         <v>6.0</v>
@@ -1725,13 +1675,13 @@
         <v>10.0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9158056378364563</v>
+        <v>0.5696893930435181</v>
       </c>
       <c r="D87" t="n">
         <v>261.62780508586667</v>
       </c>
       <c r="E87" t="n">
-        <v>0.03647772595286369</v>
+        <v>0.02269146777689457</v>
       </c>
       <c r="F87" t="n">
         <v>6.0</v>
@@ -1745,13 +1695,13 @@
         <v>10.0</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8602044582366943</v>
+        <v>0.5351018905639648</v>
       </c>
       <c r="D88" t="n">
         <v>261.6337953543354</v>
       </c>
       <c r="E88" t="n">
-        <v>0.11803000420331955</v>
+        <v>0.07342217862606049</v>
       </c>
       <c r="F88" t="n">
         <v>6.0</v>
@@ -1765,13 +1715,13 @@
         <v>10.0</v>
       </c>
       <c r="C89" t="n">
-        <v>0.833429753780365</v>
+        <v>0.5184463858604431</v>
       </c>
       <c r="D89" t="n">
         <v>261.64456146410316</v>
       </c>
       <c r="E89" t="n">
-        <v>0.028472568839788437</v>
+        <v>0.01771175116300583</v>
       </c>
       <c r="F89" t="n">
         <v>6.0</v>
@@ -1785,13 +1735,13 @@
         <v>1.0</v>
       </c>
       <c r="C90" t="n">
-        <v>0.40551504492759705</v>
+        <v>0.2522561550140381</v>
       </c>
       <c r="D90" t="n">
         <v>261.86063939372787</v>
       </c>
       <c r="E90" t="n">
-        <v>0.45106178522109985</v>
+        <v>0.28058916330337524</v>
       </c>
       <c r="F90" t="n">
         <v>6.0</v>
@@ -1805,13 +1755,13 @@
         <v>6.0</v>
       </c>
       <c r="C91" t="n">
-        <v>0.340213805437088</v>
+        <v>0.21163465082645416</v>
       </c>
       <c r="D91" t="n">
         <v>261.89989924983104</v>
       </c>
       <c r="E91" t="n">
-        <v>0.08161762356758118</v>
+        <v>0.050771359354257584</v>
       </c>
       <c r="F91" t="n">
         <v>2.0</v>
@@ -1831,42 +1781,42 @@
         <v>262.025968659323</v>
       </c>
       <c r="E92" t="n">
-        <v>0.340213805437088</v>
+        <v>0.21163465082645416</v>
       </c>
       <c r="F92" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="19">
+      <c r="A93" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="B93" s="19" t="n">
+      <c r="B93" s="7" t="n">
         <f>SUM(B70:B92)</f>
         <v>124.0</v>
       </c>
-      <c r="E93" s="19" t="n">
+      <c r="E93" s="7" t="n">
         <f>SUM(E70:E92)</f>
-        <v>3.6372985057532787</v>
+        <v>2.2626312486827374</v>
       </c>
     </row>
     <row r="94"/>
     <row r="95"/>
     <row r="96"/>
     <row r="97">
-      <c r="A97" t="s" s="19">
+      <c r="A97" t="s" s="7">
         <v>16</v>
       </c>
       <c r="B97" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C97" t="s" s="19">
+      <c r="C97" t="s" s="7">
         <v>17</v>
       </c>
       <c r="D97" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E97" t="s" s="19">
+      <c r="E97" t="s" s="7">
         <v>18</v>
       </c>
       <c r="F97" t="n">
@@ -1874,37 +1824,37 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="19">
+      <c r="A98" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="B98" t="n" s="19">
+      <c r="B98" t="n" s="7">
         <v>2.0</v>
       </c>
-      <c r="C98" t="s" s="19">
+      <c r="C98" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="D98" t="n" s="20">
+      <c r="D98" t="n" s="8">
         <v>-1.0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="19">
+      <c r="A99" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="B99" t="n" s="20">
-        <v>3.9416000843048096</v>
-      </c>
-      <c r="C99" t="s" s="19">
+      <c r="B99" t="n" s="8">
+        <v>2.4519267082214355</v>
+      </c>
+      <c r="C99" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="D99" t="n" s="20">
-        <v>377.0</v>
-      </c>
-      <c r="E99" t="s" s="19">
+      <c r="D99" t="n" s="8">
+        <v>370.0</v>
+      </c>
+      <c r="E99" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="F99" t="n" s="20">
-        <v>3.9416000843048096</v>
+      <c r="F99" t="n" s="8">
+        <v>2.4519267082214355</v>
       </c>
     </row>
     <row r="100"/>
@@ -1950,19 +1900,19 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>34.0</v>
+        <v>40.0</v>
       </c>
       <c r="B103" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4929746091365814</v>
+        <v>0.06442520767450333</v>
       </c>
       <c r="D103" t="n">
-        <v>261.8645538790942</v>
+        <v>262.03744350084025</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4929746091365814</v>
+        <v>0.06442520767450333</v>
       </c>
       <c r="F103" t="n">
         <v>4.0</v>
@@ -1970,19 +1920,19 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>33.0</v>
+        <v>39.0</v>
       </c>
       <c r="B104" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6471188068389893</v>
+        <v>0.0799688771367073</v>
       </c>
       <c r="D104" t="n">
-        <v>261.8530329755303</v>
+        <v>262.02842904452655</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1785203516483307</v>
+        <v>0.020786987617611885</v>
       </c>
       <c r="F104" t="n">
         <v>3.0</v>
@@ -1990,79 +1940,79 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>18.0</v>
+        <v>47.0</v>
       </c>
       <c r="B105" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="C105" t="n">
-        <v>1.073432445526123</v>
+        <v>0.23312565684318542</v>
       </c>
       <c r="D105" t="n">
-        <v>261.6266045710891</v>
+        <v>261.9456724917965</v>
       </c>
       <c r="E105" t="n">
-        <v>0.49173110723495483</v>
+        <v>0.1674681156873703</v>
       </c>
       <c r="F105" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>26.0</v>
+        <v>48.0</v>
       </c>
       <c r="B106" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9511350989341736</v>
+        <v>0.24791058897972107</v>
       </c>
       <c r="D106" t="n">
-        <v>261.6143715155233</v>
+        <v>261.9136333683507</v>
       </c>
       <c r="E106" t="n">
-        <v>0.26614075899124146</v>
+        <v>0.04215701296925545</v>
       </c>
       <c r="F106" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>27.0</v>
+        <v>59.0</v>
       </c>
       <c r="B107" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9158056378364563</v>
+        <v>0.43542152643203735</v>
       </c>
       <c r="D107" t="n">
-        <v>261.62780508586667</v>
+        <v>261.8009810208278</v>
       </c>
       <c r="E107" t="n">
-        <v>0.03647772595286369</v>
+        <v>0.1906958520412445</v>
       </c>
       <c r="F107" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>29.0</v>
+        <v>57.0</v>
       </c>
       <c r="B108" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8602044582366943</v>
+        <v>0.3482040762901306</v>
       </c>
       <c r="D108" t="n">
-        <v>261.6337953543354</v>
+        <v>261.832411431518</v>
       </c>
       <c r="E108" t="n">
-        <v>0.11803000420331955</v>
+        <v>0.09141216427087784</v>
       </c>
       <c r="F108" t="n">
         <v>6.0</v>
@@ -2070,19 +2020,19 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>28.0</v>
+        <v>49.0</v>
       </c>
       <c r="B109" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="C109" t="n">
-        <v>0.833429753780365</v>
+        <v>0.2580117881298065</v>
       </c>
       <c r="D109" t="n">
-        <v>261.64456146410316</v>
+        <v>261.8742012620678</v>
       </c>
       <c r="E109" t="n">
-        <v>0.028472568839788437</v>
+        <v>0.09209708124399185</v>
       </c>
       <c r="F109" t="n">
         <v>6.0</v>
@@ -2090,79 +2040,79 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="B110" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6677214503288269</v>
+        <v>0.27442097663879395</v>
       </c>
       <c r="D110" t="n">
-        <v>261.73523225362436</v>
+        <v>261.84218775469515</v>
       </c>
       <c r="E110" t="n">
-        <v>0.19035542011260986</v>
+        <v>0.05126715451478958</v>
       </c>
       <c r="F110" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>31.0</v>
+        <v>45.0</v>
       </c>
       <c r="B111" t="n">
         <v>4.0</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5690993070602417</v>
+        <v>0.23733405768871307</v>
       </c>
       <c r="D111" t="n">
-        <v>261.8092385280714</v>
+        <v>261.85269539989224</v>
       </c>
       <c r="E111" t="n">
-        <v>0.16649450361728668</v>
+        <v>0.06048080697655678</v>
       </c>
       <c r="F111" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>36.0</v>
+        <v>44.0</v>
       </c>
       <c r="B112" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C112" t="n">
-        <v>0.40551504492759705</v>
+        <v>0.18236397206783295</v>
       </c>
       <c r="D112" t="n">
-        <v>261.86063939372787</v>
+        <v>261.9081444294253</v>
       </c>
       <c r="E112" t="n">
-        <v>0.17018213868141174</v>
+        <v>0.07496415823698044</v>
       </c>
       <c r="F112" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>42.0</v>
+        <v>41.0</v>
       </c>
       <c r="B113" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C113" t="n">
-        <v>0.26619550585746765</v>
+        <v>0.14967060089111328</v>
       </c>
       <c r="D113" t="n">
-        <v>261.9041240218826</v>
+        <v>261.9164291959897</v>
       </c>
       <c r="E113" t="n">
-        <v>0.1610601395368576</v>
+        <v>0.14903001487255096</v>
       </c>
       <c r="F113" t="n">
         <v>3.0</v>
@@ -2170,19 +2120,19 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="B114" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C114" t="n">
-        <v>0.24060335755348206</v>
+        <v>0.1655905395746231</v>
       </c>
       <c r="D114" t="n">
-        <v>261.9164291959897</v>
+        <v>261.9041240218826</v>
       </c>
       <c r="E114" t="n">
-        <v>0.025917239487171173</v>
+        <v>0.01612217165529728</v>
       </c>
       <c r="F114" t="n">
         <v>3.0</v>
@@ -2190,79 +2140,79 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>44.0</v>
+        <v>36.0</v>
       </c>
       <c r="B115" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2931596636772156</v>
+        <v>0.2522561550140381</v>
       </c>
       <c r="D115" t="n">
-        <v>261.9081444294253</v>
+        <v>261.86063939372787</v>
       </c>
       <c r="E115" t="n">
-        <v>0.23957358300685883</v>
+        <v>0.10018965601921082</v>
       </c>
       <c r="F115" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>45.0</v>
+        <v>31.0</v>
       </c>
       <c r="B116" t="n">
         <v>4.0</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3815269470214844</v>
+        <v>0.3540160059928894</v>
       </c>
       <c r="D116" t="n">
-        <v>261.85269539989224</v>
+        <v>261.8092385280714</v>
       </c>
       <c r="E116" t="n">
-        <v>0.1205088198184967</v>
+        <v>0.10586412250995636</v>
       </c>
       <c r="F116" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="B117" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4411461353302002</v>
+        <v>0.4153652489185333</v>
       </c>
       <c r="D117" t="n">
-        <v>261.84218775469515</v>
+        <v>261.73523225362436</v>
       </c>
       <c r="E117" t="n">
-        <v>0.09722606837749481</v>
+        <v>0.10357017815113068</v>
       </c>
       <c r="F117" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>49.0</v>
+        <v>28.0</v>
       </c>
       <c r="B118" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4147675037384033</v>
+        <v>0.5184463858604431</v>
       </c>
       <c r="D118" t="n">
-        <v>261.8742012620678</v>
+        <v>261.64456146410316</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0824146419763565</v>
+        <v>0.11841318756341934</v>
       </c>
       <c r="F118" t="n">
         <v>6.0</v>
@@ -2270,19 +2220,19 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>57.0</v>
+        <v>29.0</v>
       </c>
       <c r="B119" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C119" t="n">
-        <v>0.559756338596344</v>
+        <v>0.5351018905639648</v>
       </c>
       <c r="D119" t="n">
-        <v>261.832411431518</v>
+        <v>261.6337953543354</v>
       </c>
       <c r="E119" t="n">
-        <v>0.14805088937282562</v>
+        <v>0.01771175116300583</v>
       </c>
       <c r="F119" t="n">
         <v>6.0</v>
@@ -2290,79 +2240,79 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>59.0</v>
+        <v>27.0</v>
       </c>
       <c r="B120" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6999629139900208</v>
+        <v>0.5696893930435181</v>
       </c>
       <c r="D120" t="n">
-        <v>261.8009810208278</v>
+        <v>261.62780508586667</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1469498574733734</v>
+        <v>0.07342217862606049</v>
       </c>
       <c r="F120" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>48.0</v>
+        <v>26.0</v>
       </c>
       <c r="B121" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.3985292911529541</v>
+        <v>0.591666579246521</v>
       </c>
       <c r="D121" t="n">
-        <v>261.9136333683507</v>
+        <v>261.6143715155233</v>
       </c>
       <c r="E121" t="n">
-        <v>0.30655360221862793</v>
+        <v>0.02269146777689457</v>
       </c>
       <c r="F121" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>47.0</v>
+        <v>18.0</v>
       </c>
       <c r="B122" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3747617304325104</v>
+        <v>0.6677433252334595</v>
       </c>
       <c r="D122" t="n">
-        <v>261.9456724917965</v>
+        <v>261.6266045710891</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0677696168422699</v>
+        <v>0.16555650532245636</v>
       </c>
       <c r="F122" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>39.0</v>
+        <v>33.0</v>
       </c>
       <c r="B123" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.12855416536331177</v>
+        <v>0.4025490880012512</v>
       </c>
       <c r="D123" t="n">
-        <v>262.02842904452655</v>
+        <v>261.8530329755303</v>
       </c>
       <c r="E123" t="n">
-        <v>0.26921379566192627</v>
+        <v>0.3058880567550659</v>
       </c>
       <c r="F123" t="n">
         <v>3.0</v>
@@ -2370,19 +2320,19 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="B124" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C124" t="n">
-        <v>0.10356690734624863</v>
+        <v>0.30666160583496094</v>
       </c>
       <c r="D124" t="n">
-        <v>262.03744350084025</v>
+        <v>261.8645538790942</v>
       </c>
       <c r="E124" t="n">
-        <v>0.03341617435216904</v>
+        <v>0.11105102300643921</v>
       </c>
       <c r="F124" t="n">
         <v>4.0</v>
@@ -2402,42 +2352,42 @@
         <v>262.025968659323</v>
       </c>
       <c r="E125" t="n">
-        <v>0.10356690734624863</v>
+        <v>0.30666160583496094</v>
       </c>
       <c r="F125" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="19">
+      <c r="A126" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="B126" s="19" t="n">
+      <c r="B126" s="7" t="n">
         <f>SUM(B102:B125)</f>
         <v>121.0</v>
       </c>
-      <c r="E126" s="19" t="n">
+      <c r="E126" s="7" t="n">
         <f>SUM(E102:E125)</f>
-        <v>3.941600523889065</v>
+        <v>2.4519264604896307</v>
       </c>
     </row>
     <row r="127"/>
     <row r="128"/>
     <row r="129"/>
     <row r="130">
-      <c r="A130" t="s" s="19">
+      <c r="A130" t="s" s="7">
         <v>16</v>
       </c>
       <c r="B130" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C130" t="s" s="19">
+      <c r="C130" t="s" s="7">
         <v>17</v>
       </c>
       <c r="D130" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E130" t="s" s="19">
+      <c r="E130" t="s" s="7">
         <v>18</v>
       </c>
       <c r="F130" t="n">
@@ -2445,37 +2395,37 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="19">
+      <c r="A131" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="B131" t="n" s="19">
-        <v>3.0</v>
-      </c>
-      <c r="C131" t="s" s="19">
+      <c r="B131" t="n" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="C131" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="D131" t="n" s="20">
+      <c r="D131" t="n" s="8">
         <v>-1.0</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="19">
+      <c r="A132" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="B132" t="n" s="20">
-        <v>3.637298822402954</v>
-      </c>
-      <c r="C132" t="s" s="19">
+      <c r="B132" t="n" s="8">
+        <v>2.2626311779022217</v>
+      </c>
+      <c r="C132" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="D132" t="n" s="20">
-        <v>374.0</v>
-      </c>
-      <c r="E132" t="s" s="19">
+      <c r="D132" t="n" s="8">
+        <v>367.0</v>
+      </c>
+      <c r="E132" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="F132" t="n" s="20">
-        <v>3.637298822402954</v>
+      <c r="F132" t="n" s="8">
+        <v>2.2626311779022217</v>
       </c>
     </row>
     <row r="133"/>
@@ -2527,13 +2477,13 @@
         <v>4.0</v>
       </c>
       <c r="C136" t="n">
-        <v>0.30144205689430237</v>
+        <v>0.18751613795757294</v>
       </c>
       <c r="D136" t="n">
         <v>261.9345977905843</v>
       </c>
       <c r="E136" t="n">
-        <v>0.30144205689430237</v>
+        <v>0.18751613795757294</v>
       </c>
       <c r="F136" t="n">
         <v>2.0</v>
@@ -2547,13 +2497,13 @@
         <v>12.0</v>
       </c>
       <c r="C137" t="n">
-        <v>0.4147675037384033</v>
+        <v>0.2580117881298065</v>
       </c>
       <c r="D137" t="n">
         <v>261.8742012620678</v>
       </c>
       <c r="E137" t="n">
-        <v>0.13037799298763275</v>
+        <v>0.08110341429710388</v>
       </c>
       <c r="F137" t="n">
         <v>6.0</v>
@@ -2567,13 +2517,13 @@
         <v>3.0</v>
       </c>
       <c r="C138" t="n">
-        <v>0.41277188062667847</v>
+        <v>0.25677040219306946</v>
       </c>
       <c r="D138" t="n">
         <v>261.8504227828364</v>
       </c>
       <c r="E138" t="n">
-        <v>0.09090527147054672</v>
+        <v>0.056548867374658585</v>
       </c>
       <c r="F138" t="n">
         <v>2.0</v>
@@ -2587,13 +2537,13 @@
         <v>8.0</v>
       </c>
       <c r="C139" t="n">
-        <v>0.4411461353302002</v>
+        <v>0.27442097663879395</v>
       </c>
       <c r="D139" t="n">
         <v>261.84218775469515</v>
       </c>
       <c r="E139" t="n">
-        <v>0.03253420442342758</v>
+        <v>0.020238345488905907</v>
       </c>
       <c r="F139" t="n">
         <v>5.0</v>
@@ -2607,13 +2557,13 @@
         <v>3.0</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5833421349525452</v>
+        <v>0.36287596821784973</v>
       </c>
       <c r="D140" t="n">
         <v>261.84567371889716</v>
       </c>
       <c r="E140" t="n">
-        <v>0.22648894786834717</v>
+        <v>0.14089053869247437</v>
       </c>
       <c r="F140" t="n">
         <v>2.0</v>
@@ -2627,13 +2577,13 @@
         <v>1.0</v>
       </c>
       <c r="C141" t="n">
-        <v>0.559756338596344</v>
+        <v>0.3482040762901306</v>
       </c>
       <c r="D141" t="n">
         <v>261.832411431518</v>
       </c>
       <c r="E141" t="n">
-        <v>0.06408242136240005</v>
+        <v>0.03986334800720215</v>
       </c>
       <c r="F141" t="n">
         <v>6.0</v>
@@ -2647,13 +2597,13 @@
         <v>3.0</v>
       </c>
       <c r="C142" t="n">
-        <v>0.5436442494392395</v>
+        <v>0.3381813168525696</v>
       </c>
       <c r="D142" t="n">
         <v>261.80355109326473</v>
       </c>
       <c r="E142" t="n">
-        <v>0.11930186301469803</v>
+        <v>0.07421335577964783</v>
       </c>
       <c r="F142" t="n">
         <v>2.0</v>
@@ -2667,13 +2617,13 @@
         <v>1.0</v>
       </c>
       <c r="C143" t="n">
-        <v>0.49632975459098816</v>
+        <v>0.30874869227409363</v>
       </c>
       <c r="D143" t="n">
         <v>261.80366879016594</v>
       </c>
       <c r="E143" t="n">
-        <v>0.10480140894651413</v>
+        <v>0.06519314646720886</v>
       </c>
       <c r="F143" t="n">
         <v>2.0</v>
@@ -2687,13 +2637,13 @@
         <v>4.0</v>
       </c>
       <c r="C144" t="n">
-        <v>0.5023859739303589</v>
+        <v>0.3125160336494446</v>
       </c>
       <c r="D144" t="n">
         <v>261.7925079122199</v>
       </c>
       <c r="E144" t="n">
-        <v>0.05615795776247978</v>
+        <v>0.034933824092149734</v>
       </c>
       <c r="F144" t="n">
         <v>2.0</v>
@@ -2707,13 +2657,13 @@
         <v>4.0</v>
       </c>
       <c r="C145" t="n">
-        <v>0.39102786779403687</v>
+        <v>0.2432442307472229</v>
       </c>
       <c r="D145" t="n">
         <v>261.8399552608657</v>
       </c>
       <c r="E145" t="n">
-        <v>0.21286500990390778</v>
+        <v>0.13241559267044067</v>
       </c>
       <c r="F145" t="n">
         <v>2.0</v>
@@ -2727,13 +2677,13 @@
         <v>1.0</v>
       </c>
       <c r="C146" t="n">
-        <v>0.48756301403045654</v>
+        <v>0.30329522490501404</v>
       </c>
       <c r="D146" t="n">
         <v>261.79625441958456</v>
       </c>
       <c r="E146" t="n">
-        <v>0.09934674948453903</v>
+        <v>0.06180000305175781</v>
       </c>
       <c r="F146" t="n">
         <v>3.0</v>
@@ -2747,13 +2697,13 @@
         <v>10.0</v>
       </c>
       <c r="C147" t="n">
-        <v>0.6677214503288269</v>
+        <v>0.4153652489185333</v>
       </c>
       <c r="D147" t="n">
         <v>261.73523225362436</v>
       </c>
       <c r="E147" t="n">
-        <v>0.22453835606575012</v>
+        <v>0.13967715203762054</v>
       </c>
       <c r="F147" t="n">
         <v>6.0</v>
@@ -2767,13 +2717,13 @@
         <v>10.0</v>
       </c>
       <c r="C148" t="n">
-        <v>1.073432445526123</v>
+        <v>0.6677433252334595</v>
       </c>
       <c r="D148" t="n">
         <v>261.6266045710891</v>
       </c>
       <c r="E148" t="n">
-        <v>0.4563227593898773</v>
+        <v>0.28386181592941284</v>
       </c>
       <c r="F148" t="n">
         <v>6.0</v>
@@ -2787,13 +2737,13 @@
         <v>5.0</v>
       </c>
       <c r="C149" t="n">
-        <v>1.1121973991394043</v>
+        <v>0.6918575763702393</v>
       </c>
       <c r="D149" t="n">
         <v>261.55286056275264</v>
       </c>
       <c r="E149" t="n">
-        <v>0.22226640582084656</v>
+        <v>0.13826385140419006</v>
       </c>
       <c r="F149" t="n">
         <v>3.0</v>
@@ -2807,13 +2757,13 @@
         <v>8.0</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9836602210998535</v>
+        <v>0.6118992567062378</v>
       </c>
       <c r="D150" t="n">
         <v>261.6216537846275</v>
       </c>
       <c r="E150" t="n">
-        <v>0.1432289034128189</v>
+        <v>0.08909749239683151</v>
       </c>
       <c r="F150" t="n">
         <v>3.0</v>
@@ -2827,13 +2777,13 @@
         <v>10.0</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9511350989341736</v>
+        <v>0.591666579246521</v>
       </c>
       <c r="D151" t="n">
         <v>261.6143715155233</v>
       </c>
       <c r="E151" t="n">
-        <v>0.09676468372344971</v>
+        <v>0.06019379198551178</v>
       </c>
       <c r="F151" t="n">
         <v>6.0</v>
@@ -2847,13 +2797,13 @@
         <v>10.0</v>
       </c>
       <c r="C152" t="n">
-        <v>0.9158056378364563</v>
+        <v>0.5696893930435181</v>
       </c>
       <c r="D152" t="n">
         <v>261.62780508586667</v>
       </c>
       <c r="E152" t="n">
-        <v>0.03647772595286369</v>
+        <v>0.02269146777689457</v>
       </c>
       <c r="F152" t="n">
         <v>6.0</v>
@@ -2867,13 +2817,13 @@
         <v>10.0</v>
       </c>
       <c r="C153" t="n">
-        <v>0.8602044582366943</v>
+        <v>0.5351018905639648</v>
       </c>
       <c r="D153" t="n">
         <v>261.6337953543354</v>
       </c>
       <c r="E153" t="n">
-        <v>0.11803000420331955</v>
+        <v>0.07342217862606049</v>
       </c>
       <c r="F153" t="n">
         <v>6.0</v>
@@ -2887,13 +2837,13 @@
         <v>10.0</v>
       </c>
       <c r="C154" t="n">
-        <v>0.833429753780365</v>
+        <v>0.5184463858604431</v>
       </c>
       <c r="D154" t="n">
         <v>261.64456146410316</v>
       </c>
       <c r="E154" t="n">
-        <v>0.028472568839788437</v>
+        <v>0.01771175116300583</v>
       </c>
       <c r="F154" t="n">
         <v>6.0</v>
@@ -2907,13 +2857,13 @@
         <v>1.0</v>
       </c>
       <c r="C155" t="n">
-        <v>0.40551504492759705</v>
+        <v>0.2522561550140381</v>
       </c>
       <c r="D155" t="n">
         <v>261.86063939372787</v>
       </c>
       <c r="E155" t="n">
-        <v>0.45106178522109985</v>
+        <v>0.28058916330337524</v>
       </c>
       <c r="F155" t="n">
         <v>6.0</v>
@@ -2927,13 +2877,13 @@
         <v>6.0</v>
       </c>
       <c r="C156" t="n">
-        <v>0.340213805437088</v>
+        <v>0.21163465082645416</v>
       </c>
       <c r="D156" t="n">
         <v>261.89989924983104</v>
       </c>
       <c r="E156" t="n">
-        <v>0.08161762356758118</v>
+        <v>0.050771359354257584</v>
       </c>
       <c r="F156" t="n">
         <v>2.0</v>
@@ -2953,42 +2903,42 @@
         <v>262.025968659323</v>
       </c>
       <c r="E157" t="n">
-        <v>0.340213805437088</v>
+        <v>0.21163465082645416</v>
       </c>
       <c r="F157" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="19">
+      <c r="A158" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="B158" s="19" t="n">
+      <c r="B158" s="7" t="n">
         <f>SUM(B135:B157)</f>
         <v>124.0</v>
       </c>
-      <c r="E158" s="19" t="n">
+      <c r="E158" s="7" t="n">
         <f>SUM(E135:E157)</f>
-        <v>3.6372985057532787</v>
+        <v>2.2626312486827374</v>
       </c>
     </row>
     <row r="159"/>
     <row r="160"/>
     <row r="161"/>
     <row r="162">
-      <c r="A162" t="s" s="19">
+      <c r="A162" t="s" s="7">
         <v>16</v>
       </c>
       <c r="B162" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C162" t="s" s="19">
+      <c r="C162" t="s" s="7">
         <v>17</v>
       </c>
       <c r="D162" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E162" t="s" s="19">
+      <c r="E162" t="s" s="7">
         <v>18</v>
       </c>
       <c r="F162" t="n">
@@ -2996,37 +2946,37 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="19">
+      <c r="A163" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="B163" t="n" s="19">
+      <c r="B163" t="n" s="7">
         <v>4.0</v>
       </c>
-      <c r="C163" t="s" s="19">
+      <c r="C163" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="D163" t="n" s="20">
+      <c r="D163" t="n" s="8">
         <v>-1.0</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="19">
+      <c r="A164" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="B164" t="n" s="20">
-        <v>3.7400689125061035</v>
-      </c>
-      <c r="C164" t="s" s="19">
+      <c r="B164" t="n" s="8">
+        <v>2.3265609741210938</v>
+      </c>
+      <c r="C164" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="D164" t="n" s="20">
-        <v>362.0</v>
-      </c>
-      <c r="E164" t="s" s="19">
+      <c r="D164" t="n" s="8">
+        <v>355.0</v>
+      </c>
+      <c r="E164" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="F164" t="n" s="20">
-        <v>3.7400689125061035</v>
+      <c r="F164" t="n" s="8">
+        <v>2.3265609741210938</v>
       </c>
     </row>
     <row r="165"/>
@@ -3078,13 +3028,13 @@
         <v>3.0</v>
       </c>
       <c r="C168" t="n">
-        <v>0.10356690734624863</v>
+        <v>0.06442520767450333</v>
       </c>
       <c r="D168" t="n">
         <v>262.03744350084025</v>
       </c>
       <c r="E168" t="n">
-        <v>0.10356690734624863</v>
+        <v>0.06442520767450333</v>
       </c>
       <c r="F168" t="n">
         <v>4.0</v>
@@ -3098,13 +3048,13 @@
         <v>4.0</v>
       </c>
       <c r="C169" t="n">
-        <v>0.3747617304325104</v>
+        <v>0.23312565684318542</v>
       </c>
       <c r="D169" t="n">
         <v>261.9456724917965</v>
       </c>
       <c r="E169" t="n">
-        <v>0.3024876117706299</v>
+        <v>0.1881665587425232</v>
       </c>
       <c r="F169" t="n">
         <v>3.0</v>
@@ -3118,13 +3068,13 @@
         <v>1.0</v>
       </c>
       <c r="C170" t="n">
-        <v>0.3985292911529541</v>
+        <v>0.24791058897972107</v>
       </c>
       <c r="D170" t="n">
         <v>261.9136333683507</v>
       </c>
       <c r="E170" t="n">
-        <v>0.0677696168422699</v>
+        <v>0.04215701296925545</v>
       </c>
       <c r="F170" t="n">
         <v>3.0</v>
@@ -3138,13 +3088,13 @@
         <v>6.0</v>
       </c>
       <c r="C171" t="n">
-        <v>0.6999629139900208</v>
+        <v>0.43542152643203735</v>
       </c>
       <c r="D171" t="n">
         <v>261.8009810208278</v>
       </c>
       <c r="E171" t="n">
-        <v>0.30655360221862793</v>
+        <v>0.1906958520412445</v>
       </c>
       <c r="F171" t="n">
         <v>3.0</v>
@@ -3158,13 +3108,13 @@
         <v>1.0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.559756338596344</v>
+        <v>0.3482040762901306</v>
       </c>
       <c r="D172" t="n">
         <v>261.832411431518</v>
       </c>
       <c r="E172" t="n">
-        <v>0.1469498574733734</v>
+        <v>0.09141216427087784</v>
       </c>
       <c r="F172" t="n">
         <v>6.0</v>
@@ -3178,13 +3128,13 @@
         <v>8.0</v>
       </c>
       <c r="C173" t="n">
-        <v>0.4411461353302002</v>
+        <v>0.27442097663879395</v>
       </c>
       <c r="D173" t="n">
         <v>261.84218775469515</v>
       </c>
       <c r="E173" t="n">
-        <v>0.1697424352169037</v>
+        <v>0.10559060424566269</v>
       </c>
       <c r="F173" t="n">
         <v>5.0</v>
@@ -3198,13 +3148,13 @@
         <v>12.0</v>
       </c>
       <c r="C174" t="n">
-        <v>0.4147675037384033</v>
+        <v>0.2580117881298065</v>
       </c>
       <c r="D174" t="n">
         <v>261.8742012620678</v>
       </c>
       <c r="E174" t="n">
-        <v>0.0824146419763565</v>
+        <v>0.05126715451478958</v>
       </c>
       <c r="F174" t="n">
         <v>6.0</v>
@@ -3218,13 +3168,13 @@
         <v>2.0</v>
       </c>
       <c r="C175" t="n">
-        <v>0.2931596636772156</v>
+        <v>0.18236397206783295</v>
       </c>
       <c r="D175" t="n">
         <v>261.9081444294253</v>
       </c>
       <c r="E175" t="n">
-        <v>0.129132941365242</v>
+        <v>0.08032890409231186</v>
       </c>
       <c r="F175" t="n">
         <v>4.0</v>
@@ -3238,13 +3188,13 @@
         <v>4.0</v>
       </c>
       <c r="C176" t="n">
-        <v>0.3815269470214844</v>
+        <v>0.23733405768871307</v>
       </c>
       <c r="D176" t="n">
         <v>261.85269539989224</v>
       </c>
       <c r="E176" t="n">
-        <v>0.1205088198184967</v>
+        <v>0.07496415823698044</v>
       </c>
       <c r="F176" t="n">
         <v>3.0</v>
@@ -3258,13 +3208,13 @@
         <v>10.0</v>
       </c>
       <c r="C177" t="n">
-        <v>0.6677214503288269</v>
+        <v>0.4153652489185333</v>
       </c>
       <c r="D177" t="n">
         <v>261.73523225362436</v>
       </c>
       <c r="E177" t="n">
-        <v>0.47716882824897766</v>
+        <v>0.29682937264442444</v>
       </c>
       <c r="F177" t="n">
         <v>6.0</v>
@@ -3278,13 +3228,13 @@
         <v>10.0</v>
       </c>
       <c r="C178" t="n">
-        <v>0.833429753780365</v>
+        <v>0.5184463858604431</v>
       </c>
       <c r="D178" t="n">
         <v>261.64456146410316</v>
       </c>
       <c r="E178" t="n">
-        <v>0.19035542011260986</v>
+        <v>0.11841318756341934</v>
       </c>
       <c r="F178" t="n">
         <v>6.0</v>
@@ -3298,13 +3248,13 @@
         <v>10.0</v>
       </c>
       <c r="C179" t="n">
-        <v>0.8602044582366943</v>
+        <v>0.5351018905639648</v>
       </c>
       <c r="D179" t="n">
         <v>261.6337953543354</v>
       </c>
       <c r="E179" t="n">
-        <v>0.028472568839788437</v>
+        <v>0.01771175116300583</v>
       </c>
       <c r="F179" t="n">
         <v>6.0</v>
@@ -3318,13 +3268,13 @@
         <v>10.0</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9158056378364563</v>
+        <v>0.5696893930435181</v>
       </c>
       <c r="D180" t="n">
         <v>261.62780508586667</v>
       </c>
       <c r="E180" t="n">
-        <v>0.11803000420331955</v>
+        <v>0.07342217862606049</v>
       </c>
       <c r="F180" t="n">
         <v>6.0</v>
@@ -3338,13 +3288,13 @@
         <v>10.0</v>
       </c>
       <c r="C181" t="n">
-        <v>0.9511350989341736</v>
+        <v>0.591666579246521</v>
       </c>
       <c r="D181" t="n">
         <v>261.6143715155233</v>
       </c>
       <c r="E181" t="n">
-        <v>0.03647772595286369</v>
+        <v>0.02269146777689457</v>
       </c>
       <c r="F181" t="n">
         <v>6.0</v>
@@ -3358,13 +3308,13 @@
         <v>10.0</v>
       </c>
       <c r="C182" t="n">
-        <v>1.073432445526123</v>
+        <v>0.6677433252334595</v>
       </c>
       <c r="D182" t="n">
         <v>261.6266045710891</v>
       </c>
       <c r="E182" t="n">
-        <v>0.26614075899124146</v>
+        <v>0.16555650532245636</v>
       </c>
       <c r="F182" t="n">
         <v>6.0</v>
@@ -3378,13 +3328,13 @@
         <v>4.0</v>
       </c>
       <c r="C183" t="n">
-        <v>0.5690993070602417</v>
+        <v>0.3540160059928894</v>
       </c>
       <c r="D183" t="n">
         <v>261.8092385280714</v>
       </c>
       <c r="E183" t="n">
-        <v>0.5048531293869019</v>
+        <v>0.3140507936477661</v>
       </c>
       <c r="F183" t="n">
         <v>4.0</v>
@@ -3398,13 +3348,13 @@
         <v>1.0</v>
       </c>
       <c r="C184" t="n">
-        <v>0.4929746091365814</v>
+        <v>0.30666160583496094</v>
       </c>
       <c r="D184" t="n">
         <v>261.8645538790942</v>
       </c>
       <c r="E184" t="n">
-        <v>0.11575106531381607</v>
+        <v>0.0720045268535614</v>
       </c>
       <c r="F184" t="n">
         <v>4.0</v>
@@ -3418,13 +3368,13 @@
         <v>1.0</v>
       </c>
       <c r="C185" t="n">
-        <v>0.40551504492759705</v>
+        <v>0.2522561550140381</v>
       </c>
       <c r="D185" t="n">
         <v>261.86063939372787</v>
       </c>
       <c r="E185" t="n">
-        <v>0.14611230790615082</v>
+        <v>0.09089116007089615</v>
       </c>
       <c r="F185" t="n">
         <v>6.0</v>
@@ -3438,13 +3388,13 @@
         <v>5.0</v>
       </c>
       <c r="C186" t="n">
-        <v>0.26619550585746765</v>
+        <v>0.1655905395746231</v>
       </c>
       <c r="D186" t="n">
         <v>261.9041240218826</v>
       </c>
       <c r="E186" t="n">
-        <v>0.1610601395368576</v>
+        <v>0.10018965601921082</v>
       </c>
       <c r="F186" t="n">
         <v>3.0</v>
@@ -3458,13 +3408,13 @@
         <v>4.0</v>
       </c>
       <c r="C187" t="n">
-        <v>0.24060335755348206</v>
+        <v>0.14967060089111328</v>
       </c>
       <c r="D187" t="n">
         <v>261.9164291959897</v>
       </c>
       <c r="E187" t="n">
-        <v>0.025917239487171173</v>
+        <v>0.01612217165529728</v>
       </c>
       <c r="F187" t="n">
         <v>3.0</v>
@@ -3484,42 +3434,42 @@
         <v>262.025968659323</v>
       </c>
       <c r="E188" t="n">
-        <v>0.24060335755348206</v>
+        <v>0.14967060089111328</v>
       </c>
       <c r="F188" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="19">
+      <c r="A189" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="B189" s="19" t="n">
+      <c r="B189" s="7" t="n">
         <f>SUM(B167:B188)</f>
         <v>116.0</v>
       </c>
-      <c r="E189" s="19" t="n">
+      <c r="E189" s="7" t="n">
         <f>SUM(E167:E188)</f>
-        <v>3.740068979561329</v>
+        <v>2.326560989022255</v>
       </c>
     </row>
     <row r="190"/>
     <row r="191"/>
     <row r="192"/>
     <row r="193">
-      <c r="A193" t="s" s="19">
+      <c r="A193" t="s" s="7">
         <v>16</v>
       </c>
       <c r="B193" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C193" t="s" s="19">
+      <c r="C193" t="s" s="7">
         <v>17</v>
       </c>
       <c r="D193" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E193" t="s" s="19">
+      <c r="E193" t="s" s="7">
         <v>18</v>
       </c>
       <c r="F193" t="n">
@@ -3527,37 +3477,37 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="19">
+      <c r="A194" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="B194" t="n" s="19">
+      <c r="B194" t="n" s="7">
         <v>5.0</v>
       </c>
-      <c r="C194" t="s" s="19">
+      <c r="C194" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="D194" t="n" s="20">
+      <c r="D194" t="n" s="8">
         <v>-1.0</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="19">
+      <c r="A195" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="B195" t="n" s="20">
-        <v>3.6056344509124756</v>
-      </c>
-      <c r="C195" t="s" s="19">
+      <c r="B195" t="n" s="8">
+        <v>2.242934226989746</v>
+      </c>
+      <c r="C195" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="D195" t="n" s="20">
-        <v>340.0</v>
-      </c>
-      <c r="E195" t="s" s="19">
+      <c r="D195" t="n" s="8">
+        <v>333.0</v>
+      </c>
+      <c r="E195" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="F195" t="n" s="20">
-        <v>3.6056344509124756</v>
+      <c r="F195" t="n" s="8">
+        <v>2.242934226989746</v>
       </c>
     </row>
     <row r="196"/>
@@ -3609,13 +3559,13 @@
         <v>1.0</v>
       </c>
       <c r="C199" t="n">
-        <v>0.40551504492759705</v>
+        <v>0.2522561550140381</v>
       </c>
       <c r="D199" t="n">
         <v>261.86063939372787</v>
       </c>
       <c r="E199" t="n">
-        <v>0.40551504492759705</v>
+        <v>0.2522561550140381</v>
       </c>
       <c r="F199" t="n">
         <v>6.0</v>
@@ -3629,13 +3579,13 @@
         <v>1.0</v>
       </c>
       <c r="C200" t="n">
-        <v>0.4929746091365814</v>
+        <v>0.30666160583496094</v>
       </c>
       <c r="D200" t="n">
         <v>261.8645538790942</v>
       </c>
       <c r="E200" t="n">
-        <v>0.14611230790615082</v>
+        <v>0.09089116007089615</v>
       </c>
       <c r="F200" t="n">
         <v>4.0</v>
@@ -3649,13 +3599,13 @@
         <v>4.0</v>
       </c>
       <c r="C201" t="n">
-        <v>0.5690993070602417</v>
+        <v>0.3540160059928894</v>
       </c>
       <c r="D201" t="n">
         <v>261.8092385280714</v>
       </c>
       <c r="E201" t="n">
-        <v>0.11575106531381607</v>
+        <v>0.0720045268535614</v>
       </c>
       <c r="F201" t="n">
         <v>4.0</v>
@@ -3669,13 +3619,13 @@
         <v>1.0</v>
       </c>
       <c r="C202" t="n">
-        <v>0.6471188068389893</v>
+        <v>0.4025490880012512</v>
       </c>
       <c r="D202" t="n">
         <v>261.8530329755303</v>
       </c>
       <c r="E202" t="n">
-        <v>0.21096783876419067</v>
+        <v>0.13123542070388794</v>
       </c>
       <c r="F202" t="n">
         <v>3.0</v>
@@ -3689,13 +3639,13 @@
         <v>10.0</v>
       </c>
       <c r="C203" t="n">
-        <v>1.073432445526123</v>
+        <v>0.6677433252334595</v>
       </c>
       <c r="D203" t="n">
         <v>261.6266045710891</v>
       </c>
       <c r="E203" t="n">
-        <v>0.49173110723495483</v>
+        <v>0.3058880567550659</v>
       </c>
       <c r="F203" t="n">
         <v>6.0</v>
@@ -3709,13 +3659,13 @@
         <v>8.0</v>
       </c>
       <c r="C204" t="n">
-        <v>0.9836602210998535</v>
+        <v>0.6118992567062378</v>
       </c>
       <c r="D204" t="n">
         <v>261.6216537846275</v>
       </c>
       <c r="E204" t="n">
-        <v>0.16966231167316437</v>
+        <v>0.10554075241088867</v>
       </c>
       <c r="F204" t="n">
         <v>3.0</v>
@@ -3729,13 +3679,13 @@
         <v>5.0</v>
       </c>
       <c r="C205" t="n">
-        <v>1.1121973991394043</v>
+        <v>0.6918575763702393</v>
       </c>
       <c r="D205" t="n">
         <v>261.55286056275264</v>
       </c>
       <c r="E205" t="n">
-        <v>0.1432289034128189</v>
+        <v>0.08909749239683151</v>
       </c>
       <c r="F205" t="n">
         <v>3.0</v>
@@ -3749,13 +3699,13 @@
         <v>10.0</v>
       </c>
       <c r="C206" t="n">
-        <v>0.9511350989341736</v>
+        <v>0.591666579246521</v>
       </c>
       <c r="D206" t="n">
         <v>261.6143715155233</v>
       </c>
       <c r="E206" t="n">
-        <v>0.16477824747562408</v>
+        <v>0.10250256210565567</v>
       </c>
       <c r="F206" t="n">
         <v>6.0</v>
@@ -3769,13 +3719,13 @@
         <v>10.0</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9158056378364563</v>
+        <v>0.5696893930435181</v>
       </c>
       <c r="D207" t="n">
         <v>261.62780508586667</v>
       </c>
       <c r="E207" t="n">
-        <v>0.03647772595286369</v>
+        <v>0.02269146777689457</v>
       </c>
       <c r="F207" t="n">
         <v>6.0</v>
@@ -3789,13 +3739,13 @@
         <v>10.0</v>
       </c>
       <c r="C208" t="n">
-        <v>0.8602044582366943</v>
+        <v>0.5351018905639648</v>
       </c>
       <c r="D208" t="n">
         <v>261.6337953543354</v>
       </c>
       <c r="E208" t="n">
-        <v>0.11803000420331955</v>
+        <v>0.07342217862606049</v>
       </c>
       <c r="F208" t="n">
         <v>6.0</v>
@@ -3809,13 +3759,13 @@
         <v>10.0</v>
       </c>
       <c r="C209" t="n">
-        <v>0.833429753780365</v>
+        <v>0.5184463858604431</v>
       </c>
       <c r="D209" t="n">
         <v>261.64456146410316</v>
       </c>
       <c r="E209" t="n">
-        <v>0.028472568839788437</v>
+        <v>0.01771175116300583</v>
       </c>
       <c r="F209" t="n">
         <v>6.0</v>
@@ -3829,13 +3779,13 @@
         <v>10.0</v>
       </c>
       <c r="C210" t="n">
-        <v>0.6677214503288269</v>
+        <v>0.4153652489185333</v>
       </c>
       <c r="D210" t="n">
         <v>261.73523225362436</v>
       </c>
       <c r="E210" t="n">
-        <v>0.19035542011260986</v>
+        <v>0.11841318756341934</v>
       </c>
       <c r="F210" t="n">
         <v>6.0</v>
@@ -3849,13 +3799,13 @@
         <v>1.0</v>
       </c>
       <c r="C211" t="n">
-        <v>0.48756301403045654</v>
+        <v>0.30329522490501404</v>
       </c>
       <c r="D211" t="n">
         <v>261.79625441958456</v>
       </c>
       <c r="E211" t="n">
-        <v>0.22453835606575012</v>
+        <v>0.13967715203762054</v>
       </c>
       <c r="F211" t="n">
         <v>3.0</v>
@@ -3869,13 +3819,13 @@
         <v>1.0</v>
       </c>
       <c r="C212" t="n">
-        <v>0.559756338596344</v>
+        <v>0.3482040762901306</v>
       </c>
       <c r="D212" t="n">
         <v>261.832411431518</v>
       </c>
       <c r="E212" t="n">
-        <v>0.49370869994163513</v>
+        <v>0.3071182370185852</v>
       </c>
       <c r="F212" t="n">
         <v>6.0</v>
@@ -3889,13 +3839,13 @@
         <v>12.0</v>
       </c>
       <c r="C213" t="n">
-        <v>0.4147675037384033</v>
+        <v>0.2580117881298065</v>
       </c>
       <c r="D213" t="n">
         <v>261.8742012620678</v>
       </c>
       <c r="E213" t="n">
-        <v>0.14805088937282562</v>
+        <v>0.09209708124399185</v>
       </c>
       <c r="F213" t="n">
         <v>6.0</v>
@@ -3909,13 +3859,13 @@
         <v>2.0</v>
       </c>
       <c r="C214" t="n">
-        <v>0.2931596636772156</v>
+        <v>0.18236397206783295</v>
       </c>
       <c r="D214" t="n">
         <v>261.9081444294253</v>
       </c>
       <c r="E214" t="n">
-        <v>0.129132941365242</v>
+        <v>0.08032890409231186</v>
       </c>
       <c r="F214" t="n">
         <v>4.0</v>
@@ -3929,13 +3879,13 @@
         <v>4.0</v>
       </c>
       <c r="C215" t="n">
-        <v>0.12855416536331177</v>
+        <v>0.0799688771367073</v>
       </c>
       <c r="D215" t="n">
         <v>262.02842904452655</v>
       </c>
       <c r="E215" t="n">
-        <v>0.25213780999183655</v>
+        <v>0.15684577822685242</v>
       </c>
       <c r="F215" t="n">
         <v>3.0</v>
@@ -3949,13 +3899,13 @@
         <v>3.0</v>
       </c>
       <c r="C216" t="n">
-        <v>0.10356690734624863</v>
+        <v>0.06442520767450333</v>
       </c>
       <c r="D216" t="n">
         <v>262.03744350084025</v>
       </c>
       <c r="E216" t="n">
-        <v>0.03341617435216904</v>
+        <v>0.020786987617611885</v>
       </c>
       <c r="F216" t="n">
         <v>4.0</v>
@@ -3975,23 +3925,23 @@
         <v>262.025968659323</v>
       </c>
       <c r="E217" t="n">
-        <v>0.10356690734624863</v>
+        <v>0.06442520767450333</v>
       </c>
       <c r="F217" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="19">
+      <c r="A218" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="B218" s="19" t="n">
+      <c r="B218" s="7" t="n">
         <f>SUM(B198:B217)</f>
         <v>103.0</v>
       </c>
-      <c r="E218" s="19" t="n">
+      <c r="E218" s="7" t="n">
         <f>SUM(E198:E217)</f>
-        <v>3.6056343242526054</v>
+        <v>2.2429340593516827</v>
       </c>
     </row>
   </sheetData>

--- a/data/TR/results/All_Long_Solutions.xlsx
+++ b/data/TR/results/All_Long_Solutions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="32">
   <si>
     <t>Filename</t>
   </si>
@@ -115,13 +115,58 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -194,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -216,6 +261,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -228,16 +303,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.9921875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.39453125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.9140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.796875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.87109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.54296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.2890625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.7734375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.36328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="9">
+      <c r="A1" t="s" s="27">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -245,7 +320,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="9">
+      <c r="A2" t="s" s="27">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -253,7 +328,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="9">
+      <c r="A3" t="s" s="27">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -261,7 +336,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="9">
+      <c r="A4" t="s" s="27">
         <v>6</v>
       </c>
       <c r="B4" t="n">
@@ -269,7 +344,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="9">
+      <c r="A5" t="s" s="27">
         <v>7</v>
       </c>
       <c r="B5" t="n">
@@ -280,7 +355,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="9">
+      <c r="A6" t="s" s="27">
         <v>9</v>
       </c>
       <c r="B6" t="n">
@@ -310,10 +385,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="7">
+      <c r="A9" t="s" s="25">
         <v>14</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" t="s" s="25">
         <v>15</v>
       </c>
     </row>
@@ -322,19 +397,19 @@
     <row r="12"/>
     <row r="13"/>
     <row r="14">
-      <c r="A14" t="s" s="7">
+      <c r="A14" t="s" s="25">
         <v>16</v>
       </c>
       <c r="B14" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C14" t="s" s="7">
+      <c r="C14" t="s" s="25">
         <v>17</v>
       </c>
       <c r="D14" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E14" t="s" s="7">
+      <c r="E14" t="s" s="25">
         <v>18</v>
       </c>
       <c r="F14" t="n">
@@ -342,37 +417,37 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="7">
+      <c r="A15" t="s" s="25">
         <v>19</v>
       </c>
-      <c r="B15" t="n" s="7">
+      <c r="B15" t="n" s="25">
         <v>0.0</v>
       </c>
-      <c r="C15" t="s" s="7">
+      <c r="C15" t="s" s="25">
         <v>20</v>
       </c>
-      <c r="D15" t="n" s="8">
+      <c r="D15" t="n" s="26">
         <v>-1.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="7">
+      <c r="A16" t="s" s="25">
         <v>21</v>
       </c>
-      <c r="B16" t="n" s="8">
-        <v>4.249732494354248</v>
-      </c>
-      <c r="C16" t="s" s="7">
+      <c r="B16" t="n" s="26">
+        <v>2.242934226989746</v>
+      </c>
+      <c r="C16" t="s" s="25">
         <v>22</v>
       </c>
-      <c r="D16" t="n" s="8">
-        <v>437.0</v>
-      </c>
-      <c r="E16" t="s" s="7">
+      <c r="D16" t="n" s="26">
+        <v>333.0</v>
+      </c>
+      <c r="E16" t="s" s="25">
         <v>23</v>
       </c>
-      <c r="F16" t="n" s="8">
-        <v>4.249732494354248</v>
+      <c r="F16" t="n" s="26">
+        <v>2.242934226989746</v>
       </c>
     </row>
     <row r="17"/>
@@ -418,22 +493,22 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9.0</v>
+        <v>36.0</v>
       </c>
       <c r="B20" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.026129815727472305</v>
+        <v>0.2522561550140381</v>
       </c>
       <c r="D20" t="n">
-        <v>262.0077728246056</v>
+        <v>261.86063939372787</v>
       </c>
       <c r="E20" t="n">
-        <v>0.026129815727472305</v>
+        <v>0.2522561550140381</v>
       </c>
       <c r="F20" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="21">
@@ -450,7 +525,7 @@
         <v>261.8645538790942</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2824792265892029</v>
+        <v>0.09089116007089615</v>
       </c>
       <c r="F21" t="n">
         <v>4.0</v>
@@ -458,159 +533,159 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>13.0</v>
+        <v>31.0</v>
       </c>
       <c r="B22" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6952970623970032</v>
+        <v>0.3540160059928894</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8127084459809</v>
+        <v>261.8092385280714</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4189853370189667</v>
+        <v>0.0720045268535614</v>
       </c>
       <c r="F22" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11.0</v>
+        <v>33.0</v>
       </c>
       <c r="B23" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7960281372070312</v>
+        <v>0.4025490880012512</v>
       </c>
       <c r="D23" t="n">
-        <v>261.74558639022837</v>
+        <v>261.8530329755303</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1117534413933754</v>
+        <v>0.13123542070388794</v>
       </c>
       <c r="F23" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="B24" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7893264293670654</v>
+        <v>0.6677433252334595</v>
       </c>
       <c r="D24" t="n">
-        <v>261.734512161128</v>
+        <v>261.6266045710891</v>
       </c>
       <c r="E24" t="n">
-        <v>0.020826974883675575</v>
+        <v>0.3058880567550659</v>
       </c>
       <c r="F24" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>16.0</v>
+        <v>25.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9558511972427368</v>
+        <v>0.6118992567062378</v>
       </c>
       <c r="D25" t="n">
-        <v>261.4050595755135</v>
+        <v>261.6216537846275</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4603939950466156</v>
+        <v>0.10554075241088867</v>
       </c>
       <c r="F25" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="B26" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7743661999702454</v>
+        <v>0.6918575763702393</v>
       </c>
       <c r="D26" t="n">
-        <v>261.5087901924117</v>
+        <v>261.55286056275264</v>
       </c>
       <c r="E26" t="n">
-        <v>0.18559260666370392</v>
+        <v>0.08909749239683151</v>
       </c>
       <c r="F26" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7652108669281006</v>
+        <v>0.591666579246521</v>
       </c>
       <c r="D27" t="n">
-        <v>261.4937537372069</v>
+        <v>261.6143715155233</v>
       </c>
       <c r="E27" t="n">
-        <v>0.05909006670117378</v>
+        <v>0.10250256210565567</v>
       </c>
       <c r="F27" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7297766804695129</v>
+        <v>0.5696893930435181</v>
       </c>
       <c r="D28" t="n">
-        <v>261.5260869750733</v>
+        <v>261.62780508586667</v>
       </c>
       <c r="E28" t="n">
-        <v>0.042012132704257965</v>
+        <v>0.02269146777689457</v>
       </c>
       <c r="F28" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="B29" t="n">
         <v>10.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.591666579246521</v>
+        <v>0.5351018905639648</v>
       </c>
       <c r="D29" t="n">
-        <v>261.6143715155233</v>
+        <v>261.6337953543354</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1395682394504547</v>
+        <v>0.07342217862606049</v>
       </c>
       <c r="F29" t="n">
         <v>6.0</v>
@@ -618,19 +693,19 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="B30" t="n">
         <v>10.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5351018905639648</v>
+        <v>0.5184463858604431</v>
       </c>
       <c r="D30" t="n">
-        <v>261.6337953543354</v>
+        <v>261.64456146410316</v>
       </c>
       <c r="E30" t="n">
-        <v>0.09114309400320053</v>
+        <v>0.01771175116300583</v>
       </c>
       <c r="F30" t="n">
         <v>6.0</v>
@@ -638,19 +713,19 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="B31" t="n">
         <v>10.0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5184463858604431</v>
+        <v>0.4153652489185333</v>
       </c>
       <c r="D31" t="n">
-        <v>261.64456146410316</v>
+        <v>261.73523225362436</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01771175116300583</v>
+        <v>0.11841318756341934</v>
       </c>
       <c r="F31" t="n">
         <v>6.0</v>
@@ -658,39 +733,39 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>27.0</v>
+        <v>38.0</v>
       </c>
       <c r="B32" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5696893930435181</v>
+        <v>0.30329522490501404</v>
       </c>
       <c r="D32" t="n">
-        <v>261.62780508586667</v>
+        <v>261.79625441958456</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08671453595161438</v>
+        <v>0.13967715203762054</v>
       </c>
       <c r="F32" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>18.0</v>
+        <v>57.0</v>
       </c>
       <c r="B33" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6677433252334595</v>
+        <v>0.3482040762901306</v>
       </c>
       <c r="D33" t="n">
-        <v>261.6266045710891</v>
+        <v>261.832411431518</v>
       </c>
       <c r="E33" t="n">
-        <v>0.17940877377986908</v>
+        <v>0.3071182370185852</v>
       </c>
       <c r="F33" t="n">
         <v>6.0</v>
@@ -698,339 +773,250 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>15.0</v>
+        <v>49.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6893346905708313</v>
+        <v>0.2580117881298065</v>
       </c>
       <c r="D34" t="n">
-        <v>261.6963311869112</v>
+        <v>261.8742012620678</v>
       </c>
       <c r="E34" t="n">
-        <v>0.14880356192588806</v>
+        <v>0.09209708124399185</v>
       </c>
       <c r="F34" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>14.0</v>
+        <v>44.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6552584171295166</v>
+        <v>0.18236397206783295</v>
       </c>
       <c r="D35" t="n">
-        <v>261.7457281617366</v>
+        <v>261.9081444294253</v>
       </c>
       <c r="E35" t="n">
-        <v>0.06400316953659058</v>
+        <v>0.08032890409231186</v>
       </c>
       <c r="F35" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17.0</v>
+        <v>39.0</v>
       </c>
       <c r="B36" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5712605714797974</v>
+        <v>0.0799688771367073</v>
       </c>
       <c r="D36" t="n">
-        <v>261.74771242780264</v>
+        <v>262.02842904452655</v>
       </c>
       <c r="E36" t="n">
-        <v>0.10225311666727066</v>
+        <v>0.15684577822685242</v>
       </c>
       <c r="F36" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>33.0</v>
+        <v>40.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4025490880012512</v>
+        <v>0.06442520767450333</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8530329755303</v>
+        <v>262.03744350084025</v>
       </c>
       <c r="E37" t="n">
-        <v>0.17442648112773895</v>
+        <v>0.020786987617611885</v>
       </c>
       <c r="F37" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="B38" t="n">
-        <v>4.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3540160059928894</v>
+        <v>0.0</v>
       </c>
       <c r="D38" t="n">
-        <v>261.8092385280714</v>
+        <v>262.025968659323</v>
       </c>
       <c r="E38" t="n">
-        <v>0.13123542070388794</v>
+        <v>0.06442520767450333</v>
       </c>
       <c r="F38" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B39" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.4153652489185333</v>
-      </c>
-      <c r="D39" t="n">
-        <v>261.73523225362436</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.10357017815113068</v>
-      </c>
-      <c r="F39" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.2522561550140381</v>
-      </c>
-      <c r="D40" t="n">
-        <v>261.86063939372787</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.16768871247768402</v>
-      </c>
-      <c r="F40" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="B41" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.1655905395746231</v>
-      </c>
-      <c r="D41" t="n">
-        <v>261.9041240218826</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.10018965601921082</v>
-      </c>
-      <c r="F41" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="B42" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.14967060089111328</v>
-      </c>
-      <c r="D42" t="n">
-        <v>261.9164291959897</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.01612217165529728</v>
-      </c>
-      <c r="F42" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
+      <c r="A39" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="B39" s="25" t="n">
+        <f>SUM(B19:B38)</f>
+        <v>103.0</v>
+      </c>
+      <c r="E39" s="25" t="n">
+        <f>SUM(E19:E38)</f>
+        <v>2.2429340593516827</v>
+      </c>
+    </row>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
     <row r="43">
-      <c r="A43" t="n">
-        <v>45.0</v>
+      <c r="A43" t="s" s="25">
+        <v>16</v>
       </c>
       <c r="B43" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.23733405768871307</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C43" t="s" s="25">
+        <v>17</v>
       </c>
       <c r="D43" t="n">
-        <v>261.85269539989224</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.15117192268371582</v>
+        <v>-80.046878</v>
+      </c>
+      <c r="E43" t="s" s="25">
+        <v>18</v>
       </c>
       <c r="F43" t="n">
-        <v>3.0</v>
+        <v>41.057835</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="B44" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.27442097663879395</v>
-      </c>
-      <c r="D44" t="n">
-        <v>261.84218775469515</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.06048080697655678</v>
-      </c>
-      <c r="F44" t="n">
-        <v>5.0</v>
+      <c r="A44" t="s" s="25">
+        <v>19</v>
+      </c>
+      <c r="B44" t="n" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="C44" t="s" s="25">
+        <v>20</v>
+      </c>
+      <c r="D44" t="n" s="26">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="B45" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.2580117881298065</v>
-      </c>
-      <c r="D45" t="n">
-        <v>261.8742012620678</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.05126715451478958</v>
-      </c>
-      <c r="F45" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.3482040762901306</v>
-      </c>
-      <c r="D46" t="n">
-        <v>261.832411431518</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.09209708124399185</v>
-      </c>
-      <c r="F46" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
+      <c r="A45" t="s" s="25">
+        <v>21</v>
+      </c>
+      <c r="B45" t="n" s="26">
+        <v>4.249732494354248</v>
+      </c>
+      <c r="C45" t="s" s="25">
+        <v>22</v>
+      </c>
+      <c r="D45" t="n" s="26">
+        <v>437.0</v>
+      </c>
+      <c r="E45" t="s" s="25">
+        <v>23</v>
+      </c>
+      <c r="F45" t="n" s="26">
+        <v>4.249732494354248</v>
+      </c>
+    </row>
+    <row r="46"/>
     <row r="47">
-      <c r="A47" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="B47" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.43542152643203735</v>
-      </c>
-      <c r="D47" t="n">
-        <v>261.8009810208278</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.09141216427087784</v>
-      </c>
-      <c r="F47" t="n">
-        <v>3.0</v>
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
       </c>
       <c r="C48" t="n">
-        <v>0.24791058897972107</v>
+        <v>0.0</v>
       </c>
       <c r="D48" t="n">
-        <v>261.9136333683507</v>
+        <v>262.025968659323</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1906958520412445</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>47.0</v>
+        <v>9.0</v>
       </c>
       <c r="B49" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C49" t="n">
-        <v>0.23312565684318542</v>
+        <v>0.026129815727472305</v>
       </c>
       <c r="D49" t="n">
-        <v>261.9456724917965</v>
+        <v>262.0077728246056</v>
       </c>
       <c r="E49" t="n">
-        <v>0.04215701296925545</v>
+        <v>0.026129815727472305</v>
       </c>
       <c r="F49" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>44.0</v>
+        <v>34.0</v>
       </c>
       <c r="B50" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.18236397206783295</v>
+        <v>0.30666160583496094</v>
       </c>
       <c r="D50" t="n">
-        <v>261.9081444294253</v>
+        <v>261.8645538790942</v>
       </c>
       <c r="E50" t="n">
-        <v>0.11884157359600067</v>
+        <v>0.2824792265892029</v>
       </c>
       <c r="F50" t="n">
         <v>4.0</v>
@@ -1038,19 +1024,19 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="B51" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.05569928139448166</v>
+        <v>0.6952970623970032</v>
       </c>
       <c r="D51" t="n">
-        <v>261.9890906815781</v>
+        <v>261.8127084459809</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1267249435186386</v>
+        <v>0.4189853370189667</v>
       </c>
       <c r="F51" t="n">
         <v>1.0</v>
@@ -1058,19 +1044,19 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="B52" t="n">
         <v>2.0</v>
       </c>
       <c r="C52" t="n">
-        <v>0.047849543392658234</v>
+        <v>0.7960281372070312</v>
       </c>
       <c r="D52" t="n">
-        <v>261.99499261555235</v>
+        <v>261.74558639022837</v>
       </c>
       <c r="E52" t="n">
-        <v>0.008064186200499535</v>
+        <v>0.1117534413933754</v>
       </c>
       <c r="F52" t="n">
         <v>1.0</v>
@@ -1078,19 +1064,19 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="B53" t="n">
         <v>2.0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.046628355979919434</v>
+        <v>0.7893264293670654</v>
       </c>
       <c r="D53" t="n">
-        <v>262.001731797022</v>
+        <v>261.734512161128</v>
       </c>
       <c r="E53" t="n">
-        <v>0.012065025046467781</v>
+        <v>0.020826974883675575</v>
       </c>
       <c r="F53" t="n">
         <v>1.0</v>
@@ -1098,19 +1084,19 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
       <c r="B54" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.045892562717199326</v>
+        <v>0.9558511972427368</v>
       </c>
       <c r="D54" t="n">
-        <v>262.0171039955313</v>
+        <v>261.4050595755135</v>
       </c>
       <c r="E54" t="n">
-        <v>0.022208958864212036</v>
+        <v>0.4603939950466156</v>
       </c>
       <c r="F54" t="n">
         <v>1.0</v>
@@ -1118,19 +1104,19 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
       <c r="B55" t="n">
         <v>2.0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.03717869520187378</v>
+        <v>0.7743661999702454</v>
       </c>
       <c r="D55" t="n">
-        <v>262.0273419598029</v>
+        <v>261.5087901924117</v>
       </c>
       <c r="E55" t="n">
-        <v>0.015117594040930271</v>
+        <v>0.18559260666370392</v>
       </c>
       <c r="F55" t="n">
         <v>1.0</v>
@@ -1138,510 +1124,599 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>39.0</v>
+        <v>20.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0799688771367073</v>
+        <v>0.7652108669281006</v>
       </c>
       <c r="D56" t="n">
-        <v>262.02842904452655</v>
+        <v>261.4937537372069</v>
       </c>
       <c r="E56" t="n">
-        <v>0.04279240220785141</v>
+        <v>0.05909006670117378</v>
       </c>
       <c r="F56" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>40.0</v>
+        <v>21.0</v>
       </c>
       <c r="B57" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.06442520767450333</v>
+        <v>0.7297766804695129</v>
       </c>
       <c r="D57" t="n">
-        <v>262.03744350084025</v>
+        <v>261.5260869750733</v>
       </c>
       <c r="E57" t="n">
-        <v>0.020786987617611885</v>
+        <v>0.042012132704257965</v>
       </c>
       <c r="F57" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3.0</v>
+        <v>26.0</v>
       </c>
       <c r="B58" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.050734106451272964</v>
+        <v>0.591666579246521</v>
       </c>
       <c r="D58" t="n">
-        <v>262.03720115376393</v>
+        <v>261.6143715155233</v>
       </c>
       <c r="E58" t="n">
-        <v>0.01408610213547945</v>
+        <v>0.1395682394504547</v>
       </c>
       <c r="F58" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>4.0</v>
+        <v>29.0</v>
       </c>
       <c r="B59" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.017380159348249435</v>
+        <v>0.5351018905639648</v>
       </c>
       <c r="D59" t="n">
-        <v>262.0384776220169</v>
+        <v>261.6337953543354</v>
       </c>
       <c r="E59" t="n">
-        <v>0.042280081659555435</v>
+        <v>0.09114309400320053</v>
       </c>
       <c r="F59" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B60" t="s">
-        <v>30</v>
+        <v>28.0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>10.0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0</v>
+        <v>0.5184463858604431</v>
       </c>
       <c r="D60" t="n">
-        <v>262.025968659323</v>
+        <v>261.64456146410316</v>
       </c>
       <c r="E60" t="n">
-        <v>0.017380159348249435</v>
+        <v>0.01771175116300583</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="B61" s="7" t="n">
-        <f>SUM(B19:B60)</f>
-        <v>150.0</v>
-      </c>
-      <c r="E61" s="7" t="n">
-        <f>SUM(E19:E60)</f>
-        <v>4.249732468277216</v>
-      </c>
-    </row>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
+      <c r="A61" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.5696893930435181</v>
+      </c>
+      <c r="D61" t="n">
+        <v>261.62780508586667</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.08671453595161438</v>
+      </c>
+      <c r="F61" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.6677433252334595</v>
+      </c>
+      <c r="D62" t="n">
+        <v>261.6266045710891</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.17940877377986908</v>
+      </c>
+      <c r="F62" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.6893346905708313</v>
+      </c>
+      <c r="D63" t="n">
+        <v>261.6963311869112</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.14880356192588806</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.6552584171295166</v>
+      </c>
+      <c r="D64" t="n">
+        <v>261.7457281617366</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.06400316953659058</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
     <row r="65">
-      <c r="A65" t="s" s="7">
-        <v>16</v>
+      <c r="A65" t="n">
+        <v>17.0</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C65" t="s" s="7">
-        <v>17</v>
+        <v>2.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.5712605714797974</v>
       </c>
       <c r="D65" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="E65" t="s" s="7">
-        <v>18</v>
+        <v>261.74771242780264</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.10225311666727066</v>
       </c>
       <c r="F65" t="n">
-        <v>41.057835</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="B66" t="n" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="C66" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="D66" t="n" s="8">
-        <v>-1.0</v>
+      <c r="A66" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.4025490880012512</v>
+      </c>
+      <c r="D66" t="n">
+        <v>261.8530329755303</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.17442648112773895</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="B67" t="n" s="8">
-        <v>2.2626311779022217</v>
-      </c>
-      <c r="C67" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="D67" t="n" s="8">
-        <v>367.0</v>
-      </c>
-      <c r="E67" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="F67" t="n" s="8">
-        <v>2.2626311779022217</v>
-      </c>
-    </row>
-    <row r="68"/>
+      <c r="A67" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.3540160059928894</v>
+      </c>
+      <c r="D67" t="n">
+        <v>261.8092385280714</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.13123542070388794</v>
+      </c>
+      <c r="F67" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.4153652489185333</v>
+      </c>
+      <c r="D68" t="n">
+        <v>261.73523225362436</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.10357017815113068</v>
+      </c>
+      <c r="F68" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
     <row r="69">
-      <c r="A69" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" t="s">
-        <v>26</v>
-      </c>
-      <c r="D69" t="s">
-        <v>27</v>
-      </c>
-      <c r="E69" t="s">
-        <v>28</v>
-      </c>
-      <c r="F69" t="s">
-        <v>29</v>
+      <c r="A69" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.2522561550140381</v>
+      </c>
+      <c r="D69" t="n">
+        <v>261.86063939372787</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.16768871247768402</v>
+      </c>
+      <c r="F69" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B70" t="s">
-        <v>30</v>
+        <v>42.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5.0</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0</v>
+        <v>0.1655905395746231</v>
       </c>
       <c r="D70" t="n">
-        <v>262.025968659323</v>
+        <v>261.9041240218826</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0</v>
+        <v>0.10018965601921082</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>46.0</v>
+        <v>41.0</v>
       </c>
       <c r="B71" t="n">
         <v>4.0</v>
       </c>
       <c r="C71" t="n">
-        <v>0.18751613795757294</v>
+        <v>0.14967060089111328</v>
       </c>
       <c r="D71" t="n">
-        <v>261.9345977905843</v>
+        <v>261.9164291959897</v>
       </c>
       <c r="E71" t="n">
-        <v>0.18751613795757294</v>
+        <v>0.01612217165529728</v>
       </c>
       <c r="F71" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>49.0</v>
+        <v>45.0</v>
       </c>
       <c r="B72" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2580117881298065</v>
+        <v>0.23733405768871307</v>
       </c>
       <c r="D72" t="n">
-        <v>261.8742012620678</v>
+        <v>261.85269539989224</v>
       </c>
       <c r="E72" t="n">
-        <v>0.08110341429710388</v>
+        <v>0.15117192268371582</v>
       </c>
       <c r="F72" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
       <c r="B73" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.25677040219306946</v>
+        <v>0.27442097663879395</v>
       </c>
       <c r="D73" t="n">
-        <v>261.8504227828364</v>
+        <v>261.84218775469515</v>
       </c>
       <c r="E73" t="n">
-        <v>0.056548867374658585</v>
+        <v>0.06048080697655678</v>
       </c>
       <c r="F73" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="B74" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.27442097663879395</v>
+        <v>0.2580117881298065</v>
       </c>
       <c r="D74" t="n">
-        <v>261.84218775469515</v>
+        <v>261.8742012620678</v>
       </c>
       <c r="E74" t="n">
-        <v>0.020238345488905907</v>
+        <v>0.05126715451478958</v>
       </c>
       <c r="F74" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>58.0</v>
+        <v>57.0</v>
       </c>
       <c r="B75" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C75" t="n">
-        <v>0.36287596821784973</v>
+        <v>0.3482040762901306</v>
       </c>
       <c r="D75" t="n">
-        <v>261.84567371889716</v>
+        <v>261.832411431518</v>
       </c>
       <c r="E75" t="n">
-        <v>0.14089053869247437</v>
+        <v>0.09209708124399185</v>
       </c>
       <c r="F75" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
       <c r="B76" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3482040762901306</v>
+        <v>0.43542152643203735</v>
       </c>
       <c r="D76" t="n">
-        <v>261.832411431518</v>
+        <v>261.8009810208278</v>
       </c>
       <c r="E76" t="n">
-        <v>0.03986334800720215</v>
+        <v>0.09141216427087784</v>
       </c>
       <c r="F76" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>56.0</v>
+        <v>48.0</v>
       </c>
       <c r="B77" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3381813168525696</v>
+        <v>0.24791058897972107</v>
       </c>
       <c r="D77" t="n">
-        <v>261.80355109326473</v>
+        <v>261.9136333683507</v>
       </c>
       <c r="E77" t="n">
-        <v>0.07421335577964783</v>
+        <v>0.1906958520412445</v>
       </c>
       <c r="F77" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>52.0</v>
+        <v>47.0</v>
       </c>
       <c r="B78" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.30874869227409363</v>
+        <v>0.23312565684318542</v>
       </c>
       <c r="D78" t="n">
-        <v>261.80366879016594</v>
+        <v>261.9456724917965</v>
       </c>
       <c r="E78" t="n">
-        <v>0.06519314646720886</v>
+        <v>0.04215701296925545</v>
       </c>
       <c r="F78" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>53.0</v>
+        <v>44.0</v>
       </c>
       <c r="B79" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.18236397206783295</v>
+      </c>
+      <c r="D79" t="n">
+        <v>261.9081444294253</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.11884157359600067</v>
+      </c>
+      <c r="F79" t="n">
         <v>4.0</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.3125160336494446</v>
-      </c>
-      <c r="D79" t="n">
-        <v>261.7925079122199</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.034933824092149734</v>
-      </c>
-      <c r="F79" t="n">
-        <v>2.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>37.0</v>
+        <v>10.0</v>
       </c>
       <c r="B80" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2432442307472229</v>
+        <v>0.05569928139448166</v>
       </c>
       <c r="D80" t="n">
-        <v>261.8399552608657</v>
+        <v>261.9890906815781</v>
       </c>
       <c r="E80" t="n">
-        <v>0.13241559267044067</v>
+        <v>0.1267249435186386</v>
       </c>
       <c r="F80" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>38.0</v>
+        <v>8.0</v>
       </c>
       <c r="B81" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C81" t="n">
-        <v>0.30329522490501404</v>
+        <v>0.047849543392658234</v>
       </c>
       <c r="D81" t="n">
-        <v>261.79625441958456</v>
+        <v>261.99499261555235</v>
       </c>
       <c r="E81" t="n">
-        <v>0.06180000305175781</v>
+        <v>0.008064186200499535</v>
       </c>
       <c r="F81" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>30.0</v>
+        <v>7.0</v>
       </c>
       <c r="B82" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4153652489185333</v>
+        <v>0.046628355979919434</v>
       </c>
       <c r="D82" t="n">
-        <v>261.73523225362436</v>
+        <v>262.001731797022</v>
       </c>
       <c r="E82" t="n">
-        <v>0.13967715203762054</v>
+        <v>0.012065025046467781</v>
       </c>
       <c r="F82" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
       <c r="B83" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6677433252334595</v>
+        <v>0.045892562717199326</v>
       </c>
       <c r="D83" t="n">
-        <v>261.6266045710891</v>
+        <v>262.0171039955313</v>
       </c>
       <c r="E83" t="n">
-        <v>0.28386181592941284</v>
+        <v>0.022208958864212036</v>
       </c>
       <c r="F83" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>22.0</v>
+        <v>5.0</v>
       </c>
       <c r="B84" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6918575763702393</v>
+        <v>0.03717869520187378</v>
       </c>
       <c r="D84" t="n">
-        <v>261.55286056275264</v>
+        <v>262.0273419598029</v>
       </c>
       <c r="E84" t="n">
-        <v>0.13826385140419006</v>
+        <v>0.015117594040930271</v>
       </c>
       <c r="F84" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>25.0</v>
+        <v>39.0</v>
       </c>
       <c r="B85" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6118992567062378</v>
+        <v>0.0799688771367073</v>
       </c>
       <c r="D85" t="n">
-        <v>261.6216537846275</v>
+        <v>262.02842904452655</v>
       </c>
       <c r="E85" t="n">
-        <v>0.08909749239683151</v>
+        <v>0.04279240220785141</v>
       </c>
       <c r="F85" t="n">
         <v>3.0</v>
@@ -1649,470 +1724,470 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>26.0</v>
+        <v>40.0</v>
       </c>
       <c r="B86" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.591666579246521</v>
+        <v>0.06442520767450333</v>
       </c>
       <c r="D86" t="n">
-        <v>261.6143715155233</v>
+        <v>262.03744350084025</v>
       </c>
       <c r="E86" t="n">
-        <v>0.06019379198551178</v>
+        <v>0.020786987617611885</v>
       </c>
       <c r="F86" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>27.0</v>
+        <v>3.0</v>
       </c>
       <c r="B87" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5696893930435181</v>
+        <v>0.050734106451272964</v>
       </c>
       <c r="D87" t="n">
-        <v>261.62780508586667</v>
+        <v>262.03720115376393</v>
       </c>
       <c r="E87" t="n">
-        <v>0.02269146777689457</v>
+        <v>0.01408610213547945</v>
       </c>
       <c r="F87" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>29.0</v>
+        <v>4.0</v>
       </c>
       <c r="B88" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5351018905639648</v>
+        <v>0.017380159348249435</v>
       </c>
       <c r="D88" t="n">
-        <v>261.6337953543354</v>
+        <v>262.0384776220169</v>
       </c>
       <c r="E88" t="n">
-        <v>0.07342217862606049</v>
+        <v>0.042280081659555435</v>
       </c>
       <c r="F88" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="B89" t="n">
-        <v>10.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>30</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5184463858604431</v>
+        <v>0.0</v>
       </c>
       <c r="D89" t="n">
-        <v>261.64456146410316</v>
+        <v>262.025968659323</v>
       </c>
       <c r="E89" t="n">
-        <v>0.01771175116300583</v>
+        <v>0.017380159348249435</v>
       </c>
       <c r="F89" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.2522561550140381</v>
-      </c>
-      <c r="D90" t="n">
-        <v>261.86063939372787</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.28058916330337524</v>
-      </c>
-      <c r="F90" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="B91" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.21163465082645416</v>
-      </c>
-      <c r="D91" t="n">
-        <v>261.89989924983104</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.050771359354257584</v>
-      </c>
-      <c r="F91" t="n">
+      <c r="A90" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="B90" s="25" t="n">
+        <f>SUM(B48:B89)</f>
+        <v>150.0</v>
+      </c>
+      <c r="E90" s="25" t="n">
+        <f>SUM(E48:E89)</f>
+        <v>4.249732468277216</v>
+      </c>
+    </row>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94">
+      <c r="A94" t="s" s="25">
+        <v>16</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C94" t="s" s="25">
+        <v>17</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-80.046878</v>
+      </c>
+      <c r="E94" t="s" s="25">
+        <v>18</v>
+      </c>
+      <c r="F94" t="n">
+        <v>41.057835</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="25">
+        <v>19</v>
+      </c>
+      <c r="B95" t="n" s="25">
         <v>2.0</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
+      <c r="C95" t="s" s="25">
+        <v>20</v>
+      </c>
+      <c r="D95" t="n" s="26">
         <v>-1.0</v>
       </c>
-      <c r="B92" t="s">
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="25">
+        <v>21</v>
+      </c>
+      <c r="B96" t="n" s="26">
+        <v>2.2626311779022217</v>
+      </c>
+      <c r="C96" t="s" s="25">
+        <v>22</v>
+      </c>
+      <c r="D96" t="n" s="26">
+        <v>367.0</v>
+      </c>
+      <c r="E96" t="s" s="25">
+        <v>23</v>
+      </c>
+      <c r="F96" t="n" s="26">
+        <v>2.2626311779022217</v>
+      </c>
+    </row>
+    <row r="97"/>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" t="s">
+        <v>27</v>
+      </c>
+      <c r="E98" t="s">
+        <v>28</v>
+      </c>
+      <c r="F98" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B99" t="s">
         <v>30</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C99" t="n">
         <v>0.0</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D99" t="n">
         <v>262.025968659323</v>
       </c>
-      <c r="E92" t="n">
-        <v>0.21163465082645416</v>
-      </c>
-      <c r="F92" t="n">
+      <c r="E99" t="n">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="B93" s="7" t="n">
-        <f>SUM(B70:B92)</f>
-        <v>124.0</v>
-      </c>
-      <c r="E93" s="7" t="n">
-        <f>SUM(E70:E92)</f>
-        <v>2.2626312486827374</v>
-      </c>
-    </row>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97">
-      <c r="A97" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="B97" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C97" t="s" s="7">
-        <v>17</v>
-      </c>
-      <c r="D97" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="E97" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="F97" t="n">
-        <v>41.057835</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="B98" t="n" s="7">
+      <c r="F99" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.18751613795757294</v>
+      </c>
+      <c r="D100" t="n">
+        <v>261.9345977905843</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.18751613795757294</v>
+      </c>
+      <c r="F100" t="n">
         <v>2.0</v>
       </c>
-      <c r="C98" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="D98" t="n" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="B99" t="n" s="8">
-        <v>2.4519267082214355</v>
-      </c>
-      <c r="C99" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="D99" t="n" s="8">
-        <v>370.0</v>
-      </c>
-      <c r="E99" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="F99" t="n" s="8">
-        <v>2.4519267082214355</v>
-      </c>
-    </row>
-    <row r="100"/>
+    </row>
     <row r="101">
-      <c r="A101" t="s">
-        <v>24</v>
-      </c>
-      <c r="B101" t="s">
-        <v>25</v>
-      </c>
-      <c r="C101" t="s">
-        <v>26</v>
-      </c>
-      <c r="D101" t="s">
-        <v>27</v>
-      </c>
-      <c r="E101" t="s">
-        <v>28</v>
-      </c>
-      <c r="F101" t="s">
-        <v>29</v>
+      <c r="A101" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.2580117881298065</v>
+      </c>
+      <c r="D101" t="n">
+        <v>261.8742012620678</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.08110341429710388</v>
+      </c>
+      <c r="F101" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B102" t="s">
-        <v>30</v>
+        <v>51.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3.0</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0</v>
+        <v>0.25677040219306946</v>
       </c>
       <c r="D102" t="n">
-        <v>262.025968659323</v>
+        <v>261.8504227828364</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0</v>
+        <v>0.056548867374658585</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="B103" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="C103" t="n">
-        <v>0.06442520767450333</v>
+        <v>0.27442097663879395</v>
       </c>
       <c r="D103" t="n">
-        <v>262.03744350084025</v>
+        <v>261.84218775469515</v>
       </c>
       <c r="E103" t="n">
-        <v>0.06442520767450333</v>
+        <v>0.020238345488905907</v>
       </c>
       <c r="F103" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>39.0</v>
+        <v>58.0</v>
       </c>
       <c r="B104" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0799688771367073</v>
+        <v>0.36287596821784973</v>
       </c>
       <c r="D104" t="n">
-        <v>262.02842904452655</v>
+        <v>261.84567371889716</v>
       </c>
       <c r="E104" t="n">
-        <v>0.020786987617611885</v>
+        <v>0.14089053869247437</v>
       </c>
       <c r="F104" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>47.0</v>
+        <v>57.0</v>
       </c>
       <c r="B105" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C105" t="n">
-        <v>0.23312565684318542</v>
+        <v>0.3482040762901306</v>
       </c>
       <c r="D105" t="n">
-        <v>261.9456724917965</v>
+        <v>261.832411431518</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1674681156873703</v>
+        <v>0.03986334800720215</v>
       </c>
       <c r="F105" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>48.0</v>
+        <v>56.0</v>
       </c>
       <c r="B106" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C106" t="n">
-        <v>0.24791058897972107</v>
+        <v>0.3381813168525696</v>
       </c>
       <c r="D106" t="n">
-        <v>261.9136333683507</v>
+        <v>261.80355109326473</v>
       </c>
       <c r="E106" t="n">
-        <v>0.04215701296925545</v>
+        <v>0.07421335577964783</v>
       </c>
       <c r="F106" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>59.0</v>
+        <v>52.0</v>
       </c>
       <c r="B107" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C107" t="n">
-        <v>0.43542152643203735</v>
+        <v>0.30874869227409363</v>
       </c>
       <c r="D107" t="n">
-        <v>261.8009810208278</v>
+        <v>261.80366879016594</v>
       </c>
       <c r="E107" t="n">
-        <v>0.1906958520412445</v>
+        <v>0.06519314646720886</v>
       </c>
       <c r="F107" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>57.0</v>
+        <v>53.0</v>
       </c>
       <c r="B108" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3482040762901306</v>
+        <v>0.3125160336494446</v>
       </c>
       <c r="D108" t="n">
-        <v>261.832411431518</v>
+        <v>261.7925079122199</v>
       </c>
       <c r="E108" t="n">
-        <v>0.09141216427087784</v>
+        <v>0.034933824092149734</v>
       </c>
       <c r="F108" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>49.0</v>
+        <v>37.0</v>
       </c>
       <c r="B109" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="C109" t="n">
-        <v>0.2580117881298065</v>
+        <v>0.2432442307472229</v>
       </c>
       <c r="D109" t="n">
-        <v>261.8742012620678</v>
+        <v>261.8399552608657</v>
       </c>
       <c r="E109" t="n">
-        <v>0.09209708124399185</v>
+        <v>0.13241559267044067</v>
       </c>
       <c r="F109" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>50.0</v>
+        <v>38.0</v>
       </c>
       <c r="B110" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="C110" t="n">
-        <v>0.27442097663879395</v>
+        <v>0.30329522490501404</v>
       </c>
       <c r="D110" t="n">
-        <v>261.84218775469515</v>
+        <v>261.79625441958456</v>
       </c>
       <c r="E110" t="n">
-        <v>0.05126715451478958</v>
+        <v>0.06180000305175781</v>
       </c>
       <c r="F110" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>45.0</v>
+        <v>30.0</v>
       </c>
       <c r="B111" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="C111" t="n">
-        <v>0.23733405768871307</v>
+        <v>0.4153652489185333</v>
       </c>
       <c r="D111" t="n">
-        <v>261.85269539989224</v>
+        <v>261.73523225362436</v>
       </c>
       <c r="E111" t="n">
-        <v>0.06048080697655678</v>
+        <v>0.13967715203762054</v>
       </c>
       <c r="F111" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>44.0</v>
+        <v>18.0</v>
       </c>
       <c r="B112" t="n">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="C112" t="n">
-        <v>0.18236397206783295</v>
+        <v>0.6677433252334595</v>
       </c>
       <c r="D112" t="n">
-        <v>261.9081444294253</v>
+        <v>261.6266045710891</v>
       </c>
       <c r="E112" t="n">
-        <v>0.07496415823698044</v>
+        <v>0.28386181592941284</v>
       </c>
       <c r="F112" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>41.0</v>
+        <v>22.0</v>
       </c>
       <c r="B113" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C113" t="n">
-        <v>0.14967060089111328</v>
+        <v>0.6918575763702393</v>
       </c>
       <c r="D113" t="n">
-        <v>261.9164291959897</v>
+        <v>261.55286056275264</v>
       </c>
       <c r="E113" t="n">
-        <v>0.14903001487255096</v>
+        <v>0.13826385140419006</v>
       </c>
       <c r="F113" t="n">
         <v>3.0</v>
@@ -2120,19 +2195,19 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>42.0</v>
+        <v>25.0</v>
       </c>
       <c r="B114" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1655905395746231</v>
+        <v>0.6118992567062378</v>
       </c>
       <c r="D114" t="n">
-        <v>261.9041240218826</v>
+        <v>261.6216537846275</v>
       </c>
       <c r="E114" t="n">
-        <v>0.01612217165529728</v>
+        <v>0.08909749239683151</v>
       </c>
       <c r="F114" t="n">
         <v>3.0</v>
@@ -2140,19 +2215,19 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
       <c r="B115" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2522561550140381</v>
+        <v>0.591666579246521</v>
       </c>
       <c r="D115" t="n">
-        <v>261.86063939372787</v>
+        <v>261.6143715155233</v>
       </c>
       <c r="E115" t="n">
-        <v>0.10018965601921082</v>
+        <v>0.06019379198551178</v>
       </c>
       <c r="F115" t="n">
         <v>6.0</v>
@@ -2160,39 +2235,39 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="B116" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3540160059928894</v>
+        <v>0.5696893930435181</v>
       </c>
       <c r="D116" t="n">
-        <v>261.8092385280714</v>
+        <v>261.62780508586667</v>
       </c>
       <c r="E116" t="n">
-        <v>0.10586412250995636</v>
+        <v>0.02269146777689457</v>
       </c>
       <c r="F116" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="B117" t="n">
         <v>10.0</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4153652489185333</v>
+        <v>0.5351018905639648</v>
       </c>
       <c r="D117" t="n">
-        <v>261.73523225362436</v>
+        <v>261.6337953543354</v>
       </c>
       <c r="E117" t="n">
-        <v>0.10357017815113068</v>
+        <v>0.07342217862606049</v>
       </c>
       <c r="F117" t="n">
         <v>6.0</v>
@@ -2212,7 +2287,7 @@
         <v>261.64456146410316</v>
       </c>
       <c r="E118" t="n">
-        <v>0.11841318756341934</v>
+        <v>0.01771175116300583</v>
       </c>
       <c r="F118" t="n">
         <v>6.0</v>
@@ -2220,19 +2295,19 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
       <c r="B119" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5351018905639648</v>
+        <v>0.2522561550140381</v>
       </c>
       <c r="D119" t="n">
-        <v>261.6337953543354</v>
+        <v>261.86063939372787</v>
       </c>
       <c r="E119" t="n">
-        <v>0.01771175116300583</v>
+        <v>0.28058916330337524</v>
       </c>
       <c r="F119" t="n">
         <v>6.0</v>
@@ -2240,270 +2315,270 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>27.0</v>
+        <v>35.0</v>
       </c>
       <c r="B120" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5696893930435181</v>
+        <v>0.21163465082645416</v>
       </c>
       <c r="D120" t="n">
-        <v>261.62780508586667</v>
+        <v>261.89989924983104</v>
       </c>
       <c r="E120" t="n">
-        <v>0.07342217862606049</v>
+        <v>0.050771359354257584</v>
       </c>
       <c r="F120" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="B121" t="n">
-        <v>10.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>30</v>
       </c>
       <c r="C121" t="n">
-        <v>0.591666579246521</v>
+        <v>0.0</v>
       </c>
       <c r="D121" t="n">
-        <v>261.6143715155233</v>
+        <v>262.025968659323</v>
       </c>
       <c r="E121" t="n">
-        <v>0.02269146777689457</v>
+        <v>0.21163465082645416</v>
       </c>
       <c r="F121" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="B122" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.6677433252334595</v>
-      </c>
-      <c r="D122" t="n">
-        <v>261.6266045710891</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.16555650532245636</v>
-      </c>
-      <c r="F122" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="B123" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.4025490880012512</v>
-      </c>
-      <c r="D123" t="n">
-        <v>261.8530329755303</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.3058880567550659</v>
-      </c>
-      <c r="F123" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="B124" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.30666160583496094</v>
-      </c>
-      <c r="D124" t="n">
-        <v>261.8645538790942</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.11105102300643921</v>
-      </c>
-      <c r="F124" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
+      <c r="A122" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="B122" s="25" t="n">
+        <f>SUM(B99:B121)</f>
+        <v>124.0</v>
+      </c>
+      <c r="E122" s="25" t="n">
+        <f>SUM(E99:E121)</f>
+        <v>2.2626312486827374</v>
+      </c>
+    </row>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126">
+      <c r="A126" t="s" s="25">
+        <v>16</v>
+      </c>
+      <c r="B126" t="n">
         <v>-1.0</v>
       </c>
-      <c r="B125" t="s">
-        <v>30</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D125" t="n">
-        <v>262.025968659323</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.30666160583496094</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="B126" s="7" t="n">
-        <f>SUM(B102:B125)</f>
-        <v>121.0</v>
-      </c>
-      <c r="E126" s="7" t="n">
-        <f>SUM(E102:E125)</f>
-        <v>2.4519264604896307</v>
-      </c>
-    </row>
-    <row r="127"/>
-    <row r="128"/>
+      <c r="C126" t="s" s="25">
+        <v>17</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-80.046878</v>
+      </c>
+      <c r="E126" t="s" s="25">
+        <v>18</v>
+      </c>
+      <c r="F126" t="n">
+        <v>41.057835</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="25">
+        <v>19</v>
+      </c>
+      <c r="B127" t="n" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="C127" t="s" s="25">
+        <v>20</v>
+      </c>
+      <c r="D127" t="n" s="26">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="25">
+        <v>21</v>
+      </c>
+      <c r="B128" t="n" s="26">
+        <v>2.4519267082214355</v>
+      </c>
+      <c r="C128" t="s" s="25">
+        <v>22</v>
+      </c>
+      <c r="D128" t="n" s="26">
+        <v>370.0</v>
+      </c>
+      <c r="E128" t="s" s="25">
+        <v>23</v>
+      </c>
+      <c r="F128" t="n" s="26">
+        <v>2.4519267082214355</v>
+      </c>
+    </row>
     <row r="129"/>
     <row r="130">
-      <c r="A130" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="B130" t="n">
+      <c r="A130" t="s">
+        <v>24</v>
+      </c>
+      <c r="B130" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" t="s">
+        <v>27</v>
+      </c>
+      <c r="E130" t="s">
+        <v>28</v>
+      </c>
+      <c r="F130" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C130" t="s" s="7">
-        <v>17</v>
-      </c>
-      <c r="D130" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="E130" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="F130" t="n">
-        <v>41.057835</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="B131" t="n" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="C131" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="D131" t="n" s="8">
-        <v>-1.0</v>
+      <c r="B131" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>262.025968659323</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="B132" t="n" s="8">
-        <v>2.2626311779022217</v>
-      </c>
-      <c r="C132" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="D132" t="n" s="8">
-        <v>367.0</v>
-      </c>
-      <c r="E132" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="F132" t="n" s="8">
-        <v>2.2626311779022217</v>
-      </c>
-    </row>
-    <row r="133"/>
+      <c r="A132" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.06442520767450333</v>
+      </c>
+      <c r="D132" t="n">
+        <v>262.03744350084025</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.06442520767450333</v>
+      </c>
+      <c r="F132" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.0799688771367073</v>
+      </c>
+      <c r="D133" t="n">
+        <v>262.02842904452655</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.020786987617611885</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
     <row r="134">
-      <c r="A134" t="s">
-        <v>24</v>
-      </c>
-      <c r="B134" t="s">
-        <v>25</v>
-      </c>
-      <c r="C134" t="s">
-        <v>26</v>
-      </c>
-      <c r="D134" t="s">
-        <v>27</v>
-      </c>
-      <c r="E134" t="s">
-        <v>28</v>
-      </c>
-      <c r="F134" t="s">
-        <v>29</v>
+      <c r="A134" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.23312565684318542</v>
+      </c>
+      <c r="D134" t="n">
+        <v>261.9456724917965</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.1674681156873703</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B135" t="s">
-        <v>30</v>
+        <v>48.0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.0</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0</v>
+        <v>0.24791058897972107</v>
       </c>
       <c r="D135" t="n">
-        <v>262.025968659323</v>
+        <v>261.9136333683507</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0</v>
+        <v>0.04215701296925545</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>46.0</v>
+        <v>59.0</v>
       </c>
       <c r="B136" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C136" t="n">
-        <v>0.18751613795757294</v>
+        <v>0.43542152643203735</v>
       </c>
       <c r="D136" t="n">
-        <v>261.9345977905843</v>
+        <v>261.8009810208278</v>
       </c>
       <c r="E136" t="n">
-        <v>0.18751613795757294</v>
+        <v>0.1906958520412445</v>
       </c>
       <c r="F136" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>49.0</v>
+        <v>57.0</v>
       </c>
       <c r="B137" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2580117881298065</v>
+        <v>0.3482040762901306</v>
       </c>
       <c r="D137" t="n">
-        <v>261.8742012620678</v>
+        <v>261.832411431518</v>
       </c>
       <c r="E137" t="n">
-        <v>0.08110341429710388</v>
+        <v>0.09141216427087784</v>
       </c>
       <c r="F137" t="n">
         <v>6.0</v>
@@ -2511,22 +2586,22 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>51.0</v>
+        <v>49.0</v>
       </c>
       <c r="B138" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="C138" t="n">
-        <v>0.25677040219306946</v>
+        <v>0.2580117881298065</v>
       </c>
       <c r="D138" t="n">
-        <v>261.8504227828364</v>
+        <v>261.8742012620678</v>
       </c>
       <c r="E138" t="n">
-        <v>0.056548867374658585</v>
+        <v>0.09209708124399185</v>
       </c>
       <c r="F138" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="139">
@@ -2543,7 +2618,7 @@
         <v>261.84218775469515</v>
       </c>
       <c r="E139" t="n">
-        <v>0.020238345488905907</v>
+        <v>0.05126715451478958</v>
       </c>
       <c r="F139" t="n">
         <v>5.0</v>
@@ -2551,159 +2626,159 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>58.0</v>
+        <v>45.0</v>
       </c>
       <c r="B140" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C140" t="n">
-        <v>0.36287596821784973</v>
+        <v>0.23733405768871307</v>
       </c>
       <c r="D140" t="n">
-        <v>261.84567371889716</v>
+        <v>261.85269539989224</v>
       </c>
       <c r="E140" t="n">
-        <v>0.14089053869247437</v>
+        <v>0.06048080697655678</v>
       </c>
       <c r="F140" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>57.0</v>
+        <v>44.0</v>
       </c>
       <c r="B141" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3482040762901306</v>
+        <v>0.18236397206783295</v>
       </c>
       <c r="D141" t="n">
-        <v>261.832411431518</v>
+        <v>261.9081444294253</v>
       </c>
       <c r="E141" t="n">
-        <v>0.03986334800720215</v>
+        <v>0.07496415823698044</v>
       </c>
       <c r="F141" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>56.0</v>
+        <v>41.0</v>
       </c>
       <c r="B142" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C142" t="n">
-        <v>0.3381813168525696</v>
+        <v>0.14967060089111328</v>
       </c>
       <c r="D142" t="n">
-        <v>261.80355109326473</v>
+        <v>261.9164291959897</v>
       </c>
       <c r="E142" t="n">
-        <v>0.07421335577964783</v>
+        <v>0.14903001487255096</v>
       </c>
       <c r="F142" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>52.0</v>
+        <v>42.0</v>
       </c>
       <c r="B143" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C143" t="n">
-        <v>0.30874869227409363</v>
+        <v>0.1655905395746231</v>
       </c>
       <c r="D143" t="n">
-        <v>261.80366879016594</v>
+        <v>261.9041240218826</v>
       </c>
       <c r="E143" t="n">
-        <v>0.06519314646720886</v>
+        <v>0.01612217165529728</v>
       </c>
       <c r="F143" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>53.0</v>
+        <v>36.0</v>
       </c>
       <c r="B144" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3125160336494446</v>
+        <v>0.2522561550140381</v>
       </c>
       <c r="D144" t="n">
-        <v>261.7925079122199</v>
+        <v>261.86063939372787</v>
       </c>
       <c r="E144" t="n">
-        <v>0.034933824092149734</v>
+        <v>0.10018965601921082</v>
       </c>
       <c r="F144" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>37.0</v>
+        <v>31.0</v>
       </c>
       <c r="B145" t="n">
         <v>4.0</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2432442307472229</v>
+        <v>0.3540160059928894</v>
       </c>
       <c r="D145" t="n">
-        <v>261.8399552608657</v>
+        <v>261.8092385280714</v>
       </c>
       <c r="E145" t="n">
-        <v>0.13241559267044067</v>
+        <v>0.10586412250995636</v>
       </c>
       <c r="F145" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>38.0</v>
+        <v>30.0</v>
       </c>
       <c r="B146" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C146" t="n">
-        <v>0.30329522490501404</v>
+        <v>0.4153652489185333</v>
       </c>
       <c r="D146" t="n">
-        <v>261.79625441958456</v>
+        <v>261.73523225362436</v>
       </c>
       <c r="E146" t="n">
-        <v>0.06180000305175781</v>
+        <v>0.10357017815113068</v>
       </c>
       <c r="F146" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="B147" t="n">
         <v>10.0</v>
       </c>
       <c r="C147" t="n">
-        <v>0.4153652489185333</v>
+        <v>0.5184463858604431</v>
       </c>
       <c r="D147" t="n">
-        <v>261.73523225362436</v>
+        <v>261.64456146410316</v>
       </c>
       <c r="E147" t="n">
-        <v>0.13967715203762054</v>
+        <v>0.11841318756341934</v>
       </c>
       <c r="F147" t="n">
         <v>6.0</v>
@@ -2711,19 +2786,19 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>18.0</v>
+        <v>29.0</v>
       </c>
       <c r="B148" t="n">
         <v>10.0</v>
       </c>
       <c r="C148" t="n">
-        <v>0.6677433252334595</v>
+        <v>0.5351018905639648</v>
       </c>
       <c r="D148" t="n">
-        <v>261.6266045710891</v>
+        <v>261.6337953543354</v>
       </c>
       <c r="E148" t="n">
-        <v>0.28386181592941284</v>
+        <v>0.01771175116300583</v>
       </c>
       <c r="F148" t="n">
         <v>6.0</v>
@@ -2731,59 +2806,59 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="B149" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="C149" t="n">
-        <v>0.6918575763702393</v>
+        <v>0.5696893930435181</v>
       </c>
       <c r="D149" t="n">
-        <v>261.55286056275264</v>
+        <v>261.62780508586667</v>
       </c>
       <c r="E149" t="n">
-        <v>0.13826385140419006</v>
+        <v>0.07342217862606049</v>
       </c>
       <c r="F149" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="B150" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="C150" t="n">
-        <v>0.6118992567062378</v>
+        <v>0.591666579246521</v>
       </c>
       <c r="D150" t="n">
-        <v>261.6216537846275</v>
+        <v>261.6143715155233</v>
       </c>
       <c r="E150" t="n">
-        <v>0.08909749239683151</v>
+        <v>0.02269146777689457</v>
       </c>
       <c r="F150" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
       <c r="B151" t="n">
         <v>10.0</v>
       </c>
       <c r="C151" t="n">
-        <v>0.591666579246521</v>
+        <v>0.6677433252334595</v>
       </c>
       <c r="D151" t="n">
-        <v>261.6143715155233</v>
+        <v>261.6266045710891</v>
       </c>
       <c r="E151" t="n">
-        <v>0.06019379198551178</v>
+        <v>0.16555650532245636</v>
       </c>
       <c r="F151" t="n">
         <v>6.0</v>
@@ -2791,430 +2866,430 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>27.0</v>
+        <v>33.0</v>
       </c>
       <c r="B152" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C152" t="n">
-        <v>0.5696893930435181</v>
+        <v>0.4025490880012512</v>
       </c>
       <c r="D152" t="n">
-        <v>261.62780508586667</v>
+        <v>261.8530329755303</v>
       </c>
       <c r="E152" t="n">
-        <v>0.02269146777689457</v>
+        <v>0.3058880567550659</v>
       </c>
       <c r="F152" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>29.0</v>
+        <v>34.0</v>
       </c>
       <c r="B153" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C153" t="n">
-        <v>0.5351018905639648</v>
+        <v>0.30666160583496094</v>
       </c>
       <c r="D153" t="n">
-        <v>261.6337953543354</v>
+        <v>261.8645538790942</v>
       </c>
       <c r="E153" t="n">
-        <v>0.07342217862606049</v>
+        <v>0.11105102300643921</v>
       </c>
       <c r="F153" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="B154" t="n">
-        <v>10.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>30</v>
       </c>
       <c r="C154" t="n">
-        <v>0.5184463858604431</v>
+        <v>0.0</v>
       </c>
       <c r="D154" t="n">
-        <v>261.64456146410316</v>
+        <v>262.025968659323</v>
       </c>
       <c r="E154" t="n">
-        <v>0.01771175116300583</v>
+        <v>0.30666160583496094</v>
       </c>
       <c r="F154" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="B155" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C155" t="n">
-        <v>0.2522561550140381</v>
-      </c>
-      <c r="D155" t="n">
-        <v>261.86063939372787</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0.28058916330337524</v>
-      </c>
-      <c r="F155" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="B156" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C156" t="n">
-        <v>0.21163465082645416</v>
-      </c>
-      <c r="D156" t="n">
-        <v>261.89989924983104</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0.050771359354257584</v>
-      </c>
-      <c r="F156" t="n">
+      <c r="A155" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="B155" s="25" t="n">
+        <f>SUM(B131:B154)</f>
+        <v>121.0</v>
+      </c>
+      <c r="E155" s="25" t="n">
+        <f>SUM(E131:E154)</f>
+        <v>2.4519264604896307</v>
+      </c>
+    </row>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159">
+      <c r="A159" t="s" s="25">
+        <v>16</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C159" t="s" s="25">
+        <v>17</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-80.046878</v>
+      </c>
+      <c r="E159" t="s" s="25">
+        <v>18</v>
+      </c>
+      <c r="F159" t="n">
+        <v>41.057835</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="25">
+        <v>19</v>
+      </c>
+      <c r="B160" t="n" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="C160" t="s" s="25">
+        <v>20</v>
+      </c>
+      <c r="D160" t="n" s="26">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="25">
+        <v>21</v>
+      </c>
+      <c r="B161" t="n" s="26">
+        <v>2.2626311779022217</v>
+      </c>
+      <c r="C161" t="s" s="25">
+        <v>22</v>
+      </c>
+      <c r="D161" t="n" s="26">
+        <v>367.0</v>
+      </c>
+      <c r="E161" t="s" s="25">
+        <v>23</v>
+      </c>
+      <c r="F161" t="n" s="26">
+        <v>2.2626311779022217</v>
+      </c>
+    </row>
+    <row r="162"/>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>24</v>
+      </c>
+      <c r="B163" t="s">
+        <v>25</v>
+      </c>
+      <c r="C163" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163" t="s">
+        <v>27</v>
+      </c>
+      <c r="E163" t="s">
+        <v>28</v>
+      </c>
+      <c r="F163" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>30</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>262.025968659323</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.18751613795757294</v>
+      </c>
+      <c r="D165" t="n">
+        <v>261.9345977905843</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.18751613795757294</v>
+      </c>
+      <c r="F165" t="n">
         <v>2.0</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B157" t="s">
-        <v>30</v>
-      </c>
-      <c r="C157" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D157" t="n">
-        <v>262.025968659323</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0.21163465082645416</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="B158" s="7" t="n">
-        <f>SUM(B135:B157)</f>
-        <v>124.0</v>
-      </c>
-      <c r="E158" s="7" t="n">
-        <f>SUM(E135:E157)</f>
-        <v>2.2626312486827374</v>
-      </c>
-    </row>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162">
-      <c r="A162" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="B162" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C162" t="s" s="7">
-        <v>17</v>
-      </c>
-      <c r="D162" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="E162" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="F162" t="n">
-        <v>41.057835</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="B163" t="n" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="C163" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="D163" t="n" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="B164" t="n" s="8">
-        <v>2.3265609741210938</v>
-      </c>
-      <c r="C164" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="D164" t="n" s="8">
-        <v>355.0</v>
-      </c>
-      <c r="E164" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="F164" t="n" s="8">
-        <v>2.3265609741210938</v>
-      </c>
-    </row>
-    <row r="165"/>
     <row r="166">
-      <c r="A166" t="s">
-        <v>24</v>
-      </c>
-      <c r="B166" t="s">
-        <v>25</v>
-      </c>
-      <c r="C166" t="s">
-        <v>26</v>
-      </c>
-      <c r="D166" t="s">
-        <v>27</v>
-      </c>
-      <c r="E166" t="s">
-        <v>28</v>
-      </c>
-      <c r="F166" t="s">
-        <v>29</v>
+      <c r="A166" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B166" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.2580117881298065</v>
+      </c>
+      <c r="D166" t="n">
+        <v>261.8742012620678</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.08110341429710388</v>
+      </c>
+      <c r="F166" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B167" t="s">
-        <v>30</v>
+        <v>51.0</v>
+      </c>
+      <c r="B167" t="n">
+        <v>3.0</v>
       </c>
       <c r="C167" t="n">
-        <v>0.0</v>
+        <v>0.25677040219306946</v>
       </c>
       <c r="D167" t="n">
-        <v>262.025968659323</v>
+        <v>261.8504227828364</v>
       </c>
       <c r="E167" t="n">
-        <v>0.0</v>
+        <v>0.056548867374658585</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="B168" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="C168" t="n">
-        <v>0.06442520767450333</v>
+        <v>0.27442097663879395</v>
       </c>
       <c r="D168" t="n">
-        <v>262.03744350084025</v>
+        <v>261.84218775469515</v>
       </c>
       <c r="E168" t="n">
-        <v>0.06442520767450333</v>
+        <v>0.020238345488905907</v>
       </c>
       <c r="F168" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>47.0</v>
+        <v>58.0</v>
       </c>
       <c r="B169" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C169" t="n">
-        <v>0.23312565684318542</v>
+        <v>0.36287596821784973</v>
       </c>
       <c r="D169" t="n">
-        <v>261.9456724917965</v>
+        <v>261.84567371889716</v>
       </c>
       <c r="E169" t="n">
-        <v>0.1881665587425232</v>
+        <v>0.14089053869247437</v>
       </c>
       <c r="F169" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>48.0</v>
+        <v>57.0</v>
       </c>
       <c r="B170" t="n">
         <v>1.0</v>
       </c>
       <c r="C170" t="n">
-        <v>0.24791058897972107</v>
+        <v>0.3482040762901306</v>
       </c>
       <c r="D170" t="n">
-        <v>261.9136333683507</v>
+        <v>261.832411431518</v>
       </c>
       <c r="E170" t="n">
-        <v>0.04215701296925545</v>
+        <v>0.03986334800720215</v>
       </c>
       <c r="F170" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>59.0</v>
+        <v>56.0</v>
       </c>
       <c r="B171" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="C171" t="n">
-        <v>0.43542152643203735</v>
+        <v>0.3381813168525696</v>
       </c>
       <c r="D171" t="n">
-        <v>261.8009810208278</v>
+        <v>261.80355109326473</v>
       </c>
       <c r="E171" t="n">
-        <v>0.1906958520412445</v>
+        <v>0.07421335577964783</v>
       </c>
       <c r="F171" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>57.0</v>
+        <v>52.0</v>
       </c>
       <c r="B172" t="n">
         <v>1.0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.3482040762901306</v>
+        <v>0.30874869227409363</v>
       </c>
       <c r="D172" t="n">
-        <v>261.832411431518</v>
+        <v>261.80366879016594</v>
       </c>
       <c r="E172" t="n">
-        <v>0.09141216427087784</v>
+        <v>0.06519314646720886</v>
       </c>
       <c r="F172" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
       <c r="B173" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="C173" t="n">
-        <v>0.27442097663879395</v>
+        <v>0.3125160336494446</v>
       </c>
       <c r="D173" t="n">
-        <v>261.84218775469515</v>
+        <v>261.7925079122199</v>
       </c>
       <c r="E173" t="n">
-        <v>0.10559060424566269</v>
+        <v>0.034933824092149734</v>
       </c>
       <c r="F173" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>49.0</v>
+        <v>37.0</v>
       </c>
       <c r="B174" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="C174" t="n">
-        <v>0.2580117881298065</v>
+        <v>0.2432442307472229</v>
       </c>
       <c r="D174" t="n">
-        <v>261.8742012620678</v>
+        <v>261.8399552608657</v>
       </c>
       <c r="E174" t="n">
-        <v>0.05126715451478958</v>
+        <v>0.13241559267044067</v>
       </c>
       <c r="F174" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
       <c r="B175" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C175" t="n">
-        <v>0.18236397206783295</v>
+        <v>0.30329522490501404</v>
       </c>
       <c r="D175" t="n">
-        <v>261.9081444294253</v>
+        <v>261.79625441958456</v>
       </c>
       <c r="E175" t="n">
-        <v>0.08032890409231186</v>
+        <v>0.06180000305175781</v>
       </c>
       <c r="F175" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>45.0</v>
+        <v>30.0</v>
       </c>
       <c r="B176" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="C176" t="n">
-        <v>0.23733405768871307</v>
+        <v>0.4153652489185333</v>
       </c>
       <c r="D176" t="n">
-        <v>261.85269539989224</v>
+        <v>261.73523225362436</v>
       </c>
       <c r="E176" t="n">
-        <v>0.07496415823698044</v>
+        <v>0.13967715203762054</v>
       </c>
       <c r="F176" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>30.0</v>
+        <v>18.0</v>
       </c>
       <c r="B177" t="n">
         <v>10.0</v>
       </c>
       <c r="C177" t="n">
-        <v>0.4153652489185333</v>
+        <v>0.6677433252334595</v>
       </c>
       <c r="D177" t="n">
-        <v>261.73523225362436</v>
+        <v>261.6266045710891</v>
       </c>
       <c r="E177" t="n">
-        <v>0.29682937264442444</v>
+        <v>0.28386181592941284</v>
       </c>
       <c r="F177" t="n">
         <v>6.0</v>
@@ -3222,59 +3297,59 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>28.0</v>
+        <v>22.0</v>
       </c>
       <c r="B178" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C178" t="n">
-        <v>0.5184463858604431</v>
+        <v>0.6918575763702393</v>
       </c>
       <c r="D178" t="n">
-        <v>261.64456146410316</v>
+        <v>261.55286056275264</v>
       </c>
       <c r="E178" t="n">
-        <v>0.11841318756341934</v>
+        <v>0.13826385140419006</v>
       </c>
       <c r="F178" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="B179" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="C179" t="n">
-        <v>0.5351018905639648</v>
+        <v>0.6118992567062378</v>
       </c>
       <c r="D179" t="n">
-        <v>261.6337953543354</v>
+        <v>261.6216537846275</v>
       </c>
       <c r="E179" t="n">
-        <v>0.01771175116300583</v>
+        <v>0.08909749239683151</v>
       </c>
       <c r="F179" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="B180" t="n">
         <v>10.0</v>
       </c>
       <c r="C180" t="n">
-        <v>0.5696893930435181</v>
+        <v>0.591666579246521</v>
       </c>
       <c r="D180" t="n">
-        <v>261.62780508586667</v>
+        <v>261.6143715155233</v>
       </c>
       <c r="E180" t="n">
-        <v>0.07342217862606049</v>
+        <v>0.06019379198551178</v>
       </c>
       <c r="F180" t="n">
         <v>6.0</v>
@@ -3282,16 +3357,16 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="B181" t="n">
         <v>10.0</v>
       </c>
       <c r="C181" t="n">
-        <v>0.591666579246521</v>
+        <v>0.5696893930435181</v>
       </c>
       <c r="D181" t="n">
-        <v>261.6143715155233</v>
+        <v>261.62780508586667</v>
       </c>
       <c r="E181" t="n">
         <v>0.02269146777689457</v>
@@ -3302,19 +3377,19 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>18.0</v>
+        <v>29.0</v>
       </c>
       <c r="B182" t="n">
         <v>10.0</v>
       </c>
       <c r="C182" t="n">
-        <v>0.6677433252334595</v>
+        <v>0.5351018905639648</v>
       </c>
       <c r="D182" t="n">
-        <v>261.6266045710891</v>
+        <v>261.6337953543354</v>
       </c>
       <c r="E182" t="n">
-        <v>0.16555650532245636</v>
+        <v>0.07342217862606049</v>
       </c>
       <c r="F182" t="n">
         <v>6.0</v>
@@ -3322,330 +3397,330 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>31.0</v>
+        <v>28.0</v>
       </c>
       <c r="B183" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="C183" t="n">
-        <v>0.3540160059928894</v>
+        <v>0.5184463858604431</v>
       </c>
       <c r="D183" t="n">
-        <v>261.8092385280714</v>
+        <v>261.64456146410316</v>
       </c>
       <c r="E183" t="n">
-        <v>0.3140507936477661</v>
+        <v>0.01771175116300583</v>
       </c>
       <c r="F183" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="B184" t="n">
         <v>1.0</v>
       </c>
       <c r="C184" t="n">
-        <v>0.30666160583496094</v>
+        <v>0.2522561550140381</v>
       </c>
       <c r="D184" t="n">
-        <v>261.8645538790942</v>
+        <v>261.86063939372787</v>
       </c>
       <c r="E184" t="n">
-        <v>0.0720045268535614</v>
+        <v>0.28058916330337524</v>
       </c>
       <c r="F184" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="B185" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C185" t="n">
-        <v>0.2522561550140381</v>
+        <v>0.21163465082645416</v>
       </c>
       <c r="D185" t="n">
-        <v>261.86063939372787</v>
+        <v>261.89989924983104</v>
       </c>
       <c r="E185" t="n">
-        <v>0.09089116007089615</v>
+        <v>0.050771359354257584</v>
       </c>
       <c r="F185" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="B186" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B186" t="s">
+        <v>30</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>262.025968659323</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.21163465082645416</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="25">
+        <v>31</v>
+      </c>
+      <c r="B187" s="25" t="n">
+        <f>SUM(B164:B186)</f>
+        <v>124.0</v>
+      </c>
+      <c r="E187" s="25" t="n">
+        <f>SUM(E164:E186)</f>
+        <v>2.2626312486827374</v>
+      </c>
+    </row>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191">
+      <c r="A191" t="s" s="25">
+        <v>16</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C191" t="s" s="25">
+        <v>17</v>
+      </c>
+      <c r="D191" t="n">
+        <v>-80.046878</v>
+      </c>
+      <c r="E191" t="s" s="25">
+        <v>18</v>
+      </c>
+      <c r="F191" t="n">
+        <v>41.057835</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="25">
+        <v>19</v>
+      </c>
+      <c r="B192" t="n" s="25">
         <v>5.0</v>
       </c>
-      <c r="C186" t="n">
-        <v>0.1655905395746231</v>
-      </c>
-      <c r="D186" t="n">
-        <v>261.9041240218826</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0.10018965601921082</v>
-      </c>
-      <c r="F186" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="B187" t="n">
+      <c r="C192" t="s" s="25">
+        <v>20</v>
+      </c>
+      <c r="D192" t="n" s="26">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="25">
+        <v>21</v>
+      </c>
+      <c r="B193" t="n" s="26">
+        <v>2.3265609741210938</v>
+      </c>
+      <c r="C193" t="s" s="25">
+        <v>22</v>
+      </c>
+      <c r="D193" t="n" s="26">
+        <v>355.0</v>
+      </c>
+      <c r="E193" t="s" s="25">
+        <v>23</v>
+      </c>
+      <c r="F193" t="n" s="26">
+        <v>2.3265609741210938</v>
+      </c>
+    </row>
+    <row r="194"/>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>24</v>
+      </c>
+      <c r="B195" t="s">
+        <v>25</v>
+      </c>
+      <c r="C195" t="s">
+        <v>26</v>
+      </c>
+      <c r="D195" t="s">
+        <v>27</v>
+      </c>
+      <c r="E195" t="s">
+        <v>28</v>
+      </c>
+      <c r="F195" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>30</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>262.025968659323</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B197" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.06442520767450333</v>
+      </c>
+      <c r="D197" t="n">
+        <v>262.03744350084025</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.06442520767450333</v>
+      </c>
+      <c r="F197" t="n">
         <v>4.0</v>
-      </c>
-      <c r="C187" t="n">
-        <v>0.14967060089111328</v>
-      </c>
-      <c r="D187" t="n">
-        <v>261.9164291959897</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0.01612217165529728</v>
-      </c>
-      <c r="F187" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B188" t="s">
-        <v>30</v>
-      </c>
-      <c r="C188" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D188" t="n">
-        <v>262.025968659323</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0.14967060089111328</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="B189" s="7" t="n">
-        <f>SUM(B167:B188)</f>
-        <v>116.0</v>
-      </c>
-      <c r="E189" s="7" t="n">
-        <f>SUM(E167:E188)</f>
-        <v>2.326560989022255</v>
-      </c>
-    </row>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193">
-      <c r="A193" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="B193" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C193" t="s" s="7">
-        <v>17</v>
-      </c>
-      <c r="D193" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="E193" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="F193" t="n">
-        <v>41.057835</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="B194" t="n" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="C194" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="D194" t="n" s="8">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="B195" t="n" s="8">
-        <v>2.242934226989746</v>
-      </c>
-      <c r="C195" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="D195" t="n" s="8">
-        <v>333.0</v>
-      </c>
-      <c r="E195" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="F195" t="n" s="8">
-        <v>2.242934226989746</v>
-      </c>
-    </row>
-    <row r="196"/>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>24</v>
-      </c>
-      <c r="B197" t="s">
-        <v>25</v>
-      </c>
-      <c r="C197" t="s">
-        <v>26</v>
-      </c>
-      <c r="D197" t="s">
-        <v>27</v>
-      </c>
-      <c r="E197" t="s">
-        <v>28</v>
-      </c>
-      <c r="F197" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B198" t="s">
-        <v>30</v>
+        <v>47.0</v>
+      </c>
+      <c r="B198" t="n">
+        <v>4.0</v>
       </c>
       <c r="C198" t="n">
-        <v>0.0</v>
+        <v>0.23312565684318542</v>
       </c>
       <c r="D198" t="n">
-        <v>262.025968659323</v>
+        <v>261.9456724917965</v>
       </c>
       <c r="E198" t="n">
-        <v>0.0</v>
+        <v>0.1881665587425232</v>
       </c>
       <c r="F198" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>36.0</v>
+        <v>48.0</v>
       </c>
       <c r="B199" t="n">
         <v>1.0</v>
       </c>
       <c r="C199" t="n">
-        <v>0.2522561550140381</v>
+        <v>0.24791058897972107</v>
       </c>
       <c r="D199" t="n">
-        <v>261.86063939372787</v>
+        <v>261.9136333683507</v>
       </c>
       <c r="E199" t="n">
-        <v>0.2522561550140381</v>
+        <v>0.04215701296925545</v>
       </c>
       <c r="F199" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>34.0</v>
+        <v>59.0</v>
       </c>
       <c r="B200" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C200" t="n">
-        <v>0.30666160583496094</v>
+        <v>0.43542152643203735</v>
       </c>
       <c r="D200" t="n">
-        <v>261.8645538790942</v>
+        <v>261.8009810208278</v>
       </c>
       <c r="E200" t="n">
-        <v>0.09089116007089615</v>
+        <v>0.1906958520412445</v>
       </c>
       <c r="F200" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>31.0</v>
+        <v>57.0</v>
       </c>
       <c r="B201" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C201" t="n">
-        <v>0.3540160059928894</v>
+        <v>0.3482040762901306</v>
       </c>
       <c r="D201" t="n">
-        <v>261.8092385280714</v>
+        <v>261.832411431518</v>
       </c>
       <c r="E201" t="n">
-        <v>0.0720045268535614</v>
+        <v>0.09141216427087784</v>
       </c>
       <c r="F201" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>33.0</v>
+        <v>50.0</v>
       </c>
       <c r="B202" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="C202" t="n">
-        <v>0.4025490880012512</v>
+        <v>0.27442097663879395</v>
       </c>
       <c r="D202" t="n">
-        <v>261.8530329755303</v>
+        <v>261.84218775469515</v>
       </c>
       <c r="E202" t="n">
-        <v>0.13123542070388794</v>
+        <v>0.10559060424566269</v>
       </c>
       <c r="F202" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>18.0</v>
+        <v>49.0</v>
       </c>
       <c r="B203" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="C203" t="n">
-        <v>0.6677433252334595</v>
+        <v>0.2580117881298065</v>
       </c>
       <c r="D203" t="n">
-        <v>261.6266045710891</v>
+        <v>261.8742012620678</v>
       </c>
       <c r="E203" t="n">
-        <v>0.3058880567550659</v>
+        <v>0.05126715451478958</v>
       </c>
       <c r="F203" t="n">
         <v>6.0</v>
@@ -3653,39 +3728,39 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>25.0</v>
+        <v>44.0</v>
       </c>
       <c r="B204" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="C204" t="n">
-        <v>0.6118992567062378</v>
+        <v>0.18236397206783295</v>
       </c>
       <c r="D204" t="n">
-        <v>261.6216537846275</v>
+        <v>261.9081444294253</v>
       </c>
       <c r="E204" t="n">
-        <v>0.10554075241088867</v>
+        <v>0.08032890409231186</v>
       </c>
       <c r="F204" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>22.0</v>
+        <v>45.0</v>
       </c>
       <c r="B205" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C205" t="n">
-        <v>0.6918575763702393</v>
+        <v>0.23733405768871307</v>
       </c>
       <c r="D205" t="n">
-        <v>261.55286056275264</v>
+        <v>261.85269539989224</v>
       </c>
       <c r="E205" t="n">
-        <v>0.08909749239683151</v>
+        <v>0.07496415823698044</v>
       </c>
       <c r="F205" t="n">
         <v>3.0</v>
@@ -3693,19 +3768,19 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>26.0</v>
+        <v>30.0</v>
       </c>
       <c r="B206" t="n">
         <v>10.0</v>
       </c>
       <c r="C206" t="n">
-        <v>0.591666579246521</v>
+        <v>0.4153652489185333</v>
       </c>
       <c r="D206" t="n">
-        <v>261.6143715155233</v>
+        <v>261.73523225362436</v>
       </c>
       <c r="E206" t="n">
-        <v>0.10250256210565567</v>
+        <v>0.29682937264442444</v>
       </c>
       <c r="F206" t="n">
         <v>6.0</v>
@@ -3713,19 +3788,19 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="B207" t="n">
         <v>10.0</v>
       </c>
       <c r="C207" t="n">
-        <v>0.5696893930435181</v>
+        <v>0.5184463858604431</v>
       </c>
       <c r="D207" t="n">
-        <v>261.62780508586667</v>
+        <v>261.64456146410316</v>
       </c>
       <c r="E207" t="n">
-        <v>0.02269146777689457</v>
+        <v>0.11841318756341934</v>
       </c>
       <c r="F207" t="n">
         <v>6.0</v>
@@ -3745,7 +3820,7 @@
         <v>261.6337953543354</v>
       </c>
       <c r="E208" t="n">
-        <v>0.07342217862606049</v>
+        <v>0.01771175116300583</v>
       </c>
       <c r="F208" t="n">
         <v>6.0</v>
@@ -3753,19 +3828,19 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="B209" t="n">
         <v>10.0</v>
       </c>
       <c r="C209" t="n">
-        <v>0.5184463858604431</v>
+        <v>0.5696893930435181</v>
       </c>
       <c r="D209" t="n">
-        <v>261.64456146410316</v>
+        <v>261.62780508586667</v>
       </c>
       <c r="E209" t="n">
-        <v>0.01771175116300583</v>
+        <v>0.07342217862606049</v>
       </c>
       <c r="F209" t="n">
         <v>6.0</v>
@@ -3773,19 +3848,19 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="B210" t="n">
         <v>10.0</v>
       </c>
       <c r="C210" t="n">
-        <v>0.4153652489185333</v>
+        <v>0.591666579246521</v>
       </c>
       <c r="D210" t="n">
-        <v>261.73523225362436</v>
+        <v>261.6143715155233</v>
       </c>
       <c r="E210" t="n">
-        <v>0.11841318756341934</v>
+        <v>0.02269146777689457</v>
       </c>
       <c r="F210" t="n">
         <v>6.0</v>
@@ -3793,99 +3868,99 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>38.0</v>
+        <v>18.0</v>
       </c>
       <c r="B211" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C211" t="n">
-        <v>0.30329522490501404</v>
+        <v>0.6677433252334595</v>
       </c>
       <c r="D211" t="n">
-        <v>261.79625441958456</v>
+        <v>261.6266045710891</v>
       </c>
       <c r="E211" t="n">
-        <v>0.13967715203762054</v>
+        <v>0.16555650532245636</v>
       </c>
       <c r="F211" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>57.0</v>
+        <v>31.0</v>
       </c>
       <c r="B212" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C212" t="n">
-        <v>0.3482040762901306</v>
+        <v>0.3540160059928894</v>
       </c>
       <c r="D212" t="n">
-        <v>261.832411431518</v>
+        <v>261.8092385280714</v>
       </c>
       <c r="E212" t="n">
-        <v>0.3071182370185852</v>
+        <v>0.3140507936477661</v>
       </c>
       <c r="F212" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>49.0</v>
+        <v>34.0</v>
       </c>
       <c r="B213" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C213" t="n">
-        <v>0.2580117881298065</v>
+        <v>0.30666160583496094</v>
       </c>
       <c r="D213" t="n">
-        <v>261.8742012620678</v>
+        <v>261.8645538790942</v>
       </c>
       <c r="E213" t="n">
-        <v>0.09209708124399185</v>
+        <v>0.0720045268535614</v>
       </c>
       <c r="F213" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>44.0</v>
+        <v>36.0</v>
       </c>
       <c r="B214" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C214" t="n">
-        <v>0.18236397206783295</v>
+        <v>0.2522561550140381</v>
       </c>
       <c r="D214" t="n">
-        <v>261.9081444294253</v>
+        <v>261.86063939372787</v>
       </c>
       <c r="E214" t="n">
-        <v>0.08032890409231186</v>
+        <v>0.09089116007089615</v>
       </c>
       <c r="F214" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
       <c r="B215" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C215" t="n">
-        <v>0.0799688771367073</v>
+        <v>0.1655905395746231</v>
       </c>
       <c r="D215" t="n">
-        <v>262.02842904452655</v>
+        <v>261.9041240218826</v>
       </c>
       <c r="E215" t="n">
-        <v>0.15684577822685242</v>
+        <v>0.10018965601921082</v>
       </c>
       <c r="F215" t="n">
         <v>3.0</v>
@@ -3893,22 +3968,22 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="B216" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C216" t="n">
-        <v>0.06442520767450333</v>
+        <v>0.14967060089111328</v>
       </c>
       <c r="D216" t="n">
-        <v>262.03744350084025</v>
+        <v>261.9164291959897</v>
       </c>
       <c r="E216" t="n">
-        <v>0.020786987617611885</v>
+        <v>0.01612217165529728</v>
       </c>
       <c r="F216" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="217">
@@ -3925,23 +4000,23 @@
         <v>262.025968659323</v>
       </c>
       <c r="E217" t="n">
-        <v>0.06442520767450333</v>
+        <v>0.14967060089111328</v>
       </c>
       <c r="F217" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="7">
+      <c r="A218" t="s" s="25">
         <v>31</v>
       </c>
-      <c r="B218" s="7" t="n">
-        <f>SUM(B198:B217)</f>
-        <v>103.0</v>
-      </c>
-      <c r="E218" s="7" t="n">
-        <f>SUM(E198:E217)</f>
-        <v>2.2429340593516827</v>
+      <c r="B218" s="25" t="n">
+        <f>SUM(B196:B217)</f>
+        <v>116.0</v>
+      </c>
+      <c r="E218" s="25" t="n">
+        <f>SUM(E196:E217)</f>
+        <v>2.326560989022255</v>
       </c>
     </row>
   </sheetData>

--- a/data/TR/results/All_Long_Solutions.xlsx
+++ b/data/TR/results/All_Long_Solutions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="32">
   <si>
     <t>Filename</t>
   </si>
@@ -23,7 +23,7 @@
     <t>Selection Type</t>
   </si>
   <si>
-    <t>TRClosestDistanceToDepot</t>
+    <t>TRChooseByHighestDemand</t>
   </si>
   <si>
     <t>Insertion Type</t>
@@ -109,130 +109,19 @@
   <si>
     <t>Summation</t>
   </si>
-  <si>
-    <t>TRSmallestAngleClosestDistanceToDepot</t>
-  </si>
-  <si>
-    <t>TRSmallestAngleToDepot</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="25">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -290,83 +179,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -384,16 +203,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.54296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.2890625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.90625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.7734375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.31640625" collapsed="true"/>
+    <col min="1" max="1" width="15.0" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.4140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.39453125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="16.9140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.796875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.8125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="45">
+      <c r="A1" t="s" s="3">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -401,15 +220,15 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="45">
+      <c r="A2" t="s" s="3">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="45">
+      <c r="A3" t="s" s="3">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -417,7 +236,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="45">
+      <c r="A4" t="s" s="3">
         <v>6</v>
       </c>
       <c r="B4" t="n">
@@ -425,7 +244,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="45">
+      <c r="A5" t="s" s="3">
         <v>7</v>
       </c>
       <c r="B5" t="n">
@@ -436,7 +255,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="45">
+      <c r="A6" t="s" s="3">
         <v>9</v>
       </c>
       <c r="B6" t="n">
@@ -459,17 +278,17 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>2037.0</v>
+        <v>2039.0</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="43">
+      <c r="A9" t="s" s="1">
         <v>14</v>
       </c>
-      <c r="B9" t="s" s="43">
+      <c r="B9" t="s" s="1">
         <v>15</v>
       </c>
     </row>
@@ -478,19 +297,19 @@
     <row r="12"/>
     <row r="13"/>
     <row r="14">
-      <c r="A14" t="s" s="43">
+      <c r="A14" t="s" s="1">
         <v>16</v>
       </c>
       <c r="B14" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C14" t="s" s="43">
+      <c r="C14" t="s" s="1">
         <v>17</v>
       </c>
       <c r="D14" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E14" t="s" s="43">
+      <c r="E14" t="s" s="1">
         <v>18</v>
       </c>
       <c r="F14" t="n">
@@ -498,37 +317,37 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="43">
+      <c r="A15" t="s" s="1">
         <v>19</v>
       </c>
-      <c r="B15" t="n" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="C15" t="s" s="43">
+      <c r="B15" t="n" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" t="s" s="1">
         <v>20</v>
       </c>
-      <c r="D15" t="n" s="44">
+      <c r="D15" t="n" s="2">
         <v>-1.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="43">
+      <c r="A16" t="s" s="1">
         <v>21</v>
       </c>
-      <c r="B16" t="n" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="C16" t="s" s="43">
+      <c r="B16" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C16" t="s" s="1">
         <v>22</v>
       </c>
-      <c r="D16" t="n" s="44">
-        <v>341.0</v>
-      </c>
-      <c r="E16" t="s" s="43">
+      <c r="D16" t="n" s="2">
+        <v>339.0</v>
+      </c>
+      <c r="E16" t="s" s="1">
         <v>23</v>
       </c>
-      <c r="F16" t="n" s="44">
-        <v>2.3344414234161377</v>
+      <c r="F16" t="n" s="2">
+        <v>2.2315924167633057</v>
       </c>
     </row>
     <row r="17"/>
@@ -574,79 +393,79 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3026241064071655</v>
+        <v>0.2426886260509491</v>
       </c>
       <c r="D20" t="n">
-        <v>261.79625441958456</v>
+        <v>261.8399552608657</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3026241064071655</v>
+        <v>0.2426886260509491</v>
       </c>
       <c r="F20" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="B21" t="n">
         <v>1.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2519305646419525</v>
+        <v>0.3026241064071655</v>
       </c>
       <c r="D21" t="n">
-        <v>261.86063939372787</v>
+        <v>261.79625441958456</v>
       </c>
       <c r="E21" t="n">
-        <v>0.11030811071395874</v>
+        <v>0.06169239059090614</v>
       </c>
       <c r="F21" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="B22" t="n">
         <v>1.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.30656468868255615</v>
+        <v>0.2519305646419525</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8645538790942</v>
+        <v>261.86063939372787</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09102213382720947</v>
+        <v>0.11030811071395874</v>
       </c>
       <c r="F22" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>31.0</v>
+        <v>34.0</v>
       </c>
       <c r="B23" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3536830246448517</v>
+        <v>0.30656468868255615</v>
       </c>
       <c r="D23" t="n">
-        <v>261.8092385280714</v>
+        <v>261.8645538790942</v>
       </c>
       <c r="E23" t="n">
-        <v>0.07183761149644852</v>
+        <v>0.09102213382720947</v>
       </c>
       <c r="F23" t="n">
         <v>4.0</v>
@@ -654,39 +473,39 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="B24" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4146687090396881</v>
+        <v>0.3536830246448517</v>
       </c>
       <c r="D24" t="n">
-        <v>261.73523225362436</v>
+        <v>261.8092385280714</v>
       </c>
       <c r="E24" t="n">
-        <v>0.10338285565376282</v>
+        <v>0.07183761149644852</v>
       </c>
       <c r="F24" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>18.0</v>
+        <v>30.0</v>
       </c>
       <c r="B25" t="n">
         <v>10.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6671884059906006</v>
+        <v>0.4146687090396881</v>
       </c>
       <c r="D25" t="n">
-        <v>261.6266045710891</v>
+        <v>261.73523225362436</v>
       </c>
       <c r="E25" t="n">
-        <v>0.28400903940200806</v>
+        <v>0.10338285565376282</v>
       </c>
       <c r="F25" t="n">
         <v>6.0</v>
@@ -694,59 +513,59 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
       <c r="B26" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6907963752746582</v>
+        <v>0.6671884059906006</v>
       </c>
       <c r="D26" t="n">
-        <v>261.55286056275264</v>
+        <v>261.6266045710891</v>
       </c>
       <c r="E26" t="n">
-        <v>0.13821372389793396</v>
+        <v>0.28400903940200806</v>
       </c>
       <c r="F26" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="B27" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5906972289085388</v>
+        <v>0.6110820770263672</v>
       </c>
       <c r="D27" t="n">
-        <v>261.6143715155233</v>
+        <v>261.6216537846275</v>
       </c>
       <c r="E27" t="n">
-        <v>0.10241585969924927</v>
+        <v>0.10569263249635696</v>
       </c>
       <c r="F27" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="B28" t="n">
         <v>10.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5687394738197327</v>
+        <v>0.5906972289085388</v>
       </c>
       <c r="D28" t="n">
-        <v>261.62780508586667</v>
+        <v>261.6143715155233</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02267366833984852</v>
+        <v>0.060275640338659286</v>
       </c>
       <c r="F28" t="n">
         <v>6.0</v>
@@ -754,19 +573,19 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="B29" t="n">
         <v>10.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5340430736541748</v>
+        <v>0.5687394738197327</v>
       </c>
       <c r="D29" t="n">
-        <v>261.6337953543354</v>
+        <v>261.62780508586667</v>
       </c>
       <c r="E29" t="n">
-        <v>0.07352574914693832</v>
+        <v>0.02267366833984852</v>
       </c>
       <c r="F29" t="n">
         <v>6.0</v>
@@ -774,19 +593,19 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="B30" t="n">
         <v>10.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5174069404602051</v>
+        <v>0.5340430736541748</v>
       </c>
       <c r="D30" t="n">
-        <v>261.64456146410316</v>
+        <v>261.6337953543354</v>
       </c>
       <c r="E30" t="n">
-        <v>0.017695704475045204</v>
+        <v>0.07352574914693832</v>
       </c>
       <c r="F30" t="n">
         <v>6.0</v>
@@ -794,330 +613,330 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>52.0</v>
+        <v>28.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3081746995449066</v>
+        <v>0.5174069404602051</v>
       </c>
       <c r="D31" t="n">
-        <v>261.80366879016594</v>
+        <v>261.64456146410316</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3416629135608673</v>
+        <v>0.017695704475045204</v>
       </c>
       <c r="F31" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="B32" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3377383351325989</v>
+        <v>0.348022997379303</v>
       </c>
       <c r="D32" t="n">
-        <v>261.80355109326473</v>
+        <v>261.832411431518</v>
       </c>
       <c r="E32" t="n">
-        <v>0.06528786569833755</v>
+        <v>0.4699651598930359</v>
       </c>
       <c r="F32" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.348022997379303</v>
+        <v>0.36283132433891296</v>
       </c>
       <c r="D33" t="n">
-        <v>261.832411431518</v>
+        <v>261.84567371889716</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07424956560134888</v>
+        <v>0.03989310935139656</v>
       </c>
       <c r="F33" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>50.0</v>
+        <v>49.0</v>
       </c>
       <c r="B34" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.27403348684310913</v>
+        <v>0.2578165829181671</v>
       </c>
       <c r="D34" t="n">
-        <v>261.84218775469515</v>
+        <v>261.8742012620678</v>
       </c>
       <c r="E34" t="n">
-        <v>0.10573823750019073</v>
+        <v>0.11668367683887482</v>
       </c>
       <c r="F34" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>49.0</v>
+        <v>44.0</v>
       </c>
       <c r="B35" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2578165829181671</v>
+        <v>0.1821426898241043</v>
       </c>
       <c r="D35" t="n">
-        <v>261.8742012620678</v>
+        <v>261.9081444294253</v>
       </c>
       <c r="E35" t="n">
-        <v>0.051213979721069336</v>
+        <v>0.08035407960414886</v>
       </c>
       <c r="F35" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="B36" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1875043511390686</v>
+      </c>
+      <c r="D36" t="n">
+        <v>261.9345977905843</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.056826360523700714</v>
+      </c>
+      <c r="F36" t="n">
         <v>2.0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.1821426898241043</v>
-      </c>
-      <c r="D36" t="n">
-        <v>261.9081444294253</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.08035407960414886</v>
-      </c>
-      <c r="F36" t="n">
-        <v>4.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>46.0</v>
+        <v>39.0</v>
       </c>
       <c r="B37" t="n">
         <v>4.0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1875043511390686</v>
+        <v>0.08008456230163574</v>
       </c>
       <c r="D37" t="n">
-        <v>261.9345977905843</v>
+        <v>262.02842904452655</v>
       </c>
       <c r="E37" t="n">
-        <v>0.056826360523700714</v>
+        <v>0.13776752352714539</v>
       </c>
       <c r="F37" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="B38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.06450575590133667</v>
+      </c>
+      <c r="D38" t="n">
+        <v>262.03744350084025</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.02079223468899727</v>
+      </c>
+      <c r="F38" t="n">
         <v>4.0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.08008456230163574</v>
-      </c>
-      <c r="D38" t="n">
-        <v>262.02842904452655</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.13776752352714539</v>
-      </c>
-      <c r="F38" t="n">
-        <v>3.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B39" t="n">
-        <v>2.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
       </c>
       <c r="C39" t="n">
-        <v>0.046615663915872574</v>
+        <v>0.0</v>
       </c>
       <c r="D39" t="n">
-        <v>262.001731797022</v>
+        <v>262.025968659323</v>
       </c>
       <c r="E39" t="n">
-        <v>0.05701681599020958</v>
+        <v>0.06450575590133667</v>
       </c>
       <c r="F39" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>262.025968659323</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.046615663915872574</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="43">
+      <c r="A40" t="s" s="1">
         <v>31</v>
       </c>
-      <c r="B41" s="43" t="n">
-        <f>SUM(B19:B40)</f>
-        <v>109.0</v>
-      </c>
-      <c r="E41" s="43" t="n">
-        <f>SUM(E19:E40)</f>
-        <v>2.3344415687024593</v>
-      </c>
-    </row>
+      <c r="B40" s="1" t="n">
+        <f>SUM(B19:B39)</f>
+        <v>108.0</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <f>SUM(E19:E39)</f>
+        <v>2.2315920628607273</v>
+      </c>
+    </row>
+    <row r="41"/>
     <row r="42"/>
     <row r="43"/>
-    <row r="44"/>
+    <row r="44">
+      <c r="A44" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C44" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-80.046878</v>
+      </c>
+      <c r="E44" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="F44" t="n">
+        <v>41.057835</v>
+      </c>
+    </row>
     <row r="45">
-      <c r="A45" t="s" s="43">
-        <v>16</v>
-      </c>
-      <c r="B45" t="n">
+      <c r="A45" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="B45" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C45" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="D45" t="n" s="2">
         <v>-1.0</v>
       </c>
-      <c r="C45" t="s" s="43">
-        <v>17</v>
-      </c>
-      <c r="D45" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="E45" t="s" s="43">
-        <v>18</v>
-      </c>
-      <c r="F45" t="n">
-        <v>41.057835</v>
-      </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="43">
-        <v>19</v>
-      </c>
-      <c r="B46" t="n" s="43">
-        <v>1.0</v>
-      </c>
-      <c r="C46" t="s" s="43">
-        <v>20</v>
-      </c>
-      <c r="D46" t="n" s="44">
+      <c r="A46" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B46" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C46" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="D46" t="n" s="2">
+        <v>343.0</v>
+      </c>
+      <c r="E46" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="F46" t="n" s="2">
+        <v>2.345822334289551</v>
+      </c>
+    </row>
+    <row r="47"/>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
         <v>-1.0</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="43">
-        <v>21</v>
-      </c>
-      <c r="B47" t="n" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="C47" t="s" s="43">
-        <v>22</v>
-      </c>
-      <c r="D47" t="n" s="44">
-        <v>328.0</v>
-      </c>
-      <c r="E47" t="s" s="43">
-        <v>23</v>
-      </c>
-      <c r="F47" t="n" s="44">
-        <v>2.544760227203369</v>
-      </c>
-    </row>
-    <row r="48"/>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>24</v>
-      </c>
       <c r="B49" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>262.025968659323</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>30</v>
+        <v>36.0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1.0</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0</v>
+        <v>0.2519305646419525</v>
       </c>
       <c r="D50" t="n">
-        <v>262.025968659323</v>
+        <v>261.86063939372787</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0</v>
+        <v>0.2519305646419525</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.06450575590133667</v>
+        <v>0.30656468868255615</v>
       </c>
       <c r="D51" t="n">
-        <v>262.03744350084025</v>
+        <v>261.8645538790942</v>
       </c>
       <c r="E51" t="n">
-        <v>0.06450575590133667</v>
+        <v>0.09102213382720947</v>
       </c>
       <c r="F51" t="n">
         <v>4.0</v>
@@ -1125,59 +944,59 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>58.0</v>
+        <v>33.0</v>
       </c>
       <c r="B52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.40265974402427673</v>
+      </c>
+      <c r="D52" t="n">
+        <v>261.8530329755303</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.11120473593473434</v>
+      </c>
+      <c r="F52" t="n">
         <v>3.0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.36283132433891296</v>
-      </c>
-      <c r="D52" t="n">
-        <v>261.84567371889716</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.32820945978164673</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>57.0</v>
+        <v>31.0</v>
       </c>
       <c r="B53" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.348022997379303</v>
+        <v>0.3536830246448517</v>
       </c>
       <c r="D53" t="n">
-        <v>261.832411431518</v>
+        <v>261.8092385280714</v>
       </c>
       <c r="E53" t="n">
-        <v>0.03989310935139656</v>
+        <v>0.13133284449577332</v>
       </c>
       <c r="F53" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>49.0</v>
+        <v>30.0</v>
       </c>
       <c r="B54" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2578165829181671</v>
+        <v>0.4146687090396881</v>
       </c>
       <c r="D54" t="n">
-        <v>261.8742012620678</v>
+        <v>261.73523225362436</v>
       </c>
       <c r="E54" t="n">
-        <v>0.09210985898971558</v>
+        <v>0.10338285565376282</v>
       </c>
       <c r="F54" t="n">
         <v>6.0</v>
@@ -1185,79 +1004,79 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>51.0</v>
+        <v>18.0</v>
       </c>
       <c r="B55" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.25637680292129517</v>
+        <v>0.6671884059906006</v>
       </c>
       <c r="D55" t="n">
-        <v>261.8504227828364</v>
+        <v>261.6266045710891</v>
       </c>
       <c r="E55" t="n">
-        <v>0.05656721442937851</v>
+        <v>0.28400903940200806</v>
       </c>
       <c r="F55" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>53.0</v>
+        <v>19.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3118557035923004</v>
+        <v>0.7732853293418884</v>
       </c>
       <c r="D56" t="n">
-        <v>261.7925079122199</v>
+        <v>261.5087901924117</v>
       </c>
       <c r="E56" t="n">
-        <v>0.08435065299272537</v>
+        <v>0.15548588335514069</v>
       </c>
       <c r="F56" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>30.0</v>
+        <v>22.0</v>
       </c>
       <c r="B57" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4146687090396881</v>
+        <v>0.6907963752746582</v>
       </c>
       <c r="D57" t="n">
-        <v>261.73523225362436</v>
+        <v>261.55286056275264</v>
       </c>
       <c r="E57" t="n">
-        <v>0.26838263869285583</v>
+        <v>0.08814916014671326</v>
       </c>
       <c r="F57" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="B58" t="n">
         <v>10.0</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5174069404602051</v>
+        <v>0.5906972289085388</v>
       </c>
       <c r="D58" t="n">
-        <v>261.64456146410316</v>
+        <v>261.6143715155233</v>
       </c>
       <c r="E58" t="n">
-        <v>0.11814165860414505</v>
+        <v>0.10241585969924927</v>
       </c>
       <c r="F58" t="n">
         <v>6.0</v>
@@ -1265,19 +1084,19 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="B59" t="n">
         <v>10.0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5340430736541748</v>
+        <v>0.5687394738197327</v>
       </c>
       <c r="D59" t="n">
-        <v>261.6337953543354</v>
+        <v>261.62780508586667</v>
       </c>
       <c r="E59" t="n">
-        <v>0.017695704475045204</v>
+        <v>0.02267366833984852</v>
       </c>
       <c r="F59" t="n">
         <v>6.0</v>
@@ -1285,16 +1104,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="B60" t="n">
         <v>10.0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5687394738197327</v>
+        <v>0.5340430736541748</v>
       </c>
       <c r="D60" t="n">
-        <v>261.62780508586667</v>
+        <v>261.6337953543354</v>
       </c>
       <c r="E60" t="n">
         <v>0.07352574914693832</v>
@@ -1305,19 +1124,19 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="B61" t="n">
         <v>10.0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5906972289085388</v>
+        <v>0.5174069404602051</v>
       </c>
       <c r="D61" t="n">
-        <v>261.6143715155233</v>
+        <v>261.64456146410316</v>
       </c>
       <c r="E61" t="n">
-        <v>0.02267366833984852</v>
+        <v>0.017695704475045204</v>
       </c>
       <c r="F61" t="n">
         <v>6.0</v>
@@ -1325,99 +1144,99 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>25.0</v>
+        <v>53.0</v>
       </c>
       <c r="B62" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6110820770263672</v>
+        <v>0.3118557035923004</v>
       </c>
       <c r="D62" t="n">
-        <v>261.6216537846275</v>
+        <v>261.7925079122199</v>
       </c>
       <c r="E62" t="n">
-        <v>0.060275640338659286</v>
+        <v>0.30763816833496094</v>
       </c>
       <c r="F62" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>18.0</v>
+        <v>50.0</v>
       </c>
       <c r="B63" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6671884059906006</v>
+        <v>0.27403348684310913</v>
       </c>
       <c r="D63" t="n">
-        <v>261.6266045710891</v>
+        <v>261.84218775469515</v>
       </c>
       <c r="E63" t="n">
-        <v>0.10569263249635696</v>
+        <v>0.08537149429321289</v>
       </c>
       <c r="F63" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>11.0</v>
+        <v>57.0</v>
       </c>
       <c r="B64" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.796554446220398</v>
+        <v>0.348022997379303</v>
       </c>
       <c r="D64" t="n">
-        <v>261.74558639022837</v>
+        <v>261.832411431518</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3243020176887512</v>
+        <v>0.10573823750019073</v>
       </c>
       <c r="F64" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>33.0</v>
+        <v>49.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="C65" t="n">
-        <v>0.40265974402427673</v>
+        <v>0.2578165829181671</v>
       </c>
       <c r="D65" t="n">
-        <v>261.8530329755303</v>
+        <v>261.8742012620678</v>
       </c>
       <c r="E65" t="n">
-        <v>0.39931246638298035</v>
+        <v>0.09210985898971558</v>
       </c>
       <c r="F65" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>31.0</v>
+        <v>44.0</v>
       </c>
       <c r="B66" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3536830246448517</v>
+        <v>0.1821426898241043</v>
       </c>
       <c r="D66" t="n">
-        <v>261.8092385280714</v>
+        <v>261.9081444294253</v>
       </c>
       <c r="E66" t="n">
-        <v>0.13133284449577332</v>
+        <v>0.08035407960414886</v>
       </c>
       <c r="F66" t="n">
         <v>4.0</v>
@@ -1425,173 +1244,173 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>36.0</v>
+        <v>39.0</v>
       </c>
       <c r="B67" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2519305646419525</v>
+        <v>0.08008456230163574</v>
       </c>
       <c r="D67" t="n">
-        <v>261.86063939372787</v>
+        <v>262.02842904452655</v>
       </c>
       <c r="E67" t="n">
-        <v>0.10585863888263702</v>
+        <v>0.15648414194583893</v>
       </c>
       <c r="F67" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.06450575590133667</v>
+      </c>
+      <c r="D68" t="n">
+        <v>262.03744350084025</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.02079223468899727</v>
+      </c>
+      <c r="F68" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
         <v>-1.0</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>30</v>
       </c>
-      <c r="C68" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D68" t="n">
+      <c r="C69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D69" t="n">
         <v>262.025968659323</v>
       </c>
-      <c r="E68" t="n">
-        <v>0.2519305646419525</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="43">
+      <c r="E69" t="n">
+        <v>0.06450575590133667</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="1">
         <v>31</v>
       </c>
-      <c r="B69" s="43" t="n">
-        <f>SUM(B50:B68)</f>
-        <v>102.0</v>
-      </c>
-      <c r="E69" s="43" t="n">
-        <f>SUM(E50:E68)</f>
-        <v>2.544760275632143</v>
-      </c>
-    </row>
-    <row r="70"/>
+      <c r="B70" s="1" t="n">
+        <f>SUM(B49:B69)</f>
+        <v>108.0</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <f>SUM(E49:E69)</f>
+        <v>2.3458221703767776</v>
+      </c>
+    </row>
     <row r="71"/>
     <row r="72"/>
-    <row r="73">
-      <c r="A73" t="s" s="43">
+    <row r="73"/>
+    <row r="74">
+      <c r="A74" t="s" s="1">
         <v>16</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B74" t="n">
         <v>-1.0</v>
       </c>
-      <c r="C73" t="s" s="43">
+      <c r="C74" t="s" s="1">
         <v>17</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D74" t="n">
         <v>-80.046878</v>
       </c>
-      <c r="E73" t="s" s="43">
+      <c r="E74" t="s" s="1">
         <v>18</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F74" t="n">
         <v>41.057835</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="s" s="43">
+    <row r="75">
+      <c r="A75" t="s" s="1">
         <v>19</v>
       </c>
-      <c r="B74" t="n" s="43">
+      <c r="B75" t="n" s="1">
         <v>2.0</v>
       </c>
-      <c r="C74" t="s" s="43">
+      <c r="C75" t="s" s="1">
         <v>20</v>
       </c>
-      <c r="D74" t="n" s="44">
+      <c r="D75" t="n" s="2">
         <v>-1.0</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="s" s="43">
+    <row r="76">
+      <c r="A76" t="s" s="1">
         <v>21</v>
       </c>
-      <c r="B75" t="n" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="C75" t="s" s="43">
+      <c r="B76" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C76" t="s" s="1">
         <v>22</v>
       </c>
-      <c r="D75" t="n" s="44">
-        <v>348.0</v>
-      </c>
-      <c r="E75" t="s" s="43">
+      <c r="D76" t="n" s="2">
+        <v>337.0</v>
+      </c>
+      <c r="E76" t="s" s="1">
         <v>23</v>
       </c>
-      <c r="F75" t="n" s="44">
-        <v>2.444021701812744</v>
-      </c>
-    </row>
-    <row r="76"/>
-    <row r="77">
-      <c r="A77" t="s">
+      <c r="F76" t="n" s="2">
+        <v>2.624532699584961</v>
+      </c>
+    </row>
+    <row r="77"/>
+    <row r="78">
+      <c r="A78" t="s">
         <v>24</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>25</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>26</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" t="s">
         <v>27</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E78" t="s">
         <v>28</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F78" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B78" t="s">
-        <v>30</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>262.025968659323</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="B79" t="n">
-        <v>4.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>30</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2426886260509491</v>
+        <v>0.0</v>
       </c>
       <c r="D79" t="n">
-        <v>261.8399552608657</v>
+        <v>262.025968659323</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2426886260509491</v>
+        <v>0.0</v>
       </c>
       <c r="F79" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -1608,7 +1427,7 @@
         <v>261.86063939372787</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1012500673532486</v>
+        <v>0.2519305646419525</v>
       </c>
       <c r="F80" t="n">
         <v>6.0</v>
@@ -1636,42 +1455,42 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>34.0</v>
+        <v>30.0</v>
       </c>
       <c r="B82" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C82" t="n">
-        <v>0.30656468868255615</v>
+        <v>0.4146687090396881</v>
       </c>
       <c r="D82" t="n">
-        <v>261.8645538790942</v>
+        <v>261.73523225362436</v>
       </c>
       <c r="E82" t="n">
-        <v>0.07183761149644852</v>
+        <v>0.10338285565376282</v>
       </c>
       <c r="F82" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>33.0</v>
+        <v>11.0</v>
       </c>
       <c r="B83" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.796554446220398</v>
+      </c>
+      <c r="D83" t="n">
+        <v>261.74558639022837</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.5329053997993469</v>
+      </c>
+      <c r="F83" t="n">
         <v>1.0</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.40265974402427673</v>
-      </c>
-      <c r="D83" t="n">
-        <v>261.8530329755303</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.11120473593473434</v>
-      </c>
-      <c r="F83" t="n">
-        <v>3.0</v>
       </c>
     </row>
     <row r="84">
@@ -1688,7 +1507,7 @@
         <v>261.6266045710891</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3052617013454437</v>
+        <v>0.3243020176887512</v>
       </c>
       <c r="F84" t="n">
         <v>6.0</v>
@@ -1696,59 +1515,59 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="B85" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7732853293418884</v>
+        <v>0.6110820770263672</v>
       </c>
       <c r="D85" t="n">
-        <v>261.5087901924117</v>
+        <v>261.6216537846275</v>
       </c>
       <c r="E85" t="n">
-        <v>0.15548588335514069</v>
+        <v>0.10569263249635696</v>
       </c>
       <c r="F85" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="B86" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6907963752746582</v>
+        <v>0.5906972289085388</v>
       </c>
       <c r="D86" t="n">
-        <v>261.55286056275264</v>
+        <v>261.6143715155233</v>
       </c>
       <c r="E86" t="n">
-        <v>0.08814916014671326</v>
+        <v>0.060275640338659286</v>
       </c>
       <c r="F86" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="B87" t="n">
         <v>10.0</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5906972289085388</v>
+        <v>0.5687394738197327</v>
       </c>
       <c r="D87" t="n">
-        <v>261.6143715155233</v>
+        <v>261.62780508586667</v>
       </c>
       <c r="E87" t="n">
-        <v>0.10241585969924927</v>
+        <v>0.02267366833984852</v>
       </c>
       <c r="F87" t="n">
         <v>6.0</v>
@@ -1756,19 +1575,19 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="B88" t="n">
         <v>10.0</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5687394738197327</v>
+        <v>0.5340430736541748</v>
       </c>
       <c r="D88" t="n">
-        <v>261.62780508586667</v>
+        <v>261.6337953543354</v>
       </c>
       <c r="E88" t="n">
-        <v>0.02267366833984852</v>
+        <v>0.07352574914693832</v>
       </c>
       <c r="F88" t="n">
         <v>6.0</v>
@@ -1776,19 +1595,19 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="B89" t="n">
         <v>10.0</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5340430736541748</v>
+        <v>0.5174069404602051</v>
       </c>
       <c r="D89" t="n">
-        <v>261.6337953543354</v>
+        <v>261.64456146410316</v>
       </c>
       <c r="E89" t="n">
-        <v>0.07352574914693832</v>
+        <v>0.017695704475045204</v>
       </c>
       <c r="F89" t="n">
         <v>6.0</v>
@@ -1796,370 +1615,370 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>28.0</v>
+        <v>38.0</v>
       </c>
       <c r="B90" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5174069404602051</v>
+        <v>0.3026241064071655</v>
       </c>
       <c r="D90" t="n">
-        <v>261.64456146410316</v>
+        <v>261.79625441958456</v>
       </c>
       <c r="E90" t="n">
-        <v>0.017695704475045204</v>
+        <v>0.21915453672409058</v>
       </c>
       <c r="F90" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>30.0</v>
+        <v>56.0</v>
       </c>
       <c r="B91" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4146687090396881</v>
+        <v>0.3377383351325989</v>
       </c>
       <c r="D91" t="n">
-        <v>261.73523225362436</v>
+        <v>261.80355109326473</v>
       </c>
       <c r="E91" t="n">
-        <v>0.11814165860414505</v>
+        <v>0.23992082476615906</v>
       </c>
       <c r="F91" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>38.0</v>
+        <v>57.0</v>
       </c>
       <c r="B92" t="n">
         <v>1.0</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3026241064071655</v>
+        <v>0.348022997379303</v>
       </c>
       <c r="D92" t="n">
-        <v>261.79625441958456</v>
+        <v>261.832411431518</v>
       </c>
       <c r="E92" t="n">
-        <v>0.1397099643945694</v>
+        <v>0.07424956560134888</v>
       </c>
       <c r="F92" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>52.0</v>
+        <v>50.0</v>
       </c>
       <c r="B93" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3081746995449066</v>
+        <v>0.27403348684310913</v>
       </c>
       <c r="D93" t="n">
-        <v>261.80366879016594</v>
+        <v>261.84218775469515</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1747104823589325</v>
+        <v>0.10573823750019073</v>
       </c>
       <c r="F93" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>56.0</v>
+        <v>49.0</v>
       </c>
       <c r="B94" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3377383351325989</v>
+        <v>0.2578165829181671</v>
       </c>
       <c r="D94" t="n">
-        <v>261.80355109326473</v>
+        <v>261.8742012620678</v>
       </c>
       <c r="E94" t="n">
-        <v>0.06528786569833755</v>
+        <v>0.051213979721069336</v>
       </c>
       <c r="F94" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>57.0</v>
+        <v>44.0</v>
       </c>
       <c r="B95" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C95" t="n">
-        <v>0.348022997379303</v>
+        <v>0.1821426898241043</v>
       </c>
       <c r="D95" t="n">
-        <v>261.832411431518</v>
+        <v>261.9081444294253</v>
       </c>
       <c r="E95" t="n">
-        <v>0.07424956560134888</v>
+        <v>0.08035407960414886</v>
       </c>
       <c r="F95" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>50.0</v>
+        <v>46.0</v>
       </c>
       <c r="B96" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="C96" t="n">
-        <v>0.27403348684310913</v>
+        <v>0.1875043511390686</v>
       </c>
       <c r="D96" t="n">
-        <v>261.84218775469515</v>
+        <v>261.9345977905843</v>
       </c>
       <c r="E96" t="n">
-        <v>0.10573823750019073</v>
+        <v>0.056826360523700714</v>
       </c>
       <c r="F96" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>49.0</v>
+        <v>5.0</v>
       </c>
       <c r="B97" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2578165829181671</v>
+        <v>0.037232376635074615</v>
       </c>
       <c r="D97" t="n">
-        <v>261.8742012620678</v>
+        <v>262.0273419598029</v>
       </c>
       <c r="E97" t="n">
-        <v>0.051213979721069336</v>
+        <v>0.16160012781620026</v>
       </c>
       <c r="F97" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="B98" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>262.025968659323</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.037232376635074615</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <f>SUM(B79:B98)</f>
+        <v>108.0</v>
+      </c>
+      <c r="E99" s="1" t="n">
+        <f>SUM(E79:E98)</f>
+        <v>2.624532960355282</v>
+      </c>
+    </row>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103">
+      <c r="A103" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C103" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-80.046878</v>
+      </c>
+      <c r="E103" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="F103" t="n">
+        <v>41.057835</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="B104" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C104" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="D104" t="n" s="2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B105" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C105" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="D105" t="n" s="2">
+        <v>338.0</v>
+      </c>
+      <c r="E105" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="F105" t="n" s="2">
+        <v>2.120365858078003</v>
+      </c>
+    </row>
+    <row r="106"/>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" t="s">
+        <v>27</v>
+      </c>
+      <c r="E107" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>262.025968659323</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.21146254241466522</v>
+      </c>
+      <c r="D109" t="n">
+        <v>261.89989924983104</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.21146254241466522</v>
+      </c>
+      <c r="F109" t="n">
         <v>2.0</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.1821426898241043</v>
-      </c>
-      <c r="D98" t="n">
-        <v>261.9081444294253</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.08035407960414886</v>
-      </c>
-      <c r="F98" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="B99" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.08008456230163574</v>
-      </c>
-      <c r="D99" t="n">
-        <v>262.02842904452655</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.15648414194583893</v>
-      </c>
-      <c r="F99" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B100" t="s">
-        <v>30</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D100" t="n">
-        <v>262.025968659323</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.08008456230163574</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="43">
-        <v>31</v>
-      </c>
-      <c r="B101" s="43" t="n">
-        <f>SUM(B78:B100)</f>
-        <v>110.0</v>
-      </c>
-      <c r="E101" s="43" t="n">
-        <f>SUM(E78:E100)</f>
-        <v>2.4440219439566135</v>
-      </c>
-    </row>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105">
-      <c r="A105" t="s" s="43">
-        <v>16</v>
-      </c>
-      <c r="B105" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C105" t="s" s="43">
-        <v>17</v>
-      </c>
-      <c r="D105" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="E105" t="s" s="43">
-        <v>18</v>
-      </c>
-      <c r="F105" t="n">
-        <v>41.057835</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="43">
-        <v>19</v>
-      </c>
-      <c r="B106" t="n" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="C106" t="s" s="43">
-        <v>20</v>
-      </c>
-      <c r="D106" t="n" s="44">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="43">
-        <v>21</v>
-      </c>
-      <c r="B107" t="n" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="C107" t="s" s="43">
-        <v>22</v>
-      </c>
-      <c r="D107" t="n" s="44">
-        <v>340.0</v>
-      </c>
-      <c r="E107" t="s" s="43">
-        <v>23</v>
-      </c>
-      <c r="F107" t="n" s="44">
-        <v>2.0568490028381348</v>
-      </c>
-    </row>
-    <row r="108"/>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>24</v>
-      </c>
-      <c r="B109" t="s">
-        <v>25</v>
-      </c>
-      <c r="C109" t="s">
-        <v>26</v>
-      </c>
-      <c r="D109" t="s">
-        <v>27</v>
-      </c>
-      <c r="E109" t="s">
-        <v>28</v>
-      </c>
-      <c r="F109" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B110" t="s">
-        <v>30</v>
+        <v>36.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.0</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0</v>
+        <v>0.2519305646419525</v>
       </c>
       <c r="D110" t="n">
-        <v>262.025968659323</v>
+        <v>261.86063939372787</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0</v>
+        <v>0.050651125609874725</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="B111" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C111" t="n">
-        <v>0.21146254241466522</v>
+        <v>0.30656468868255615</v>
       </c>
       <c r="D111" t="n">
-        <v>261.89989924983104</v>
+        <v>261.8645538790942</v>
       </c>
       <c r="E111" t="n">
-        <v>0.21146254241466522</v>
+        <v>0.09102213382720947</v>
       </c>
       <c r="F111" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>36.0</v>
+        <v>30.0</v>
       </c>
       <c r="B112" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2519305646419525</v>
+        <v>0.4146687090396881</v>
       </c>
       <c r="D112" t="n">
-        <v>261.86063939372787</v>
+        <v>261.73523225362436</v>
       </c>
       <c r="E112" t="n">
-        <v>0.050651125609874725</v>
+        <v>0.17359162867069244</v>
       </c>
       <c r="F112" t="n">
         <v>6.0</v>
@@ -2167,79 +1986,79 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>34.0</v>
+        <v>18.0</v>
       </c>
       <c r="B113" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C113" t="n">
-        <v>0.30656468868255615</v>
+        <v>0.6671884059906006</v>
       </c>
       <c r="D113" t="n">
-        <v>261.8645538790942</v>
+        <v>261.6266045710891</v>
       </c>
       <c r="E113" t="n">
-        <v>0.09102213382720947</v>
+        <v>0.28400903940200806</v>
       </c>
       <c r="F113" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="B114" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6671884059906006</v>
+        <v>0.6907963752746582</v>
       </c>
       <c r="D114" t="n">
-        <v>261.6266045710891</v>
+        <v>261.55286056275264</v>
       </c>
       <c r="E114" t="n">
-        <v>0.36578795313835144</v>
+        <v>0.13821372389793396</v>
       </c>
       <c r="F114" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="B115" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6110820770263672</v>
+        <v>0.5906972289085388</v>
       </c>
       <c r="D115" t="n">
-        <v>261.6216537846275</v>
+        <v>261.6143715155233</v>
       </c>
       <c r="E115" t="n">
-        <v>0.10569263249635696</v>
+        <v>0.10241585969924927</v>
       </c>
       <c r="F115" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="B116" t="n">
         <v>10.0</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5906972289085388</v>
+        <v>0.5687394738197327</v>
       </c>
       <c r="D116" t="n">
-        <v>261.6143715155233</v>
+        <v>261.62780508586667</v>
       </c>
       <c r="E116" t="n">
-        <v>0.060275640338659286</v>
+        <v>0.02267366833984852</v>
       </c>
       <c r="F116" t="n">
         <v>6.0</v>
@@ -2247,19 +2066,19 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="B117" t="n">
         <v>10.0</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5687394738197327</v>
+        <v>0.5340430736541748</v>
       </c>
       <c r="D117" t="n">
-        <v>261.62780508586667</v>
+        <v>261.6337953543354</v>
       </c>
       <c r="E117" t="n">
-        <v>0.02267366833984852</v>
+        <v>0.07352574914693832</v>
       </c>
       <c r="F117" t="n">
         <v>6.0</v>
@@ -2267,19 +2086,19 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="B118" t="n">
         <v>10.0</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5340430736541748</v>
+        <v>0.5174069404602051</v>
       </c>
       <c r="D118" t="n">
-        <v>261.6337953543354</v>
+        <v>261.64456146410316</v>
       </c>
       <c r="E118" t="n">
-        <v>0.07352574914693832</v>
+        <v>0.017695704475045204</v>
       </c>
       <c r="F118" t="n">
         <v>6.0</v>
@@ -2287,99 +2106,99 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>28.0</v>
+        <v>52.0</v>
       </c>
       <c r="B119" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5174069404602051</v>
+        <v>0.3081746995449066</v>
       </c>
       <c r="D119" t="n">
-        <v>261.64456146410316</v>
+        <v>261.80366879016594</v>
       </c>
       <c r="E119" t="n">
-        <v>0.017695704475045204</v>
+        <v>0.3416629135608673</v>
       </c>
       <c r="F119" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>30.0</v>
+        <v>51.0</v>
       </c>
       <c r="B120" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.4146687090396881</v>
+        <v>0.25637680292129517</v>
       </c>
       <c r="D120" t="n">
-        <v>261.73523225362436</v>
+        <v>261.8504227828364</v>
       </c>
       <c r="E120" t="n">
-        <v>0.11814165860414505</v>
+        <v>0.060748472809791565</v>
       </c>
       <c r="F120" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
       <c r="B121" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.25637680292129517</v>
+        <v>0.27403348684310913</v>
       </c>
       <c r="D121" t="n">
-        <v>261.8504227828364</v>
+        <v>261.84218775469515</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3322611451148987</v>
+        <v>0.020246366038918495</v>
       </c>
       <c r="F121" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>50.0</v>
+        <v>57.0</v>
       </c>
       <c r="B122" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.27403348684310913</v>
+        <v>0.348022997379303</v>
       </c>
       <c r="D122" t="n">
-        <v>261.84218775469515</v>
+        <v>261.832411431518</v>
       </c>
       <c r="E122" t="n">
-        <v>0.020246366038918495</v>
+        <v>0.10573823750019073</v>
       </c>
       <c r="F122" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>57.0</v>
+        <v>49.0</v>
       </c>
       <c r="B123" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="C123" t="n">
-        <v>0.348022997379303</v>
+        <v>0.2578165829181671</v>
       </c>
       <c r="D123" t="n">
-        <v>261.832411431518</v>
+        <v>261.8742012620678</v>
       </c>
       <c r="E123" t="n">
-        <v>0.10573823750019073</v>
+        <v>0.09210985898971558</v>
       </c>
       <c r="F123" t="n">
         <v>6.0</v>
@@ -2387,273 +2206,273 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>58.0</v>
+        <v>39.0</v>
       </c>
       <c r="B124" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.08008456230163574</v>
+      </c>
+      <c r="D124" t="n">
+        <v>262.02842904452655</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.2174287885427475</v>
+      </c>
+      <c r="F124" t="n">
         <v>3.0</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.36283132433891296</v>
-      </c>
-      <c r="D124" t="n">
-        <v>261.84567371889716</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.03989310935139656</v>
-      </c>
-      <c r="F124" t="n">
-        <v>2.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>49.0</v>
+        <v>40.0</v>
       </c>
       <c r="B125" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="C125" t="n">
-        <v>0.2578165829181671</v>
+        <v>0.06450575590133667</v>
       </c>
       <c r="D125" t="n">
-        <v>261.8742012620678</v>
+        <v>262.03744350084025</v>
       </c>
       <c r="E125" t="n">
-        <v>0.11668367683887482</v>
+        <v>0.02079223468899727</v>
       </c>
       <c r="F125" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>44.0</v>
+        <v>6.0</v>
       </c>
       <c r="B126" t="n">
         <v>2.0</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1821426898241043</v>
+        <v>0.04594830423593521</v>
       </c>
       <c r="D126" t="n">
-        <v>261.9081444294253</v>
+        <v>262.0171039955313</v>
       </c>
       <c r="E126" t="n">
-        <v>0.08035407960414886</v>
+        <v>0.03197693079710007</v>
       </c>
       <c r="F126" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>40.0</v>
+        <v>4.0</v>
       </c>
       <c r="B127" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C127" t="n">
-        <v>0.06450575590133667</v>
+        <v>0.01734788529574871</v>
       </c>
       <c r="D127" t="n">
-        <v>262.03744350084025</v>
+        <v>262.0384776220169</v>
       </c>
       <c r="E127" t="n">
-        <v>0.17096766829490662</v>
+        <v>0.04705319181084633</v>
       </c>
       <c r="F127" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B128" t="n">
-        <v>1.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>30</v>
       </c>
       <c r="C128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>262.025968659323</v>
+      </c>
+      <c r="E128" t="n">
         <v>0.01734788529574871</v>
       </c>
-      <c r="D128" t="n">
-        <v>262.0384776220169</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.05642807483673096</v>
-      </c>
       <c r="F128" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B129" t="s">
-        <v>30</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D129" t="n">
-        <v>262.025968659323</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.01734788529574871</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s" s="43">
+      <c r="A129" t="s" s="1">
         <v>31</v>
       </c>
-      <c r="B130" s="43" t="n">
-        <f>SUM(B110:B129)</f>
-        <v>109.0</v>
-      </c>
-      <c r="E130" s="43" t="n">
-        <f>SUM(E110:E129)</f>
-        <v>2.0568490512669086</v>
-      </c>
-    </row>
+      <c r="B129" s="1" t="n">
+        <f>SUM(B108:B128)</f>
+        <v>108.0</v>
+      </c>
+      <c r="E129" s="1" t="n">
+        <f>SUM(E108:E128)</f>
+        <v>2.1203660555183887</v>
+      </c>
+    </row>
+    <row r="130"/>
     <row r="131"/>
     <row r="132"/>
-    <row r="133"/>
+    <row r="133">
+      <c r="A133" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C133" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-80.046878</v>
+      </c>
+      <c r="E133" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="F133" t="n">
+        <v>41.057835</v>
+      </c>
+    </row>
     <row r="134">
-      <c r="A134" t="s" s="43">
-        <v>16</v>
-      </c>
-      <c r="B134" t="n">
+      <c r="A134" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="B134" t="n" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C134" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="D134" t="n" s="2">
         <v>-1.0</v>
       </c>
-      <c r="C134" t="s" s="43">
-        <v>17</v>
-      </c>
-      <c r="D134" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="E134" t="s" s="43">
-        <v>18</v>
-      </c>
-      <c r="F134" t="n">
-        <v>41.057835</v>
-      </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="43">
-        <v>19</v>
-      </c>
-      <c r="B135" t="n" s="43">
-        <v>4.0</v>
-      </c>
-      <c r="C135" t="s" s="43">
-        <v>20</v>
-      </c>
-      <c r="D135" t="n" s="44">
+      <c r="A135" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B135" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C135" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="D135" t="n" s="2">
+        <v>339.0</v>
+      </c>
+      <c r="E135" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="F135" t="n" s="2">
+        <v>2.39312481880188</v>
+      </c>
+    </row>
+    <row r="136"/>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>24</v>
+      </c>
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" t="s">
+        <v>27</v>
+      </c>
+      <c r="E137" t="s">
+        <v>28</v>
+      </c>
+      <c r="F137" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
         <v>-1.0</v>
       </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s" s="43">
-        <v>21</v>
-      </c>
-      <c r="B136" t="n" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="C136" t="s" s="43">
-        <v>22</v>
-      </c>
-      <c r="D136" t="n" s="44">
-        <v>345.0</v>
-      </c>
-      <c r="E136" t="s" s="43">
-        <v>23</v>
-      </c>
-      <c r="F136" t="n" s="44">
-        <v>2.2568979263305664</v>
-      </c>
-    </row>
-    <row r="137"/>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>24</v>
-      </c>
       <c r="B138" t="s">
-        <v>25</v>
-      </c>
-      <c r="C138" t="s">
-        <v>26</v>
-      </c>
-      <c r="D138" t="s">
-        <v>27</v>
-      </c>
-      <c r="E138" t="s">
-        <v>28</v>
-      </c>
-      <c r="F138" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>262.025968659323</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B139" t="s">
-        <v>30</v>
+        <v>37.0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4.0</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0</v>
+        <v>0.2426886260509491</v>
       </c>
       <c r="D139" t="n">
-        <v>262.025968659323</v>
+        <v>261.8399552608657</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0</v>
+        <v>0.2426886260509491</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="B140" t="n">
         <v>1.0</v>
       </c>
       <c r="C140" t="n">
-        <v>0.2519305646419525</v>
+        <v>0.3026241064071655</v>
       </c>
       <c r="D140" t="n">
-        <v>261.86063939372787</v>
+        <v>261.79625441958456</v>
       </c>
       <c r="E140" t="n">
-        <v>0.2519305646419525</v>
+        <v>0.06169239059090614</v>
       </c>
       <c r="F140" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="B141" t="n">
         <v>1.0</v>
       </c>
       <c r="C141" t="n">
-        <v>0.30656468868255615</v>
+        <v>0.2519305646419525</v>
       </c>
       <c r="D141" t="n">
-        <v>261.8645538790942</v>
+        <v>261.86063939372787</v>
       </c>
       <c r="E141" t="n">
-        <v>0.09102213382720947</v>
+        <v>0.11030811071395874</v>
       </c>
       <c r="F141" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="142">
@@ -2670,7 +2489,7 @@
         <v>261.8092385280714</v>
       </c>
       <c r="E142" t="n">
-        <v>0.07183761149644852</v>
+        <v>0.10585863888263702</v>
       </c>
       <c r="F142" t="n">
         <v>4.0</v>
@@ -2678,99 +2497,99 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>33.0</v>
+        <v>30.0</v>
       </c>
       <c r="B143" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C143" t="n">
-        <v>0.40265974402427673</v>
+        <v>0.4146687090396881</v>
       </c>
       <c r="D143" t="n">
-        <v>261.8530329755303</v>
+        <v>261.73523225362436</v>
       </c>
       <c r="E143" t="n">
-        <v>0.13133284449577332</v>
+        <v>0.10338285565376282</v>
       </c>
       <c r="F143" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>18.0</v>
+        <v>33.0</v>
       </c>
       <c r="B144" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="C144" t="n">
-        <v>0.6671884059906006</v>
+        <v>0.40265974402427673</v>
       </c>
       <c r="D144" t="n">
-        <v>261.6266045710891</v>
+        <v>261.8530329755303</v>
       </c>
       <c r="E144" t="n">
-        <v>0.3052617013454437</v>
+        <v>0.21939337253570557</v>
       </c>
       <c r="F144" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
       <c r="B145" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="C145" t="n">
-        <v>0.6907963752746582</v>
+        <v>0.6671884059906006</v>
       </c>
       <c r="D145" t="n">
-        <v>261.55286056275264</v>
+        <v>261.6266045710891</v>
       </c>
       <c r="E145" t="n">
-        <v>0.13821372389793396</v>
+        <v>0.3052617013454437</v>
       </c>
       <c r="F145" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="B146" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="C146" t="n">
-        <v>0.5906972289085388</v>
+        <v>0.6110820770263672</v>
       </c>
       <c r="D146" t="n">
-        <v>261.6143715155233</v>
+        <v>261.6216537846275</v>
       </c>
       <c r="E146" t="n">
-        <v>0.10241585969924927</v>
+        <v>0.10569263249635696</v>
       </c>
       <c r="F146" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="B147" t="n">
         <v>10.0</v>
       </c>
       <c r="C147" t="n">
-        <v>0.5687394738197327</v>
+        <v>0.5906972289085388</v>
       </c>
       <c r="D147" t="n">
-        <v>261.62780508586667</v>
+        <v>261.6143715155233</v>
       </c>
       <c r="E147" t="n">
-        <v>0.02267366833984852</v>
+        <v>0.060275640338659286</v>
       </c>
       <c r="F147" t="n">
         <v>6.0</v>
@@ -2778,19 +2597,19 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
       <c r="B148" t="n">
         <v>10.0</v>
       </c>
       <c r="C148" t="n">
-        <v>0.5340430736541748</v>
+        <v>0.5687394738197327</v>
       </c>
       <c r="D148" t="n">
-        <v>261.6337953543354</v>
+        <v>261.62780508586667</v>
       </c>
       <c r="E148" t="n">
-        <v>0.07352574914693832</v>
+        <v>0.02267366833984852</v>
       </c>
       <c r="F148" t="n">
         <v>6.0</v>
@@ -2798,19 +2617,19 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="B149" t="n">
         <v>10.0</v>
       </c>
       <c r="C149" t="n">
-        <v>0.5174069404602051</v>
+        <v>0.5340430736541748</v>
       </c>
       <c r="D149" t="n">
-        <v>261.64456146410316</v>
+        <v>261.6337953543354</v>
       </c>
       <c r="E149" t="n">
-        <v>0.017695704475045204</v>
+        <v>0.07352574914693832</v>
       </c>
       <c r="F149" t="n">
         <v>6.0</v>
@@ -2818,19 +2637,19 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="B150" t="n">
         <v>10.0</v>
       </c>
       <c r="C150" t="n">
-        <v>0.4146687090396881</v>
+        <v>0.5174069404602051</v>
       </c>
       <c r="D150" t="n">
-        <v>261.73523225362436</v>
+        <v>261.64456146410316</v>
       </c>
       <c r="E150" t="n">
-        <v>0.11814165860414505</v>
+        <v>0.017695704475045204</v>
       </c>
       <c r="F150" t="n">
         <v>6.0</v>
@@ -2838,82 +2657,82 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>38.0</v>
+        <v>56.0</v>
       </c>
       <c r="B151" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C151" t="n">
-        <v>0.3026241064071655</v>
+        <v>0.3377383351325989</v>
       </c>
       <c r="D151" t="n">
-        <v>261.79625441958456</v>
+        <v>261.80355109326473</v>
       </c>
       <c r="E151" t="n">
-        <v>0.1397099643945694</v>
+        <v>0.39572766423225403</v>
       </c>
       <c r="F151" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>37.0</v>
+        <v>57.0</v>
       </c>
       <c r="B152" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2426886260509491</v>
+        <v>0.348022997379303</v>
       </c>
       <c r="D152" t="n">
-        <v>261.8399552608657</v>
+        <v>261.832411431518</v>
       </c>
       <c r="E152" t="n">
-        <v>0.06169239059090614</v>
+        <v>0.07424956560134888</v>
       </c>
       <c r="F152" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>50.0</v>
+        <v>58.0</v>
       </c>
       <c r="B153" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="C153" t="n">
-        <v>0.27403348684310913</v>
+        <v>0.36283132433891296</v>
       </c>
       <c r="D153" t="n">
-        <v>261.84218775469515</v>
+        <v>261.84567371889716</v>
       </c>
       <c r="E153" t="n">
-        <v>0.17395208775997162</v>
+        <v>0.03989310935139656</v>
       </c>
       <c r="F153" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
       <c r="B154" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="C154" t="n">
-        <v>0.348022997379303</v>
+        <v>0.27403348684310913</v>
       </c>
       <c r="D154" t="n">
-        <v>261.832411431518</v>
+        <v>261.84218775469515</v>
       </c>
       <c r="E154" t="n">
-        <v>0.10573823750019073</v>
+        <v>0.14109468460083008</v>
       </c>
       <c r="F154" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="155">
@@ -2930,7 +2749,7 @@
         <v>261.8742012620678</v>
       </c>
       <c r="E155" t="n">
-        <v>0.09210985898971558</v>
+        <v>0.051213979721069336</v>
       </c>
       <c r="F155" t="n">
         <v>6.0</v>
@@ -2958,230 +2777,230 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="B157" t="n">
-        <v>4.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>30</v>
       </c>
       <c r="C157" t="n">
-        <v>0.1875043511390686</v>
+        <v>0.0</v>
       </c>
       <c r="D157" t="n">
-        <v>261.9345977905843</v>
+        <v>262.025968659323</v>
       </c>
       <c r="E157" t="n">
-        <v>0.056826360523700714</v>
+        <v>0.1821426898241043</v>
       </c>
       <c r="F157" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <f>SUM(B138:B157)</f>
+        <v>108.0</v>
+      </c>
+      <c r="E158" s="1" t="n">
+        <f>SUM(E138:E157)</f>
+        <v>2.3931248635053635</v>
+      </c>
+    </row>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162">
+      <c r="A162" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C162" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-80.046878</v>
+      </c>
+      <c r="E162" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="F162" t="n">
+        <v>41.057835</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="B163" t="n" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C163" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="D163" t="n" s="2">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="B164" t="n" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="C164" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="D164" t="n" s="2">
+        <v>343.0</v>
+      </c>
+      <c r="E164" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="F164" t="n" s="2">
+        <v>2.2738900184631348</v>
+      </c>
+    </row>
+    <row r="165"/>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>24</v>
+      </c>
+      <c r="B166" t="s">
+        <v>25</v>
+      </c>
+      <c r="C166" t="s">
+        <v>26</v>
+      </c>
+      <c r="D166" t="s">
+        <v>27</v>
+      </c>
+      <c r="E166" t="s">
+        <v>28</v>
+      </c>
+      <c r="F166" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>30</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>262.025968659323</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B168" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.21146254241466522</v>
+      </c>
+      <c r="D168" t="n">
+        <v>261.89989924983104</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.21146254241466522</v>
+      </c>
+      <c r="F168" t="n">
         <v>2.0</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="B158" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C158" t="n">
-        <v>0.06450575590133667</v>
-      </c>
-      <c r="D158" t="n">
-        <v>262.03744350084025</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0.15651081502437592</v>
-      </c>
-      <c r="F158" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B159" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0.037232376635074615</v>
-      </c>
-      <c r="D159" t="n">
-        <v>262.0273419598029</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0.028720205649733543</v>
-      </c>
-      <c r="F159" t="n">
+    <row r="169">
+      <c r="A169" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B169" t="n">
         <v>1.0</v>
       </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B160" t="s">
-        <v>30</v>
-      </c>
-      <c r="C160" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D160" t="n">
-        <v>262.025968659323</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0.037232376635074615</v>
-      </c>
-      <c r="F160" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s" s="43">
-        <v>31</v>
-      </c>
-      <c r="B161" s="43" t="n">
-        <f>SUM(B139:B160)</f>
-        <v>109.0</v>
-      </c>
-      <c r="E161" s="43" t="n">
-        <f>SUM(E139:E160)</f>
-        <v>2.256897596642375</v>
-      </c>
-    </row>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165">
-      <c r="A165" t="s" s="43">
-        <v>16</v>
-      </c>
-      <c r="B165" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C165" t="s" s="43">
-        <v>17</v>
-      </c>
-      <c r="D165" t="n">
-        <v>-80.046878</v>
-      </c>
-      <c r="E165" t="s" s="43">
-        <v>18</v>
-      </c>
-      <c r="F165" t="n">
-        <v>41.057835</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s" s="43">
-        <v>19</v>
-      </c>
-      <c r="B166" t="n" s="43">
-        <v>5.0</v>
-      </c>
-      <c r="C166" t="s" s="43">
-        <v>20</v>
-      </c>
-      <c r="D166" t="n" s="44">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s" s="43">
-        <v>21</v>
-      </c>
-      <c r="B167" t="n" s="44">
-        <v>0.0</v>
-      </c>
-      <c r="C167" t="s" s="43">
-        <v>22</v>
-      </c>
-      <c r="D167" t="n" s="44">
-        <v>335.0</v>
-      </c>
-      <c r="E167" t="s" s="43">
-        <v>23</v>
-      </c>
-      <c r="F167" t="n" s="44">
-        <v>1.9003232717514038</v>
-      </c>
-    </row>
-    <row r="168"/>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>24</v>
-      </c>
-      <c r="B169" t="s">
-        <v>25</v>
-      </c>
-      <c r="C169" t="s">
-        <v>26</v>
-      </c>
-      <c r="D169" t="s">
-        <v>27</v>
-      </c>
-      <c r="E169" t="s">
-        <v>28</v>
-      </c>
-      <c r="F169" t="s">
-        <v>29</v>
+      <c r="C169" t="n">
+        <v>0.2519305646419525</v>
+      </c>
+      <c r="D169" t="n">
+        <v>261.86063939372787</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.050651125609874725</v>
+      </c>
+      <c r="F169" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="B170" t="s">
-        <v>30</v>
+        <v>34.0</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1.0</v>
       </c>
       <c r="C170" t="n">
-        <v>0.0</v>
+        <v>0.30656468868255615</v>
       </c>
       <c r="D170" t="n">
-        <v>262.025968659323</v>
+        <v>261.8645538790942</v>
       </c>
       <c r="E170" t="n">
-        <v>0.0</v>
+        <v>0.09102213382720947</v>
       </c>
       <c r="F170" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="B171" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C171" t="n">
-        <v>0.21146254241466522</v>
+        <v>0.40265974402427673</v>
       </c>
       <c r="D171" t="n">
-        <v>261.89989924983104</v>
+        <v>261.8530329755303</v>
       </c>
       <c r="E171" t="n">
-        <v>0.21146254241466522</v>
+        <v>0.11120473593473434</v>
       </c>
       <c r="F171" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>36.0</v>
+        <v>30.0</v>
       </c>
       <c r="B172" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C172" t="n">
-        <v>0.2519305646419525</v>
+        <v>0.4146687090396881</v>
       </c>
       <c r="D172" t="n">
-        <v>261.86063939372787</v>
+        <v>261.73523225362436</v>
       </c>
       <c r="E172" t="n">
-        <v>0.050651125609874725</v>
+        <v>0.21939337253570557</v>
       </c>
       <c r="F172" t="n">
         <v>6.0</v>
@@ -3189,19 +3008,19 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>30.0</v>
+        <v>18.0</v>
       </c>
       <c r="B173" t="n">
         <v>10.0</v>
       </c>
       <c r="C173" t="n">
-        <v>0.4146687090396881</v>
+        <v>0.6671884059906006</v>
       </c>
       <c r="D173" t="n">
-        <v>261.73523225362436</v>
+        <v>261.6266045710891</v>
       </c>
       <c r="E173" t="n">
-        <v>0.16733312606811523</v>
+        <v>0.28400903940200806</v>
       </c>
       <c r="F173" t="n">
         <v>6.0</v>
@@ -3209,59 +3028,59 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="B174" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C174" t="n">
-        <v>0.6671884059906006</v>
+        <v>0.6907963752746582</v>
       </c>
       <c r="D174" t="n">
-        <v>261.6266045710891</v>
+        <v>261.55286056275264</v>
       </c>
       <c r="E174" t="n">
-        <v>0.28400903940200806</v>
+        <v>0.13821372389793396</v>
       </c>
       <c r="F174" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="B175" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="C175" t="n">
-        <v>0.6110820770263672</v>
+        <v>0.5906972289085388</v>
       </c>
       <c r="D175" t="n">
-        <v>261.6216537846275</v>
+        <v>261.6143715155233</v>
       </c>
       <c r="E175" t="n">
-        <v>0.10569263249635696</v>
+        <v>0.10241585969924927</v>
       </c>
       <c r="F175" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="B176" t="n">
         <v>10.0</v>
       </c>
       <c r="C176" t="n">
-        <v>0.5906972289085388</v>
+        <v>0.5687394738197327</v>
       </c>
       <c r="D176" t="n">
-        <v>261.6143715155233</v>
+        <v>261.62780508586667</v>
       </c>
       <c r="E176" t="n">
-        <v>0.060275640338659286</v>
+        <v>0.02267366833984852</v>
       </c>
       <c r="F176" t="n">
         <v>6.0</v>
@@ -3269,19 +3088,19 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="B177" t="n">
         <v>10.0</v>
       </c>
       <c r="C177" t="n">
-        <v>0.5687394738197327</v>
+        <v>0.5340430736541748</v>
       </c>
       <c r="D177" t="n">
-        <v>261.62780508586667</v>
+        <v>261.6337953543354</v>
       </c>
       <c r="E177" t="n">
-        <v>0.02267366833984852</v>
+        <v>0.07352574914693832</v>
       </c>
       <c r="F177" t="n">
         <v>6.0</v>
@@ -3289,19 +3108,19 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="B178" t="n">
         <v>10.0</v>
       </c>
       <c r="C178" t="n">
-        <v>0.5340430736541748</v>
+        <v>0.5174069404602051</v>
       </c>
       <c r="D178" t="n">
-        <v>261.6337953543354</v>
+        <v>261.64456146410316</v>
       </c>
       <c r="E178" t="n">
-        <v>0.07352574914693832</v>
+        <v>0.017695704475045204</v>
       </c>
       <c r="F178" t="n">
         <v>6.0</v>
@@ -3309,39 +3128,39 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>28.0</v>
+        <v>53.0</v>
       </c>
       <c r="B179" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="C179" t="n">
-        <v>0.5174069404602051</v>
+        <v>0.3118557035923004</v>
       </c>
       <c r="D179" t="n">
-        <v>261.64456146410316</v>
+        <v>261.7925079122199</v>
       </c>
       <c r="E179" t="n">
-        <v>0.017695704475045204</v>
+        <v>0.30763816833496094</v>
       </c>
       <c r="F179" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>53.0</v>
+        <v>52.0</v>
       </c>
       <c r="B180" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C180" t="n">
-        <v>0.3118557035923004</v>
+        <v>0.3081746995449066</v>
       </c>
       <c r="D180" t="n">
-        <v>261.7925079122199</v>
+        <v>261.80366879016594</v>
       </c>
       <c r="E180" t="n">
-        <v>0.30763816833496094</v>
+        <v>0.03496183082461357</v>
       </c>
       <c r="F180" t="n">
         <v>2.0</v>
@@ -3349,59 +3168,59 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="B181" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="C181" t="n">
-        <v>0.27403348684310913</v>
+        <v>0.25637680292129517</v>
       </c>
       <c r="D181" t="n">
-        <v>261.84218775469515</v>
+        <v>261.8504227828364</v>
       </c>
       <c r="E181" t="n">
-        <v>0.08537149429321289</v>
+        <v>0.060748472809791565</v>
       </c>
       <c r="F181" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>57.0</v>
+        <v>50.0</v>
       </c>
       <c r="B182" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="C182" t="n">
-        <v>0.348022997379303</v>
+        <v>0.27403348684310913</v>
       </c>
       <c r="D182" t="n">
-        <v>261.832411431518</v>
+        <v>261.84218775469515</v>
       </c>
       <c r="E182" t="n">
-        <v>0.10573823750019073</v>
+        <v>0.020246366038918495</v>
       </c>
       <c r="F182" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>49.0</v>
+        <v>57.0</v>
       </c>
       <c r="B183" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C183" t="n">
-        <v>0.2578165829181671</v>
+        <v>0.348022997379303</v>
       </c>
       <c r="D183" t="n">
-        <v>261.8742012620678</v>
+        <v>261.832411431518</v>
       </c>
       <c r="E183" t="n">
-        <v>0.09210985898971558</v>
+        <v>0.10573823750019073</v>
       </c>
       <c r="F183" t="n">
         <v>6.0</v>
@@ -3409,62 +3228,62 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>39.0</v>
+        <v>49.0</v>
       </c>
       <c r="B184" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="C184" t="n">
-        <v>0.08008456230163574</v>
+        <v>0.2578165829181671</v>
       </c>
       <c r="D184" t="n">
-        <v>262.02842904452655</v>
+        <v>261.8742012620678</v>
       </c>
       <c r="E184" t="n">
-        <v>0.2174287885427475</v>
+        <v>0.09210985898971558</v>
       </c>
       <c r="F184" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>40.0</v>
+        <v>7.0</v>
       </c>
       <c r="B185" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C185" t="n">
-        <v>0.06450575590133667</v>
+        <v>0.046615663915872574</v>
       </c>
       <c r="D185" t="n">
-        <v>262.03744350084025</v>
+        <v>262.001731797022</v>
       </c>
       <c r="E185" t="n">
-        <v>0.02079223468899727</v>
+        <v>0.2116599977016449</v>
       </c>
       <c r="F185" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>6.0</v>
+        <v>40.0</v>
       </c>
       <c r="B186" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C186" t="n">
-        <v>0.04594830423593521</v>
+        <v>0.06450575590133667</v>
       </c>
       <c r="D186" t="n">
-        <v>262.0171039955313</v>
+        <v>262.03744350084025</v>
       </c>
       <c r="E186" t="n">
-        <v>0.03197693079710007</v>
+        <v>0.05401346832513809</v>
       </c>
       <c r="F186" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="187">
@@ -3481,23 +3300,23 @@
         <v>262.025968659323</v>
       </c>
       <c r="E187" t="n">
-        <v>0.04594830423593521</v>
+        <v>0.06450575590133667</v>
       </c>
       <c r="F187" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="43">
+      <c r="A188" t="s" s="1">
         <v>31</v>
       </c>
-      <c r="B188" s="43" t="n">
-        <f>SUM(B170:B187)</f>
-        <v>109.0</v>
-      </c>
-      <c r="E188" s="43" t="n">
-        <f>SUM(E170:E187)</f>
-        <v>1.9003232456743717</v>
+      <c r="B188" s="1" t="n">
+        <f>SUM(B167:B187)</f>
+        <v>108.0</v>
+      </c>
+      <c r="E188" s="1" t="n">
+        <f>SUM(E167:E187)</f>
+        <v>2.273889811709523</v>
       </c>
     </row>
   </sheetData>
